--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>85.9%</t>
+          <t>85.2%</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>79.0%</t>
         </is>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>78.9%</t>
+          <t>68.4%</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="M18" s="4" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N18" s="4" t="n">
         <v>22</v>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>95.0%</t>
+          <t>92.9%</t>
         </is>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>98.3%</t>
+          <t>97.4%</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>90.9%</t>
+          <t>91.7%</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="S23" s="4" t="inlineStr">
         <is>
-          <t>90.0%</t>
+          <t>88.3%</t>
         </is>
       </c>
     </row>
@@ -1983,12 +1983,12 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>16/31</t>
+          <t>20/31</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="S24" s="4" t="inlineStr">
         <is>
-          <t>73.1%</t>
+          <t>74.1%</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>15/31</t>
+          <t>16/31</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>81.0%</t>
+          <t>80.2%</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="S26" s="4" t="inlineStr">
         <is>
-          <t>71.7%</t>
+          <t>73.3%</t>
         </is>
       </c>
     </row>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -3115,12 +3115,12 @@
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>11/19</t>
+          <t>7/19</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>11/19</t>
+          <t>7/19</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -4077,12 +4077,12 @@
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>10/10</t>
+          <t>18/21</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>8/10</t>
+          <t>18/21</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>10/10</t>
+          <t>21/21</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
@@ -4219,7 +4219,7 @@
       <c r="G71" s="5" t="inlineStr"/>
       <c r="H71" s="5" t="inlineStr">
         <is>
-          <t>0/10</t>
+          <t>0/21</t>
         </is>
       </c>
       <c r="I71" s="5" t="inlineStr">
@@ -4262,7 +4262,7 @@
       <c r="G72" s="5" t="inlineStr"/>
       <c r="H72" s="5" t="inlineStr">
         <is>
-          <t>0/10</t>
+          <t>0/21</t>
         </is>
       </c>
       <c r="I72" s="5" t="inlineStr">
@@ -4305,7 +4305,7 @@
       <c r="G73" s="5" t="inlineStr"/>
       <c r="H73" s="5" t="inlineStr">
         <is>
-          <t>0/10</t>
+          <t>0/21</t>
         </is>
       </c>
       <c r="I73" s="5" t="inlineStr">
@@ -4348,7 +4348,7 @@
       <c r="G74" s="5" t="inlineStr"/>
       <c r="H74" s="5" t="inlineStr">
         <is>
-          <t>0/10</t>
+          <t>0/21</t>
         </is>
       </c>
       <c r="I74" s="5" t="inlineStr">
@@ -4391,7 +4391,7 @@
       <c r="G75" s="5" t="inlineStr"/>
       <c r="H75" s="5" t="inlineStr">
         <is>
-          <t>0/10</t>
+          <t>0/21</t>
         </is>
       </c>
       <c r="I75" s="5" t="inlineStr">
@@ -4434,7 +4434,7 @@
       <c r="G76" s="5" t="inlineStr"/>
       <c r="H76" s="5" t="inlineStr">
         <is>
-          <t>0/10</t>
+          <t>0/21</t>
         </is>
       </c>
       <c r="I76" s="5" t="inlineStr">
@@ -4477,7 +4477,7 @@
       <c r="G77" s="5" t="inlineStr"/>
       <c r="H77" s="5" t="inlineStr">
         <is>
-          <t>0/10</t>
+          <t>0/21</t>
         </is>
       </c>
       <c r="I77" s="5" t="inlineStr">
@@ -4520,7 +4520,7 @@
       <c r="G78" s="5" t="inlineStr"/>
       <c r="H78" s="5" t="inlineStr">
         <is>
-          <t>0/10</t>
+          <t>0/21</t>
         </is>
       </c>
       <c r="I78" s="5" t="inlineStr">
@@ -4563,7 +4563,7 @@
       <c r="G79" s="5" t="inlineStr"/>
       <c r="H79" s="5" t="inlineStr">
         <is>
-          <t>0/10</t>
+          <t>0/21</t>
         </is>
       </c>
       <c r="I79" s="5" t="inlineStr">
@@ -4606,7 +4606,7 @@
       <c r="G80" s="5" t="inlineStr"/>
       <c r="H80" s="5" t="inlineStr">
         <is>
-          <t>0/10</t>
+          <t>0/21</t>
         </is>
       </c>
       <c r="I80" s="5" t="inlineStr">
@@ -4649,7 +4649,7 @@
       <c r="G81" s="5" t="inlineStr"/>
       <c r="H81" s="5" t="inlineStr">
         <is>
-          <t>0/10</t>
+          <t>0/21</t>
         </is>
       </c>
       <c r="I81" s="5" t="inlineStr">
@@ -4692,7 +4692,7 @@
       <c r="G82" s="5" t="inlineStr"/>
       <c r="H82" s="5" t="inlineStr">
         <is>
-          <t>0/10</t>
+          <t>0/21</t>
         </is>
       </c>
       <c r="I82" s="5" t="inlineStr">
@@ -4734,12 +4734,12 @@
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>10/10</t>
+          <t>21/21</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
@@ -4782,7 +4782,7 @@
       <c r="G84" s="6" t="inlineStr"/>
       <c r="H84" s="6" t="inlineStr">
         <is>
-          <t>0/10</t>
+          <t>0/21</t>
         </is>
       </c>
       <c r="I84" s="6" t="inlineStr">
@@ -4825,7 +4825,7 @@
       <c r="G85" s="5" t="inlineStr"/>
       <c r="H85" s="5" t="inlineStr">
         <is>
-          <t>0/10</t>
+          <t>0/21</t>
         </is>
       </c>
       <c r="I85" s="5" t="inlineStr">
@@ -4868,7 +4868,7 @@
       <c r="G86" s="5" t="inlineStr"/>
       <c r="H86" s="5" t="inlineStr">
         <is>
-          <t>0/10</t>
+          <t>0/21</t>
         </is>
       </c>
       <c r="I86" s="5" t="inlineStr">
@@ -4911,7 +4911,7 @@
       <c r="G87" s="5" t="inlineStr"/>
       <c r="H87" s="5" t="inlineStr">
         <is>
-          <t>0/10</t>
+          <t>0/21</t>
         </is>
       </c>
       <c r="I87" s="5" t="inlineStr">
@@ -4954,7 +4954,7 @@
       <c r="G88" s="5" t="inlineStr"/>
       <c r="H88" s="5" t="inlineStr">
         <is>
-          <t>0/10</t>
+          <t>0/21</t>
         </is>
       </c>
       <c r="I88" s="5" t="inlineStr">
@@ -4997,7 +4997,7 @@
       <c r="G89" s="5" t="inlineStr"/>
       <c r="H89" s="5" t="inlineStr">
         <is>
-          <t>0/10</t>
+          <t>0/21</t>
         </is>
       </c>
       <c r="I89" s="5" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -6001,7 +6001,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="H135" s="2" t="inlineStr">
         <is>
-          <t>27/29</t>
+          <t>26/29</t>
         </is>
       </c>
       <c r="I135" s="2" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -7925,12 +7925,12 @@
       </c>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>31/33</t>
+          <t>32/33</t>
         </is>
       </c>
       <c r="I156" s="2" t="inlineStr">
@@ -8582,7 +8582,7 @@
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -8887,12 +8887,12 @@
       </c>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr">
         <is>
-          <t>26/30</t>
+          <t>24/30</t>
         </is>
       </c>
       <c r="I178" s="2" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="G193" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H193" s="2" t="inlineStr">
@@ -9849,12 +9849,12 @@
       </c>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
         <is>
-          <t>13/27</t>
+          <t>14/27</t>
         </is>
       </c>
       <c r="I200" s="2" t="inlineStr">
@@ -10506,7 +10506,7 @@
       </c>
       <c r="G215" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H215" s="2" t="inlineStr">
@@ -10811,12 +10811,12 @@
       </c>
       <c r="G222" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H222" s="2" t="inlineStr">
         <is>
-          <t>21/29</t>
+          <t>20/29</t>
         </is>
       </c>
       <c r="I222" s="2" t="inlineStr">
@@ -11468,7 +11468,7 @@
       </c>
       <c r="G237" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H237" s="2" t="inlineStr">
@@ -11758,7 +11758,7 @@
       </c>
       <c r="D244" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E244" s="2" t="inlineStr">
@@ -11773,12 +11773,12 @@
       </c>
       <c r="G244" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H244" s="2" t="inlineStr">
         <is>
-          <t>14/30</t>
+          <t>15/30</t>
         </is>
       </c>
       <c r="I244" s="2" t="inlineStr">
@@ -11805,7 +11805,7 @@
       </c>
       <c r="D245" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E245" s="2" t="inlineStr">
@@ -11825,7 +11825,7 @@
       </c>
       <c r="H245" s="2" t="inlineStr">
         <is>
-          <t>12/30</t>
+          <t>13/30</t>
         </is>
       </c>
       <c r="I245" s="2" t="inlineStr">
@@ -11852,7 +11852,7 @@
       </c>
       <c r="D246" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E246" s="2" t="inlineStr">
@@ -11899,7 +11899,7 @@
       </c>
       <c r="D247" s="5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E247" s="5" t="inlineStr">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="D248" s="5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E248" s="5" t="inlineStr">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="D249" s="5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E249" s="5" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="D250" s="5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E250" s="5" t="inlineStr">
@@ -12071,7 +12071,7 @@
       </c>
       <c r="D251" s="5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E251" s="5" t="inlineStr">
@@ -12114,7 +12114,7 @@
       </c>
       <c r="D252" s="5" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E252" s="5" t="inlineStr">
@@ -12157,7 +12157,7 @@
       </c>
       <c r="D253" s="5" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E253" s="5" t="inlineStr">
@@ -12200,7 +12200,7 @@
       </c>
       <c r="D254" s="5" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E254" s="5" t="inlineStr">
@@ -12243,7 +12243,7 @@
       </c>
       <c r="D255" s="5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E255" s="5" t="inlineStr">
@@ -12286,7 +12286,7 @@
       </c>
       <c r="D256" s="5" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E256" s="5" t="inlineStr">
@@ -12329,7 +12329,7 @@
       </c>
       <c r="D257" s="5" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E257" s="5" t="inlineStr">
@@ -12372,7 +12372,7 @@
       </c>
       <c r="D258" s="5" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E258" s="5" t="inlineStr">
@@ -12415,7 +12415,7 @@
       </c>
       <c r="D259" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E259" s="2" t="inlineStr">
@@ -12430,7 +12430,7 @@
       </c>
       <c r="G259" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H259" s="2" t="inlineStr">
@@ -12462,7 +12462,7 @@
       </c>
       <c r="D260" s="6" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E260" s="6" t="inlineStr">
@@ -12505,7 +12505,7 @@
       </c>
       <c r="D261" s="5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E261" s="5" t="inlineStr">
@@ -12548,7 +12548,7 @@
       </c>
       <c r="D262" s="5" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E262" s="5" t="inlineStr">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="D263" s="5" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E263" s="5" t="inlineStr">
@@ -12634,7 +12634,7 @@
       </c>
       <c r="D264" s="5" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E264" s="5" t="inlineStr">
@@ -12677,7 +12677,7 @@
       </c>
       <c r="D265" s="5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E265" s="5" t="inlineStr">

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -6001,7 +6001,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6048,7 +6048,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
@@ -7010,7 +7010,7 @@
       </c>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -7925,7 +7925,7 @@
       </c>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
@@ -8582,7 +8582,7 @@
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr">
@@ -8934,7 +8934,7 @@
       </c>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr">
@@ -8981,7 +8981,7 @@
       </c>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="G193" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H193" s="2" t="inlineStr">
@@ -9849,7 +9849,7 @@
       </c>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
@@ -9896,7 +9896,7 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="G202" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H202" s="2" t="inlineStr">
@@ -10506,7 +10506,7 @@
       </c>
       <c r="G215" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H215" s="2" t="inlineStr">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="G222" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H222" s="2" t="inlineStr">
@@ -10858,7 +10858,7 @@
       </c>
       <c r="G223" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H223" s="2" t="inlineStr">
@@ -10905,7 +10905,7 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
@@ -11468,7 +11468,7 @@
       </c>
       <c r="G237" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H237" s="2" t="inlineStr">
@@ -11773,7 +11773,7 @@
       </c>
       <c r="G244" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H244" s="2" t="inlineStr">
@@ -11820,7 +11820,7 @@
       </c>
       <c r="G245" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H245" s="2" t="inlineStr">
@@ -11867,7 +11867,7 @@
       </c>
       <c r="G246" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H246" s="2" t="inlineStr">
@@ -12430,7 +12430,7 @@
       </c>
       <c r="G259" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H259" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>15.9%</t>
+          <t>20.5%</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>81.3%</t>
+          <t>85.5%</t>
         </is>
       </c>
     </row>
@@ -1307,22 +1307,22 @@
         <v>22</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>16</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
-          <t>18.2%</t>
+          <t>22.7%</t>
         </is>
       </c>
       <c r="S15" s="4" t="inlineStr">
         <is>
-          <t>82.4%</t>
+          <t>85.9%</t>
         </is>
       </c>
     </row>
@@ -1385,65 +1385,69 @@
         <v>22</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>17</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
-          <t>13.6%</t>
+          <t>18.2%</t>
         </is>
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>72.0%</t>
+          <t>79.0%</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C17" s="6" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D17" s="6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E17" s="6" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>06/12/2025</t>
         </is>
       </c>
-      <c r="F17" s="6" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G17" s="6" t="inlineStr"/>
-      <c r="H17" s="6" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I17" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>27/27</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
       <c r="K17" s="4" t="inlineStr">
@@ -1463,22 +1467,22 @@
         <v>22</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>17</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>13.6%</t>
+          <t>18.2%</t>
         </is>
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>57.9%</t>
+          <t>68.4%</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1504,7 @@
       </c>
       <c r="D18" s="6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E18" s="6" t="inlineStr">
@@ -1541,22 +1545,22 @@
         <v>22</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>17</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
-          <t>13.6%</t>
+          <t>18.2%</t>
         </is>
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>90.5%</t>
+          <t>92.9%</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1582,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
@@ -1619,22 +1623,22 @@
         <v>22</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>16</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
-          <t>18.2%</t>
+          <t>22.7%</t>
         </is>
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>96.0%</t>
+          <t>96.8%</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1660,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
@@ -1697,22 +1701,22 @@
         <v>22</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>16</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
-          <t>18.2%</t>
+          <t>22.7%</t>
         </is>
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>92.9%</t>
+          <t>94.3%</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1738,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
@@ -1775,22 +1779,22 @@
         <v>22</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>16</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
-          <t>18.2%</t>
+          <t>22.7%</t>
         </is>
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>92.2%</t>
+          <t>93.8%</t>
         </is>
       </c>
     </row>
@@ -1812,7 +1816,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
@@ -1853,22 +1857,22 @@
         <v>22</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>16</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
-          <t>18.2%</t>
+          <t>22.7%</t>
         </is>
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>89.4%</t>
+          <t>91.5%</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1894,7 @@
       </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
@@ -1931,22 +1935,22 @@
         <v>22</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>16</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
-          <t>18.2%</t>
+          <t>22.7%</t>
         </is>
       </c>
       <c r="S23" s="4" t="inlineStr">
         <is>
-          <t>84.2%</t>
+          <t>87.3%</t>
         </is>
       </c>
     </row>
@@ -2013,22 +2017,22 @@
         <v>22</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>17</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
-          <t>13.6%</t>
+          <t>18.2%</t>
         </is>
       </c>
       <c r="S24" s="4" t="inlineStr">
         <is>
-          <t>65.4%</t>
+          <t>74.1%</t>
         </is>
       </c>
     </row>
@@ -2095,22 +2099,22 @@
         <v>22</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>17</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
-          <t>13.6%</t>
+          <t>18.2%</t>
         </is>
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>73.6%</t>
+          <t>80.2%</t>
         </is>
       </c>
     </row>
@@ -2177,22 +2181,22 @@
         <v>22</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>17</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
-          <t>13.6%</t>
+          <t>18.2%</t>
         </is>
       </c>
       <c r="S26" s="4" t="inlineStr">
         <is>
-          <t>63.2%</t>
+          <t>72.4%</t>
         </is>
       </c>
     </row>
@@ -2778,45 +2782,49 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B39" s="6" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C39" s="6" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D39" s="6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E39" s="6" t="inlineStr">
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>06/12/2025</t>
         </is>
       </c>
-      <c r="F39" s="6" t="inlineStr">
+      <c r="F39" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G39" s="6" t="inlineStr"/>
-      <c r="H39" s="6" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I39" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>31/31</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -2838,7 +2846,7 @@
       </c>
       <c r="D40" s="6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E40" s="6" t="inlineStr">
@@ -2881,7 +2889,7 @@
       </c>
       <c r="D41" s="5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E41" s="5" t="inlineStr">
@@ -2924,7 +2932,7 @@
       </c>
       <c r="D42" s="5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E42" s="5" t="inlineStr">
@@ -2967,7 +2975,7 @@
       </c>
       <c r="D43" s="5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E43" s="5" t="inlineStr">
@@ -3010,7 +3018,7 @@
       </c>
       <c r="D44" s="5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E44" s="5" t="inlineStr">
@@ -3053,7 +3061,7 @@
       </c>
       <c r="D45" s="5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E45" s="5" t="inlineStr">
@@ -3736,45 +3744,49 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B61" s="6" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C61" s="6" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D61" s="6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E61" s="6" t="inlineStr">
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>06/12/2025</t>
         </is>
       </c>
-      <c r="F61" s="6" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G61" s="6" t="inlineStr"/>
-      <c r="H61" s="6" t="inlineStr">
-        <is>
-          <t>0/19</t>
-        </is>
-      </c>
-      <c r="I61" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>19/19</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3808,7 @@
       </c>
       <c r="D62" s="6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E62" s="6" t="inlineStr">
@@ -3839,7 +3851,7 @@
       </c>
       <c r="D63" s="5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E63" s="5" t="inlineStr">
@@ -3882,7 +3894,7 @@
       </c>
       <c r="D64" s="5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E64" s="5" t="inlineStr">
@@ -3925,7 +3937,7 @@
       </c>
       <c r="D65" s="5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E65" s="5" t="inlineStr">
@@ -3968,7 +3980,7 @@
       </c>
       <c r="D66" s="5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E66" s="5" t="inlineStr">
@@ -4011,7 +4023,7 @@
       </c>
       <c r="D67" s="5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E67" s="5" t="inlineStr">
@@ -4694,45 +4706,49 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B83" s="6" t="inlineStr">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C83" s="6" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D83" s="6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E83" s="6" t="inlineStr">
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
         <is>
           <t>06/12/2025</t>
         </is>
       </c>
-      <c r="F83" s="6" t="inlineStr">
+      <c r="F83" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G83" s="6" t="inlineStr"/>
-      <c r="H83" s="6" t="inlineStr">
-        <is>
-          <t>0/21</t>
-        </is>
-      </c>
-      <c r="I83" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>21/21</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4770,7 @@
       </c>
       <c r="D84" s="6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E84" s="6" t="inlineStr">
@@ -4797,7 +4813,7 @@
       </c>
       <c r="D85" s="5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E85" s="5" t="inlineStr">
@@ -4840,7 +4856,7 @@
       </c>
       <c r="D86" s="5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E86" s="5" t="inlineStr">
@@ -4883,7 +4899,7 @@
       </c>
       <c r="D87" s="5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E87" s="5" t="inlineStr">
@@ -4926,7 +4942,7 @@
       </c>
       <c r="D88" s="5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E88" s="5" t="inlineStr">
@@ -4969,7 +4985,7 @@
       </c>
       <c r="D89" s="5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E89" s="5" t="inlineStr">
@@ -5656,45 +5672,49 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B105" s="6" t="inlineStr">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C105" s="6" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D105" s="6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E105" s="6" t="inlineStr">
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
         <is>
           <t>06/12/2025</t>
         </is>
       </c>
-      <c r="F105" s="6" t="inlineStr">
+      <c r="F105" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G105" s="6" t="inlineStr"/>
-      <c r="H105" s="6" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I105" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G105" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>31/31</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5736,7 @@
       </c>
       <c r="D106" s="6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E106" s="6" t="inlineStr">
@@ -5759,7 +5779,7 @@
       </c>
       <c r="D107" s="5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E107" s="5" t="inlineStr">
@@ -5802,7 +5822,7 @@
       </c>
       <c r="D108" s="5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E108" s="5" t="inlineStr">
@@ -5845,7 +5865,7 @@
       </c>
       <c r="D109" s="5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E109" s="5" t="inlineStr">
@@ -5888,7 +5908,7 @@
       </c>
       <c r="D110" s="5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E110" s="5" t="inlineStr">
@@ -5931,7 +5951,7 @@
       </c>
       <c r="D111" s="5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E111" s="5" t="inlineStr">
@@ -6618,45 +6638,49 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B127" s="6" t="inlineStr">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C127" s="6" t="inlineStr">
+      <c r="C127" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D127" s="6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E127" s="6" t="inlineStr">
+      <c r="D127" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
         <is>
           <t>06/12/2025</t>
         </is>
       </c>
-      <c r="F127" s="6" t="inlineStr">
+      <c r="F127" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G127" s="6" t="inlineStr"/>
-      <c r="H127" s="6" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I127" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G127" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>28/28</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -6678,7 +6702,7 @@
       </c>
       <c r="D128" s="6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E128" s="6" t="inlineStr">
@@ -6721,7 +6745,7 @@
       </c>
       <c r="D129" s="5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E129" s="5" t="inlineStr">
@@ -6764,7 +6788,7 @@
       </c>
       <c r="D130" s="5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E130" s="5" t="inlineStr">
@@ -6807,7 +6831,7 @@
       </c>
       <c r="D131" s="5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E131" s="5" t="inlineStr">
@@ -6850,7 +6874,7 @@
       </c>
       <c r="D132" s="5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E132" s="5" t="inlineStr">
@@ -6893,7 +6917,7 @@
       </c>
       <c r="D133" s="5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E133" s="5" t="inlineStr">
@@ -7580,45 +7604,49 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B149" s="6" t="inlineStr">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C149" s="6" t="inlineStr">
+      <c r="C149" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D149" s="6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E149" s="6" t="inlineStr">
+      <c r="D149" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="inlineStr">
         <is>
           <t>06/12/2025</t>
         </is>
       </c>
-      <c r="F149" s="6" t="inlineStr">
+      <c r="F149" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G149" s="6" t="inlineStr"/>
-      <c r="H149" s="6" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I149" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G149" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H149" s="2" t="inlineStr">
+        <is>
+          <t>29/29</t>
+        </is>
+      </c>
+      <c r="I149" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -7640,7 +7668,7 @@
       </c>
       <c r="D150" s="6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E150" s="6" t="inlineStr">
@@ -7683,7 +7711,7 @@
       </c>
       <c r="D151" s="5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E151" s="5" t="inlineStr">
@@ -7726,7 +7754,7 @@
       </c>
       <c r="D152" s="5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E152" s="5" t="inlineStr">
@@ -7769,7 +7797,7 @@
       </c>
       <c r="D153" s="5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E153" s="5" t="inlineStr">
@@ -7812,7 +7840,7 @@
       </c>
       <c r="D154" s="5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E154" s="5" t="inlineStr">
@@ -7855,7 +7883,7 @@
       </c>
       <c r="D155" s="5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E155" s="5" t="inlineStr">
@@ -8542,45 +8570,49 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B171" s="6" t="inlineStr">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C171" s="6" t="inlineStr">
+      <c r="C171" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D171" s="6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E171" s="6" t="inlineStr">
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="inlineStr">
         <is>
           <t>06/12/2025</t>
         </is>
       </c>
-      <c r="F171" s="6" t="inlineStr">
+      <c r="F171" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G171" s="6" t="inlineStr"/>
-      <c r="H171" s="6" t="inlineStr">
-        <is>
-          <t>0/33</t>
-        </is>
-      </c>
-      <c r="I171" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G171" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>33/33</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -8602,7 +8634,7 @@
       </c>
       <c r="D172" s="6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E172" s="6" t="inlineStr">
@@ -8645,7 +8677,7 @@
       </c>
       <c r="D173" s="5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E173" s="5" t="inlineStr">
@@ -8688,7 +8720,7 @@
       </c>
       <c r="D174" s="5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E174" s="5" t="inlineStr">
@@ -8731,7 +8763,7 @@
       </c>
       <c r="D175" s="5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E175" s="5" t="inlineStr">
@@ -8774,7 +8806,7 @@
       </c>
       <c r="D176" s="5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E176" s="5" t="inlineStr">
@@ -8817,7 +8849,7 @@
       </c>
       <c r="D177" s="5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E177" s="5" t="inlineStr">
@@ -9504,45 +9536,49 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B193" s="6" t="inlineStr">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C193" s="6" t="inlineStr">
+      <c r="C193" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D193" s="6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E193" s="6" t="inlineStr">
+      <c r="D193" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="inlineStr">
         <is>
           <t>06/12/2025</t>
         </is>
       </c>
-      <c r="F193" s="6" t="inlineStr">
+      <c r="F193" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G193" s="6" t="inlineStr"/>
-      <c r="H193" s="6" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I193" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G193" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H193" s="2" t="inlineStr">
+        <is>
+          <t>30/30</t>
+        </is>
+      </c>
+      <c r="I193" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -9564,7 +9600,7 @@
       </c>
       <c r="D194" s="6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E194" s="6" t="inlineStr">
@@ -9607,7 +9643,7 @@
       </c>
       <c r="D195" s="5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E195" s="5" t="inlineStr">
@@ -9650,7 +9686,7 @@
       </c>
       <c r="D196" s="5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E196" s="5" t="inlineStr">
@@ -9693,7 +9729,7 @@
       </c>
       <c r="D197" s="5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E197" s="5" t="inlineStr">
@@ -9736,7 +9772,7 @@
       </c>
       <c r="D198" s="5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E198" s="5" t="inlineStr">
@@ -9779,7 +9815,7 @@
       </c>
       <c r="D199" s="5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E199" s="5" t="inlineStr">
@@ -10462,45 +10498,49 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B215" s="6" t="inlineStr">
+      <c r="A215" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C215" s="6" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D215" s="6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E215" s="6" t="inlineStr">
+      <c r="D215" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="inlineStr">
         <is>
           <t>06/12/2025</t>
         </is>
       </c>
-      <c r="F215" s="6" t="inlineStr">
+      <c r="F215" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G215" s="6" t="inlineStr"/>
-      <c r="H215" s="6" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I215" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G215" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>27/27</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -10522,7 +10562,7 @@
       </c>
       <c r="D216" s="6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E216" s="6" t="inlineStr">
@@ -10565,7 +10605,7 @@
       </c>
       <c r="D217" s="5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E217" s="5" t="inlineStr">
@@ -10608,7 +10648,7 @@
       </c>
       <c r="D218" s="5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E218" s="5" t="inlineStr">
@@ -10651,7 +10691,7 @@
       </c>
       <c r="D219" s="5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E219" s="5" t="inlineStr">
@@ -10694,7 +10734,7 @@
       </c>
       <c r="D220" s="5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E220" s="5" t="inlineStr">
@@ -10737,7 +10777,7 @@
       </c>
       <c r="D221" s="5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E221" s="5" t="inlineStr">
@@ -11420,45 +11460,49 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B237" s="6" t="inlineStr">
+      <c r="A237" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C237" s="6" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D237" s="6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E237" s="6" t="inlineStr">
+      <c r="D237" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
         <is>
           <t>06/12/2025</t>
         </is>
       </c>
-      <c r="F237" s="6" t="inlineStr">
+      <c r="F237" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G237" s="6" t="inlineStr"/>
-      <c r="H237" s="6" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I237" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G237" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>29/29</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -11480,7 +11524,7 @@
       </c>
       <c r="D238" s="6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E238" s="6" t="inlineStr">
@@ -11523,7 +11567,7 @@
       </c>
       <c r="D239" s="5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E239" s="5" t="inlineStr">
@@ -11566,7 +11610,7 @@
       </c>
       <c r="D240" s="5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E240" s="5" t="inlineStr">
@@ -11609,7 +11653,7 @@
       </c>
       <c r="D241" s="5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E241" s="5" t="inlineStr">
@@ -11652,7 +11696,7 @@
       </c>
       <c r="D242" s="5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E242" s="5" t="inlineStr">
@@ -11695,7 +11739,7 @@
       </c>
       <c r="D243" s="5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E243" s="5" t="inlineStr">
@@ -12378,45 +12422,49 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B259" s="6" t="inlineStr">
+      <c r="A259" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B259" s="2" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C259" s="6" t="inlineStr">
+      <c r="C259" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D259" s="6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E259" s="6" t="inlineStr">
+      <c r="D259" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="inlineStr">
         <is>
           <t>06/12/2025</t>
         </is>
       </c>
-      <c r="F259" s="6" t="inlineStr">
+      <c r="F259" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G259" s="6" t="inlineStr"/>
-      <c r="H259" s="6" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I259" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G259" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H259" s="2" t="inlineStr">
+        <is>
+          <t>29/29</t>
+        </is>
+      </c>
+      <c r="I259" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -12438,7 +12486,7 @@
       </c>
       <c r="D260" s="6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E260" s="6" t="inlineStr">
@@ -12481,7 +12529,7 @@
       </c>
       <c r="D261" s="5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E261" s="5" t="inlineStr">
@@ -12524,7 +12572,7 @@
       </c>
       <c r="D262" s="5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E262" s="5" t="inlineStr">
@@ -12567,7 +12615,7 @@
       </c>
       <c r="D263" s="5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E263" s="5" t="inlineStr">
@@ -12610,7 +12658,7 @@
       </c>
       <c r="D264" s="5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E264" s="5" t="inlineStr">
@@ -12653,7 +12701,7 @@
       </c>
       <c r="D265" s="5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E265" s="5" t="inlineStr">

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
@@ -5137,7 +5137,7 @@
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6103,7 +6103,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
@@ -7022,7 +7022,7 @@
       </c>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr">
@@ -7069,7 +7069,7 @@
       </c>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
@@ -7988,7 +7988,7 @@
       </c>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
@@ -8035,7 +8035,7 @@
       </c>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
@@ -8907,7 +8907,7 @@
       </c>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr">
@@ -8954,7 +8954,7 @@
       </c>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
@@ -9873,7 +9873,7 @@
       </c>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
@@ -9920,7 +9920,7 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -9967,7 +9967,7 @@
       </c>
       <c r="G202" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H202" s="2" t="inlineStr">
@@ -10835,7 +10835,7 @@
       </c>
       <c r="G222" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H222" s="2" t="inlineStr">
@@ -10882,7 +10882,7 @@
       </c>
       <c r="G223" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H223" s="2" t="inlineStr">
@@ -10929,7 +10929,7 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
@@ -11797,7 +11797,7 @@
       </c>
       <c r="G244" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H244" s="2" t="inlineStr">
@@ -11844,7 +11844,7 @@
       </c>
       <c r="G245" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H245" s="2" t="inlineStr">
@@ -11891,7 +11891,7 @@
       </c>
       <c r="G246" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H246" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9">
@@ -1388,10 +1388,10 @@
         <v>4</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1470,10 +1470,10 @@
         <v>4</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1548,10 +1548,10 @@
         <v>4</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>4</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2102,10 +2102,10 @@
         <v>4</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2184,10 +2184,10 @@
         <v>4</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -2201,45 +2201,45 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B27" s="6" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D27" s="6" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E27" s="6" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F27" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G27" s="6" t="inlineStr"/>
-      <c r="H27" s="6" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr"/>
+      <c r="H27" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I27" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -3228,45 +3228,45 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B49" s="6" t="inlineStr">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B49" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C49" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D49" s="6" t="inlineStr">
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E49" s="6" t="inlineStr">
+      <c r="E49" s="5" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F49" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G49" s="6" t="inlineStr"/>
-      <c r="H49" s="6" t="inlineStr">
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G49" s="5" t="inlineStr"/>
+      <c r="H49" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I49" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I49" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -4190,45 +4190,45 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B71" s="6" t="inlineStr">
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B71" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C71" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D71" s="6" t="inlineStr">
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D71" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E71" s="6" t="inlineStr">
+      <c r="E71" s="5" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F71" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G71" s="6" t="inlineStr"/>
-      <c r="H71" s="6" t="inlineStr">
+      <c r="F71" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G71" s="5" t="inlineStr"/>
+      <c r="H71" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I71" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I71" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9982,45 +9982,45 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B203" s="6" t="inlineStr">
+      <c r="A203" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B203" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C203" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D203" s="6" t="inlineStr">
+      <c r="C203" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D203" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E203" s="6" t="inlineStr">
+      <c r="E203" s="5" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F203" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G203" s="6" t="inlineStr"/>
-      <c r="H203" s="6" t="inlineStr">
+      <c r="F203" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G203" s="5" t="inlineStr"/>
+      <c r="H203" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I203" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I203" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10944,45 +10944,45 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B225" s="6" t="inlineStr">
+      <c r="A225" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B225" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C225" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D225" s="6" t="inlineStr">
+      <c r="C225" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D225" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E225" s="6" t="inlineStr">
+      <c r="E225" s="5" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F225" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G225" s="6" t="inlineStr"/>
-      <c r="H225" s="6" t="inlineStr">
+      <c r="F225" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G225" s="5" t="inlineStr"/>
+      <c r="H225" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I225" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I225" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11906,45 +11906,45 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B247" s="6" t="inlineStr">
+      <c r="A247" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B247" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C247" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D247" s="6" t="inlineStr">
+      <c r="C247" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D247" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E247" s="6" t="inlineStr">
+      <c r="E247" s="5" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F247" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G247" s="6" t="inlineStr"/>
-      <c r="H247" s="6" t="inlineStr">
+      <c r="F247" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G247" s="5" t="inlineStr"/>
+      <c r="H247" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I247" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I247" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
@@ -6846,7 +6846,7 @@
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -7769,7 +7769,7 @@
       </c>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
@@ -8692,7 +8692,7 @@
       </c>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr">
@@ -9615,7 +9615,7 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="G216" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H216" s="2" t="inlineStr">
@@ -11539,7 +11539,7 @@
       </c>
       <c r="G238" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H238" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>20.9%</t>
+          <t>23.3%</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>85.5%</t>
+          <t>84.5%</t>
         </is>
       </c>
     </row>
@@ -1389,22 +1389,22 @@
         <v>22</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>16</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
-          <t>18.2%</t>
+          <t>22.7%</t>
         </is>
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>79.0%</t>
+          <t>80.0%</t>
         </is>
       </c>
     </row>
@@ -1467,22 +1467,22 @@
         <v>22</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>16</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>18.2%</t>
+          <t>22.7%</t>
         </is>
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>68.4%</t>
+          <t>70.5%</t>
         </is>
       </c>
     </row>
@@ -1545,22 +1545,22 @@
         <v>22</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>16</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
-          <t>18.2%</t>
+          <t>22.7%</t>
         </is>
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>92.9%</t>
+          <t>87.6%</t>
         </is>
       </c>
     </row>
@@ -2021,22 +2021,22 @@
         <v>22</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>16</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
-          <t>18.2%</t>
+          <t>22.7%</t>
         </is>
       </c>
       <c r="S24" s="4" t="inlineStr">
         <is>
-          <t>74.1%</t>
+          <t>71.9%</t>
         </is>
       </c>
     </row>
@@ -2103,65 +2103,69 @@
         <v>22</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>16</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
-          <t>18.2%</t>
+          <t>22.7%</t>
         </is>
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>80.2%</t>
+          <t>80.0%</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B26" s="6" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D26" s="6" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E26" s="6" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F26" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G26" s="6" t="inlineStr"/>
-      <c r="H26" s="6" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I26" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com, System</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>26/31</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
       <c r="K26" s="4" t="inlineStr">
@@ -2181,22 +2185,22 @@
         <v>22</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>16</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
-          <t>18.2%</t>
+          <t>22.7%</t>
         </is>
       </c>
       <c r="S26" s="4" t="inlineStr">
         <is>
-          <t>72.4%</t>
+          <t>74.5%</t>
         </is>
       </c>
     </row>
@@ -3185,45 +3189,49 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B48" s="6" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C48" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D48" s="6" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E48" s="6" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F48" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G48" s="6" t="inlineStr"/>
-      <c r="H48" s="6" t="inlineStr">
-        <is>
-          <t>0/19</t>
-        </is>
-      </c>
-      <c r="I48" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com, System</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>15/19</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -4147,45 +4155,49 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B70" s="6" t="inlineStr">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C70" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D70" s="6" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E70" s="6" t="inlineStr">
+      <c r="E70" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F70" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G70" s="6" t="inlineStr"/>
-      <c r="H70" s="6" t="inlineStr">
-        <is>
-          <t>0/21</t>
-        </is>
-      </c>
-      <c r="I70" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com, System</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>14/21</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -9724,45 +9736,49 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B197" s="6" t="inlineStr">
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C197" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D197" s="6" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E197" s="6" t="inlineStr">
+      <c r="E197" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F197" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G197" s="6" t="inlineStr"/>
-      <c r="H197" s="6" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I197" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F197" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G197" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com, System</t>
+        </is>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>17/27</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -10686,45 +10702,49 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B219" s="6" t="inlineStr">
+      <c r="A219" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C219" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D219" s="6" t="inlineStr">
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E219" s="6" t="inlineStr">
+      <c r="E219" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F219" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G219" s="6" t="inlineStr"/>
-      <c r="H219" s="6" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I219" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com, System</t>
+        </is>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>23/29</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -11648,45 +11668,49 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B241" s="6" t="inlineStr">
+      <c r="A241" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B241" s="2" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C241" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D241" s="6" t="inlineStr">
+      <c r="C241" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E241" s="6" t="inlineStr">
+      <c r="E241" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F241" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G241" s="6" t="inlineStr"/>
-      <c r="H241" s="6" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I241" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F241" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G241" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com, System</t>
+        </is>
+      </c>
+      <c r="H241" s="2" t="inlineStr">
+        <is>
+          <t>24/29</t>
+        </is>
+      </c>
+      <c r="I241" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -96,9 +96,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -106,6 +103,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>23.3%</t>
+          <t>26.0%</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>84.5%</t>
+          <t>77.4%</t>
         </is>
       </c>
     </row>
@@ -1307,22 +1307,22 @@
         <v>21</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>15</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
-          <t>23.8%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="S15" s="4" t="inlineStr">
         <is>
-          <t>85.9%</t>
+          <t>84.6%</t>
         </is>
       </c>
     </row>
@@ -1409,45 +1409,49 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C17" s="6" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D17" s="6" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E17" s="6" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F17" s="6" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G17" s="6" t="inlineStr"/>
-      <c r="H17" s="6" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I17" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>21/27</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
       <c r="K17" s="4" t="inlineStr">
@@ -1482,7 +1486,7 @@
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>70.5%</t>
+          <t>71.6%</t>
         </is>
       </c>
     </row>
@@ -1545,22 +1549,22 @@
         <v>22</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>16</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
-          <t>22.7%</t>
+          <t>27.3%</t>
         </is>
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>87.6%</t>
+          <t>74.6%</t>
         </is>
       </c>
     </row>
@@ -1623,22 +1627,22 @@
         <v>21</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>15</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
-          <t>23.8%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>96.8%</t>
+          <t>81.2%</t>
         </is>
       </c>
     </row>
@@ -1701,22 +1705,22 @@
         <v>21</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>15</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
-          <t>23.8%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>94.3%</t>
+          <t>79.2%</t>
         </is>
       </c>
     </row>
@@ -1779,22 +1783,22 @@
         <v>21</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>15</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
-          <t>23.8%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>93.8%</t>
+          <t>78.7%</t>
         </is>
       </c>
     </row>
@@ -1857,22 +1861,22 @@
         <v>21</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>15</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
-          <t>23.8%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>91.5%</t>
+          <t>77.3%</t>
         </is>
       </c>
     </row>
@@ -1939,22 +1943,22 @@
         <v>21</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>15</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
-          <t>23.8%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="S23" s="4" t="inlineStr">
         <is>
-          <t>87.3%</t>
+          <t>73.3%</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2447,7 @@
           <t>Recorded</t>
         </is>
       </c>
-      <c r="L31" s="7" t="inlineStr">
+      <c r="L31" s="6" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
@@ -2501,7 +2505,7 @@
           <t>Not Recorded</t>
         </is>
       </c>
-      <c r="L32" s="8" t="inlineStr">
+      <c r="L32" s="7" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
@@ -2559,7 +2563,7 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="L33" s="9" t="inlineStr">
+      <c r="L33" s="8" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
@@ -2790,43 +2794,43 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B39" s="6" t="inlineStr">
+      <c r="A39" s="9" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B39" s="9" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C39" s="6" t="inlineStr">
+      <c r="C39" s="9" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D39" s="6" t="inlineStr">
+      <c r="D39" s="9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E39" s="6" t="inlineStr">
+      <c r="E39" s="9" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F39" s="6" t="inlineStr">
+      <c r="F39" s="9" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G39" s="6" t="inlineStr"/>
-      <c r="H39" s="6" t="inlineStr">
+      <c r="G39" s="9" t="inlineStr"/>
+      <c r="H39" s="9" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I39" s="6" t="inlineStr">
+      <c r="I39" s="9" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -3132,7 +3136,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>7/19</t>
+          <t>8/19</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
@@ -3756,43 +3760,43 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B61" s="6" t="inlineStr">
+      <c r="A61" s="9" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B61" s="9" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C61" s="6" t="inlineStr">
+      <c r="C61" s="9" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D61" s="6" t="inlineStr">
+      <c r="D61" s="9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E61" s="6" t="inlineStr">
+      <c r="E61" s="9" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F61" s="6" t="inlineStr">
+      <c r="F61" s="9" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G61" s="6" t="inlineStr"/>
-      <c r="H61" s="6" t="inlineStr">
+      <c r="G61" s="9" t="inlineStr"/>
+      <c r="H61" s="9" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I61" s="6" t="inlineStr">
+      <c r="I61" s="9" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -4722,45 +4726,49 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B83" s="6" t="inlineStr">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C83" s="6" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D83" s="6" t="inlineStr">
+      <c r="D83" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E83" s="6" t="inlineStr">
+      <c r="E83" s="2" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F83" s="6" t="inlineStr">
+      <c r="F83" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G83" s="6" t="inlineStr"/>
-      <c r="H83" s="6" t="inlineStr">
-        <is>
-          <t>0/21</t>
-        </is>
-      </c>
-      <c r="I83" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>2/21</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -5645,45 +5653,49 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B104" s="6" t="inlineStr">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C104" s="6" t="inlineStr">
+      <c r="C104" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D104" s="6" t="inlineStr">
+      <c r="D104" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E104" s="6" t="inlineStr">
+      <c r="E104" s="2" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F104" s="6" t="inlineStr">
+      <c r="F104" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G104" s="6" t="inlineStr"/>
-      <c r="H104" s="6" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I104" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G104" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>1/31</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -6568,45 +6580,49 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B125" s="6" t="inlineStr">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C125" s="6" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D125" s="6" t="inlineStr">
+      <c r="D125" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E125" s="6" t="inlineStr">
+      <c r="E125" s="2" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F125" s="6" t="inlineStr">
+      <c r="F125" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G125" s="6" t="inlineStr"/>
-      <c r="H125" s="6" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I125" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G125" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>1/28</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -7491,45 +7507,49 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B146" s="6" t="inlineStr">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C146" s="6" t="inlineStr">
+      <c r="C146" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D146" s="6" t="inlineStr">
+      <c r="D146" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E146" s="6" t="inlineStr">
+      <c r="E146" s="2" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F146" s="6" t="inlineStr">
+      <c r="F146" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G146" s="6" t="inlineStr"/>
-      <c r="H146" s="6" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I146" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G146" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>1/29</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -8414,45 +8434,49 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B167" s="6" t="inlineStr">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C167" s="6" t="inlineStr">
+      <c r="C167" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D167" s="6" t="inlineStr">
+      <c r="D167" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E167" s="6" t="inlineStr">
+      <c r="E167" s="2" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F167" s="6" t="inlineStr">
+      <c r="F167" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G167" s="6" t="inlineStr"/>
-      <c r="H167" s="6" t="inlineStr">
-        <is>
-          <t>0/33</t>
-        </is>
-      </c>
-      <c r="I167" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G167" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H167" s="2" t="inlineStr">
+        <is>
+          <t>2/33</t>
+        </is>
+      </c>
+      <c r="I167" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -9337,45 +9361,49 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B188" s="6" t="inlineStr">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C188" s="6" t="inlineStr">
+      <c r="C188" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D188" s="6" t="inlineStr">
+      <c r="D188" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E188" s="6" t="inlineStr">
+      <c r="E188" s="2" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F188" s="6" t="inlineStr">
+      <c r="F188" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G188" s="6" t="inlineStr"/>
-      <c r="H188" s="6" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I188" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G188" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H188" s="2" t="inlineStr">
+        <is>
+          <t>1/30</t>
+        </is>
+      </c>
+      <c r="I188" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -10303,43 +10331,43 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B210" s="6" t="inlineStr">
+      <c r="A210" s="9" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B210" s="9" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C210" s="6" t="inlineStr">
+      <c r="C210" s="9" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D210" s="6" t="inlineStr">
+      <c r="D210" s="9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E210" s="6" t="inlineStr">
+      <c r="E210" s="9" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F210" s="6" t="inlineStr">
+      <c r="F210" s="9" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G210" s="6" t="inlineStr"/>
-      <c r="H210" s="6" t="inlineStr">
+      <c r="G210" s="9" t="inlineStr"/>
+      <c r="H210" s="9" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I210" s="6" t="inlineStr">
+      <c r="I210" s="9" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -11269,43 +11297,43 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B232" s="6" t="inlineStr">
+      <c r="A232" s="9" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B232" s="9" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C232" s="6" t="inlineStr">
+      <c r="C232" s="9" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D232" s="6" t="inlineStr">
+      <c r="D232" s="9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E232" s="6" t="inlineStr">
+      <c r="E232" s="9" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F232" s="6" t="inlineStr">
+      <c r="F232" s="9" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G232" s="6" t="inlineStr"/>
-      <c r="H232" s="6" t="inlineStr">
+      <c r="G232" s="9" t="inlineStr"/>
+      <c r="H232" s="9" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I232" s="6" t="inlineStr">
+      <c r="I232" s="9" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -12235,43 +12263,43 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B254" s="6" t="inlineStr">
+      <c r="A254" s="9" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B254" s="9" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C254" s="6" t="inlineStr">
+      <c r="C254" s="9" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D254" s="6" t="inlineStr">
+      <c r="D254" s="9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E254" s="6" t="inlineStr">
+      <c r="E254" s="9" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F254" s="6" t="inlineStr">
+      <c r="F254" s="9" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G254" s="6" t="inlineStr"/>
-      <c r="H254" s="6" t="inlineStr">
+      <c r="G254" s="9" t="inlineStr"/>
+      <c r="H254" s="9" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I254" s="6" t="inlineStr">
+      <c r="I254" s="9" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -1022,7 +1022,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>78.4%</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>81.2%</t>
+          <t>93.0%</t>
         </is>
       </c>
     </row>
@@ -5690,7 +5690,7 @@
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>1/31</t>
+          <t>23/31</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -96,6 +96,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -103,9 +106,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>78.4%</t>
+          <t>82.3%</t>
         </is>
       </c>
     </row>
@@ -1392,10 +1392,10 @@
         <v>5</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>5</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>6</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>79.2%</t>
+          <t>94.0%</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>78.7%</t>
+          <t>93.7%</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>77.3%</t>
+          <t>90.4%</t>
         </is>
       </c>
     </row>
@@ -2028,10 +2028,10 @@
         <v>5</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         <v>5</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2192,10 +2192,10 @@
         <v>5</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -2209,45 +2209,45 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D27" s="5" t="inlineStr">
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D27" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="E27" s="6" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="inlineStr"/>
-      <c r="H27" s="5" t="inlineStr">
+      <c r="F27" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G27" s="6" t="inlineStr"/>
+      <c r="H27" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I27" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I27" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
           <t>Recorded</t>
         </is>
       </c>
-      <c r="L31" s="6" t="inlineStr">
+      <c r="L31" s="7" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
@@ -2505,7 +2505,7 @@
           <t>Not Recorded</t>
         </is>
       </c>
-      <c r="L32" s="7" t="inlineStr">
+      <c r="L32" s="8" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
@@ -2563,7 +2563,7 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="L33" s="8" t="inlineStr">
+      <c r="L33" s="9" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
@@ -2794,43 +2794,43 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="9" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B39" s="9" t="inlineStr">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C39" s="9" t="inlineStr">
+      <c r="C39" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D39" s="9" t="inlineStr">
+      <c r="D39" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E39" s="9" t="inlineStr">
+      <c r="E39" s="6" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F39" s="9" t="inlineStr">
+      <c r="F39" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G39" s="9" t="inlineStr"/>
-      <c r="H39" s="9" t="inlineStr">
+      <c r="G39" s="6" t="inlineStr"/>
+      <c r="H39" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I39" s="9" t="inlineStr">
+      <c r="I39" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -3240,45 +3240,45 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B49" s="5" t="inlineStr">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C49" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D49" s="5" t="inlineStr">
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E49" s="5" t="inlineStr">
+      <c r="E49" s="6" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F49" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G49" s="5" t="inlineStr"/>
-      <c r="H49" s="5" t="inlineStr">
+      <c r="F49" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G49" s="6" t="inlineStr"/>
+      <c r="H49" s="6" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I49" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I49" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -3760,43 +3760,43 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="9" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B61" s="9" t="inlineStr">
+      <c r="A61" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B61" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C61" s="9" t="inlineStr">
+      <c r="C61" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D61" s="9" t="inlineStr">
+      <c r="D61" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E61" s="9" t="inlineStr">
+      <c r="E61" s="6" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F61" s="9" t="inlineStr">
+      <c r="F61" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G61" s="9" t="inlineStr"/>
-      <c r="H61" s="9" t="inlineStr">
+      <c r="G61" s="6" t="inlineStr"/>
+      <c r="H61" s="6" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I61" s="9" t="inlineStr">
+      <c r="I61" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -4206,45 +4206,45 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B71" s="5" t="inlineStr">
+      <c r="A71" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B71" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C71" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D71" s="5" t="inlineStr">
+      <c r="C71" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D71" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E71" s="5" t="inlineStr">
+      <c r="E71" s="6" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F71" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G71" s="5" t="inlineStr"/>
-      <c r="H71" s="5" t="inlineStr">
+      <c r="F71" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G71" s="6" t="inlineStr"/>
+      <c r="H71" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I71" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I71" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="H125" s="2" t="inlineStr">
         <is>
-          <t>1/28</t>
+          <t>26/28</t>
         </is>
       </c>
       <c r="I125" s="2" t="inlineStr">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="H146" s="2" t="inlineStr">
         <is>
-          <t>1/29</t>
+          <t>27/29</t>
         </is>
       </c>
       <c r="I146" s="2" t="inlineStr">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="H167" s="2" t="inlineStr">
         <is>
-          <t>2/33</t>
+          <t>28/33</t>
         </is>
       </c>
       <c r="I167" s="2" t="inlineStr">
@@ -9811,45 +9811,45 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B198" s="5" t="inlineStr">
+      <c r="A198" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B198" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C198" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D198" s="5" t="inlineStr">
+      <c r="C198" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D198" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E198" s="5" t="inlineStr">
+      <c r="E198" s="6" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F198" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G198" s="5" t="inlineStr"/>
-      <c r="H198" s="5" t="inlineStr">
+      <c r="F198" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G198" s="6" t="inlineStr"/>
+      <c r="H198" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I198" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I198" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10331,43 +10331,43 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="9" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B210" s="9" t="inlineStr">
+      <c r="A210" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B210" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C210" s="9" t="inlineStr">
+      <c r="C210" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D210" s="9" t="inlineStr">
+      <c r="D210" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E210" s="9" t="inlineStr">
+      <c r="E210" s="6" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F210" s="9" t="inlineStr">
+      <c r="F210" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G210" s="9" t="inlineStr"/>
-      <c r="H210" s="9" t="inlineStr">
+      <c r="G210" s="6" t="inlineStr"/>
+      <c r="H210" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I210" s="9" t="inlineStr">
+      <c r="I210" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -10777,45 +10777,45 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B220" s="5" t="inlineStr">
+      <c r="A220" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B220" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C220" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D220" s="5" t="inlineStr">
+      <c r="C220" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D220" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E220" s="5" t="inlineStr">
+      <c r="E220" s="6" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F220" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G220" s="5" t="inlineStr"/>
-      <c r="H220" s="5" t="inlineStr">
+      <c r="F220" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G220" s="6" t="inlineStr"/>
+      <c r="H220" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I220" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I220" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11297,43 +11297,43 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="9" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B232" s="9" t="inlineStr">
+      <c r="A232" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B232" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C232" s="9" t="inlineStr">
+      <c r="C232" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D232" s="9" t="inlineStr">
+      <c r="D232" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E232" s="9" t="inlineStr">
+      <c r="E232" s="6" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F232" s="9" t="inlineStr">
+      <c r="F232" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G232" s="9" t="inlineStr"/>
-      <c r="H232" s="9" t="inlineStr">
+      <c r="G232" s="6" t="inlineStr"/>
+      <c r="H232" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I232" s="9" t="inlineStr">
+      <c r="I232" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -11743,45 +11743,45 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B242" s="5" t="inlineStr">
+      <c r="A242" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B242" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C242" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D242" s="5" t="inlineStr">
+      <c r="C242" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D242" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E242" s="5" t="inlineStr">
+      <c r="E242" s="6" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F242" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G242" s="5" t="inlineStr"/>
-      <c r="H242" s="5" t="inlineStr">
+      <c r="F242" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G242" s="6" t="inlineStr"/>
+      <c r="H242" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I242" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I242" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -12263,43 +12263,43 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="9" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B254" s="9" t="inlineStr">
+      <c r="A254" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B254" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C254" s="9" t="inlineStr">
+      <c r="C254" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D254" s="9" t="inlineStr">
+      <c r="D254" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E254" s="9" t="inlineStr">
+      <c r="E254" s="6" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F254" s="9" t="inlineStr">
+      <c r="F254" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G254" s="9" t="inlineStr"/>
-      <c r="H254" s="9" t="inlineStr">
+      <c r="G254" s="6" t="inlineStr"/>
+      <c r="H254" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I254" s="9" t="inlineStr">
+      <c r="I254" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -103,9 +103,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,7 +486,7 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="28" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
     <col width="22" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="18" customWidth="1" min="13" max="13"/>
@@ -581,7 +578,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -633,7 +630,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -690,7 +687,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -815,7 +812,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -866,7 +863,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +966,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>28.3%</t>
+          <t>30.2%</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1019,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>82.0%</t>
+          <t>81.6%</t>
         </is>
       </c>
     </row>
@@ -1389,22 +1386,22 @@
         <v>22</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>15</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
-          <t>27.3%</t>
+          <t>31.8%</t>
         </is>
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>79.6%</t>
+          <t>78.8%</t>
         </is>
       </c>
     </row>
@@ -1471,22 +1468,22 @@
         <v>22</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>15</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>27.3%</t>
+          <t>31.8%</t>
         </is>
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>70.2%</t>
+          <t>66.9%</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1561,7 @@
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>77.6%</t>
+          <t>87.8%</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1910,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1995,7 +1992,7 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2025,22 +2022,22 @@
         <v>22</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>15</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
-          <t>27.3%</t>
+          <t>31.8%</t>
         </is>
       </c>
       <c r="S24" s="4" t="inlineStr">
         <is>
-          <t>73.5%</t>
+          <t>71.4%</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2074,7 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -2107,22 +2104,22 @@
         <v>22</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>15</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
-          <t>27.3%</t>
+          <t>31.8%</t>
         </is>
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>80.5%</t>
+          <t>77.8%</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2156,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -2189,22 +2186,22 @@
         <v>22</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>15</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
-          <t>27.3%</t>
+          <t>31.8%</t>
         </is>
       </c>
       <c r="S26" s="4" t="inlineStr">
         <is>
-          <t>74.7%</t>
+          <t>72.9%</t>
         </is>
       </c>
     </row>
@@ -2798,45 +2795,49 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="9" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B39" s="9" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C39" s="9" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D39" s="9" t="inlineStr">
+      <c r="D39" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E39" s="9" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F39" s="9" t="inlineStr">
+      <c r="F39" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G39" s="9" t="inlineStr"/>
-      <c r="H39" s="9" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I39" s="9" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>23/31</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3089,7 @@
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -3135,7 +3136,7 @@
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
@@ -3182,7 +3183,7 @@
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -3229,7 +3230,7 @@
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
@@ -3768,45 +3769,49 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="9" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B61" s="9" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C61" s="9" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D61" s="9" t="inlineStr">
+      <c r="D61" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E61" s="9" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F61" s="9" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G61" s="9" t="inlineStr"/>
-      <c r="H61" s="9" t="inlineStr">
-        <is>
-          <t>0/19</t>
-        </is>
-      </c>
-      <c r="I61" s="9" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>9/19</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4063,7 @@
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -4105,7 +4110,7 @@
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -4152,7 +4157,7 @@
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -4199,7 +4204,7 @@
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -4775,7 +4780,7 @@
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>2/21</t>
+          <t>17/21</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
@@ -5032,7 +5037,7 @@
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -5079,7 +5084,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5126,7 +5131,7 @@
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
@@ -5959,7 +5964,7 @@
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
@@ -6006,7 +6011,7 @@
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
@@ -6053,7 +6058,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6886,7 +6891,7 @@
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -6933,7 +6938,7 @@
       </c>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
@@ -6980,7 +6985,7 @@
       </c>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
@@ -7813,7 +7818,7 @@
       </c>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
@@ -7860,7 +7865,7 @@
       </c>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
@@ -7907,7 +7912,7 @@
       </c>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr">
@@ -8740,7 +8745,7 @@
       </c>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr">
@@ -8787,7 +8792,7 @@
       </c>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
@@ -8834,7 +8839,7 @@
       </c>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr">
@@ -9667,7 +9672,7 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -9714,7 +9719,7 @@
       </c>
       <c r="G195" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H195" s="2" t="inlineStr">
@@ -9761,7 +9766,7 @@
       </c>
       <c r="G196" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H196" s="2" t="inlineStr">
@@ -9808,7 +9813,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -10347,45 +10352,49 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="9" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B210" s="9" t="inlineStr">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C210" s="9" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D210" s="9" t="inlineStr">
+      <c r="D210" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E210" s="9" t="inlineStr">
+      <c r="E210" s="2" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F210" s="9" t="inlineStr">
+      <c r="F210" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G210" s="9" t="inlineStr"/>
-      <c r="H210" s="9" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I210" s="9" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G210" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>16/27</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -10637,7 +10646,7 @@
       </c>
       <c r="G216" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H216" s="2" t="inlineStr">
@@ -10684,7 +10693,7 @@
       </c>
       <c r="G217" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H217" s="2" t="inlineStr">
@@ -10731,7 +10740,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -10778,7 +10787,7 @@
       </c>
       <c r="G219" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H219" s="2" t="inlineStr">
@@ -11317,45 +11326,49 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="9" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B232" s="9" t="inlineStr">
+      <c r="A232" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C232" s="9" t="inlineStr">
+      <c r="C232" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D232" s="9" t="inlineStr">
+      <c r="D232" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E232" s="9" t="inlineStr">
+      <c r="E232" s="2" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F232" s="9" t="inlineStr">
+      <c r="F232" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G232" s="9" t="inlineStr"/>
-      <c r="H232" s="9" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I232" s="9" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G232" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H232" s="2" t="inlineStr">
+        <is>
+          <t>18/29</t>
+        </is>
+      </c>
+      <c r="I232" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -11607,7 +11620,7 @@
       </c>
       <c r="G238" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H238" s="2" t="inlineStr">
@@ -11654,7 +11667,7 @@
       </c>
       <c r="G239" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H239" s="2" t="inlineStr">
@@ -11701,7 +11714,7 @@
       </c>
       <c r="G240" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H240" s="2" t="inlineStr">
@@ -11748,7 +11761,7 @@
       </c>
       <c r="G241" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H241" s="2" t="inlineStr">
@@ -12287,45 +12300,49 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="9" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B254" s="9" t="inlineStr">
+      <c r="A254" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C254" s="9" t="inlineStr">
+      <c r="C254" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D254" s="9" t="inlineStr">
+      <c r="D254" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E254" s="9" t="inlineStr">
+      <c r="E254" s="2" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F254" s="9" t="inlineStr">
+      <c r="F254" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G254" s="9" t="inlineStr"/>
-      <c r="H254" s="9" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I254" s="9" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G254" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>18/29</t>
+        </is>
+      </c>
+      <c r="I254" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -94,6 +94,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -486,7 +489,7 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="28" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
     <col width="22" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="18" customWidth="1" min="13" max="13"/>
@@ -859,7 +862,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -910,7 +913,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9">
@@ -1307,10 +1310,10 @@
         <v>5</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1389,10 +1392,10 @@
         <v>6</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1406,45 +1409,45 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D17" s="5" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="E17" s="6" t="inlineStr">
         <is>
           <t>20/12/2025</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="F17" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr">
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I17" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K17" s="4" t="inlineStr">
@@ -1467,10 +1470,10 @@
         <v>6</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1545,10 +1548,10 @@
         <v>6</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1623,10 +1626,10 @@
         <v>5</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1701,10 +1704,10 @@
         <v>5</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1779,10 +1782,10 @@
         <v>5</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1861,10 +1864,10 @@
         <v>5</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1943,10 +1946,10 @@
         <v>5</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2025,10 +2028,10 @@
         <v>6</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2107,10 +2110,10 @@
         <v>6</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2185,10 +2188,10 @@
         <v>6</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -2440,7 +2443,7 @@
           <t>Recorded</t>
         </is>
       </c>
-      <c r="L31" s="6" t="inlineStr">
+      <c r="L31" s="7" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
@@ -2498,7 +2501,7 @@
           <t>Not Recorded</t>
         </is>
       </c>
-      <c r="L32" s="7" t="inlineStr">
+      <c r="L32" s="8" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
@@ -2556,7 +2559,7 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="L33" s="8" t="inlineStr">
+      <c r="L33" s="9" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
@@ -2748,45 +2751,45 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B38" s="5" t="inlineStr">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B38" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C38" s="5" t="inlineStr">
+      <c r="C38" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D38" s="5" t="inlineStr">
+      <c r="D38" s="6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E38" s="5" t="inlineStr">
+      <c r="E38" s="6" t="inlineStr">
         <is>
           <t>20/12/2025</t>
         </is>
       </c>
-      <c r="F38" s="5" t="inlineStr">
+      <c r="F38" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G38" s="5" t="inlineStr"/>
-      <c r="H38" s="5" t="inlineStr">
+      <c r="G38" s="6" t="inlineStr"/>
+      <c r="H38" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I38" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I38" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -3675,45 +3678,45 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B59" s="5" t="inlineStr">
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B59" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C59" s="5" t="inlineStr">
+      <c r="C59" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D59" s="5" t="inlineStr">
+      <c r="D59" s="6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E59" s="5" t="inlineStr">
+      <c r="E59" s="6" t="inlineStr">
         <is>
           <t>20/12/2025</t>
         </is>
       </c>
-      <c r="F59" s="5" t="inlineStr">
+      <c r="F59" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G59" s="5" t="inlineStr"/>
-      <c r="H59" s="5" t="inlineStr">
+      <c r="G59" s="6" t="inlineStr"/>
+      <c r="H59" s="6" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I59" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I59" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -4602,45 +4605,45 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B80" s="5" t="inlineStr">
+      <c r="A80" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B80" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C80" s="5" t="inlineStr">
+      <c r="C80" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D80" s="5" t="inlineStr">
+      <c r="D80" s="6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E80" s="5" t="inlineStr">
+      <c r="E80" s="6" t="inlineStr">
         <is>
           <t>20/12/2025</t>
         </is>
       </c>
-      <c r="F80" s="5" t="inlineStr">
+      <c r="F80" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G80" s="5" t="inlineStr"/>
-      <c r="H80" s="5" t="inlineStr">
+      <c r="G80" s="6" t="inlineStr"/>
+      <c r="H80" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I80" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I80" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5482,45 +5485,45 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B100" s="5" t="inlineStr">
+      <c r="A100" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B100" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C100" s="5" t="inlineStr">
+      <c r="C100" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D100" s="5" t="inlineStr">
+      <c r="D100" s="6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E100" s="5" t="inlineStr">
+      <c r="E100" s="6" t="inlineStr">
         <is>
           <t>20/12/2025</t>
         </is>
       </c>
-      <c r="F100" s="5" t="inlineStr">
+      <c r="F100" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G100" s="5" t="inlineStr"/>
-      <c r="H100" s="5" t="inlineStr">
+      <c r="G100" s="6" t="inlineStr"/>
+      <c r="H100" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I100" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I100" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6362,45 +6365,45 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B120" s="5" t="inlineStr">
+      <c r="A120" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B120" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C120" s="5" t="inlineStr">
+      <c r="C120" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D120" s="5" t="inlineStr">
+      <c r="D120" s="6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E120" s="5" t="inlineStr">
+      <c r="E120" s="6" t="inlineStr">
         <is>
           <t>20/12/2025</t>
         </is>
       </c>
-      <c r="F120" s="5" t="inlineStr">
+      <c r="F120" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G120" s="5" t="inlineStr"/>
-      <c r="H120" s="5" t="inlineStr">
+      <c r="G120" s="6" t="inlineStr"/>
+      <c r="H120" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I120" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I120" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7242,45 +7245,45 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B140" s="5" t="inlineStr">
+      <c r="A140" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B140" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C140" s="5" t="inlineStr">
+      <c r="C140" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D140" s="5" t="inlineStr">
+      <c r="D140" s="6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E140" s="5" t="inlineStr">
+      <c r="E140" s="6" t="inlineStr">
         <is>
           <t>20/12/2025</t>
         </is>
       </c>
-      <c r="F140" s="5" t="inlineStr">
+      <c r="F140" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G140" s="5" t="inlineStr"/>
-      <c r="H140" s="5" t="inlineStr">
+      <c r="G140" s="6" t="inlineStr"/>
+      <c r="H140" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I140" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I140" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8122,45 +8125,45 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B160" s="5" t="inlineStr">
+      <c r="A160" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B160" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C160" s="5" t="inlineStr">
+      <c r="C160" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D160" s="5" t="inlineStr">
+      <c r="D160" s="6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E160" s="5" t="inlineStr">
+      <c r="E160" s="6" t="inlineStr">
         <is>
           <t>20/12/2025</t>
         </is>
       </c>
-      <c r="F160" s="5" t="inlineStr">
+      <c r="F160" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G160" s="5" t="inlineStr"/>
-      <c r="H160" s="5" t="inlineStr">
+      <c r="G160" s="6" t="inlineStr"/>
+      <c r="H160" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I160" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I160" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9002,45 +9005,45 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B180" s="5" t="inlineStr">
+      <c r="A180" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B180" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C180" s="5" t="inlineStr">
+      <c r="C180" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D180" s="5" t="inlineStr">
+      <c r="D180" s="6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E180" s="5" t="inlineStr">
+      <c r="E180" s="6" t="inlineStr">
         <is>
           <t>20/12/2025</t>
         </is>
       </c>
-      <c r="F180" s="5" t="inlineStr">
+      <c r="F180" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G180" s="5" t="inlineStr"/>
-      <c r="H180" s="5" t="inlineStr">
+      <c r="G180" s="6" t="inlineStr"/>
+      <c r="H180" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I180" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I180" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9929,45 +9932,45 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B201" s="5" t="inlineStr">
+      <c r="A201" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B201" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C201" s="5" t="inlineStr">
+      <c r="C201" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D201" s="5" t="inlineStr">
+      <c r="D201" s="6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E201" s="5" t="inlineStr">
+      <c r="E201" s="6" t="inlineStr">
         <is>
           <t>20/12/2025</t>
         </is>
       </c>
-      <c r="F201" s="5" t="inlineStr">
+      <c r="F201" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G201" s="5" t="inlineStr"/>
-      <c r="H201" s="5" t="inlineStr">
+      <c r="G201" s="6" t="inlineStr"/>
+      <c r="H201" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I201" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I201" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10856,45 +10859,45 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B222" s="5" t="inlineStr">
+      <c r="A222" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B222" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C222" s="5" t="inlineStr">
+      <c r="C222" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D222" s="5" t="inlineStr">
+      <c r="D222" s="6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E222" s="5" t="inlineStr">
+      <c r="E222" s="6" t="inlineStr">
         <is>
           <t>20/12/2025</t>
         </is>
       </c>
-      <c r="F222" s="5" t="inlineStr">
+      <c r="F222" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G222" s="5" t="inlineStr"/>
-      <c r="H222" s="5" t="inlineStr">
+      <c r="G222" s="6" t="inlineStr"/>
+      <c r="H222" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I222" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I222" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11783,45 +11786,45 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B243" s="5" t="inlineStr">
+      <c r="A243" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B243" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C243" s="5" t="inlineStr">
+      <c r="C243" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D243" s="5" t="inlineStr">
+      <c r="D243" s="6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E243" s="5" t="inlineStr">
+      <c r="E243" s="6" t="inlineStr">
         <is>
           <t>20/12/2025</t>
         </is>
       </c>
-      <c r="F243" s="5" t="inlineStr">
+      <c r="F243" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G243" s="5" t="inlineStr"/>
-      <c r="H243" s="5" t="inlineStr">
+      <c r="G243" s="6" t="inlineStr"/>
+      <c r="H243" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I243" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I243" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
@@ -7508,7 +7508,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="G185" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H185" s="2" t="inlineStr">
@@ -9370,7 +9370,7 @@
       </c>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="G208" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H208" s="2" t="inlineStr">
@@ -11130,7 +11130,7 @@
       </c>
       <c r="G227" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H227" s="2" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="G229" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H229" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
@@ -7508,7 +7508,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="G185" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H185" s="2" t="inlineStr">
@@ -9370,7 +9370,7 @@
       </c>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="G208" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H208" s="2" t="inlineStr">
@@ -11130,7 +11130,7 @@
       </c>
       <c r="G227" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H227" s="2" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="G229" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H229" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6875,7 +6875,7 @@
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8557,7 +8557,7 @@
       </c>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr">
@@ -9394,7 +9394,7 @@
       </c>
       <c r="G188" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H188" s="2" t="inlineStr">
@@ -10137,7 +10137,7 @@
       </c>
       <c r="G205" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H205" s="2" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
@@ -1392,10 +1392,10 @@
         <v>5</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1470,10 +1470,10 @@
         <v>5</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1548,10 +1548,10 @@
         <v>5</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1971,45 +1971,45 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C24" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D24" s="6" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E24" s="6" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>23/12/2025</t>
         </is>
       </c>
-      <c r="F24" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G24" s="6" t="inlineStr"/>
-      <c r="H24" s="6" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="inlineStr"/>
+      <c r="H24" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I24" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I24" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K24" s="4" t="inlineStr">
@@ -2032,10 +2032,10 @@
         <v>5</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         <v>5</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2188,10 +2188,10 @@
         <v>5</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -2978,45 +2978,45 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B43" s="6" t="inlineStr">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C43" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D43" s="6" t="inlineStr">
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E43" s="6" t="inlineStr">
+      <c r="E43" s="5" t="inlineStr">
         <is>
           <t>23/12/2025</t>
         </is>
       </c>
-      <c r="F43" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G43" s="6" t="inlineStr"/>
-      <c r="H43" s="6" t="inlineStr">
+      <c r="F43" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G43" s="5" t="inlineStr"/>
+      <c r="H43" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I43" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I43" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3815,45 +3815,45 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B62" s="6" t="inlineStr">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B62" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C62" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D62" s="6" t="inlineStr">
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E62" s="6" t="inlineStr">
+      <c r="E62" s="5" t="inlineStr">
         <is>
           <t>23/12/2025</t>
         </is>
       </c>
-      <c r="F62" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G62" s="6" t="inlineStr"/>
-      <c r="H62" s="6" t="inlineStr">
+      <c r="F62" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G62" s="5" t="inlineStr"/>
+      <c r="H62" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I62" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I62" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6878,7 +6878,7 @@
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -8560,7 +8560,7 @@
       </c>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -8622,45 +8622,45 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B171" s="6" t="inlineStr">
+      <c r="A171" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B171" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C171" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D171" s="6" t="inlineStr">
+      <c r="C171" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D171" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E171" s="6" t="inlineStr">
+      <c r="E171" s="5" t="inlineStr">
         <is>
           <t>23/12/2025</t>
         </is>
       </c>
-      <c r="F171" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G171" s="6" t="inlineStr"/>
-      <c r="H171" s="6" t="inlineStr">
+      <c r="F171" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G171" s="5" t="inlineStr"/>
+      <c r="H171" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I171" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I171" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr">
@@ -9397,7 +9397,7 @@
       </c>
       <c r="G188" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H188" s="2" t="inlineStr">
@@ -9459,45 +9459,45 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B190" s="6" t="inlineStr">
+      <c r="A190" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B190" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C190" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D190" s="6" t="inlineStr">
+      <c r="C190" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D190" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E190" s="6" t="inlineStr">
+      <c r="E190" s="5" t="inlineStr">
         <is>
           <t>23/12/2025</t>
         </is>
       </c>
-      <c r="F190" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G190" s="6" t="inlineStr"/>
-      <c r="H190" s="6" t="inlineStr">
+      <c r="F190" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G190" s="5" t="inlineStr"/>
+      <c r="H190" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I190" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I190" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="G205" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H205" s="2" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr">
@@ -10296,45 +10296,45 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B209" s="6" t="inlineStr">
+      <c r="A209" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B209" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C209" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D209" s="6" t="inlineStr">
+      <c r="C209" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D209" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E209" s="6" t="inlineStr">
+      <c r="E209" s="5" t="inlineStr">
         <is>
           <t>23/12/2025</t>
         </is>
       </c>
-      <c r="F209" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G209" s="6" t="inlineStr"/>
-      <c r="H209" s="6" t="inlineStr">
+      <c r="F209" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G209" s="5" t="inlineStr"/>
+      <c r="H209" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I209" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I209" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -94,9 +94,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -489,7 +486,7 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="28" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
     <col width="22" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="18" customWidth="1" min="13" max="13"/>
@@ -581,7 +578,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -819,7 +816,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -870,7 +867,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -973,7 +970,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>29.7%</t>
+          <t>32.4%</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1023,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>76.2%</t>
+          <t>77.4%</t>
         </is>
       </c>
     </row>
@@ -1393,22 +1390,22 @@
         <v>19</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>13</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
-          <t>26.3%</t>
+          <t>31.6%</t>
         </is>
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>70.3%</t>
+          <t>74.2%</t>
         </is>
       </c>
     </row>
@@ -1471,22 +1468,22 @@
         <v>19</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>13</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>26.3%</t>
+          <t>31.6%</t>
         </is>
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>53.7%</t>
+          <t>57.0%</t>
         </is>
       </c>
     </row>
@@ -1549,22 +1546,22 @@
         <v>19</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>13</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
-          <t>26.3%</t>
+          <t>31.6%</t>
         </is>
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>82.9%</t>
+          <t>82.5%</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1676,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1843,7 +1840,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1975,45 +1972,49 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C24" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D24" s="6" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E24" s="6" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>23/12/2025</t>
         </is>
       </c>
-      <c r="F24" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G24" s="6" t="inlineStr"/>
-      <c r="H24" s="6" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I24" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com, System</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>29/31</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
       <c r="K24" s="4" t="inlineStr">
@@ -2033,22 +2034,22 @@
         <v>19</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>13</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
-          <t>26.3%</t>
+          <t>31.6%</t>
         </is>
       </c>
       <c r="S24" s="4" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
     </row>
@@ -2111,22 +2112,22 @@
         <v>19</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>13</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
-          <t>26.3%</t>
+          <t>31.6%</t>
         </is>
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>69.0%</t>
+          <t>73.6%</t>
         </is>
       </c>
     </row>
@@ -2189,22 +2190,22 @@
         <v>19</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>13</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
-          <t>26.3%</t>
+          <t>31.6%</t>
         </is>
       </c>
       <c r="S26" s="4" t="inlineStr">
         <is>
-          <t>62.1%</t>
+          <t>68.4%</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2448,7 @@
           <t>Recorded</t>
         </is>
       </c>
-      <c r="L31" s="7" t="inlineStr">
+      <c r="L31" s="6" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
@@ -2505,7 +2506,7 @@
           <t>Not Recorded</t>
         </is>
       </c>
-      <c r="L32" s="8" t="inlineStr">
+      <c r="L32" s="7" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
@@ -2563,7 +2564,7 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="L33" s="9" t="inlineStr">
+      <c r="L33" s="8" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -2920,7 +2921,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -2982,45 +2983,49 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B43" s="6" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C43" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D43" s="6" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E43" s="6" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
         <is>
           <t>23/12/2025</t>
         </is>
       </c>
-      <c r="F43" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G43" s="6" t="inlineStr"/>
-      <c r="H43" s="6" t="inlineStr">
-        <is>
-          <t>0/19</t>
-        </is>
-      </c>
-      <c r="I43" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com, System</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>14/19</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3668,7 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -3757,7 +3762,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3819,45 +3824,49 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B62" s="6" t="inlineStr">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C62" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D62" s="6" t="inlineStr">
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E62" s="6" t="inlineStr">
+      <c r="E62" s="2" t="inlineStr">
         <is>
           <t>23/12/2025</t>
         </is>
       </c>
-      <c r="F62" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G62" s="6" t="inlineStr"/>
-      <c r="H62" s="6" t="inlineStr">
-        <is>
-          <t>0/21</t>
-        </is>
-      </c>
-      <c r="I62" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com, System</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>17/21</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -4500,7 +4509,7 @@
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
@@ -5298,7 +5307,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -6096,7 +6105,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6894,7 +6903,7 @@
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -7692,7 +7701,7 @@
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -8490,7 +8499,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8584,7 +8593,7 @@
       </c>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -8646,45 +8655,49 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B171" s="6" t="inlineStr">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C171" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D171" s="6" t="inlineStr">
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E171" s="6" t="inlineStr">
+      <c r="E171" s="2" t="inlineStr">
         <is>
           <t>23/12/2025</t>
         </is>
       </c>
-      <c r="F171" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G171" s="6" t="inlineStr"/>
-      <c r="H171" s="6" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I171" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F171" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G171" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com, System</t>
+        </is>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>27/27</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -9327,7 +9340,7 @@
       </c>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr">
@@ -9421,7 +9434,7 @@
       </c>
       <c r="G188" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H188" s="2" t="inlineStr">
@@ -9483,45 +9496,49 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B190" s="6" t="inlineStr">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C190" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D190" s="6" t="inlineStr">
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E190" s="6" t="inlineStr">
+      <c r="E190" s="2" t="inlineStr">
         <is>
           <t>23/12/2025</t>
         </is>
       </c>
-      <c r="F190" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G190" s="6" t="inlineStr"/>
-      <c r="H190" s="6" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I190" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F190" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G190" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com, System</t>
+        </is>
+      </c>
+      <c r="H190" s="2" t="inlineStr">
+        <is>
+          <t>28/29</t>
+        </is>
+      </c>
+      <c r="I190" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -10164,7 +10181,7 @@
       </c>
       <c r="G205" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H205" s="2" t="inlineStr">
@@ -10258,7 +10275,7 @@
       </c>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr">
@@ -10320,45 +10337,49 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B209" s="6" t="inlineStr">
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C209" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D209" s="6" t="inlineStr">
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E209" s="6" t="inlineStr">
+      <c r="E209" s="2" t="inlineStr">
         <is>
           <t>23/12/2025</t>
         </is>
       </c>
-      <c r="F209" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G209" s="6" t="inlineStr"/>
-      <c r="H209" s="6" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I209" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F209" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G209" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com, System</t>
+        </is>
+      </c>
+      <c r="H209" s="2" t="inlineStr">
+        <is>
+          <t>29/29</t>
+        </is>
+      </c>
+      <c r="I209" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -94,9 +94,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -489,7 +486,7 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="28" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
     <col width="22" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="18" customWidth="1" min="13" max="13"/>
@@ -819,7 +816,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -870,7 +867,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -973,7 +970,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>32.4%</t>
+          <t>35.1%</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1023,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>77.5%</t>
         </is>
       </c>
     </row>
@@ -1393,22 +1390,22 @@
         <v>19</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>12</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
-          <t>31.6%</t>
+          <t>36.8%</t>
         </is>
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>74.2%</t>
+          <t>73.7%</t>
         </is>
       </c>
     </row>
@@ -1471,22 +1468,22 @@
         <v>19</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>12</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>31.6%</t>
+          <t>36.8%</t>
         </is>
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>57.0%</t>
+          <t>58.6%</t>
         </is>
       </c>
     </row>
@@ -1549,22 +1546,22 @@
         <v>19</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>12</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
-          <t>31.6%</t>
+          <t>36.8%</t>
         </is>
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>82.5%</t>
+          <t>83.7%</t>
         </is>
       </c>
     </row>
@@ -2037,65 +2034,69 @@
         <v>19</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>12</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
-          <t>31.6%</t>
+          <t>36.8%</t>
         </is>
       </c>
       <c r="S24" s="4" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>69.8%</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B25" s="6" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C25" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D25" s="6" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E25" s="6" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F25" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G25" s="6" t="inlineStr"/>
-      <c r="H25" s="6" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I25" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>22/31</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
       <c r="K25" s="4" t="inlineStr">
@@ -2115,22 +2116,22 @@
         <v>19</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>12</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
-          <t>31.6%</t>
+          <t>36.8%</t>
         </is>
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>73.6%</t>
+          <t>73.9%</t>
         </is>
       </c>
     </row>
@@ -2193,22 +2194,22 @@
         <v>19</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>12</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
-          <t>31.6%</t>
+          <t>36.8%</t>
         </is>
       </c>
       <c r="S26" s="4" t="inlineStr">
         <is>
-          <t>68.4%</t>
+          <t>69.5%</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2452,7 @@
           <t>Recorded</t>
         </is>
       </c>
-      <c r="L31" s="7" t="inlineStr">
+      <c r="L31" s="6" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
@@ -2509,7 +2510,7 @@
           <t>Not Recorded</t>
         </is>
       </c>
-      <c r="L32" s="8" t="inlineStr">
+      <c r="L32" s="7" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
@@ -2567,7 +2568,7 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="L33" s="9" t="inlineStr">
+      <c r="L33" s="8" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
@@ -3033,45 +3034,49 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B44" s="6" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C44" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D44" s="6" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E44" s="6" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F44" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G44" s="6" t="inlineStr"/>
-      <c r="H44" s="6" t="inlineStr">
-        <is>
-          <t>0/19</t>
-        </is>
-      </c>
-      <c r="I44" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>13/19</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -3874,45 +3879,49 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B63" s="6" t="inlineStr">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C63" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D63" s="6" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E63" s="6" t="inlineStr">
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F63" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G63" s="6" t="inlineStr"/>
-      <c r="H63" s="6" t="inlineStr">
-        <is>
-          <t>0/21</t>
-        </is>
-      </c>
-      <c r="I63" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>19/21</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -8705,45 +8714,49 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B172" s="6" t="inlineStr">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C172" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D172" s="6" t="inlineStr">
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E172" s="6" t="inlineStr">
+      <c r="E172" s="2" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F172" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G172" s="6" t="inlineStr"/>
-      <c r="H172" s="6" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I172" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G172" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>24/27</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -9546,45 +9559,49 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B191" s="6" t="inlineStr">
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C191" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D191" s="6" t="inlineStr">
+      <c r="C191" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E191" s="6" t="inlineStr">
+      <c r="E191" s="2" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F191" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G191" s="6" t="inlineStr"/>
-      <c r="H191" s="6" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I191" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F191" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G191" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H191" s="2" t="inlineStr">
+        <is>
+          <t>22/29</t>
+        </is>
+      </c>
+      <c r="I191" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -10387,45 +10404,49 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B210" s="6" t="inlineStr">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C210" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D210" s="6" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E210" s="6" t="inlineStr">
+      <c r="E210" s="2" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F210" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G210" s="6" t="inlineStr"/>
-      <c r="H210" s="6" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I210" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F210" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G210" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>22/29</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
@@ -5319,7 +5319,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -5366,7 +5366,7 @@
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
@@ -7713,7 +7713,7 @@
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
@@ -8511,7 +8511,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8558,7 +8558,7 @@
       </c>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -8605,7 +8605,7 @@
       </c>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -9356,7 +9356,7 @@
       </c>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr">
@@ -9450,7 +9450,7 @@
       </c>
       <c r="G188" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H188" s="2" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="G190" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H190" s="2" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="G205" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H205" s="2" t="inlineStr">
@@ -10248,7 +10248,7 @@
       </c>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr">
@@ -10295,7 +10295,7 @@
       </c>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="G209" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H209" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -94,6 +94,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -486,7 +489,7 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="28" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
     <col width="22" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="18" customWidth="1" min="13" max="13"/>
@@ -578,7 +581,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -630,7 +633,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -867,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -918,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
@@ -1315,10 +1318,10 @@
         <v>6</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1332,45 +1335,45 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D16" s="5" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="E16" s="6" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="F16" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr">
+      <c r="G16" s="6" t="inlineStr"/>
+      <c r="H16" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I16" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I16" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K16" s="4" t="inlineStr">
@@ -1393,10 +1396,10 @@
         <v>7</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1471,10 +1474,10 @@
         <v>7</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1549,10 +1552,10 @@
         <v>7</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1627,10 +1630,10 @@
         <v>6</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1676,7 +1679,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1709,10 +1712,10 @@
         <v>6</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1758,7 +1761,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1791,10 +1794,10 @@
         <v>6</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1840,7 +1843,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1873,10 +1876,10 @@
         <v>6</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1955,10 +1958,10 @@
         <v>6</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2004,7 +2007,7 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2037,10 +2040,10 @@
         <v>7</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2119,10 +2122,10 @@
         <v>7</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2197,10 +2200,10 @@
         <v>7</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -2452,7 +2455,7 @@
           <t>Recorded</t>
         </is>
       </c>
-      <c r="L31" s="6" t="inlineStr">
+      <c r="L31" s="7" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
@@ -2510,7 +2513,7 @@
           <t>Not Recorded</t>
         </is>
       </c>
-      <c r="L32" s="7" t="inlineStr">
+      <c r="L32" s="8" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
@@ -2568,7 +2571,7 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="L33" s="8" t="inlineStr">
+      <c r="L33" s="9" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
@@ -2627,45 +2630,45 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B35" s="5" t="inlineStr">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B35" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C35" s="5" t="inlineStr">
+      <c r="C35" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D35" s="5" t="inlineStr">
+      <c r="D35" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E35" s="5" t="inlineStr">
+      <c r="E35" s="6" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F35" s="5" t="inlineStr">
+      <c r="F35" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G35" s="5" t="inlineStr"/>
-      <c r="H35" s="5" t="inlineStr">
+      <c r="G35" s="6" t="inlineStr"/>
+      <c r="H35" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I35" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I35" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2834,7 @@
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -2878,7 +2881,7 @@
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -2925,7 +2928,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -3019,7 +3022,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3472,45 +3475,45 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B54" s="5" t="inlineStr">
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B54" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C54" s="5" t="inlineStr">
+      <c r="C54" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D54" s="5" t="inlineStr">
+      <c r="D54" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E54" s="5" t="inlineStr">
+      <c r="E54" s="6" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F54" s="5" t="inlineStr">
+      <c r="F54" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G54" s="5" t="inlineStr"/>
-      <c r="H54" s="5" t="inlineStr">
+      <c r="G54" s="6" t="inlineStr"/>
+      <c r="H54" s="6" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I54" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I54" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3679,7 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -3723,7 +3726,7 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -3770,7 +3773,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3864,7 +3867,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -4317,45 +4320,45 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B73" s="5" t="inlineStr">
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C73" s="5" t="inlineStr">
+      <c r="C73" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D73" s="5" t="inlineStr">
+      <c r="D73" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E73" s="5" t="inlineStr">
+      <c r="E73" s="6" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F73" s="5" t="inlineStr">
+      <c r="F73" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G73" s="5" t="inlineStr"/>
-      <c r="H73" s="5" t="inlineStr">
+      <c r="G73" s="6" t="inlineStr"/>
+      <c r="H73" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I73" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I73" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4524,7 @@
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
@@ -4568,7 +4571,7 @@
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
@@ -5115,45 +5118,45 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B91" s="5" t="inlineStr">
+      <c r="A91" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B91" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C91" s="5" t="inlineStr">
+      <c r="C91" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D91" s="5" t="inlineStr">
+      <c r="D91" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E91" s="5" t="inlineStr">
+      <c r="E91" s="6" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F91" s="5" t="inlineStr">
+      <c r="F91" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G91" s="5" t="inlineStr"/>
-      <c r="H91" s="5" t="inlineStr">
+      <c r="G91" s="6" t="inlineStr"/>
+      <c r="H91" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I91" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I91" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5319,7 +5322,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -5366,7 +5369,7 @@
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -5913,45 +5916,45 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B109" s="5" t="inlineStr">
+      <c r="A109" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B109" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C109" s="5" t="inlineStr">
+      <c r="C109" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D109" s="5" t="inlineStr">
+      <c r="D109" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E109" s="5" t="inlineStr">
+      <c r="E109" s="6" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F109" s="5" t="inlineStr">
+      <c r="F109" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G109" s="5" t="inlineStr"/>
-      <c r="H109" s="5" t="inlineStr">
+      <c r="G109" s="6" t="inlineStr"/>
+      <c r="H109" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I109" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I109" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6120,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6164,7 +6167,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6711,45 +6714,45 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B127" s="5" t="inlineStr">
+      <c r="A127" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B127" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C127" s="5" t="inlineStr">
+      <c r="C127" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D127" s="5" t="inlineStr">
+      <c r="D127" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E127" s="5" t="inlineStr">
+      <c r="E127" s="6" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F127" s="5" t="inlineStr">
+      <c r="F127" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G127" s="5" t="inlineStr"/>
-      <c r="H127" s="5" t="inlineStr">
+      <c r="G127" s="6" t="inlineStr"/>
+      <c r="H127" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I127" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I127" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6915,7 +6918,7 @@
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -6962,7 +6965,7 @@
       </c>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
@@ -7509,45 +7512,45 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B145" s="5" t="inlineStr">
+      <c r="A145" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B145" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C145" s="5" t="inlineStr">
+      <c r="C145" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D145" s="5" t="inlineStr">
+      <c r="D145" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E145" s="5" t="inlineStr">
+      <c r="E145" s="6" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F145" s="5" t="inlineStr">
+      <c r="F145" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G145" s="5" t="inlineStr"/>
-      <c r="H145" s="5" t="inlineStr">
+      <c r="G145" s="6" t="inlineStr"/>
+      <c r="H145" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I145" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I145" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7713,7 +7716,7 @@
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -7760,7 +7763,7 @@
       </c>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
@@ -8307,45 +8310,45 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B163" s="5" t="inlineStr">
+      <c r="A163" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B163" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C163" s="5" t="inlineStr">
+      <c r="C163" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D163" s="5" t="inlineStr">
+      <c r="D163" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E163" s="5" t="inlineStr">
+      <c r="E163" s="6" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F163" s="5" t="inlineStr">
+      <c r="F163" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G163" s="5" t="inlineStr"/>
-      <c r="H163" s="5" t="inlineStr">
+      <c r="G163" s="6" t="inlineStr"/>
+      <c r="H163" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I163" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I163" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8514,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8558,7 +8561,7 @@
       </c>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -8605,7 +8608,7 @@
       </c>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -8699,7 +8702,7 @@
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -9152,45 +9155,45 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B182" s="5" t="inlineStr">
+      <c r="A182" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B182" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C182" s="5" t="inlineStr">
+      <c r="C182" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D182" s="5" t="inlineStr">
+      <c r="D182" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E182" s="5" t="inlineStr">
+      <c r="E182" s="6" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F182" s="5" t="inlineStr">
+      <c r="F182" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G182" s="5" t="inlineStr"/>
-      <c r="H182" s="5" t="inlineStr">
+      <c r="G182" s="6" t="inlineStr"/>
+      <c r="H182" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I182" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I182" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9356,7 +9359,7 @@
       </c>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr">
@@ -9403,7 +9406,7 @@
       </c>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr">
@@ -9450,7 +9453,7 @@
       </c>
       <c r="G188" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H188" s="2" t="inlineStr">
@@ -9544,7 +9547,7 @@
       </c>
       <c r="G190" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H190" s="2" t="inlineStr">
@@ -9997,45 +10000,45 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B201" s="5" t="inlineStr">
+      <c r="A201" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B201" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C201" s="5" t="inlineStr">
+      <c r="C201" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D201" s="5" t="inlineStr">
+      <c r="D201" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E201" s="5" t="inlineStr">
+      <c r="E201" s="6" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F201" s="5" t="inlineStr">
+      <c r="F201" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G201" s="5" t="inlineStr"/>
-      <c r="H201" s="5" t="inlineStr">
+      <c r="G201" s="6" t="inlineStr"/>
+      <c r="H201" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I201" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I201" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10201,7 +10204,7 @@
       </c>
       <c r="G205" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H205" s="2" t="inlineStr">
@@ -10248,7 +10251,7 @@
       </c>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr">
@@ -10295,7 +10298,7 @@
       </c>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr">
@@ -10389,7 +10392,7 @@
       </c>
       <c r="G209" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H209" s="2" t="inlineStr">
@@ -10842,45 +10845,45 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B220" s="5" t="inlineStr">
+      <c r="A220" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B220" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C220" s="5" t="inlineStr">
+      <c r="C220" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D220" s="5" t="inlineStr">
+      <c r="D220" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E220" s="5" t="inlineStr">
+      <c r="E220" s="6" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F220" s="5" t="inlineStr">
+      <c r="F220" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G220" s="5" t="inlineStr"/>
-      <c r="H220" s="5" t="inlineStr">
+      <c r="G220" s="6" t="inlineStr"/>
+      <c r="H220" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I220" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I220" s="6" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -94,9 +94,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -489,7 +486,7 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="28" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
     <col width="22" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="18" customWidth="1" min="13" max="13"/>
@@ -819,7 +816,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -870,7 +867,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -973,7 +970,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>35.1%</t>
+          <t>40.5%</t>
         </is>
       </c>
     </row>
@@ -1315,65 +1312,69 @@
         <v>18</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>11</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="S15" s="4" t="inlineStr">
         <is>
-          <t>76.5%</t>
+          <t>76.7%</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C16" s="6" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D16" s="6" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E16" s="6" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F16" s="6" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G16" s="6" t="inlineStr"/>
-      <c r="H16" s="6" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I16" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>21/27</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
       <c r="K16" s="4" t="inlineStr">
@@ -1393,22 +1394,22 @@
         <v>19</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>11</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
-          <t>36.8%</t>
+          <t>42.1%</t>
         </is>
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>73.7%</t>
+          <t>71.8%</t>
         </is>
       </c>
     </row>
@@ -1471,22 +1472,22 @@
         <v>19</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>11</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>36.8%</t>
+          <t>42.1%</t>
         </is>
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>58.6%</t>
+          <t>59.9%</t>
         </is>
       </c>
     </row>
@@ -1549,22 +1550,22 @@
         <v>19</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>11</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
-          <t>36.8%</t>
+          <t>42.1%</t>
         </is>
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>83.7%</t>
+          <t>83.9%</t>
         </is>
       </c>
     </row>
@@ -1627,22 +1628,22 @@
         <v>18</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>11</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>89.2%</t>
+          <t>88.0%</t>
         </is>
       </c>
     </row>
@@ -1709,22 +1710,22 @@
         <v>18</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>11</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>91.1%</t>
+          <t>90.8%</t>
         </is>
       </c>
     </row>
@@ -1791,22 +1792,22 @@
         <v>18</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>11</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>92.5%</t>
+          <t>89.7%</t>
         </is>
       </c>
     </row>
@@ -1873,22 +1874,22 @@
         <v>18</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>11</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>91.4%</t>
+          <t>90.5%</t>
         </is>
       </c>
     </row>
@@ -1955,22 +1956,22 @@
         <v>18</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>11</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="S23" s="4" t="inlineStr">
         <is>
-          <t>65.6%</t>
+          <t>67.6%</t>
         </is>
       </c>
     </row>
@@ -2037,22 +2038,22 @@
         <v>19</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>11</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
-          <t>36.8%</t>
+          <t>42.1%</t>
         </is>
       </c>
       <c r="S24" s="4" t="inlineStr">
         <is>
-          <t>69.8%</t>
+          <t>70.4%</t>
         </is>
       </c>
     </row>
@@ -2119,22 +2120,22 @@
         <v>19</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>11</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
-          <t>36.8%</t>
+          <t>42.1%</t>
         </is>
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>73.9%</t>
+          <t>74.6%</t>
         </is>
       </c>
     </row>
@@ -2197,22 +2198,22 @@
         <v>19</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>11</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
-          <t>36.8%</t>
+          <t>42.1%</t>
         </is>
       </c>
       <c r="S26" s="4" t="inlineStr">
         <is>
-          <t>69.5%</t>
+          <t>71.1%</t>
         </is>
       </c>
     </row>
@@ -2455,7 +2456,7 @@
           <t>Recorded</t>
         </is>
       </c>
-      <c r="L31" s="7" t="inlineStr">
+      <c r="L31" s="6" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
@@ -2513,7 +2514,7 @@
           <t>Not Recorded</t>
         </is>
       </c>
-      <c r="L32" s="8" t="inlineStr">
+      <c r="L32" s="7" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
@@ -2571,7 +2572,7 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="L33" s="9" t="inlineStr">
+      <c r="L33" s="8" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
@@ -2630,45 +2631,49 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B35" s="6" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C35" s="6" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D35" s="6" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E35" s="6" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F35" s="6" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G35" s="6" t="inlineStr"/>
-      <c r="H35" s="6" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I35" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>18/31</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -3475,45 +3480,49 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B54" s="6" t="inlineStr">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C54" s="6" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D54" s="6" t="inlineStr">
+      <c r="D54" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E54" s="6" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F54" s="6" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G54" s="6" t="inlineStr"/>
-      <c r="H54" s="6" t="inlineStr">
-        <is>
-          <t>0/19</t>
-        </is>
-      </c>
-      <c r="I54" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>13/19</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -4320,45 +4329,49 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B73" s="6" t="inlineStr">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C73" s="6" t="inlineStr">
+      <c r="C73" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D73" s="6" t="inlineStr">
+      <c r="D73" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E73" s="6" t="inlineStr">
+      <c r="E73" s="2" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F73" s="6" t="inlineStr">
+      <c r="F73" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G73" s="6" t="inlineStr"/>
-      <c r="H73" s="6" t="inlineStr">
-        <is>
-          <t>0/21</t>
-        </is>
-      </c>
-      <c r="I73" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G73" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>18/21</t>
+        </is>
+      </c>
+      <c r="I73" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -5118,45 +5131,49 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B91" s="6" t="inlineStr">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C91" s="6" t="inlineStr">
+      <c r="C91" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D91" s="6" t="inlineStr">
+      <c r="D91" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E91" s="6" t="inlineStr">
+      <c r="E91" s="2" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F91" s="6" t="inlineStr">
+      <c r="F91" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G91" s="6" t="inlineStr"/>
-      <c r="H91" s="6" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I91" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G91" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="inlineStr">
+        <is>
+          <t>25/31</t>
+        </is>
+      </c>
+      <c r="I91" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -5916,45 +5933,49 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B109" s="6" t="inlineStr">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C109" s="6" t="inlineStr">
+      <c r="C109" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D109" s="6" t="inlineStr">
+      <c r="D109" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E109" s="6" t="inlineStr">
+      <c r="E109" s="2" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F109" s="6" t="inlineStr">
+      <c r="F109" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G109" s="6" t="inlineStr"/>
-      <c r="H109" s="6" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I109" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G109" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>25/28</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -6714,45 +6735,49 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B127" s="6" t="inlineStr">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C127" s="6" t="inlineStr">
+      <c r="C127" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D127" s="6" t="inlineStr">
+      <c r="D127" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E127" s="6" t="inlineStr">
+      <c r="E127" s="2" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F127" s="6" t="inlineStr">
+      <c r="F127" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G127" s="6" t="inlineStr"/>
-      <c r="H127" s="6" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I127" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G127" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>21/29</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -7512,45 +7537,49 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B145" s="6" t="inlineStr">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C145" s="6" t="inlineStr">
+      <c r="C145" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D145" s="6" t="inlineStr">
+      <c r="D145" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E145" s="6" t="inlineStr">
+      <c r="E145" s="2" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F145" s="6" t="inlineStr">
+      <c r="F145" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G145" s="6" t="inlineStr"/>
-      <c r="H145" s="6" t="inlineStr">
-        <is>
-          <t>0/33</t>
-        </is>
-      </c>
-      <c r="I145" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G145" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>28/33</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -8310,45 +8339,49 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B163" s="6" t="inlineStr">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C163" s="6" t="inlineStr">
+      <c r="C163" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D163" s="6" t="inlineStr">
+      <c r="D163" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E163" s="6" t="inlineStr">
+      <c r="E163" s="2" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F163" s="6" t="inlineStr">
+      <c r="F163" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G163" s="6" t="inlineStr"/>
-      <c r="H163" s="6" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I163" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G163" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H163" s="2" t="inlineStr">
+        <is>
+          <t>24/30</t>
+        </is>
+      </c>
+      <c r="I163" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -9155,45 +9188,49 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B182" s="6" t="inlineStr">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C182" s="6" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D182" s="6" t="inlineStr">
+      <c r="D182" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E182" s="6" t="inlineStr">
+      <c r="E182" s="2" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F182" s="6" t="inlineStr">
+      <c r="F182" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G182" s="6" t="inlineStr"/>
-      <c r="H182" s="6" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I182" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G182" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>20/27</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -10000,45 +10037,49 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B201" s="6" t="inlineStr">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C201" s="6" t="inlineStr">
+      <c r="C201" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D201" s="6" t="inlineStr">
+      <c r="D201" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E201" s="6" t="inlineStr">
+      <c r="E201" s="2" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F201" s="6" t="inlineStr">
+      <c r="F201" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G201" s="6" t="inlineStr"/>
-      <c r="H201" s="6" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I201" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G201" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
+        <is>
+          <t>23/29</t>
+        </is>
+      </c>
+      <c r="I201" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -10845,45 +10886,49 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B220" s="6" t="inlineStr">
+      <c r="A220" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C220" s="6" t="inlineStr">
+      <c r="C220" s="2" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D220" s="6" t="inlineStr">
+      <c r="D220" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E220" s="6" t="inlineStr">
+      <c r="E220" s="2" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F220" s="6" t="inlineStr">
+      <c r="F220" s="2" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G220" s="6" t="inlineStr"/>
-      <c r="H220" s="6" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I220" s="6" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="G220" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>24/29</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -58,14 +58,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFB6C1"/>
-        <bgColor rgb="00FFB6C1"/>
+        <fgColor rgb="00FFFFE0"/>
+        <bgColor rgb="00FFFFE0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFE0"/>
-        <bgColor rgb="00FFFFE0"/>
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
       </patternFill>
     </fill>
   </fills>
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -96,16 +96,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,7 +486,7 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="28" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
     <col width="22" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="18" customWidth="1" min="13" max="13"/>
@@ -581,7 +578,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -633,7 +630,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -819,98 +816,102 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>25/27</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="inlineStr">
+        <is>
+          <t>Missing Sessions</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>B1-1</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Missing Sessions</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>B1-1</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>29/12/2025</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G8" s="6" t="inlineStr"/>
-      <c r="H8" s="6" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I8" s="6" t="inlineStr">
+      <c r="I8" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -925,43 +926,43 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E9" s="6" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G9" s="6" t="inlineStr"/>
-      <c r="H9" s="6" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I9" s="6" t="inlineStr">
+      <c r="I9" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -973,48 +974,48 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>40.5%</t>
+          <t>43.2%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G10" s="6" t="inlineStr"/>
-      <c r="H10" s="6" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I10" s="6" t="inlineStr">
+      <c r="I10" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1026,134 +1027,134 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>77.5%</t>
+          <t>78.3%</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E11" s="6" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F11" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G11" s="6" t="inlineStr"/>
-      <c r="H11" s="6" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I11" s="6" t="inlineStr">
+      <c r="I11" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E12" s="6" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F12" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G12" s="6" t="inlineStr"/>
-      <c r="H12" s="6" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I12" s="6" t="inlineStr">
+      <c r="I12" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E13" s="6" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F13" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G13" s="6" t="inlineStr"/>
-      <c r="H13" s="6" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I13" s="6" t="inlineStr">
+      <c r="I13" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1165,43 +1166,43 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E14" s="6" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F14" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G14" s="6" t="inlineStr"/>
-      <c r="H14" s="6" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I14" s="6" t="inlineStr">
+      <c r="I14" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1315,22 +1316,22 @@
         <v>18</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>10</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
-          <t>38.9%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="S15" s="4" t="inlineStr">
         <is>
-          <t>76.7%</t>
+          <t>78.7%</t>
         </is>
       </c>
     </row>
@@ -1417,43 +1418,43 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C17" s="6" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D17" s="6" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E17" s="6" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F17" s="6" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G17" s="6" t="inlineStr"/>
-      <c r="H17" s="6" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr"/>
+      <c r="H17" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I17" s="6" t="inlineStr">
+      <c r="I17" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1495,43 +1496,43 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D18" s="6" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E18" s="6" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F18" s="6" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G18" s="6" t="inlineStr"/>
-      <c r="H18" s="6" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr"/>
+      <c r="H18" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I18" s="6" t="inlineStr">
+      <c r="I18" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1573,43 +1574,43 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D19" s="6" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E19" s="6" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F19" s="6" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G19" s="6" t="inlineStr"/>
-      <c r="H19" s="6" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr"/>
+      <c r="H19" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I19" s="6" t="inlineStr">
+      <c r="I19" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1631,22 +1632,22 @@
         <v>18</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>10</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
-          <t>38.9%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>88.0%</t>
+          <t>88.3%</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1684,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1713,22 +1714,22 @@
         <v>18</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>10</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
-          <t>38.9%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>90.8%</t>
+          <t>92.0%</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1766,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1795,22 +1796,22 @@
         <v>18</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>10</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
-          <t>38.9%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>89.7%</t>
+          <t>88.4%</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1848,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1877,22 +1878,22 @@
         <v>18</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>10</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
-          <t>38.9%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>90.5%</t>
+          <t>91.3%</t>
         </is>
       </c>
     </row>
@@ -1959,22 +1960,22 @@
         <v>18</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>10</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
-          <t>38.9%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="S23" s="4" t="inlineStr">
         <is>
-          <t>67.6%</t>
+          <t>69.6%</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2012,7 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2143,43 +2144,43 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B26" s="6" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D26" s="6" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E26" s="6" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F26" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G26" s="6" t="inlineStr"/>
-      <c r="H26" s="6" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr"/>
+      <c r="H26" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I26" s="6" t="inlineStr">
+      <c r="I26" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2221,129 +2222,129 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B27" s="6" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D27" s="6" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E27" s="6" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F27" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G27" s="6" t="inlineStr"/>
-      <c r="H27" s="6" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr"/>
+      <c r="H27" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I27" s="6" t="inlineStr">
+      <c r="I27" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B28" s="6" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C28" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D28" s="6" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E28" s="6" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F28" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G28" s="6" t="inlineStr"/>
-      <c r="H28" s="6" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr"/>
+      <c r="H28" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I28" s="6" t="inlineStr">
+      <c r="I28" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B29" s="6" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C29" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D29" s="6" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E29" s="6" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F29" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G29" s="6" t="inlineStr"/>
-      <c r="H29" s="6" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr"/>
+      <c r="H29" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I29" s="6" t="inlineStr">
+      <c r="I29" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2355,43 +2356,43 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C30" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D30" s="6" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E30" s="6" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F30" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G30" s="6" t="inlineStr"/>
-      <c r="H30" s="6" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr"/>
+      <c r="H30" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I30" s="6" t="inlineStr">
+      <c r="I30" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2413,43 +2414,43 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B31" s="6" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C31" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D31" s="6" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E31" s="6" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F31" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G31" s="6" t="inlineStr"/>
-      <c r="H31" s="6" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="inlineStr"/>
+      <c r="H31" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I31" s="6" t="inlineStr">
+      <c r="I31" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2459,7 +2460,7 @@
           <t>Recorded</t>
         </is>
       </c>
-      <c r="L31" s="7" t="inlineStr">
+      <c r="L31" s="6" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
@@ -2471,43 +2472,43 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B32" s="6" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C32" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D32" s="6" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E32" s="6" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F32" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G32" s="6" t="inlineStr"/>
-      <c r="H32" s="6" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G32" s="5" t="inlineStr"/>
+      <c r="H32" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I32" s="6" t="inlineStr">
+      <c r="I32" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2517,7 +2518,7 @@
           <t>Not Recorded</t>
         </is>
       </c>
-      <c r="L32" s="8" t="inlineStr">
+      <c r="L32" s="7" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
@@ -2529,43 +2530,43 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B33" s="6" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C33" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D33" s="6" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E33" s="6" t="inlineStr">
+      <c r="E33" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F33" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G33" s="6" t="inlineStr"/>
-      <c r="H33" s="6" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G33" s="5" t="inlineStr"/>
+      <c r="H33" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I33" s="6" t="inlineStr">
+      <c r="I33" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2575,7 +2576,7 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="L33" s="9" t="inlineStr">
+      <c r="L33" s="8" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
@@ -2681,129 +2682,129 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B36" s="6" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C36" s="6" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D36" s="6" t="inlineStr">
+      <c r="D36" s="5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E36" s="6" t="inlineStr">
+      <c r="E36" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F36" s="6" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G36" s="6" t="inlineStr"/>
-      <c r="H36" s="6" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr"/>
+      <c r="H36" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I36" s="6" t="inlineStr">
+      <c r="I36" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B37" s="6" t="inlineStr">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C37" s="6" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D37" s="6" t="inlineStr">
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E37" s="6" t="inlineStr">
+      <c r="E37" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F37" s="6" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G37" s="6" t="inlineStr"/>
-      <c r="H37" s="6" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr"/>
+      <c r="H37" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I37" s="6" t="inlineStr">
+      <c r="I37" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B38" s="6" t="inlineStr">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C38" s="6" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D38" s="6" t="inlineStr">
+      <c r="D38" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E38" s="6" t="inlineStr">
+      <c r="E38" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F38" s="6" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G38" s="6" t="inlineStr"/>
-      <c r="H38" s="6" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr"/>
+      <c r="H38" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I38" s="6" t="inlineStr">
+      <c r="I38" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2842,7 +2843,7 @@
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -2889,7 +2890,7 @@
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -2936,7 +2937,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -3030,7 +3031,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3092,344 +3093,344 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B45" s="6" t="inlineStr">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C45" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D45" s="6" t="inlineStr">
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E45" s="6" t="inlineStr">
+      <c r="E45" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F45" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G45" s="6" t="inlineStr"/>
-      <c r="H45" s="6" t="inlineStr">
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G45" s="5" t="inlineStr"/>
+      <c r="H45" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I45" s="6" t="inlineStr">
+      <c r="I45" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B46" s="6" t="inlineStr">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C46" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D46" s="6" t="inlineStr">
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E46" s="6" t="inlineStr">
+      <c r="E46" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F46" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G46" s="6" t="inlineStr"/>
-      <c r="H46" s="6" t="inlineStr">
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G46" s="5" t="inlineStr"/>
+      <c r="H46" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I46" s="6" t="inlineStr">
+      <c r="I46" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B47" s="6" t="inlineStr">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B47" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C47" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D47" s="6" t="inlineStr">
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E47" s="6" t="inlineStr">
+      <c r="E47" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F47" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G47" s="6" t="inlineStr"/>
-      <c r="H47" s="6" t="inlineStr">
+      <c r="F47" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G47" s="5" t="inlineStr"/>
+      <c r="H47" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I47" s="6" t="inlineStr">
+      <c r="I47" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B48" s="6" t="inlineStr">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C48" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D48" s="6" t="inlineStr">
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E48" s="6" t="inlineStr">
+      <c r="E48" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F48" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G48" s="6" t="inlineStr"/>
-      <c r="H48" s="6" t="inlineStr">
+      <c r="F48" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G48" s="5" t="inlineStr"/>
+      <c r="H48" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I48" s="6" t="inlineStr">
+      <c r="I48" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B49" s="6" t="inlineStr">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B49" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C49" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D49" s="6" t="inlineStr">
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E49" s="6" t="inlineStr">
+      <c r="E49" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F49" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G49" s="6" t="inlineStr"/>
-      <c r="H49" s="6" t="inlineStr">
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G49" s="5" t="inlineStr"/>
+      <c r="H49" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I49" s="6" t="inlineStr">
+      <c r="I49" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B50" s="6" t="inlineStr">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B50" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C50" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D50" s="6" t="inlineStr">
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E50" s="6" t="inlineStr">
+      <c r="E50" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F50" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G50" s="6" t="inlineStr"/>
-      <c r="H50" s="6" t="inlineStr">
+      <c r="F50" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G50" s="5" t="inlineStr"/>
+      <c r="H50" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I50" s="6" t="inlineStr">
+      <c r="I50" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B51" s="6" t="inlineStr">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C51" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D51" s="6" t="inlineStr">
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E51" s="6" t="inlineStr">
+      <c r="E51" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F51" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G51" s="6" t="inlineStr"/>
-      <c r="H51" s="6" t="inlineStr">
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G51" s="5" t="inlineStr"/>
+      <c r="H51" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I51" s="6" t="inlineStr">
+      <c r="I51" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B52" s="6" t="inlineStr">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C52" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D52" s="6" t="inlineStr">
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E52" s="6" t="inlineStr">
+      <c r="E52" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F52" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G52" s="6" t="inlineStr"/>
-      <c r="H52" s="6" t="inlineStr">
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G52" s="5" t="inlineStr"/>
+      <c r="H52" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I52" s="6" t="inlineStr">
+      <c r="I52" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -3530,129 +3531,129 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B55" s="6" t="inlineStr">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B55" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C55" s="6" t="inlineStr">
+      <c r="C55" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D55" s="6" t="inlineStr">
+      <c r="D55" s="5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E55" s="6" t="inlineStr">
+      <c r="E55" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F55" s="6" t="inlineStr">
+      <c r="F55" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G55" s="6" t="inlineStr"/>
-      <c r="H55" s="6" t="inlineStr">
+      <c r="G55" s="5" t="inlineStr"/>
+      <c r="H55" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I55" s="6" t="inlineStr">
+      <c r="I55" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B56" s="6" t="inlineStr">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B56" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C56" s="6" t="inlineStr">
+      <c r="C56" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D56" s="6" t="inlineStr">
+      <c r="D56" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E56" s="6" t="inlineStr">
+      <c r="E56" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F56" s="6" t="inlineStr">
+      <c r="F56" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G56" s="6" t="inlineStr"/>
-      <c r="H56" s="6" t="inlineStr">
+      <c r="G56" s="5" t="inlineStr"/>
+      <c r="H56" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I56" s="6" t="inlineStr">
+      <c r="I56" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B57" s="6" t="inlineStr">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B57" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C57" s="6" t="inlineStr">
+      <c r="C57" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D57" s="6" t="inlineStr">
+      <c r="D57" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E57" s="6" t="inlineStr">
+      <c r="E57" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F57" s="6" t="inlineStr">
+      <c r="F57" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G57" s="6" t="inlineStr"/>
-      <c r="H57" s="6" t="inlineStr">
+      <c r="G57" s="5" t="inlineStr"/>
+      <c r="H57" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I57" s="6" t="inlineStr">
+      <c r="I57" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -3691,7 +3692,7 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -3738,7 +3739,7 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -3785,7 +3786,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3879,7 +3880,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -3941,344 +3942,344 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B64" s="6" t="inlineStr">
+      <c r="A64" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B64" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C64" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D64" s="6" t="inlineStr">
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E64" s="6" t="inlineStr">
+      <c r="E64" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F64" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G64" s="6" t="inlineStr"/>
-      <c r="H64" s="6" t="inlineStr">
+      <c r="F64" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G64" s="5" t="inlineStr"/>
+      <c r="H64" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I64" s="6" t="inlineStr">
+      <c r="I64" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B65" s="6" t="inlineStr">
+      <c r="A65" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B65" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C65" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D65" s="6" t="inlineStr">
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D65" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E65" s="6" t="inlineStr">
+      <c r="E65" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F65" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G65" s="6" t="inlineStr"/>
-      <c r="H65" s="6" t="inlineStr">
+      <c r="F65" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G65" s="5" t="inlineStr"/>
+      <c r="H65" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I65" s="6" t="inlineStr">
+      <c r="I65" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B66" s="6" t="inlineStr">
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B66" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C66" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D66" s="6" t="inlineStr">
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E66" s="6" t="inlineStr">
+      <c r="E66" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F66" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G66" s="6" t="inlineStr"/>
-      <c r="H66" s="6" t="inlineStr">
+      <c r="F66" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G66" s="5" t="inlineStr"/>
+      <c r="H66" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I66" s="6" t="inlineStr">
+      <c r="I66" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B67" s="6" t="inlineStr">
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B67" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C67" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D67" s="6" t="inlineStr">
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D67" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E67" s="6" t="inlineStr">
+      <c r="E67" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F67" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G67" s="6" t="inlineStr"/>
-      <c r="H67" s="6" t="inlineStr">
+      <c r="F67" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G67" s="5" t="inlineStr"/>
+      <c r="H67" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I67" s="6" t="inlineStr">
+      <c r="I67" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B68" s="6" t="inlineStr">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B68" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C68" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D68" s="6" t="inlineStr">
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D68" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E68" s="6" t="inlineStr">
+      <c r="E68" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F68" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G68" s="6" t="inlineStr"/>
-      <c r="H68" s="6" t="inlineStr">
+      <c r="F68" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G68" s="5" t="inlineStr"/>
+      <c r="H68" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I68" s="6" t="inlineStr">
+      <c r="I68" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B69" s="6" t="inlineStr">
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B69" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C69" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D69" s="6" t="inlineStr">
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D69" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E69" s="6" t="inlineStr">
+      <c r="E69" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F69" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G69" s="6" t="inlineStr"/>
-      <c r="H69" s="6" t="inlineStr">
+      <c r="F69" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G69" s="5" t="inlineStr"/>
+      <c r="H69" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I69" s="6" t="inlineStr">
+      <c r="I69" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B70" s="6" t="inlineStr">
+      <c r="A70" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B70" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C70" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D70" s="6" t="inlineStr">
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E70" s="6" t="inlineStr">
+      <c r="E70" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F70" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G70" s="6" t="inlineStr"/>
-      <c r="H70" s="6" t="inlineStr">
+      <c r="F70" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G70" s="5" t="inlineStr"/>
+      <c r="H70" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I70" s="6" t="inlineStr">
+      <c r="I70" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B71" s="6" t="inlineStr">
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B71" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C71" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D71" s="6" t="inlineStr">
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D71" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E71" s="6" t="inlineStr">
+      <c r="E71" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F71" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G71" s="6" t="inlineStr"/>
-      <c r="H71" s="6" t="inlineStr">
+      <c r="F71" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G71" s="5" t="inlineStr"/>
+      <c r="H71" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I71" s="6" t="inlineStr">
+      <c r="I71" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -4379,129 +4380,129 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B74" s="6" t="inlineStr">
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B74" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C74" s="6" t="inlineStr">
+      <c r="C74" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D74" s="6" t="inlineStr">
+      <c r="D74" s="5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E74" s="6" t="inlineStr">
+      <c r="E74" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F74" s="6" t="inlineStr">
+      <c r="F74" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G74" s="6" t="inlineStr"/>
-      <c r="H74" s="6" t="inlineStr">
+      <c r="G74" s="5" t="inlineStr"/>
+      <c r="H74" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I74" s="6" t="inlineStr">
+      <c r="I74" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B75" s="6" t="inlineStr">
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B75" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C75" s="6" t="inlineStr">
+      <c r="C75" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D75" s="6" t="inlineStr">
+      <c r="D75" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E75" s="6" t="inlineStr">
+      <c r="E75" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F75" s="6" t="inlineStr">
+      <c r="F75" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G75" s="6" t="inlineStr"/>
-      <c r="H75" s="6" t="inlineStr">
+      <c r="G75" s="5" t="inlineStr"/>
+      <c r="H75" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I75" s="6" t="inlineStr">
+      <c r="I75" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B76" s="6" t="inlineStr">
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B76" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C76" s="6" t="inlineStr">
+      <c r="C76" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D76" s="6" t="inlineStr">
+      <c r="D76" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E76" s="6" t="inlineStr">
+      <c r="E76" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F76" s="6" t="inlineStr">
+      <c r="F76" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G76" s="6" t="inlineStr"/>
-      <c r="H76" s="6" t="inlineStr">
+      <c r="G76" s="5" t="inlineStr"/>
+      <c r="H76" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I76" s="6" t="inlineStr">
+      <c r="I76" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -4540,7 +4541,7 @@
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
@@ -4587,7 +4588,7 @@
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
@@ -4743,344 +4744,348 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B82" s="5" t="inlineStr">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C82" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D82" s="5" t="inlineStr">
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E82" s="5" t="inlineStr">
+      <c r="E82" s="2" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F82" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G82" s="5" t="inlineStr"/>
-      <c r="H82" s="5" t="inlineStr">
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>28/31</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B83" s="5" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C83" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D83" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E83" s="5" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F83" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G83" s="5" t="inlineStr"/>
+      <c r="H83" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I82" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B83" s="6" t="inlineStr">
+      <c r="I83" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B84" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C83" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D83" s="6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E83" s="6" t="inlineStr">
-        <is>
-          <t>29/12/2025</t>
-        </is>
-      </c>
-      <c r="F83" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G83" s="6" t="inlineStr"/>
-      <c r="H83" s="6" t="inlineStr">
+      <c r="C84" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D84" s="5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E84" s="5" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F84" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G84" s="5" t="inlineStr"/>
+      <c r="H84" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I83" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B84" s="6" t="inlineStr">
+      <c r="I84" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B85" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C84" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D84" s="6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E84" s="6" t="inlineStr">
-        <is>
-          <t>04/01/2026</t>
-        </is>
-      </c>
-      <c r="F84" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G84" s="6" t="inlineStr"/>
-      <c r="H84" s="6" t="inlineStr">
+      <c r="C85" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D85" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E85" s="5" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F85" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G85" s="5" t="inlineStr"/>
+      <c r="H85" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I84" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B85" s="6" t="inlineStr">
+      <c r="I85" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B86" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C85" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D85" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E85" s="6" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
-      </c>
-      <c r="F85" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G85" s="6" t="inlineStr"/>
-      <c r="H85" s="6" t="inlineStr">
+      <c r="C86" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D86" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E86" s="5" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F86" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G86" s="5" t="inlineStr"/>
+      <c r="H86" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I85" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B86" s="6" t="inlineStr">
+      <c r="I86" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B87" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C86" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D86" s="6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E86" s="6" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F86" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G86" s="6" t="inlineStr"/>
-      <c r="H86" s="6" t="inlineStr">
+      <c r="C87" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D87" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E87" s="5" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F87" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G87" s="5" t="inlineStr"/>
+      <c r="H87" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I86" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B87" s="6" t="inlineStr">
+      <c r="I87" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B88" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C87" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D87" s="6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E87" s="6" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F87" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G87" s="6" t="inlineStr"/>
-      <c r="H87" s="6" t="inlineStr">
+      <c r="C88" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D88" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E88" s="5" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F88" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G88" s="5" t="inlineStr"/>
+      <c r="H88" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I87" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B88" s="6" t="inlineStr">
+      <c r="I88" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B89" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C88" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D88" s="6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E88" s="6" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F88" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G88" s="6" t="inlineStr"/>
-      <c r="H88" s="6" t="inlineStr">
+      <c r="C89" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D89" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E89" s="5" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F89" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G89" s="5" t="inlineStr"/>
+      <c r="H89" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I88" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B89" s="6" t="inlineStr">
-        <is>
-          <t>B1-2</t>
-        </is>
-      </c>
-      <c r="C89" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D89" s="6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E89" s="6" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F89" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G89" s="6" t="inlineStr"/>
-      <c r="H89" s="6" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I89" s="6" t="inlineStr">
+      <c r="I89" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -5181,129 +5186,129 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B92" s="6" t="inlineStr">
+      <c r="A92" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B92" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C92" s="6" t="inlineStr">
+      <c r="C92" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D92" s="6" t="inlineStr">
+      <c r="D92" s="5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E92" s="6" t="inlineStr">
+      <c r="E92" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F92" s="6" t="inlineStr">
+      <c r="F92" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G92" s="6" t="inlineStr"/>
-      <c r="H92" s="6" t="inlineStr">
+      <c r="G92" s="5" t="inlineStr"/>
+      <c r="H92" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I92" s="6" t="inlineStr">
+      <c r="I92" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B93" s="6" t="inlineStr">
+      <c r="A93" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B93" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C93" s="6" t="inlineStr">
+      <c r="C93" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D93" s="6" t="inlineStr">
+      <c r="D93" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E93" s="6" t="inlineStr">
+      <c r="E93" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F93" s="6" t="inlineStr">
+      <c r="F93" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G93" s="6" t="inlineStr"/>
-      <c r="H93" s="6" t="inlineStr">
+      <c r="G93" s="5" t="inlineStr"/>
+      <c r="H93" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I93" s="6" t="inlineStr">
+      <c r="I93" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B94" s="6" t="inlineStr">
+      <c r="A94" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B94" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C94" s="6" t="inlineStr">
+      <c r="C94" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D94" s="6" t="inlineStr">
+      <c r="D94" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E94" s="6" t="inlineStr">
+      <c r="E94" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F94" s="6" t="inlineStr">
+      <c r="F94" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G94" s="6" t="inlineStr"/>
-      <c r="H94" s="6" t="inlineStr">
+      <c r="G94" s="5" t="inlineStr"/>
+      <c r="H94" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I94" s="6" t="inlineStr">
+      <c r="I94" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -5342,7 +5347,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -5389,7 +5394,7 @@
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -5545,344 +5550,348 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B100" s="5" t="inlineStr">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C100" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D100" s="5" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E100" s="5" t="inlineStr">
+      <c r="E100" s="2" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F100" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G100" s="5" t="inlineStr"/>
-      <c r="H100" s="5" t="inlineStr">
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>28/28</t>
+        </is>
+      </c>
+      <c r="I100" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B101" s="5" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C101" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D101" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E101" s="5" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F101" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G101" s="5" t="inlineStr"/>
+      <c r="H101" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I100" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B101" s="6" t="inlineStr">
+      <c r="I101" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B102" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C101" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D101" s="6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E101" s="6" t="inlineStr">
-        <is>
-          <t>29/12/2025</t>
-        </is>
-      </c>
-      <c r="F101" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G101" s="6" t="inlineStr"/>
-      <c r="H101" s="6" t="inlineStr">
+      <c r="C102" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D102" s="5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E102" s="5" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F102" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G102" s="5" t="inlineStr"/>
+      <c r="H102" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I101" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B102" s="6" t="inlineStr">
+      <c r="I102" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B103" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C102" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D102" s="6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E102" s="6" t="inlineStr">
-        <is>
-          <t>04/01/2026</t>
-        </is>
-      </c>
-      <c r="F102" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G102" s="6" t="inlineStr"/>
-      <c r="H102" s="6" t="inlineStr">
+      <c r="C103" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D103" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E103" s="5" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F103" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G103" s="5" t="inlineStr"/>
+      <c r="H103" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I102" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B103" s="6" t="inlineStr">
+      <c r="I103" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B104" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C103" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D103" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E103" s="6" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
-      </c>
-      <c r="F103" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G103" s="6" t="inlineStr"/>
-      <c r="H103" s="6" t="inlineStr">
+      <c r="C104" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D104" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E104" s="5" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F104" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G104" s="5" t="inlineStr"/>
+      <c r="H104" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I103" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B104" s="6" t="inlineStr">
+      <c r="I104" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B105" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C104" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D104" s="6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E104" s="6" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F104" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G104" s="6" t="inlineStr"/>
-      <c r="H104" s="6" t="inlineStr">
+      <c r="C105" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D105" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E105" s="5" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F105" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G105" s="5" t="inlineStr"/>
+      <c r="H105" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I104" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B105" s="6" t="inlineStr">
+      <c r="I105" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B106" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C105" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D105" s="6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E105" s="6" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F105" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G105" s="6" t="inlineStr"/>
-      <c r="H105" s="6" t="inlineStr">
+      <c r="C106" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D106" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E106" s="5" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F106" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G106" s="5" t="inlineStr"/>
+      <c r="H106" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I105" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B106" s="6" t="inlineStr">
+      <c r="I106" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B107" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C106" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D106" s="6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E106" s="6" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F106" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G106" s="6" t="inlineStr"/>
-      <c r="H106" s="6" t="inlineStr">
+      <c r="C107" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D107" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E107" s="5" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F107" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G107" s="5" t="inlineStr"/>
+      <c r="H107" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I106" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B107" s="6" t="inlineStr">
-        <is>
-          <t>B1-3</t>
-        </is>
-      </c>
-      <c r="C107" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D107" s="6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E107" s="6" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F107" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G107" s="6" t="inlineStr"/>
-      <c r="H107" s="6" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I107" s="6" t="inlineStr">
+      <c r="I107" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -5983,129 +5992,129 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B110" s="6" t="inlineStr">
+      <c r="A110" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B110" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C110" s="6" t="inlineStr">
+      <c r="C110" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D110" s="6" t="inlineStr">
+      <c r="D110" s="5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E110" s="6" t="inlineStr">
+      <c r="E110" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F110" s="6" t="inlineStr">
+      <c r="F110" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G110" s="6" t="inlineStr"/>
-      <c r="H110" s="6" t="inlineStr">
+      <c r="G110" s="5" t="inlineStr"/>
+      <c r="H110" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I110" s="6" t="inlineStr">
+      <c r="I110" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B111" s="6" t="inlineStr">
+      <c r="A111" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B111" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C111" s="6" t="inlineStr">
+      <c r="C111" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D111" s="6" t="inlineStr">
+      <c r="D111" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E111" s="6" t="inlineStr">
+      <c r="E111" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F111" s="6" t="inlineStr">
+      <c r="F111" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G111" s="6" t="inlineStr"/>
-      <c r="H111" s="6" t="inlineStr">
+      <c r="G111" s="5" t="inlineStr"/>
+      <c r="H111" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I111" s="6" t="inlineStr">
+      <c r="I111" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B112" s="6" t="inlineStr">
+      <c r="A112" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B112" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C112" s="6" t="inlineStr">
+      <c r="C112" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D112" s="6" t="inlineStr">
+      <c r="D112" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E112" s="6" t="inlineStr">
+      <c r="E112" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F112" s="6" t="inlineStr">
+      <c r="F112" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G112" s="6" t="inlineStr"/>
-      <c r="H112" s="6" t="inlineStr">
+      <c r="G112" s="5" t="inlineStr"/>
+      <c r="H112" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I112" s="6" t="inlineStr">
+      <c r="I112" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -6144,7 +6153,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6191,7 +6200,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6347,344 +6356,348 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B118" s="5" t="inlineStr">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C118" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D118" s="5" t="inlineStr">
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E118" s="5" t="inlineStr">
+      <c r="E118" s="2" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F118" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G118" s="5" t="inlineStr"/>
-      <c r="H118" s="5" t="inlineStr">
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
+        <is>
+          <t>23/29</t>
+        </is>
+      </c>
+      <c r="I118" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B119" s="5" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C119" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D119" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E119" s="5" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F119" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G119" s="5" t="inlineStr"/>
+      <c r="H119" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I118" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B119" s="6" t="inlineStr">
+      <c r="I119" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B120" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C119" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D119" s="6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E119" s="6" t="inlineStr">
-        <is>
-          <t>29/12/2025</t>
-        </is>
-      </c>
-      <c r="F119" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G119" s="6" t="inlineStr"/>
-      <c r="H119" s="6" t="inlineStr">
+      <c r="C120" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D120" s="5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E120" s="5" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F120" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G120" s="5" t="inlineStr"/>
+      <c r="H120" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I119" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B120" s="6" t="inlineStr">
+      <c r="I120" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B121" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C120" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D120" s="6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E120" s="6" t="inlineStr">
-        <is>
-          <t>04/01/2026</t>
-        </is>
-      </c>
-      <c r="F120" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G120" s="6" t="inlineStr"/>
-      <c r="H120" s="6" t="inlineStr">
+      <c r="C121" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D121" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E121" s="5" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F121" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G121" s="5" t="inlineStr"/>
+      <c r="H121" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I120" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B121" s="6" t="inlineStr">
+      <c r="I121" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B122" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C121" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D121" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E121" s="6" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
-      </c>
-      <c r="F121" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G121" s="6" t="inlineStr"/>
-      <c r="H121" s="6" t="inlineStr">
+      <c r="C122" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D122" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E122" s="5" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F122" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G122" s="5" t="inlineStr"/>
+      <c r="H122" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I121" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B122" s="6" t="inlineStr">
+      <c r="I122" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B123" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C122" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D122" s="6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E122" s="6" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F122" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G122" s="6" t="inlineStr"/>
-      <c r="H122" s="6" t="inlineStr">
+      <c r="C123" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D123" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E123" s="5" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F123" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G123" s="5" t="inlineStr"/>
+      <c r="H123" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I122" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B123" s="6" t="inlineStr">
+      <c r="I123" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B124" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C123" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D123" s="6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E123" s="6" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F123" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G123" s="6" t="inlineStr"/>
-      <c r="H123" s="6" t="inlineStr">
+      <c r="C124" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D124" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E124" s="5" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F124" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G124" s="5" t="inlineStr"/>
+      <c r="H124" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I123" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B124" s="6" t="inlineStr">
+      <c r="I124" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B125" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C124" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D124" s="6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E124" s="6" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F124" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G124" s="6" t="inlineStr"/>
-      <c r="H124" s="6" t="inlineStr">
+      <c r="C125" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D125" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E125" s="5" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F125" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G125" s="5" t="inlineStr"/>
+      <c r="H125" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I124" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B125" s="6" t="inlineStr">
-        <is>
-          <t>B1-4</t>
-        </is>
-      </c>
-      <c r="C125" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D125" s="6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E125" s="6" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F125" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G125" s="6" t="inlineStr"/>
-      <c r="H125" s="6" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I125" s="6" t="inlineStr">
+      <c r="I125" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -6785,129 +6798,129 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B128" s="6" t="inlineStr">
+      <c r="A128" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B128" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C128" s="6" t="inlineStr">
+      <c r="C128" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D128" s="6" t="inlineStr">
+      <c r="D128" s="5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E128" s="6" t="inlineStr">
+      <c r="E128" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F128" s="6" t="inlineStr">
+      <c r="F128" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G128" s="6" t="inlineStr"/>
-      <c r="H128" s="6" t="inlineStr">
+      <c r="G128" s="5" t="inlineStr"/>
+      <c r="H128" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I128" s="6" t="inlineStr">
+      <c r="I128" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B129" s="6" t="inlineStr">
+      <c r="A129" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B129" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C129" s="6" t="inlineStr">
+      <c r="C129" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D129" s="6" t="inlineStr">
+      <c r="D129" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E129" s="6" t="inlineStr">
+      <c r="E129" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F129" s="6" t="inlineStr">
+      <c r="F129" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G129" s="6" t="inlineStr"/>
-      <c r="H129" s="6" t="inlineStr">
+      <c r="G129" s="5" t="inlineStr"/>
+      <c r="H129" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I129" s="6" t="inlineStr">
+      <c r="I129" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B130" s="6" t="inlineStr">
+      <c r="A130" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B130" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C130" s="6" t="inlineStr">
+      <c r="C130" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D130" s="6" t="inlineStr">
+      <c r="D130" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E130" s="6" t="inlineStr">
+      <c r="E130" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F130" s="6" t="inlineStr">
+      <c r="F130" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G130" s="6" t="inlineStr"/>
-      <c r="H130" s="6" t="inlineStr">
+      <c r="G130" s="5" t="inlineStr"/>
+      <c r="H130" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I130" s="6" t="inlineStr">
+      <c r="I130" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -6946,7 +6959,7 @@
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -6993,7 +7006,7 @@
       </c>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
@@ -7149,344 +7162,348 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B136" s="5" t="inlineStr">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C136" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D136" s="5" t="inlineStr">
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E136" s="5" t="inlineStr">
+      <c r="E136" s="2" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F136" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G136" s="5" t="inlineStr"/>
-      <c r="H136" s="5" t="inlineStr">
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>32/33</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B137" s="5" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C137" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D137" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E137" s="5" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F137" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G137" s="5" t="inlineStr"/>
+      <c r="H137" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I136" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B137" s="6" t="inlineStr">
+      <c r="I137" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B138" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C137" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D137" s="6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E137" s="6" t="inlineStr">
-        <is>
-          <t>29/12/2025</t>
-        </is>
-      </c>
-      <c r="F137" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G137" s="6" t="inlineStr"/>
-      <c r="H137" s="6" t="inlineStr">
+      <c r="C138" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D138" s="5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E138" s="5" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F138" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G138" s="5" t="inlineStr"/>
+      <c r="H138" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I137" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B138" s="6" t="inlineStr">
+      <c r="I138" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B139" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C138" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D138" s="6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E138" s="6" t="inlineStr">
-        <is>
-          <t>04/01/2026</t>
-        </is>
-      </c>
-      <c r="F138" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G138" s="6" t="inlineStr"/>
-      <c r="H138" s="6" t="inlineStr">
+      <c r="C139" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D139" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E139" s="5" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F139" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G139" s="5" t="inlineStr"/>
+      <c r="H139" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I138" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B139" s="6" t="inlineStr">
+      <c r="I139" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B140" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C139" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D139" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E139" s="6" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
-      </c>
-      <c r="F139" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G139" s="6" t="inlineStr"/>
-      <c r="H139" s="6" t="inlineStr">
+      <c r="C140" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D140" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E140" s="5" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F140" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G140" s="5" t="inlineStr"/>
+      <c r="H140" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I139" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B140" s="6" t="inlineStr">
+      <c r="I140" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B141" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C140" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D140" s="6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E140" s="6" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F140" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G140" s="6" t="inlineStr"/>
-      <c r="H140" s="6" t="inlineStr">
+      <c r="C141" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D141" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E141" s="5" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F141" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G141" s="5" t="inlineStr"/>
+      <c r="H141" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I140" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B141" s="6" t="inlineStr">
+      <c r="I141" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B142" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C141" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D141" s="6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E141" s="6" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F141" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G141" s="6" t="inlineStr"/>
-      <c r="H141" s="6" t="inlineStr">
+      <c r="C142" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D142" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E142" s="5" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F142" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G142" s="5" t="inlineStr"/>
+      <c r="H142" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I141" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B142" s="6" t="inlineStr">
+      <c r="I142" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B143" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C142" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D142" s="6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E142" s="6" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F142" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G142" s="6" t="inlineStr"/>
-      <c r="H142" s="6" t="inlineStr">
+      <c r="C143" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D143" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E143" s="5" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F143" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G143" s="5" t="inlineStr"/>
+      <c r="H143" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I142" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B143" s="6" t="inlineStr">
-        <is>
-          <t>B1-5</t>
-        </is>
-      </c>
-      <c r="C143" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D143" s="6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E143" s="6" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F143" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G143" s="6" t="inlineStr"/>
-      <c r="H143" s="6" t="inlineStr">
-        <is>
-          <t>0/33</t>
-        </is>
-      </c>
-      <c r="I143" s="6" t="inlineStr">
+      <c r="I143" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -7587,129 +7604,129 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B146" s="6" t="inlineStr">
+      <c r="A146" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B146" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C146" s="6" t="inlineStr">
+      <c r="C146" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D146" s="6" t="inlineStr">
+      <c r="D146" s="5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E146" s="6" t="inlineStr">
+      <c r="E146" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F146" s="6" t="inlineStr">
+      <c r="F146" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G146" s="6" t="inlineStr"/>
-      <c r="H146" s="6" t="inlineStr">
+      <c r="G146" s="5" t="inlineStr"/>
+      <c r="H146" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I146" s="6" t="inlineStr">
+      <c r="I146" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B147" s="6" t="inlineStr">
+      <c r="A147" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B147" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C147" s="6" t="inlineStr">
+      <c r="C147" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D147" s="6" t="inlineStr">
+      <c r="D147" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E147" s="6" t="inlineStr">
+      <c r="E147" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F147" s="6" t="inlineStr">
+      <c r="F147" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G147" s="6" t="inlineStr"/>
-      <c r="H147" s="6" t="inlineStr">
+      <c r="G147" s="5" t="inlineStr"/>
+      <c r="H147" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I147" s="6" t="inlineStr">
+      <c r="I147" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B148" s="6" t="inlineStr">
+      <c r="A148" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B148" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C148" s="6" t="inlineStr">
+      <c r="C148" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D148" s="6" t="inlineStr">
+      <c r="D148" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E148" s="6" t="inlineStr">
+      <c r="E148" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F148" s="6" t="inlineStr">
+      <c r="F148" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G148" s="6" t="inlineStr"/>
-      <c r="H148" s="6" t="inlineStr">
+      <c r="G148" s="5" t="inlineStr"/>
+      <c r="H148" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I148" s="6" t="inlineStr">
+      <c r="I148" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -7748,7 +7765,7 @@
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -7795,7 +7812,7 @@
       </c>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
@@ -7951,344 +7968,348 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B154" s="5" t="inlineStr">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C154" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D154" s="5" t="inlineStr">
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E154" s="5" t="inlineStr">
+      <c r="E154" s="2" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F154" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G154" s="5" t="inlineStr"/>
-      <c r="H154" s="5" t="inlineStr">
+      <c r="F154" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G154" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H154" s="2" t="inlineStr">
+        <is>
+          <t>25/30</t>
+        </is>
+      </c>
+      <c r="I154" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B155" s="5" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C155" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D155" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E155" s="5" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F155" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G155" s="5" t="inlineStr"/>
+      <c r="H155" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I154" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B155" s="6" t="inlineStr">
+      <c r="I155" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B156" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C155" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D155" s="6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E155" s="6" t="inlineStr">
-        <is>
-          <t>29/12/2025</t>
-        </is>
-      </c>
-      <c r="F155" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G155" s="6" t="inlineStr"/>
-      <c r="H155" s="6" t="inlineStr">
+      <c r="C156" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D156" s="5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E156" s="5" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F156" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G156" s="5" t="inlineStr"/>
+      <c r="H156" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I155" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B156" s="6" t="inlineStr">
+      <c r="I156" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B157" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C156" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D156" s="6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E156" s="6" t="inlineStr">
-        <is>
-          <t>04/01/2026</t>
-        </is>
-      </c>
-      <c r="F156" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G156" s="6" t="inlineStr"/>
-      <c r="H156" s="6" t="inlineStr">
+      <c r="C157" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D157" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E157" s="5" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F157" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G157" s="5" t="inlineStr"/>
+      <c r="H157" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I156" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B157" s="6" t="inlineStr">
+      <c r="I157" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B158" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C157" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D157" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E157" s="6" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
-      </c>
-      <c r="F157" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G157" s="6" t="inlineStr"/>
-      <c r="H157" s="6" t="inlineStr">
+      <c r="C158" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D158" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E158" s="5" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F158" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G158" s="5" t="inlineStr"/>
+      <c r="H158" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I157" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B158" s="6" t="inlineStr">
+      <c r="I158" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B159" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C158" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D158" s="6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E158" s="6" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F158" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G158" s="6" t="inlineStr"/>
-      <c r="H158" s="6" t="inlineStr">
+      <c r="C159" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D159" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E159" s="5" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F159" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G159" s="5" t="inlineStr"/>
+      <c r="H159" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I158" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B159" s="6" t="inlineStr">
+      <c r="I159" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B160" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C159" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D159" s="6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E159" s="6" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F159" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G159" s="6" t="inlineStr"/>
-      <c r="H159" s="6" t="inlineStr">
+      <c r="C160" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D160" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E160" s="5" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F160" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G160" s="5" t="inlineStr"/>
+      <c r="H160" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I159" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B160" s="6" t="inlineStr">
+      <c r="I160" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B161" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C160" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D160" s="6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E160" s="6" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F160" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G160" s="6" t="inlineStr"/>
-      <c r="H160" s="6" t="inlineStr">
+      <c r="C161" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D161" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E161" s="5" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F161" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G161" s="5" t="inlineStr"/>
+      <c r="H161" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I160" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B161" s="6" t="inlineStr">
-        <is>
-          <t>B1-6</t>
-        </is>
-      </c>
-      <c r="C161" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D161" s="6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E161" s="6" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F161" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G161" s="6" t="inlineStr"/>
-      <c r="H161" s="6" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I161" s="6" t="inlineStr">
+      <c r="I161" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -8389,129 +8410,129 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B164" s="6" t="inlineStr">
+      <c r="A164" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B164" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C164" s="6" t="inlineStr">
+      <c r="C164" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D164" s="6" t="inlineStr">
+      <c r="D164" s="5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E164" s="6" t="inlineStr">
+      <c r="E164" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F164" s="6" t="inlineStr">
+      <c r="F164" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G164" s="6" t="inlineStr"/>
-      <c r="H164" s="6" t="inlineStr">
+      <c r="G164" s="5" t="inlineStr"/>
+      <c r="H164" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I164" s="6" t="inlineStr">
+      <c r="I164" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B165" s="6" t="inlineStr">
+      <c r="A165" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B165" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C165" s="6" t="inlineStr">
+      <c r="C165" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D165" s="6" t="inlineStr">
+      <c r="D165" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E165" s="6" t="inlineStr">
+      <c r="E165" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F165" s="6" t="inlineStr">
+      <c r="F165" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G165" s="6" t="inlineStr"/>
-      <c r="H165" s="6" t="inlineStr">
+      <c r="G165" s="5" t="inlineStr"/>
+      <c r="H165" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I165" s="6" t="inlineStr">
+      <c r="I165" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B166" s="6" t="inlineStr">
+      <c r="A166" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B166" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C166" s="6" t="inlineStr">
+      <c r="C166" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D166" s="6" t="inlineStr">
+      <c r="D166" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E166" s="6" t="inlineStr">
+      <c r="E166" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F166" s="6" t="inlineStr">
+      <c r="F166" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G166" s="6" t="inlineStr"/>
-      <c r="H166" s="6" t="inlineStr">
+      <c r="G166" s="5" t="inlineStr"/>
+      <c r="H166" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I166" s="6" t="inlineStr">
+      <c r="I166" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -8550,7 +8571,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8597,7 +8618,7 @@
       </c>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -8644,7 +8665,7 @@
       </c>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -8738,7 +8759,7 @@
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -8800,344 +8821,344 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B173" s="6" t="inlineStr">
+      <c r="A173" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B173" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C173" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D173" s="6" t="inlineStr">
+      <c r="C173" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D173" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E173" s="6" t="inlineStr">
+      <c r="E173" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F173" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G173" s="6" t="inlineStr"/>
-      <c r="H173" s="6" t="inlineStr">
+      <c r="F173" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G173" s="5" t="inlineStr"/>
+      <c r="H173" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I173" s="6" t="inlineStr">
+      <c r="I173" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B174" s="6" t="inlineStr">
+      <c r="A174" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B174" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C174" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D174" s="6" t="inlineStr">
+      <c r="C174" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D174" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E174" s="6" t="inlineStr">
+      <c r="E174" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F174" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G174" s="6" t="inlineStr"/>
-      <c r="H174" s="6" t="inlineStr">
+      <c r="F174" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G174" s="5" t="inlineStr"/>
+      <c r="H174" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I174" s="6" t="inlineStr">
+      <c r="I174" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B175" s="6" t="inlineStr">
+      <c r="A175" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B175" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C175" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D175" s="6" t="inlineStr">
+      <c r="C175" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D175" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E175" s="6" t="inlineStr">
+      <c r="E175" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F175" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G175" s="6" t="inlineStr"/>
-      <c r="H175" s="6" t="inlineStr">
+      <c r="F175" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G175" s="5" t="inlineStr"/>
+      <c r="H175" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I175" s="6" t="inlineStr">
+      <c r="I175" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B176" s="6" t="inlineStr">
+      <c r="A176" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B176" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C176" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D176" s="6" t="inlineStr">
+      <c r="C176" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D176" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E176" s="6" t="inlineStr">
+      <c r="E176" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F176" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G176" s="6" t="inlineStr"/>
-      <c r="H176" s="6" t="inlineStr">
+      <c r="F176" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G176" s="5" t="inlineStr"/>
+      <c r="H176" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I176" s="6" t="inlineStr">
+      <c r="I176" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B177" s="6" t="inlineStr">
+      <c r="A177" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B177" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C177" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D177" s="6" t="inlineStr">
+      <c r="C177" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D177" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E177" s="6" t="inlineStr">
+      <c r="E177" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F177" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G177" s="6" t="inlineStr"/>
-      <c r="H177" s="6" t="inlineStr">
+      <c r="F177" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G177" s="5" t="inlineStr"/>
+      <c r="H177" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I177" s="6" t="inlineStr">
+      <c r="I177" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B178" s="6" t="inlineStr">
+      <c r="A178" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B178" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C178" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D178" s="6" t="inlineStr">
+      <c r="C178" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D178" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E178" s="6" t="inlineStr">
+      <c r="E178" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F178" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G178" s="6" t="inlineStr"/>
-      <c r="H178" s="6" t="inlineStr">
+      <c r="F178" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G178" s="5" t="inlineStr"/>
+      <c r="H178" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I178" s="6" t="inlineStr">
+      <c r="I178" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B179" s="6" t="inlineStr">
+      <c r="A179" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B179" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C179" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D179" s="6" t="inlineStr">
+      <c r="C179" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D179" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E179" s="6" t="inlineStr">
+      <c r="E179" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F179" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G179" s="6" t="inlineStr"/>
-      <c r="H179" s="6" t="inlineStr">
+      <c r="F179" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G179" s="5" t="inlineStr"/>
+      <c r="H179" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I179" s="6" t="inlineStr">
+      <c r="I179" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B180" s="6" t="inlineStr">
+      <c r="A180" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B180" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C180" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D180" s="6" t="inlineStr">
+      <c r="C180" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D180" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E180" s="6" t="inlineStr">
+      <c r="E180" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F180" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G180" s="6" t="inlineStr"/>
-      <c r="H180" s="6" t="inlineStr">
+      <c r="F180" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G180" s="5" t="inlineStr"/>
+      <c r="H180" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I180" s="6" t="inlineStr">
+      <c r="I180" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -9238,129 +9259,129 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B183" s="6" t="inlineStr">
+      <c r="A183" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B183" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C183" s="6" t="inlineStr">
+      <c r="C183" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D183" s="6" t="inlineStr">
+      <c r="D183" s="5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E183" s="6" t="inlineStr">
+      <c r="E183" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F183" s="6" t="inlineStr">
+      <c r="F183" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G183" s="6" t="inlineStr"/>
-      <c r="H183" s="6" t="inlineStr">
+      <c r="G183" s="5" t="inlineStr"/>
+      <c r="H183" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I183" s="6" t="inlineStr">
+      <c r="I183" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B184" s="6" t="inlineStr">
+      <c r="A184" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B184" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C184" s="6" t="inlineStr">
+      <c r="C184" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D184" s="6" t="inlineStr">
+      <c r="D184" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E184" s="6" t="inlineStr">
+      <c r="E184" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F184" s="6" t="inlineStr">
+      <c r="F184" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G184" s="6" t="inlineStr"/>
-      <c r="H184" s="6" t="inlineStr">
+      <c r="G184" s="5" t="inlineStr"/>
+      <c r="H184" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I184" s="6" t="inlineStr">
+      <c r="I184" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B185" s="6" t="inlineStr">
+      <c r="A185" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B185" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C185" s="6" t="inlineStr">
+      <c r="C185" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D185" s="6" t="inlineStr">
+      <c r="D185" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E185" s="6" t="inlineStr">
+      <c r="E185" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F185" s="6" t="inlineStr">
+      <c r="F185" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G185" s="6" t="inlineStr"/>
-      <c r="H185" s="6" t="inlineStr">
+      <c r="G185" s="5" t="inlineStr"/>
+      <c r="H185" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I185" s="6" t="inlineStr">
+      <c r="I185" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -9399,7 +9420,7 @@
       </c>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr">
@@ -9446,7 +9467,7 @@
       </c>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr">
@@ -9493,7 +9514,7 @@
       </c>
       <c r="G188" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H188" s="2" t="inlineStr">
@@ -9587,7 +9608,7 @@
       </c>
       <c r="G190" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H190" s="2" t="inlineStr">
@@ -9649,344 +9670,344 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B192" s="6" t="inlineStr">
+      <c r="A192" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B192" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C192" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D192" s="6" t="inlineStr">
+      <c r="C192" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D192" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E192" s="6" t="inlineStr">
+      <c r="E192" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F192" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G192" s="6" t="inlineStr"/>
-      <c r="H192" s="6" t="inlineStr">
+      <c r="F192" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G192" s="5" t="inlineStr"/>
+      <c r="H192" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I192" s="6" t="inlineStr">
+      <c r="I192" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B193" s="6" t="inlineStr">
+      <c r="A193" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B193" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C193" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D193" s="6" t="inlineStr">
+      <c r="C193" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D193" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E193" s="6" t="inlineStr">
+      <c r="E193" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F193" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G193" s="6" t="inlineStr"/>
-      <c r="H193" s="6" t="inlineStr">
+      <c r="F193" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G193" s="5" t="inlineStr"/>
+      <c r="H193" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I193" s="6" t="inlineStr">
+      <c r="I193" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B194" s="6" t="inlineStr">
+      <c r="A194" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B194" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C194" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D194" s="6" t="inlineStr">
+      <c r="C194" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D194" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E194" s="6" t="inlineStr">
+      <c r="E194" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F194" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G194" s="6" t="inlineStr"/>
-      <c r="H194" s="6" t="inlineStr">
+      <c r="F194" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G194" s="5" t="inlineStr"/>
+      <c r="H194" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I194" s="6" t="inlineStr">
+      <c r="I194" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B195" s="6" t="inlineStr">
+      <c r="A195" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B195" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C195" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D195" s="6" t="inlineStr">
+      <c r="C195" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D195" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E195" s="6" t="inlineStr">
+      <c r="E195" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F195" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G195" s="6" t="inlineStr"/>
-      <c r="H195" s="6" t="inlineStr">
+      <c r="F195" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G195" s="5" t="inlineStr"/>
+      <c r="H195" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I195" s="6" t="inlineStr">
+      <c r="I195" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B196" s="6" t="inlineStr">
+      <c r="A196" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B196" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C196" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D196" s="6" t="inlineStr">
+      <c r="C196" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D196" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E196" s="6" t="inlineStr">
+      <c r="E196" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F196" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G196" s="6" t="inlineStr"/>
-      <c r="H196" s="6" t="inlineStr">
+      <c r="F196" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G196" s="5" t="inlineStr"/>
+      <c r="H196" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I196" s="6" t="inlineStr">
+      <c r="I196" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B197" s="6" t="inlineStr">
+      <c r="A197" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B197" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C197" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D197" s="6" t="inlineStr">
+      <c r="C197" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D197" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E197" s="6" t="inlineStr">
+      <c r="E197" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F197" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G197" s="6" t="inlineStr"/>
-      <c r="H197" s="6" t="inlineStr">
+      <c r="F197" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G197" s="5" t="inlineStr"/>
+      <c r="H197" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I197" s="6" t="inlineStr">
+      <c r="I197" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B198" s="6" t="inlineStr">
+      <c r="A198" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B198" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C198" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D198" s="6" t="inlineStr">
+      <c r="C198" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D198" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E198" s="6" t="inlineStr">
+      <c r="E198" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F198" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G198" s="6" t="inlineStr"/>
-      <c r="H198" s="6" t="inlineStr">
+      <c r="F198" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G198" s="5" t="inlineStr"/>
+      <c r="H198" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I198" s="6" t="inlineStr">
+      <c r="I198" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B199" s="6" t="inlineStr">
+      <c r="A199" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B199" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C199" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D199" s="6" t="inlineStr">
+      <c r="C199" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D199" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E199" s="6" t="inlineStr">
+      <c r="E199" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F199" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G199" s="6" t="inlineStr"/>
-      <c r="H199" s="6" t="inlineStr">
+      <c r="F199" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G199" s="5" t="inlineStr"/>
+      <c r="H199" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I199" s="6" t="inlineStr">
+      <c r="I199" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -10087,129 +10108,129 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B202" s="6" t="inlineStr">
+      <c r="A202" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B202" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C202" s="6" t="inlineStr">
+      <c r="C202" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D202" s="6" t="inlineStr">
+      <c r="D202" s="5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E202" s="6" t="inlineStr">
+      <c r="E202" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F202" s="6" t="inlineStr">
+      <c r="F202" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G202" s="6" t="inlineStr"/>
-      <c r="H202" s="6" t="inlineStr">
+      <c r="G202" s="5" t="inlineStr"/>
+      <c r="H202" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I202" s="6" t="inlineStr">
+      <c r="I202" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B203" s="6" t="inlineStr">
+      <c r="A203" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B203" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C203" s="6" t="inlineStr">
+      <c r="C203" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D203" s="6" t="inlineStr">
+      <c r="D203" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E203" s="6" t="inlineStr">
+      <c r="E203" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F203" s="6" t="inlineStr">
+      <c r="F203" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G203" s="6" t="inlineStr"/>
-      <c r="H203" s="6" t="inlineStr">
+      <c r="G203" s="5" t="inlineStr"/>
+      <c r="H203" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I203" s="6" t="inlineStr">
+      <c r="I203" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B204" s="6" t="inlineStr">
+      <c r="A204" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B204" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C204" s="6" t="inlineStr">
+      <c r="C204" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D204" s="6" t="inlineStr">
+      <c r="D204" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E204" s="6" t="inlineStr">
+      <c r="E204" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F204" s="6" t="inlineStr">
+      <c r="F204" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G204" s="6" t="inlineStr"/>
-      <c r="H204" s="6" t="inlineStr">
+      <c r="G204" s="5" t="inlineStr"/>
+      <c r="H204" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I204" s="6" t="inlineStr">
+      <c r="I204" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -10248,7 +10269,7 @@
       </c>
       <c r="G205" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H205" s="2" t="inlineStr">
@@ -10295,7 +10316,7 @@
       </c>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr">
@@ -10342,7 +10363,7 @@
       </c>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr">
@@ -10436,7 +10457,7 @@
       </c>
       <c r="G209" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H209" s="2" t="inlineStr">
@@ -10498,344 +10519,344 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B211" s="6" t="inlineStr">
+      <c r="A211" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B211" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C211" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D211" s="6" t="inlineStr">
+      <c r="C211" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D211" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E211" s="6" t="inlineStr">
+      <c r="E211" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F211" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G211" s="6" t="inlineStr"/>
-      <c r="H211" s="6" t="inlineStr">
+      <c r="F211" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G211" s="5" t="inlineStr"/>
+      <c r="H211" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I211" s="6" t="inlineStr">
+      <c r="I211" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B212" s="6" t="inlineStr">
+      <c r="A212" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B212" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C212" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D212" s="6" t="inlineStr">
+      <c r="C212" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D212" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E212" s="6" t="inlineStr">
+      <c r="E212" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F212" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G212" s="6" t="inlineStr"/>
-      <c r="H212" s="6" t="inlineStr">
+      <c r="F212" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G212" s="5" t="inlineStr"/>
+      <c r="H212" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I212" s="6" t="inlineStr">
+      <c r="I212" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B213" s="6" t="inlineStr">
+      <c r="A213" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B213" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C213" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D213" s="6" t="inlineStr">
+      <c r="C213" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D213" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E213" s="6" t="inlineStr">
+      <c r="E213" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F213" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G213" s="6" t="inlineStr"/>
-      <c r="H213" s="6" t="inlineStr">
+      <c r="F213" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G213" s="5" t="inlineStr"/>
+      <c r="H213" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I213" s="6" t="inlineStr">
+      <c r="I213" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B214" s="6" t="inlineStr">
+      <c r="A214" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B214" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C214" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D214" s="6" t="inlineStr">
+      <c r="C214" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D214" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E214" s="6" t="inlineStr">
+      <c r="E214" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F214" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G214" s="6" t="inlineStr"/>
-      <c r="H214" s="6" t="inlineStr">
+      <c r="F214" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G214" s="5" t="inlineStr"/>
+      <c r="H214" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I214" s="6" t="inlineStr">
+      <c r="I214" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B215" s="6" t="inlineStr">
+      <c r="A215" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B215" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C215" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D215" s="6" t="inlineStr">
+      <c r="C215" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D215" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E215" s="6" t="inlineStr">
+      <c r="E215" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F215" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G215" s="6" t="inlineStr"/>
-      <c r="H215" s="6" t="inlineStr">
+      <c r="F215" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G215" s="5" t="inlineStr"/>
+      <c r="H215" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I215" s="6" t="inlineStr">
+      <c r="I215" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B216" s="6" t="inlineStr">
+      <c r="A216" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B216" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C216" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D216" s="6" t="inlineStr">
+      <c r="C216" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D216" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E216" s="6" t="inlineStr">
+      <c r="E216" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F216" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G216" s="6" t="inlineStr"/>
-      <c r="H216" s="6" t="inlineStr">
+      <c r="F216" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G216" s="5" t="inlineStr"/>
+      <c r="H216" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I216" s="6" t="inlineStr">
+      <c r="I216" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B217" s="6" t="inlineStr">
+      <c r="A217" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B217" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C217" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D217" s="6" t="inlineStr">
+      <c r="C217" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D217" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E217" s="6" t="inlineStr">
+      <c r="E217" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F217" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G217" s="6" t="inlineStr"/>
-      <c r="H217" s="6" t="inlineStr">
+      <c r="F217" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G217" s="5" t="inlineStr"/>
+      <c r="H217" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I217" s="6" t="inlineStr">
+      <c r="I217" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B218" s="6" t="inlineStr">
+      <c r="A218" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B218" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C218" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D218" s="6" t="inlineStr">
+      <c r="C218" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D218" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E218" s="6" t="inlineStr">
+      <c r="E218" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F218" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G218" s="6" t="inlineStr"/>
-      <c r="H218" s="6" t="inlineStr">
+      <c r="F218" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G218" s="5" t="inlineStr"/>
+      <c r="H218" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I218" s="6" t="inlineStr">
+      <c r="I218" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -10936,129 +10957,129 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B221" s="6" t="inlineStr">
+      <c r="A221" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B221" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C221" s="6" t="inlineStr">
+      <c r="C221" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D221" s="6" t="inlineStr">
+      <c r="D221" s="5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E221" s="6" t="inlineStr">
+      <c r="E221" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F221" s="6" t="inlineStr">
+      <c r="F221" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G221" s="6" t="inlineStr"/>
-      <c r="H221" s="6" t="inlineStr">
+      <c r="G221" s="5" t="inlineStr"/>
+      <c r="H221" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I221" s="6" t="inlineStr">
+      <c r="I221" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B222" s="6" t="inlineStr">
+      <c r="A222" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B222" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C222" s="6" t="inlineStr">
+      <c r="C222" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D222" s="6" t="inlineStr">
+      <c r="D222" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E222" s="6" t="inlineStr">
+      <c r="E222" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F222" s="6" t="inlineStr">
+      <c r="F222" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G222" s="6" t="inlineStr"/>
-      <c r="H222" s="6" t="inlineStr">
+      <c r="G222" s="5" t="inlineStr"/>
+      <c r="H222" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I222" s="6" t="inlineStr">
+      <c r="I222" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B223" s="6" t="inlineStr">
+      <c r="A223" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B223" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C223" s="6" t="inlineStr">
+      <c r="C223" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D223" s="6" t="inlineStr">
+      <c r="D223" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E223" s="6" t="inlineStr">
+      <c r="E223" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F223" s="6" t="inlineStr">
+      <c r="F223" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G223" s="6" t="inlineStr"/>
-      <c r="H223" s="6" t="inlineStr">
+      <c r="G223" s="5" t="inlineStr"/>
+      <c r="H223" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I223" s="6" t="inlineStr">
+      <c r="I223" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6959,7 +6959,7 @@
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
@@ -7765,7 +7765,7 @@
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -8759,7 +8759,7 @@
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -9420,7 +9420,7 @@
       </c>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr">
@@ -9467,7 +9467,7 @@
       </c>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr">
@@ -9514,7 +9514,7 @@
       </c>
       <c r="G188" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H188" s="2" t="inlineStr">
@@ -9608,7 +9608,7 @@
       </c>
       <c r="G190" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H190" s="2" t="inlineStr">
@@ -10269,7 +10269,7 @@
       </c>
       <c r="G205" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H205" s="2" t="inlineStr">
@@ -10316,7 +10316,7 @@
       </c>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="G209" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H209" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -58,14 +58,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFE0"/>
-        <bgColor rgb="00FFFFE0"/>
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFB6C1"/>
-        <bgColor rgb="00FFB6C1"/>
+        <fgColor rgb="00FFFFE0"/>
+        <bgColor rgb="00FFFFE0"/>
       </patternFill>
     </fill>
   </fills>
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -96,13 +96,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,7 +489,7 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="28" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
     <col width="22" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="18" customWidth="1" min="13" max="13"/>
@@ -578,7 +581,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -630,7 +633,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -687,7 +690,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -742,7 +745,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -797,7 +800,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -852,7 +855,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -871,7 +874,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -913,7 +916,7 @@
       </c>
       <c r="I8" s="5" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K8" s="4" t="inlineStr">
@@ -922,47 +925,47 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr">
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I9" s="5" t="inlineStr">
+      <c r="I9" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -979,43 +982,43 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I10" s="5" t="inlineStr">
+      <c r="I10" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1032,129 +1035,129 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I11" s="5" t="inlineStr">
+      <c r="I11" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="E12" s="6" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr">
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I12" s="5" t="inlineStr">
+      <c r="I12" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="E13" s="6" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr">
+      <c r="F13" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G13" s="6" t="inlineStr"/>
+      <c r="H13" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I13" s="5" t="inlineStr">
+      <c r="I13" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1166,43 +1169,43 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="E14" s="6" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr">
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I14" s="5" t="inlineStr">
+      <c r="I14" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1319,10 +1322,10 @@
         <v>9</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1368,7 +1371,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1450,7 +1453,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1500,43 +1503,43 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D18" s="5" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="E18" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="F18" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr">
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I18" s="5" t="inlineStr">
+      <c r="I18" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1578,43 +1581,43 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D19" s="5" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="E19" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="F19" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr">
+      <c r="G19" s="6" t="inlineStr"/>
+      <c r="H19" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I19" s="5" t="inlineStr">
+      <c r="I19" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1639,10 +1642,10 @@
         <v>9</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1656,43 +1659,43 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D20" s="5" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="E20" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="F20" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr">
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I20" s="5" t="inlineStr">
+      <c r="I20" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1717,10 +1720,10 @@
         <v>9</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1766,7 +1769,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1799,10 +1802,10 @@
         <v>9</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1848,7 +1851,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1881,10 +1884,10 @@
         <v>9</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1930,7 +1933,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1963,10 +1966,10 @@
         <v>9</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2226,129 +2229,129 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D27" s="5" t="inlineStr">
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D27" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="E27" s="6" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="inlineStr"/>
-      <c r="H27" s="5" t="inlineStr">
+      <c r="F27" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G27" s="6" t="inlineStr"/>
+      <c r="H27" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I27" s="5" t="inlineStr">
+      <c r="I27" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D28" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="E28" s="6" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr"/>
-      <c r="H28" s="5" t="inlineStr">
+      <c r="F28" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G28" s="6" t="inlineStr"/>
+      <c r="H28" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I28" s="5" t="inlineStr">
+      <c r="I28" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="inlineStr">
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D29" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="E29" s="6" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr"/>
-      <c r="H29" s="5" t="inlineStr">
+      <c r="F29" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G29" s="6" t="inlineStr"/>
+      <c r="H29" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I29" s="5" t="inlineStr">
+      <c r="I29" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2360,43 +2363,43 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D30" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="E30" s="6" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr"/>
-      <c r="H30" s="5" t="inlineStr">
+      <c r="F30" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G30" s="6" t="inlineStr"/>
+      <c r="H30" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I30" s="5" t="inlineStr">
+      <c r="I30" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2418,43 +2421,43 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D31" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="E31" s="6" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G31" s="5" t="inlineStr"/>
-      <c r="H31" s="5" t="inlineStr">
+      <c r="F31" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G31" s="6" t="inlineStr"/>
+      <c r="H31" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I31" s="5" t="inlineStr">
+      <c r="I31" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2464,7 +2467,7 @@
           <t>Recorded</t>
         </is>
       </c>
-      <c r="L31" s="6" t="inlineStr">
+      <c r="L31" s="7" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
@@ -2476,43 +2479,43 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B32" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D32" s="5" t="inlineStr">
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D32" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E32" s="5" t="inlineStr">
+      <c r="E32" s="6" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F32" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G32" s="5" t="inlineStr"/>
-      <c r="H32" s="5" t="inlineStr">
+      <c r="F32" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G32" s="6" t="inlineStr"/>
+      <c r="H32" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I32" s="5" t="inlineStr">
+      <c r="I32" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2522,7 +2525,7 @@
           <t>Not Recorded</t>
         </is>
       </c>
-      <c r="L32" s="7" t="inlineStr">
+      <c r="L32" s="8" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
@@ -2534,43 +2537,43 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D33" s="5" t="inlineStr">
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D33" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="E33" s="6" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G33" s="5" t="inlineStr"/>
-      <c r="H33" s="5" t="inlineStr">
+      <c r="F33" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G33" s="6" t="inlineStr"/>
+      <c r="H33" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I33" s="5" t="inlineStr">
+      <c r="I33" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2580,7 +2583,7 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="L33" s="8" t="inlineStr">
+      <c r="L33" s="9" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
@@ -2592,43 +2595,43 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B34" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C34" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D34" s="5" t="inlineStr">
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D34" s="6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E34" s="5" t="inlineStr">
+      <c r="E34" s="6" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F34" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G34" s="5" t="inlineStr"/>
-      <c r="H34" s="5" t="inlineStr">
+      <c r="F34" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G34" s="6" t="inlineStr"/>
+      <c r="H34" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I34" s="5" t="inlineStr">
+      <c r="I34" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2714,7 +2717,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2761,7 +2764,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -2776,129 +2779,129 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B38" s="5" t="inlineStr">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B38" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C38" s="5" t="inlineStr">
+      <c r="C38" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D38" s="5" t="inlineStr">
+      <c r="D38" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E38" s="5" t="inlineStr">
+      <c r="E38" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F38" s="5" t="inlineStr">
+      <c r="F38" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G38" s="5" t="inlineStr"/>
-      <c r="H38" s="5" t="inlineStr">
+      <c r="G38" s="6" t="inlineStr"/>
+      <c r="H38" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I38" s="5" t="inlineStr">
+      <c r="I38" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B39" s="5" t="inlineStr">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C39" s="5" t="inlineStr">
+      <c r="C39" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D39" s="5" t="inlineStr">
+      <c r="D39" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E39" s="5" t="inlineStr">
+      <c r="E39" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F39" s="5" t="inlineStr">
+      <c r="F39" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G39" s="5" t="inlineStr"/>
-      <c r="H39" s="5" t="inlineStr">
+      <c r="G39" s="6" t="inlineStr"/>
+      <c r="H39" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I39" s="5" t="inlineStr">
+      <c r="I39" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B40" s="5" t="inlineStr">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B40" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C40" s="5" t="inlineStr">
+      <c r="C40" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D40" s="5" t="inlineStr">
+      <c r="D40" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E40" s="5" t="inlineStr">
+      <c r="E40" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F40" s="5" t="inlineStr">
+      <c r="F40" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G40" s="5" t="inlineStr"/>
-      <c r="H40" s="5" t="inlineStr">
+      <c r="G40" s="6" t="inlineStr"/>
+      <c r="H40" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I40" s="5" t="inlineStr">
+      <c r="I40" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2937,7 +2940,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -2984,7 +2987,7 @@
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
@@ -3031,7 +3034,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3187,344 +3190,344 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B47" s="5" t="inlineStr">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C47" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D47" s="5" t="inlineStr">
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D47" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E47" s="5" t="inlineStr">
+      <c r="E47" s="6" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F47" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G47" s="5" t="inlineStr"/>
-      <c r="H47" s="5" t="inlineStr">
+      <c r="F47" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G47" s="6" t="inlineStr"/>
+      <c r="H47" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I47" s="5" t="inlineStr">
+      <c r="I47" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B48" s="5" t="inlineStr">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B48" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C48" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D48" s="5" t="inlineStr">
+      <c r="C48" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D48" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E48" s="5" t="inlineStr">
+      <c r="E48" s="6" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F48" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G48" s="5" t="inlineStr"/>
-      <c r="H48" s="5" t="inlineStr">
+      <c r="F48" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G48" s="6" t="inlineStr"/>
+      <c r="H48" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I48" s="5" t="inlineStr">
+      <c r="I48" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B49" s="5" t="inlineStr">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C49" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D49" s="5" t="inlineStr">
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E49" s="5" t="inlineStr">
+      <c r="E49" s="6" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F49" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G49" s="5" t="inlineStr"/>
-      <c r="H49" s="5" t="inlineStr">
+      <c r="F49" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G49" s="6" t="inlineStr"/>
+      <c r="H49" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I49" s="5" t="inlineStr">
+      <c r="I49" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B50" s="5" t="inlineStr">
+      <c r="A50" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B50" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C50" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D50" s="5" t="inlineStr">
+      <c r="C50" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D50" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E50" s="5" t="inlineStr">
+      <c r="E50" s="6" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F50" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G50" s="5" t="inlineStr"/>
-      <c r="H50" s="5" t="inlineStr">
+      <c r="F50" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G50" s="6" t="inlineStr"/>
+      <c r="H50" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I50" s="5" t="inlineStr">
+      <c r="I50" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B51" s="5" t="inlineStr">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C51" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D51" s="5" t="inlineStr">
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E51" s="5" t="inlineStr">
+      <c r="E51" s="6" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F51" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G51" s="5" t="inlineStr"/>
-      <c r="H51" s="5" t="inlineStr">
+      <c r="F51" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G51" s="6" t="inlineStr"/>
+      <c r="H51" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I51" s="5" t="inlineStr">
+      <c r="I51" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C52" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D52" s="5" t="inlineStr">
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D52" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E52" s="5" t="inlineStr">
+      <c r="E52" s="6" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F52" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G52" s="5" t="inlineStr"/>
-      <c r="H52" s="5" t="inlineStr">
+      <c r="F52" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G52" s="6" t="inlineStr"/>
+      <c r="H52" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I52" s="5" t="inlineStr">
+      <c r="I52" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B53" s="5" t="inlineStr">
+      <c r="A53" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C53" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D53" s="5" t="inlineStr">
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D53" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E53" s="5" t="inlineStr">
+      <c r="E53" s="6" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F53" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G53" s="5" t="inlineStr"/>
-      <c r="H53" s="5" t="inlineStr">
+      <c r="F53" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G53" s="6" t="inlineStr"/>
+      <c r="H53" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I53" s="5" t="inlineStr">
+      <c r="I53" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B54" s="5" t="inlineStr">
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B54" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C54" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D54" s="5" t="inlineStr">
+      <c r="C54" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D54" s="6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E54" s="5" t="inlineStr">
+      <c r="E54" s="6" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F54" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G54" s="5" t="inlineStr"/>
-      <c r="H54" s="5" t="inlineStr">
+      <c r="F54" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G54" s="6" t="inlineStr"/>
+      <c r="H54" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I54" s="5" t="inlineStr">
+      <c r="I54" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -3610,7 +3613,7 @@
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -3657,7 +3660,7 @@
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
@@ -3672,129 +3675,129 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B58" s="5" t="inlineStr">
+      <c r="A58" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B58" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C58" s="5" t="inlineStr">
+      <c r="C58" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D58" s="5" t="inlineStr">
+      <c r="D58" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E58" s="5" t="inlineStr">
+      <c r="E58" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F58" s="5" t="inlineStr">
+      <c r="F58" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G58" s="5" t="inlineStr"/>
-      <c r="H58" s="5" t="inlineStr">
+      <c r="G58" s="6" t="inlineStr"/>
+      <c r="H58" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I58" s="5" t="inlineStr">
+      <c r="I58" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B59" s="5" t="inlineStr">
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B59" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C59" s="5" t="inlineStr">
+      <c r="C59" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D59" s="5" t="inlineStr">
+      <c r="D59" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E59" s="5" t="inlineStr">
+      <c r="E59" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F59" s="5" t="inlineStr">
+      <c r="F59" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G59" s="5" t="inlineStr"/>
-      <c r="H59" s="5" t="inlineStr">
+      <c r="G59" s="6" t="inlineStr"/>
+      <c r="H59" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I59" s="5" t="inlineStr">
+      <c r="I59" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B60" s="5" t="inlineStr">
+      <c r="A60" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B60" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C60" s="5" t="inlineStr">
+      <c r="C60" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D60" s="5" t="inlineStr">
+      <c r="D60" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E60" s="5" t="inlineStr">
+      <c r="E60" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F60" s="5" t="inlineStr">
+      <c r="F60" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G60" s="5" t="inlineStr"/>
-      <c r="H60" s="5" t="inlineStr">
+      <c r="G60" s="6" t="inlineStr"/>
+      <c r="H60" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I60" s="5" t="inlineStr">
+      <c r="I60" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -3833,7 +3836,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3880,7 +3883,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -3927,7 +3930,7 @@
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -4083,344 +4086,344 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B67" s="5" t="inlineStr">
+      <c r="A67" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B67" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C67" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D67" s="5" t="inlineStr">
+      <c r="C67" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D67" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E67" s="5" t="inlineStr">
+      <c r="E67" s="6" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F67" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G67" s="5" t="inlineStr"/>
-      <c r="H67" s="5" t="inlineStr">
+      <c r="F67" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G67" s="6" t="inlineStr"/>
+      <c r="H67" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I67" s="5" t="inlineStr">
+      <c r="I67" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B68" s="5" t="inlineStr">
+      <c r="A68" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B68" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C68" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D68" s="5" t="inlineStr">
+      <c r="C68" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D68" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E68" s="5" t="inlineStr">
+      <c r="E68" s="6" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F68" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G68" s="5" t="inlineStr"/>
-      <c r="H68" s="5" t="inlineStr">
+      <c r="F68" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G68" s="6" t="inlineStr"/>
+      <c r="H68" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I68" s="5" t="inlineStr">
+      <c r="I68" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B69" s="5" t="inlineStr">
+      <c r="A69" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B69" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C69" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D69" s="5" t="inlineStr">
+      <c r="C69" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D69" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E69" s="5" t="inlineStr">
+      <c r="E69" s="6" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F69" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G69" s="5" t="inlineStr"/>
-      <c r="H69" s="5" t="inlineStr">
+      <c r="F69" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G69" s="6" t="inlineStr"/>
+      <c r="H69" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I69" s="5" t="inlineStr">
+      <c r="I69" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B70" s="5" t="inlineStr">
+      <c r="A70" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B70" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C70" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D70" s="5" t="inlineStr">
+      <c r="C70" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D70" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E70" s="5" t="inlineStr">
+      <c r="E70" s="6" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F70" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G70" s="5" t="inlineStr"/>
-      <c r="H70" s="5" t="inlineStr">
+      <c r="F70" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G70" s="6" t="inlineStr"/>
+      <c r="H70" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I70" s="5" t="inlineStr">
+      <c r="I70" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B71" s="5" t="inlineStr">
+      <c r="A71" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B71" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C71" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D71" s="5" t="inlineStr">
+      <c r="C71" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D71" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E71" s="5" t="inlineStr">
+      <c r="E71" s="6" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F71" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G71" s="5" t="inlineStr"/>
-      <c r="H71" s="5" t="inlineStr">
+      <c r="F71" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G71" s="6" t="inlineStr"/>
+      <c r="H71" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I71" s="5" t="inlineStr">
+      <c r="I71" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B72" s="5" t="inlineStr">
+      <c r="A72" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B72" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C72" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D72" s="5" t="inlineStr">
+      <c r="C72" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D72" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E72" s="5" t="inlineStr">
+      <c r="E72" s="6" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F72" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G72" s="5" t="inlineStr"/>
-      <c r="H72" s="5" t="inlineStr">
+      <c r="F72" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G72" s="6" t="inlineStr"/>
+      <c r="H72" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I72" s="5" t="inlineStr">
+      <c r="I72" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B73" s="5" t="inlineStr">
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C73" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D73" s="5" t="inlineStr">
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E73" s="5" t="inlineStr">
+      <c r="E73" s="6" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F73" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G73" s="5" t="inlineStr"/>
-      <c r="H73" s="5" t="inlineStr">
+      <c r="F73" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G73" s="6" t="inlineStr"/>
+      <c r="H73" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I73" s="5" t="inlineStr">
+      <c r="I73" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B74" s="5" t="inlineStr">
+      <c r="A74" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B74" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C74" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D74" s="5" t="inlineStr">
+      <c r="C74" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D74" s="6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E74" s="5" t="inlineStr">
+      <c r="E74" s="6" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F74" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G74" s="5" t="inlineStr"/>
-      <c r="H74" s="5" t="inlineStr">
+      <c r="F74" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G74" s="6" t="inlineStr"/>
+      <c r="H74" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I74" s="5" t="inlineStr">
+      <c r="I74" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -4506,7 +4509,7 @@
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
@@ -4553,7 +4556,7 @@
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
@@ -4568,129 +4571,129 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B78" s="5" t="inlineStr">
+      <c r="A78" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B78" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C78" s="5" t="inlineStr">
+      <c r="C78" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D78" s="5" t="inlineStr">
+      <c r="D78" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E78" s="5" t="inlineStr">
+      <c r="E78" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F78" s="5" t="inlineStr">
+      <c r="F78" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G78" s="5" t="inlineStr"/>
-      <c r="H78" s="5" t="inlineStr">
+      <c r="G78" s="6" t="inlineStr"/>
+      <c r="H78" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I78" s="5" t="inlineStr">
+      <c r="I78" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B79" s="5" t="inlineStr">
+      <c r="A79" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B79" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C79" s="5" t="inlineStr">
+      <c r="C79" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D79" s="5" t="inlineStr">
+      <c r="D79" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E79" s="5" t="inlineStr">
+      <c r="E79" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F79" s="5" t="inlineStr">
+      <c r="F79" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G79" s="5" t="inlineStr"/>
-      <c r="H79" s="5" t="inlineStr">
+      <c r="G79" s="6" t="inlineStr"/>
+      <c r="H79" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I79" s="5" t="inlineStr">
+      <c r="I79" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B80" s="5" t="inlineStr">
+      <c r="A80" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B80" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C80" s="5" t="inlineStr">
+      <c r="C80" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D80" s="5" t="inlineStr">
+      <c r="D80" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E80" s="5" t="inlineStr">
+      <c r="E80" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F80" s="5" t="inlineStr">
+      <c r="F80" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G80" s="5" t="inlineStr"/>
-      <c r="H80" s="5" t="inlineStr">
+      <c r="G80" s="6" t="inlineStr"/>
+      <c r="H80" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I80" s="5" t="inlineStr">
+      <c r="I80" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -4729,7 +4732,7 @@
       </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
@@ -4776,7 +4779,7 @@
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
@@ -4823,7 +4826,7 @@
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
@@ -4870,7 +4873,7 @@
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
@@ -4917,7 +4920,7 @@
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
@@ -4964,7 +4967,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5017,263 +5020,263 @@
       </c>
       <c r="I87" s="5" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B88" s="5" t="inlineStr">
+      <c r="A88" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B88" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C88" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D88" s="5" t="inlineStr">
+      <c r="C88" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D88" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E88" s="5" t="inlineStr">
+      <c r="E88" s="6" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F88" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G88" s="5" t="inlineStr"/>
-      <c r="H88" s="5" t="inlineStr">
+      <c r="F88" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G88" s="6" t="inlineStr"/>
+      <c r="H88" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I88" s="5" t="inlineStr">
+      <c r="I88" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B89" s="5" t="inlineStr">
+      <c r="A89" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B89" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C89" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D89" s="5" t="inlineStr">
+      <c r="C89" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D89" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E89" s="5" t="inlineStr">
+      <c r="E89" s="6" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F89" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G89" s="5" t="inlineStr"/>
-      <c r="H89" s="5" t="inlineStr">
+      <c r="F89" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G89" s="6" t="inlineStr"/>
+      <c r="H89" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I89" s="5" t="inlineStr">
+      <c r="I89" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B90" s="5" t="inlineStr">
+      <c r="A90" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B90" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C90" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D90" s="5" t="inlineStr">
+      <c r="C90" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D90" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E90" s="5" t="inlineStr">
+      <c r="E90" s="6" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F90" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G90" s="5" t="inlineStr"/>
-      <c r="H90" s="5" t="inlineStr">
+      <c r="F90" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G90" s="6" t="inlineStr"/>
+      <c r="H90" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I90" s="5" t="inlineStr">
+      <c r="I90" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B91" s="5" t="inlineStr">
+      <c r="A91" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B91" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C91" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D91" s="5" t="inlineStr">
+      <c r="C91" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D91" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E91" s="5" t="inlineStr">
+      <c r="E91" s="6" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F91" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G91" s="5" t="inlineStr"/>
-      <c r="H91" s="5" t="inlineStr">
+      <c r="F91" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G91" s="6" t="inlineStr"/>
+      <c r="H91" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I91" s="5" t="inlineStr">
+      <c r="I91" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B92" s="5" t="inlineStr">
+      <c r="A92" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B92" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C92" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D92" s="5" t="inlineStr">
+      <c r="C92" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D92" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E92" s="5" t="inlineStr">
+      <c r="E92" s="6" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F92" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G92" s="5" t="inlineStr"/>
-      <c r="H92" s="5" t="inlineStr">
+      <c r="F92" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G92" s="6" t="inlineStr"/>
+      <c r="H92" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I92" s="5" t="inlineStr">
+      <c r="I92" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B93" s="5" t="inlineStr">
+      <c r="A93" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B93" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C93" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D93" s="5" t="inlineStr">
+      <c r="C93" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D93" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E93" s="5" t="inlineStr">
+      <c r="E93" s="6" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F93" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G93" s="5" t="inlineStr"/>
-      <c r="H93" s="5" t="inlineStr">
+      <c r="F93" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G93" s="6" t="inlineStr"/>
+      <c r="H93" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I93" s="5" t="inlineStr">
+      <c r="I93" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -5359,7 +5362,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -5406,7 +5409,7 @@
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -5421,129 +5424,129 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B97" s="5" t="inlineStr">
+      <c r="A97" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B97" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C97" s="5" t="inlineStr">
+      <c r="C97" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D97" s="5" t="inlineStr">
+      <c r="D97" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E97" s="5" t="inlineStr">
+      <c r="E97" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F97" s="5" t="inlineStr">
+      <c r="F97" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G97" s="5" t="inlineStr"/>
-      <c r="H97" s="5" t="inlineStr">
+      <c r="G97" s="6" t="inlineStr"/>
+      <c r="H97" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I97" s="5" t="inlineStr">
+      <c r="I97" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B98" s="5" t="inlineStr">
+      <c r="A98" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B98" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C98" s="5" t="inlineStr">
+      <c r="C98" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D98" s="5" t="inlineStr">
+      <c r="D98" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E98" s="5" t="inlineStr">
+      <c r="E98" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F98" s="5" t="inlineStr">
+      <c r="F98" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G98" s="5" t="inlineStr"/>
-      <c r="H98" s="5" t="inlineStr">
+      <c r="G98" s="6" t="inlineStr"/>
+      <c r="H98" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I98" s="5" t="inlineStr">
+      <c r="I98" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B99" s="5" t="inlineStr">
+      <c r="A99" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B99" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C99" s="5" t="inlineStr">
+      <c r="C99" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D99" s="5" t="inlineStr">
+      <c r="D99" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E99" s="5" t="inlineStr">
+      <c r="E99" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F99" s="5" t="inlineStr">
+      <c r="F99" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G99" s="5" t="inlineStr"/>
-      <c r="H99" s="5" t="inlineStr">
+      <c r="G99" s="6" t="inlineStr"/>
+      <c r="H99" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I99" s="5" t="inlineStr">
+      <c r="I99" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -5582,7 +5585,7 @@
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
@@ -5629,7 +5632,7 @@
       </c>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
@@ -5676,7 +5679,7 @@
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
@@ -5723,7 +5726,7 @@
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
@@ -5770,7 +5773,7 @@
       </c>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
@@ -5817,7 +5820,7 @@
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -5870,263 +5873,263 @@
       </c>
       <c r="I106" s="5" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B107" s="5" t="inlineStr">
+      <c r="A107" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B107" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C107" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D107" s="5" t="inlineStr">
+      <c r="C107" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D107" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E107" s="5" t="inlineStr">
+      <c r="E107" s="6" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F107" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G107" s="5" t="inlineStr"/>
-      <c r="H107" s="5" t="inlineStr">
+      <c r="F107" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G107" s="6" t="inlineStr"/>
+      <c r="H107" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I107" s="5" t="inlineStr">
+      <c r="I107" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B108" s="5" t="inlineStr">
+      <c r="A108" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B108" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C108" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D108" s="5" t="inlineStr">
+      <c r="C108" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D108" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E108" s="5" t="inlineStr">
+      <c r="E108" s="6" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F108" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G108" s="5" t="inlineStr"/>
-      <c r="H108" s="5" t="inlineStr">
+      <c r="F108" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G108" s="6" t="inlineStr"/>
+      <c r="H108" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I108" s="5" t="inlineStr">
+      <c r="I108" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B109" s="5" t="inlineStr">
+      <c r="A109" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B109" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C109" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D109" s="5" t="inlineStr">
+      <c r="C109" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D109" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E109" s="5" t="inlineStr">
+      <c r="E109" s="6" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F109" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G109" s="5" t="inlineStr"/>
-      <c r="H109" s="5" t="inlineStr">
+      <c r="F109" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G109" s="6" t="inlineStr"/>
+      <c r="H109" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I109" s="5" t="inlineStr">
+      <c r="I109" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B110" s="5" t="inlineStr">
+      <c r="A110" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B110" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C110" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D110" s="5" t="inlineStr">
+      <c r="C110" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D110" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E110" s="5" t="inlineStr">
+      <c r="E110" s="6" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F110" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G110" s="5" t="inlineStr"/>
-      <c r="H110" s="5" t="inlineStr">
+      <c r="F110" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G110" s="6" t="inlineStr"/>
+      <c r="H110" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I110" s="5" t="inlineStr">
+      <c r="I110" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B111" s="5" t="inlineStr">
+      <c r="A111" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B111" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C111" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D111" s="5" t="inlineStr">
+      <c r="C111" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D111" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E111" s="5" t="inlineStr">
+      <c r="E111" s="6" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F111" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G111" s="5" t="inlineStr"/>
-      <c r="H111" s="5" t="inlineStr">
+      <c r="F111" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G111" s="6" t="inlineStr"/>
+      <c r="H111" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I111" s="5" t="inlineStr">
+      <c r="I111" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B112" s="5" t="inlineStr">
+      <c r="A112" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B112" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C112" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D112" s="5" t="inlineStr">
+      <c r="C112" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D112" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E112" s="5" t="inlineStr">
+      <c r="E112" s="6" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F112" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G112" s="5" t="inlineStr"/>
-      <c r="H112" s="5" t="inlineStr">
+      <c r="F112" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G112" s="6" t="inlineStr"/>
+      <c r="H112" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I112" s="5" t="inlineStr">
+      <c r="I112" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -6212,7 +6215,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6259,7 +6262,7 @@
       </c>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
@@ -6274,129 +6277,129 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B116" s="5" t="inlineStr">
+      <c r="A116" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B116" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C116" s="5" t="inlineStr">
+      <c r="C116" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D116" s="5" t="inlineStr">
+      <c r="D116" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E116" s="5" t="inlineStr">
+      <c r="E116" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F116" s="5" t="inlineStr">
+      <c r="F116" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G116" s="5" t="inlineStr"/>
-      <c r="H116" s="5" t="inlineStr">
+      <c r="G116" s="6" t="inlineStr"/>
+      <c r="H116" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I116" s="5" t="inlineStr">
+      <c r="I116" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B117" s="5" t="inlineStr">
+      <c r="A117" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B117" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C117" s="5" t="inlineStr">
+      <c r="C117" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D117" s="5" t="inlineStr">
+      <c r="D117" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E117" s="5" t="inlineStr">
+      <c r="E117" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F117" s="5" t="inlineStr">
+      <c r="F117" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G117" s="5" t="inlineStr"/>
-      <c r="H117" s="5" t="inlineStr">
+      <c r="G117" s="6" t="inlineStr"/>
+      <c r="H117" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I117" s="5" t="inlineStr">
+      <c r="I117" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B118" s="5" t="inlineStr">
+      <c r="A118" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B118" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C118" s="5" t="inlineStr">
+      <c r="C118" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D118" s="5" t="inlineStr">
+      <c r="D118" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E118" s="5" t="inlineStr">
+      <c r="E118" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F118" s="5" t="inlineStr">
+      <c r="F118" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G118" s="5" t="inlineStr"/>
-      <c r="H118" s="5" t="inlineStr">
+      <c r="G118" s="6" t="inlineStr"/>
+      <c r="H118" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I118" s="5" t="inlineStr">
+      <c r="I118" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -6435,7 +6438,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6482,7 +6485,7 @@
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -6529,7 +6532,7 @@
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -6576,7 +6579,7 @@
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
@@ -6623,7 +6626,7 @@
       </c>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
@@ -6670,7 +6673,7 @@
       </c>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
@@ -6723,263 +6726,263 @@
       </c>
       <c r="I125" s="5" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B126" s="5" t="inlineStr">
+      <c r="A126" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B126" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C126" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D126" s="5" t="inlineStr">
+      <c r="C126" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D126" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E126" s="5" t="inlineStr">
+      <c r="E126" s="6" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F126" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G126" s="5" t="inlineStr"/>
-      <c r="H126" s="5" t="inlineStr">
+      <c r="F126" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G126" s="6" t="inlineStr"/>
+      <c r="H126" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I126" s="5" t="inlineStr">
+      <c r="I126" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B127" s="5" t="inlineStr">
+      <c r="A127" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B127" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C127" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D127" s="5" t="inlineStr">
+      <c r="C127" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D127" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E127" s="5" t="inlineStr">
+      <c r="E127" s="6" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F127" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G127" s="5" t="inlineStr"/>
-      <c r="H127" s="5" t="inlineStr">
+      <c r="F127" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G127" s="6" t="inlineStr"/>
+      <c r="H127" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I127" s="5" t="inlineStr">
+      <c r="I127" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B128" s="5" t="inlineStr">
+      <c r="A128" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B128" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C128" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D128" s="5" t="inlineStr">
+      <c r="C128" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D128" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E128" s="5" t="inlineStr">
+      <c r="E128" s="6" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F128" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G128" s="5" t="inlineStr"/>
-      <c r="H128" s="5" t="inlineStr">
+      <c r="F128" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G128" s="6" t="inlineStr"/>
+      <c r="H128" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I128" s="5" t="inlineStr">
+      <c r="I128" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B129" s="5" t="inlineStr">
+      <c r="A129" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B129" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C129" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D129" s="5" t="inlineStr">
+      <c r="C129" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D129" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E129" s="5" t="inlineStr">
+      <c r="E129" s="6" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F129" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G129" s="5" t="inlineStr"/>
-      <c r="H129" s="5" t="inlineStr">
+      <c r="F129" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G129" s="6" t="inlineStr"/>
+      <c r="H129" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I129" s="5" t="inlineStr">
+      <c r="I129" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B130" s="5" t="inlineStr">
+      <c r="A130" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B130" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C130" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D130" s="5" t="inlineStr">
+      <c r="C130" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D130" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E130" s="5" t="inlineStr">
+      <c r="E130" s="6" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F130" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G130" s="5" t="inlineStr"/>
-      <c r="H130" s="5" t="inlineStr">
+      <c r="F130" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G130" s="6" t="inlineStr"/>
+      <c r="H130" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I130" s="5" t="inlineStr">
+      <c r="I130" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B131" s="5" t="inlineStr">
+      <c r="A131" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B131" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C131" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D131" s="5" t="inlineStr">
+      <c r="C131" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D131" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E131" s="5" t="inlineStr">
+      <c r="E131" s="6" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F131" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G131" s="5" t="inlineStr"/>
-      <c r="H131" s="5" t="inlineStr">
+      <c r="F131" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G131" s="6" t="inlineStr"/>
+      <c r="H131" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I131" s="5" t="inlineStr">
+      <c r="I131" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -7065,7 +7068,7 @@
       </c>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
@@ -7112,7 +7115,7 @@
       </c>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
@@ -7127,129 +7130,129 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B135" s="5" t="inlineStr">
+      <c r="A135" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B135" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C135" s="5" t="inlineStr">
+      <c r="C135" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D135" s="5" t="inlineStr">
+      <c r="D135" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E135" s="5" t="inlineStr">
+      <c r="E135" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F135" s="5" t="inlineStr">
+      <c r="F135" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G135" s="5" t="inlineStr"/>
-      <c r="H135" s="5" t="inlineStr">
+      <c r="G135" s="6" t="inlineStr"/>
+      <c r="H135" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I135" s="5" t="inlineStr">
+      <c r="I135" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B136" s="5" t="inlineStr">
+      <c r="A136" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B136" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C136" s="5" t="inlineStr">
+      <c r="C136" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D136" s="5" t="inlineStr">
+      <c r="D136" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E136" s="5" t="inlineStr">
+      <c r="E136" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F136" s="5" t="inlineStr">
+      <c r="F136" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G136" s="5" t="inlineStr"/>
-      <c r="H136" s="5" t="inlineStr">
+      <c r="G136" s="6" t="inlineStr"/>
+      <c r="H136" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I136" s="5" t="inlineStr">
+      <c r="I136" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B137" s="5" t="inlineStr">
+      <c r="A137" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B137" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C137" s="5" t="inlineStr">
+      <c r="C137" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D137" s="5" t="inlineStr">
+      <c r="D137" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E137" s="5" t="inlineStr">
+      <c r="E137" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F137" s="5" t="inlineStr">
+      <c r="F137" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G137" s="5" t="inlineStr"/>
-      <c r="H137" s="5" t="inlineStr">
+      <c r="G137" s="6" t="inlineStr"/>
+      <c r="H137" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I137" s="5" t="inlineStr">
+      <c r="I137" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -7288,7 +7291,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7335,7 +7338,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7382,7 +7385,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -7429,7 +7432,7 @@
       </c>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
@@ -7476,7 +7479,7 @@
       </c>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -7523,7 +7526,7 @@
       </c>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
@@ -7576,263 +7579,263 @@
       </c>
       <c r="I144" s="5" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B145" s="5" t="inlineStr">
+      <c r="A145" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B145" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C145" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D145" s="5" t="inlineStr">
+      <c r="C145" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D145" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E145" s="5" t="inlineStr">
+      <c r="E145" s="6" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F145" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G145" s="5" t="inlineStr"/>
-      <c r="H145" s="5" t="inlineStr">
+      <c r="F145" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G145" s="6" t="inlineStr"/>
+      <c r="H145" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I145" s="5" t="inlineStr">
+      <c r="I145" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B146" s="5" t="inlineStr">
+      <c r="A146" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B146" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C146" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D146" s="5" t="inlineStr">
+      <c r="C146" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D146" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E146" s="5" t="inlineStr">
+      <c r="E146" s="6" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F146" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G146" s="5" t="inlineStr"/>
-      <c r="H146" s="5" t="inlineStr">
+      <c r="F146" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G146" s="6" t="inlineStr"/>
+      <c r="H146" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I146" s="5" t="inlineStr">
+      <c r="I146" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B147" s="5" t="inlineStr">
+      <c r="A147" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B147" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C147" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D147" s="5" t="inlineStr">
+      <c r="C147" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D147" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E147" s="5" t="inlineStr">
+      <c r="E147" s="6" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F147" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G147" s="5" t="inlineStr"/>
-      <c r="H147" s="5" t="inlineStr">
+      <c r="F147" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G147" s="6" t="inlineStr"/>
+      <c r="H147" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I147" s="5" t="inlineStr">
+      <c r="I147" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B148" s="5" t="inlineStr">
+      <c r="A148" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B148" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C148" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D148" s="5" t="inlineStr">
+      <c r="C148" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D148" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E148" s="5" t="inlineStr">
+      <c r="E148" s="6" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F148" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G148" s="5" t="inlineStr"/>
-      <c r="H148" s="5" t="inlineStr">
+      <c r="F148" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G148" s="6" t="inlineStr"/>
+      <c r="H148" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I148" s="5" t="inlineStr">
+      <c r="I148" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B149" s="5" t="inlineStr">
+      <c r="A149" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B149" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C149" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D149" s="5" t="inlineStr">
+      <c r="C149" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D149" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E149" s="5" t="inlineStr">
+      <c r="E149" s="6" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F149" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G149" s="5" t="inlineStr"/>
-      <c r="H149" s="5" t="inlineStr">
+      <c r="F149" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G149" s="6" t="inlineStr"/>
+      <c r="H149" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I149" s="5" t="inlineStr">
+      <c r="I149" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B150" s="5" t="inlineStr">
+      <c r="A150" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B150" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C150" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D150" s="5" t="inlineStr">
+      <c r="C150" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D150" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E150" s="5" t="inlineStr">
+      <c r="E150" s="6" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F150" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G150" s="5" t="inlineStr"/>
-      <c r="H150" s="5" t="inlineStr">
+      <c r="F150" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G150" s="6" t="inlineStr"/>
+      <c r="H150" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I150" s="5" t="inlineStr">
+      <c r="I150" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -7918,7 +7921,7 @@
       </c>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
@@ -7965,7 +7968,7 @@
       </c>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
@@ -7980,129 +7983,129 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B154" s="5" t="inlineStr">
+      <c r="A154" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B154" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C154" s="5" t="inlineStr">
+      <c r="C154" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D154" s="5" t="inlineStr">
+      <c r="D154" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E154" s="5" t="inlineStr">
+      <c r="E154" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F154" s="5" t="inlineStr">
+      <c r="F154" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G154" s="5" t="inlineStr"/>
-      <c r="H154" s="5" t="inlineStr">
+      <c r="G154" s="6" t="inlineStr"/>
+      <c r="H154" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I154" s="5" t="inlineStr">
+      <c r="I154" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B155" s="5" t="inlineStr">
+      <c r="A155" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B155" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C155" s="5" t="inlineStr">
+      <c r="C155" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D155" s="5" t="inlineStr">
+      <c r="D155" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E155" s="5" t="inlineStr">
+      <c r="E155" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F155" s="5" t="inlineStr">
+      <c r="F155" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G155" s="5" t="inlineStr"/>
-      <c r="H155" s="5" t="inlineStr">
+      <c r="G155" s="6" t="inlineStr"/>
+      <c r="H155" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I155" s="5" t="inlineStr">
+      <c r="I155" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B156" s="5" t="inlineStr">
+      <c r="A156" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B156" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C156" s="5" t="inlineStr">
+      <c r="C156" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D156" s="5" t="inlineStr">
+      <c r="D156" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E156" s="5" t="inlineStr">
+      <c r="E156" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F156" s="5" t="inlineStr">
+      <c r="F156" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G156" s="5" t="inlineStr"/>
-      <c r="H156" s="5" t="inlineStr">
+      <c r="G156" s="6" t="inlineStr"/>
+      <c r="H156" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I156" s="5" t="inlineStr">
+      <c r="I156" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -8141,7 +8144,7 @@
       </c>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
@@ -8188,7 +8191,7 @@
       </c>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
@@ -8235,7 +8238,7 @@
       </c>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -8282,7 +8285,7 @@
       </c>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
@@ -8329,7 +8332,7 @@
       </c>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr">
@@ -8376,7 +8379,7 @@
       </c>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr">
@@ -8429,263 +8432,263 @@
       </c>
       <c r="I163" s="5" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B164" s="5" t="inlineStr">
+      <c r="A164" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B164" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C164" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D164" s="5" t="inlineStr">
+      <c r="C164" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D164" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E164" s="5" t="inlineStr">
+      <c r="E164" s="6" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F164" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G164" s="5" t="inlineStr"/>
-      <c r="H164" s="5" t="inlineStr">
+      <c r="F164" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G164" s="6" t="inlineStr"/>
+      <c r="H164" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I164" s="5" t="inlineStr">
+      <c r="I164" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B165" s="5" t="inlineStr">
+      <c r="A165" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B165" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C165" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D165" s="5" t="inlineStr">
+      <c r="C165" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D165" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E165" s="5" t="inlineStr">
+      <c r="E165" s="6" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F165" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G165" s="5" t="inlineStr"/>
-      <c r="H165" s="5" t="inlineStr">
+      <c r="F165" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G165" s="6" t="inlineStr"/>
+      <c r="H165" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I165" s="5" t="inlineStr">
+      <c r="I165" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B166" s="5" t="inlineStr">
+      <c r="A166" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B166" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C166" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D166" s="5" t="inlineStr">
+      <c r="C166" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D166" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E166" s="5" t="inlineStr">
+      <c r="E166" s="6" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F166" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G166" s="5" t="inlineStr"/>
-      <c r="H166" s="5" t="inlineStr">
+      <c r="F166" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G166" s="6" t="inlineStr"/>
+      <c r="H166" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I166" s="5" t="inlineStr">
+      <c r="I166" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B167" s="5" t="inlineStr">
+      <c r="A167" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B167" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C167" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D167" s="5" t="inlineStr">
+      <c r="C167" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D167" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E167" s="5" t="inlineStr">
+      <c r="E167" s="6" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F167" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G167" s="5" t="inlineStr"/>
-      <c r="H167" s="5" t="inlineStr">
+      <c r="F167" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G167" s="6" t="inlineStr"/>
+      <c r="H167" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I167" s="5" t="inlineStr">
+      <c r="I167" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B168" s="5" t="inlineStr">
+      <c r="A168" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B168" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C168" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D168" s="5" t="inlineStr">
+      <c r="C168" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D168" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E168" s="5" t="inlineStr">
+      <c r="E168" s="6" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F168" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G168" s="5" t="inlineStr"/>
-      <c r="H168" s="5" t="inlineStr">
+      <c r="F168" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G168" s="6" t="inlineStr"/>
+      <c r="H168" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I168" s="5" t="inlineStr">
+      <c r="I168" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B169" s="5" t="inlineStr">
+      <c r="A169" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B169" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C169" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D169" s="5" t="inlineStr">
+      <c r="C169" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D169" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E169" s="5" t="inlineStr">
+      <c r="E169" s="6" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F169" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G169" s="5" t="inlineStr"/>
-      <c r="H169" s="5" t="inlineStr">
+      <c r="F169" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G169" s="6" t="inlineStr"/>
+      <c r="H169" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I169" s="5" t="inlineStr">
+      <c r="I169" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -8771,7 +8774,7 @@
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -8818,7 +8821,7 @@
       </c>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
@@ -8833,129 +8836,129 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B173" s="5" t="inlineStr">
+      <c r="A173" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B173" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C173" s="5" t="inlineStr">
+      <c r="C173" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D173" s="5" t="inlineStr">
+      <c r="D173" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E173" s="5" t="inlineStr">
+      <c r="E173" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F173" s="5" t="inlineStr">
+      <c r="F173" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G173" s="5" t="inlineStr"/>
-      <c r="H173" s="5" t="inlineStr">
+      <c r="G173" s="6" t="inlineStr"/>
+      <c r="H173" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I173" s="5" t="inlineStr">
+      <c r="I173" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B174" s="5" t="inlineStr">
+      <c r="A174" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B174" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C174" s="5" t="inlineStr">
+      <c r="C174" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D174" s="5" t="inlineStr">
+      <c r="D174" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E174" s="5" t="inlineStr">
+      <c r="E174" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F174" s="5" t="inlineStr">
+      <c r="F174" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G174" s="5" t="inlineStr"/>
-      <c r="H174" s="5" t="inlineStr">
+      <c r="G174" s="6" t="inlineStr"/>
+      <c r="H174" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I174" s="5" t="inlineStr">
+      <c r="I174" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B175" s="5" t="inlineStr">
+      <c r="A175" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B175" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C175" s="5" t="inlineStr">
+      <c r="C175" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D175" s="5" t="inlineStr">
+      <c r="D175" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E175" s="5" t="inlineStr">
+      <c r="E175" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F175" s="5" t="inlineStr">
+      <c r="F175" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G175" s="5" t="inlineStr"/>
-      <c r="H175" s="5" t="inlineStr">
+      <c r="G175" s="6" t="inlineStr"/>
+      <c r="H175" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I175" s="5" t="inlineStr">
+      <c r="I175" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -8994,7 +8997,7 @@
       </c>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr">
@@ -9041,7 +9044,7 @@
       </c>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr">
@@ -9088,7 +9091,7 @@
       </c>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr">
@@ -9244,344 +9247,344 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B182" s="5" t="inlineStr">
+      <c r="A182" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B182" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C182" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D182" s="5" t="inlineStr">
+      <c r="C182" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D182" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E182" s="5" t="inlineStr">
+      <c r="E182" s="6" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F182" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G182" s="5" t="inlineStr"/>
-      <c r="H182" s="5" t="inlineStr">
+      <c r="F182" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G182" s="6" t="inlineStr"/>
+      <c r="H182" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I182" s="5" t="inlineStr">
+      <c r="I182" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B183" s="5" t="inlineStr">
+      <c r="A183" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B183" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C183" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D183" s="5" t="inlineStr">
+      <c r="C183" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D183" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E183" s="5" t="inlineStr">
+      <c r="E183" s="6" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F183" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G183" s="5" t="inlineStr"/>
-      <c r="H183" s="5" t="inlineStr">
+      <c r="F183" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G183" s="6" t="inlineStr"/>
+      <c r="H183" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I183" s="5" t="inlineStr">
+      <c r="I183" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B184" s="5" t="inlineStr">
+      <c r="A184" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B184" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C184" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D184" s="5" t="inlineStr">
+      <c r="C184" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D184" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E184" s="5" t="inlineStr">
+      <c r="E184" s="6" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F184" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G184" s="5" t="inlineStr"/>
-      <c r="H184" s="5" t="inlineStr">
+      <c r="F184" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G184" s="6" t="inlineStr"/>
+      <c r="H184" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I184" s="5" t="inlineStr">
+      <c r="I184" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B185" s="5" t="inlineStr">
+      <c r="A185" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B185" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C185" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D185" s="5" t="inlineStr">
+      <c r="C185" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D185" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E185" s="5" t="inlineStr">
+      <c r="E185" s="6" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F185" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G185" s="5" t="inlineStr"/>
-      <c r="H185" s="5" t="inlineStr">
+      <c r="F185" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G185" s="6" t="inlineStr"/>
+      <c r="H185" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I185" s="5" t="inlineStr">
+      <c r="I185" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B186" s="5" t="inlineStr">
+      <c r="A186" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B186" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C186" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D186" s="5" t="inlineStr">
+      <c r="C186" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D186" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E186" s="5" t="inlineStr">
+      <c r="E186" s="6" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F186" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G186" s="5" t="inlineStr"/>
-      <c r="H186" s="5" t="inlineStr">
+      <c r="F186" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G186" s="6" t="inlineStr"/>
+      <c r="H186" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I186" s="5" t="inlineStr">
+      <c r="I186" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B187" s="5" t="inlineStr">
+      <c r="A187" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B187" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C187" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D187" s="5" t="inlineStr">
+      <c r="C187" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D187" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E187" s="5" t="inlineStr">
+      <c r="E187" s="6" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F187" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G187" s="5" t="inlineStr"/>
-      <c r="H187" s="5" t="inlineStr">
+      <c r="F187" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G187" s="6" t="inlineStr"/>
+      <c r="H187" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I187" s="5" t="inlineStr">
+      <c r="I187" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B188" s="5" t="inlineStr">
+      <c r="A188" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B188" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C188" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D188" s="5" t="inlineStr">
+      <c r="C188" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D188" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E188" s="5" t="inlineStr">
+      <c r="E188" s="6" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F188" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G188" s="5" t="inlineStr"/>
-      <c r="H188" s="5" t="inlineStr">
+      <c r="F188" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G188" s="6" t="inlineStr"/>
+      <c r="H188" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I188" s="5" t="inlineStr">
+      <c r="I188" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B189" s="5" t="inlineStr">
+      <c r="A189" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B189" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C189" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D189" s="5" t="inlineStr">
+      <c r="C189" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D189" s="6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E189" s="5" t="inlineStr">
+      <c r="E189" s="6" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F189" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G189" s="5" t="inlineStr"/>
-      <c r="H189" s="5" t="inlineStr">
+      <c r="F189" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G189" s="6" t="inlineStr"/>
+      <c r="H189" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I189" s="5" t="inlineStr">
+      <c r="I189" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -9667,7 +9670,7 @@
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -9714,7 +9717,7 @@
       </c>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr">
@@ -9729,129 +9732,129 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B193" s="5" t="inlineStr">
+      <c r="A193" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B193" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C193" s="5" t="inlineStr">
+      <c r="C193" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D193" s="5" t="inlineStr">
+      <c r="D193" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E193" s="5" t="inlineStr">
+      <c r="E193" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F193" s="5" t="inlineStr">
+      <c r="F193" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G193" s="5" t="inlineStr"/>
-      <c r="H193" s="5" t="inlineStr">
+      <c r="G193" s="6" t="inlineStr"/>
+      <c r="H193" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I193" s="5" t="inlineStr">
+      <c r="I193" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B194" s="5" t="inlineStr">
+      <c r="A194" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B194" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C194" s="5" t="inlineStr">
+      <c r="C194" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D194" s="5" t="inlineStr">
+      <c r="D194" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E194" s="5" t="inlineStr">
+      <c r="E194" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F194" s="5" t="inlineStr">
+      <c r="F194" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G194" s="5" t="inlineStr"/>
-      <c r="H194" s="5" t="inlineStr">
+      <c r="G194" s="6" t="inlineStr"/>
+      <c r="H194" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I194" s="5" t="inlineStr">
+      <c r="I194" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B195" s="5" t="inlineStr">
+      <c r="A195" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B195" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C195" s="5" t="inlineStr">
+      <c r="C195" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D195" s="5" t="inlineStr">
+      <c r="D195" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E195" s="5" t="inlineStr">
+      <c r="E195" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F195" s="5" t="inlineStr">
+      <c r="F195" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G195" s="5" t="inlineStr"/>
-      <c r="H195" s="5" t="inlineStr">
+      <c r="G195" s="6" t="inlineStr"/>
+      <c r="H195" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I195" s="5" t="inlineStr">
+      <c r="I195" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -9890,7 +9893,7 @@
       </c>
       <c r="G196" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H196" s="2" t="inlineStr">
@@ -9937,7 +9940,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -9984,7 +9987,7 @@
       </c>
       <c r="G198" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H198" s="2" t="inlineStr">
@@ -10140,344 +10143,344 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B202" s="5" t="inlineStr">
+      <c r="A202" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B202" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C202" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D202" s="5" t="inlineStr">
+      <c r="C202" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D202" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E202" s="5" t="inlineStr">
+      <c r="E202" s="6" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F202" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G202" s="5" t="inlineStr"/>
-      <c r="H202" s="5" t="inlineStr">
+      <c r="F202" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G202" s="6" t="inlineStr"/>
+      <c r="H202" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I202" s="5" t="inlineStr">
+      <c r="I202" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B203" s="5" t="inlineStr">
+      <c r="A203" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B203" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C203" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D203" s="5" t="inlineStr">
+      <c r="C203" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D203" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E203" s="5" t="inlineStr">
+      <c r="E203" s="6" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F203" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G203" s="5" t="inlineStr"/>
-      <c r="H203" s="5" t="inlineStr">
+      <c r="F203" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G203" s="6" t="inlineStr"/>
+      <c r="H203" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I203" s="5" t="inlineStr">
+      <c r="I203" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B204" s="5" t="inlineStr">
+      <c r="A204" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B204" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C204" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D204" s="5" t="inlineStr">
+      <c r="C204" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D204" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E204" s="5" t="inlineStr">
+      <c r="E204" s="6" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F204" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G204" s="5" t="inlineStr"/>
-      <c r="H204" s="5" t="inlineStr">
+      <c r="F204" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G204" s="6" t="inlineStr"/>
+      <c r="H204" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I204" s="5" t="inlineStr">
+      <c r="I204" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B205" s="5" t="inlineStr">
+      <c r="A205" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B205" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C205" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D205" s="5" t="inlineStr">
+      <c r="C205" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D205" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E205" s="5" t="inlineStr">
+      <c r="E205" s="6" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F205" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G205" s="5" t="inlineStr"/>
-      <c r="H205" s="5" t="inlineStr">
+      <c r="F205" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G205" s="6" t="inlineStr"/>
+      <c r="H205" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I205" s="5" t="inlineStr">
+      <c r="I205" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B206" s="5" t="inlineStr">
+      <c r="A206" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B206" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C206" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D206" s="5" t="inlineStr">
+      <c r="C206" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D206" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E206" s="5" t="inlineStr">
+      <c r="E206" s="6" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F206" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G206" s="5" t="inlineStr"/>
-      <c r="H206" s="5" t="inlineStr">
+      <c r="F206" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G206" s="6" t="inlineStr"/>
+      <c r="H206" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I206" s="5" t="inlineStr">
+      <c r="I206" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B207" s="5" t="inlineStr">
+      <c r="A207" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B207" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C207" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D207" s="5" t="inlineStr">
+      <c r="C207" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D207" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E207" s="5" t="inlineStr">
+      <c r="E207" s="6" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F207" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G207" s="5" t="inlineStr"/>
-      <c r="H207" s="5" t="inlineStr">
+      <c r="F207" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G207" s="6" t="inlineStr"/>
+      <c r="H207" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I207" s="5" t="inlineStr">
+      <c r="I207" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B208" s="5" t="inlineStr">
+      <c r="A208" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B208" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C208" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D208" s="5" t="inlineStr">
+      <c r="C208" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D208" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E208" s="5" t="inlineStr">
+      <c r="E208" s="6" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F208" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G208" s="5" t="inlineStr"/>
-      <c r="H208" s="5" t="inlineStr">
+      <c r="F208" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G208" s="6" t="inlineStr"/>
+      <c r="H208" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I208" s="5" t="inlineStr">
+      <c r="I208" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B209" s="5" t="inlineStr">
+      <c r="A209" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B209" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C209" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D209" s="5" t="inlineStr">
+      <c r="C209" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D209" s="6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E209" s="5" t="inlineStr">
+      <c r="E209" s="6" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F209" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G209" s="5" t="inlineStr"/>
-      <c r="H209" s="5" t="inlineStr">
+      <c r="F209" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G209" s="6" t="inlineStr"/>
+      <c r="H209" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I209" s="5" t="inlineStr">
+      <c r="I209" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -10563,7 +10566,7 @@
       </c>
       <c r="G211" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H211" s="2" t="inlineStr">
@@ -10610,7 +10613,7 @@
       </c>
       <c r="G212" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H212" s="2" t="inlineStr">
@@ -10625,129 +10628,129 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B213" s="5" t="inlineStr">
+      <c r="A213" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B213" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C213" s="5" t="inlineStr">
+      <c r="C213" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D213" s="5" t="inlineStr">
+      <c r="D213" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E213" s="5" t="inlineStr">
+      <c r="E213" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F213" s="5" t="inlineStr">
+      <c r="F213" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G213" s="5" t="inlineStr"/>
-      <c r="H213" s="5" t="inlineStr">
+      <c r="G213" s="6" t="inlineStr"/>
+      <c r="H213" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I213" s="5" t="inlineStr">
+      <c r="I213" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B214" s="5" t="inlineStr">
+      <c r="A214" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B214" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C214" s="5" t="inlineStr">
+      <c r="C214" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D214" s="5" t="inlineStr">
+      <c r="D214" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E214" s="5" t="inlineStr">
+      <c r="E214" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F214" s="5" t="inlineStr">
+      <c r="F214" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G214" s="5" t="inlineStr"/>
-      <c r="H214" s="5" t="inlineStr">
+      <c r="G214" s="6" t="inlineStr"/>
+      <c r="H214" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I214" s="5" t="inlineStr">
+      <c r="I214" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B215" s="5" t="inlineStr">
+      <c r="A215" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B215" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C215" s="5" t="inlineStr">
+      <c r="C215" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D215" s="5" t="inlineStr">
+      <c r="D215" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E215" s="5" t="inlineStr">
+      <c r="E215" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F215" s="5" t="inlineStr">
+      <c r="F215" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G215" s="5" t="inlineStr"/>
-      <c r="H215" s="5" t="inlineStr">
+      <c r="G215" s="6" t="inlineStr"/>
+      <c r="H215" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I215" s="5" t="inlineStr">
+      <c r="I215" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -10786,7 +10789,7 @@
       </c>
       <c r="G216" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H216" s="2" t="inlineStr">
@@ -10833,7 +10836,7 @@
       </c>
       <c r="G217" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H217" s="2" t="inlineStr">
@@ -10880,7 +10883,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -11036,344 +11039,344 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B222" s="5" t="inlineStr">
+      <c r="A222" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B222" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C222" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D222" s="5" t="inlineStr">
+      <c r="C222" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D222" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E222" s="5" t="inlineStr">
+      <c r="E222" s="6" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F222" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G222" s="5" t="inlineStr"/>
-      <c r="H222" s="5" t="inlineStr">
+      <c r="F222" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G222" s="6" t="inlineStr"/>
+      <c r="H222" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I222" s="5" t="inlineStr">
+      <c r="I222" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B223" s="5" t="inlineStr">
+      <c r="A223" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B223" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C223" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D223" s="5" t="inlineStr">
+      <c r="C223" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D223" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E223" s="5" t="inlineStr">
+      <c r="E223" s="6" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F223" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G223" s="5" t="inlineStr"/>
-      <c r="H223" s="5" t="inlineStr">
+      <c r="F223" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G223" s="6" t="inlineStr"/>
+      <c r="H223" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I223" s="5" t="inlineStr">
+      <c r="I223" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B224" s="5" t="inlineStr">
+      <c r="A224" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B224" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C224" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D224" s="5" t="inlineStr">
+      <c r="C224" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D224" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E224" s="5" t="inlineStr">
+      <c r="E224" s="6" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F224" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G224" s="5" t="inlineStr"/>
-      <c r="H224" s="5" t="inlineStr">
+      <c r="F224" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G224" s="6" t="inlineStr"/>
+      <c r="H224" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I224" s="5" t="inlineStr">
+      <c r="I224" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B225" s="5" t="inlineStr">
+      <c r="A225" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B225" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C225" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D225" s="5" t="inlineStr">
+      <c r="C225" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D225" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E225" s="5" t="inlineStr">
+      <c r="E225" s="6" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F225" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G225" s="5" t="inlineStr"/>
-      <c r="H225" s="5" t="inlineStr">
+      <c r="F225" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G225" s="6" t="inlineStr"/>
+      <c r="H225" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I225" s="5" t="inlineStr">
+      <c r="I225" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B226" s="5" t="inlineStr">
+      <c r="A226" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B226" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C226" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D226" s="5" t="inlineStr">
+      <c r="C226" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D226" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E226" s="5" t="inlineStr">
+      <c r="E226" s="6" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F226" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G226" s="5" t="inlineStr"/>
-      <c r="H226" s="5" t="inlineStr">
+      <c r="F226" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G226" s="6" t="inlineStr"/>
+      <c r="H226" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I226" s="5" t="inlineStr">
+      <c r="I226" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B227" s="5" t="inlineStr">
+      <c r="A227" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B227" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C227" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D227" s="5" t="inlineStr">
+      <c r="C227" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D227" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E227" s="5" t="inlineStr">
+      <c r="E227" s="6" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F227" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G227" s="5" t="inlineStr"/>
-      <c r="H227" s="5" t="inlineStr">
+      <c r="F227" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G227" s="6" t="inlineStr"/>
+      <c r="H227" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I227" s="5" t="inlineStr">
+      <c r="I227" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B228" s="5" t="inlineStr">
+      <c r="A228" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B228" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C228" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D228" s="5" t="inlineStr">
+      <c r="C228" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D228" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E228" s="5" t="inlineStr">
+      <c r="E228" s="6" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F228" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G228" s="5" t="inlineStr"/>
-      <c r="H228" s="5" t="inlineStr">
+      <c r="F228" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G228" s="6" t="inlineStr"/>
+      <c r="H228" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I228" s="5" t="inlineStr">
+      <c r="I228" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B229" s="5" t="inlineStr">
+      <c r="A229" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B229" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C229" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D229" s="5" t="inlineStr">
+      <c r="C229" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D229" s="6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E229" s="5" t="inlineStr">
+      <c r="E229" s="6" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F229" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G229" s="5" t="inlineStr"/>
-      <c r="H229" s="5" t="inlineStr">
+      <c r="F229" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G229" s="6" t="inlineStr"/>
+      <c r="H229" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I229" s="5" t="inlineStr">
+      <c r="I229" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -11459,7 +11462,7 @@
       </c>
       <c r="G231" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H231" s="2" t="inlineStr">
@@ -11506,7 +11509,7 @@
       </c>
       <c r="G232" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H232" s="2" t="inlineStr">
@@ -11521,129 +11524,129 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B233" s="5" t="inlineStr">
+      <c r="A233" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B233" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C233" s="5" t="inlineStr">
+      <c r="C233" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D233" s="5" t="inlineStr">
+      <c r="D233" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E233" s="5" t="inlineStr">
+      <c r="E233" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F233" s="5" t="inlineStr">
+      <c r="F233" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G233" s="5" t="inlineStr"/>
-      <c r="H233" s="5" t="inlineStr">
+      <c r="G233" s="6" t="inlineStr"/>
+      <c r="H233" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I233" s="5" t="inlineStr">
+      <c r="I233" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B234" s="5" t="inlineStr">
+      <c r="A234" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B234" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C234" s="5" t="inlineStr">
+      <c r="C234" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D234" s="5" t="inlineStr">
+      <c r="D234" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E234" s="5" t="inlineStr">
+      <c r="E234" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F234" s="5" t="inlineStr">
+      <c r="F234" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G234" s="5" t="inlineStr"/>
-      <c r="H234" s="5" t="inlineStr">
+      <c r="G234" s="6" t="inlineStr"/>
+      <c r="H234" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I234" s="5" t="inlineStr">
+      <c r="I234" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B235" s="5" t="inlineStr">
+      <c r="A235" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B235" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C235" s="5" t="inlineStr">
+      <c r="C235" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D235" s="5" t="inlineStr">
+      <c r="D235" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E235" s="5" t="inlineStr">
+      <c r="E235" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F235" s="5" t="inlineStr">
+      <c r="F235" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G235" s="5" t="inlineStr"/>
-      <c r="H235" s="5" t="inlineStr">
+      <c r="G235" s="6" t="inlineStr"/>
+      <c r="H235" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I235" s="5" t="inlineStr">
+      <c r="I235" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -2097,7 +2097,7 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
@@ -10977,7 +10977,7 @@
       </c>
       <c r="G220" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H220" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
@@ -5726,7 +5726,7 @@
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
@@ -5820,7 +5820,7 @@
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6262,7 +6262,7 @@
       </c>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -6532,7 +6532,7 @@
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
@@ -6673,7 +6673,7 @@
       </c>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
@@ -7068,7 +7068,7 @@
       </c>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
@@ -7115,7 +7115,7 @@
       </c>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7338,7 +7338,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7385,7 +7385,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
@@ -7968,7 +7968,7 @@
       </c>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -8285,7 +8285,7 @@
       </c>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr">
@@ -8774,7 +8774,7 @@
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr">
@@ -9091,7 +9091,7 @@
       </c>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr">
@@ -9670,7 +9670,7 @@
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr">
@@ -9893,7 +9893,7 @@
       </c>
       <c r="G196" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H196" s="2" t="inlineStr">
@@ -9940,7 +9940,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="G198" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H198" s="2" t="inlineStr">
@@ -10566,7 +10566,7 @@
       </c>
       <c r="G211" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H211" s="2" t="inlineStr">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="G212" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H212" s="2" t="inlineStr">
@@ -10789,7 +10789,7 @@
       </c>
       <c r="G216" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H216" s="2" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="G217" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H217" s="2" t="inlineStr">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -11462,7 +11462,7 @@
       </c>
       <c r="G231" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H231" s="2" t="inlineStr">
@@ -11509,7 +11509,7 @@
       </c>
       <c r="G232" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H232" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -977,7 +977,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>48.7%</t>
+          <t>49.6%</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>78.0%</t>
+          <t>78.2%</t>
         </is>
       </c>
     </row>
@@ -1881,22 +1881,22 @@
         <v>19</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>9</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
-          <t>47.4%</t>
+          <t>52.6%</t>
         </is>
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>90.6%</t>
+          <t>90.9%</t>
         </is>
       </c>
     </row>
@@ -1963,22 +1963,22 @@
         <v>19</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>9</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
-          <t>47.4%</t>
+          <t>52.6%</t>
         </is>
       </c>
       <c r="S23" s="4" t="inlineStr">
         <is>
-          <t>70.7%</t>
+          <t>72.7%</t>
         </is>
       </c>
     </row>
@@ -7553,45 +7553,49 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B144" s="5" t="inlineStr">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C144" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D144" s="5" t="inlineStr">
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E144" s="5" t="inlineStr">
+      <c r="E144" s="2" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F144" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G144" s="5" t="inlineStr"/>
-      <c r="H144" s="5" t="inlineStr">
-        <is>
-          <t>0/33</t>
-        </is>
-      </c>
-      <c r="I144" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com, System</t>
+        </is>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>31/33</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -8406,45 +8410,49 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B163" s="5" t="inlineStr">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C163" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D163" s="5" t="inlineStr">
+      <c r="C163" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E163" s="5" t="inlineStr">
+      <c r="E163" s="2" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F163" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G163" s="5" t="inlineStr"/>
-      <c r="H163" s="5" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I163" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F163" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G163" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com, System</t>
+        </is>
+      </c>
+      <c r="H163" s="2" t="inlineStr">
+        <is>
+          <t>27/30</t>
+        </is>
+      </c>
+      <c r="I163" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -58,14 +58,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFB6C1"/>
-        <bgColor rgb="00FFB6C1"/>
+        <fgColor rgb="00FFFFE0"/>
+        <bgColor rgb="00FFFFE0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFE0"/>
-        <bgColor rgb="00FFFFE0"/>
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
       </patternFill>
     </fill>
   </fills>
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -96,16 +96,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,7 +486,7 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="28" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
     <col width="22" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="18" customWidth="1" min="13" max="13"/>
@@ -819,7 +816,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -874,49 +871,53 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I8" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com, System</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>25/28</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
       <c r="K8" s="4" t="inlineStr">
@@ -929,43 +930,43 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E9" s="6" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G9" s="6" t="inlineStr"/>
-      <c r="H9" s="6" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I9" s="6" t="inlineStr">
+      <c r="I9" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -977,48 +978,48 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>49.6%</t>
+          <t>51.3%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G10" s="6" t="inlineStr"/>
-      <c r="H10" s="6" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I10" s="6" t="inlineStr">
+      <c r="I10" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1030,134 +1031,134 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>78.2%</t>
+          <t>78.8%</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E11" s="6" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F11" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G11" s="6" t="inlineStr"/>
-      <c r="H11" s="6" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I11" s="6" t="inlineStr">
+      <c r="I11" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E12" s="6" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F12" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G12" s="6" t="inlineStr"/>
-      <c r="H12" s="6" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I12" s="6" t="inlineStr">
+      <c r="I12" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E13" s="6" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F13" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G13" s="6" t="inlineStr"/>
-      <c r="H13" s="6" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I13" s="6" t="inlineStr">
+      <c r="I13" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1169,43 +1170,43 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E14" s="6" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F14" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G14" s="6" t="inlineStr"/>
-      <c r="H14" s="6" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I14" s="6" t="inlineStr">
+      <c r="I14" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1319,22 +1320,22 @@
         <v>19</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>9</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
-          <t>47.4%</t>
+          <t>52.6%</t>
         </is>
       </c>
       <c r="S15" s="4" t="inlineStr">
         <is>
-          <t>79.4%</t>
+          <t>80.4%</t>
         </is>
       </c>
     </row>
@@ -1503,43 +1504,43 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D18" s="6" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E18" s="6" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F18" s="6" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G18" s="6" t="inlineStr"/>
-      <c r="H18" s="6" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr"/>
+      <c r="H18" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I18" s="6" t="inlineStr">
+      <c r="I18" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1581,43 +1582,43 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D19" s="6" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E19" s="6" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F19" s="6" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G19" s="6" t="inlineStr"/>
-      <c r="H19" s="6" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr"/>
+      <c r="H19" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I19" s="6" t="inlineStr">
+      <c r="I19" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1639,63 +1640,63 @@
         <v>19</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>9</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
-          <t>47.4%</t>
+          <t>52.6%</t>
         </is>
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>87.7%</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D20" s="6" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E20" s="6" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F20" s="6" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G20" s="6" t="inlineStr"/>
-      <c r="H20" s="6" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr"/>
+      <c r="H20" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I20" s="6" t="inlineStr">
+      <c r="I20" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1717,22 +1718,22 @@
         <v>19</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>9</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
-          <t>47.4%</t>
+          <t>52.6%</t>
         </is>
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>91.7%</t>
+          <t>92.5%</t>
         </is>
       </c>
     </row>
@@ -1799,22 +1800,22 @@
         <v>19</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>9</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
-          <t>47.4%</t>
+          <t>52.6%</t>
         </is>
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>86.6%</t>
+          <t>87.9%</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>90.9%</t>
+          <t>91.5%</t>
         </is>
       </c>
     </row>
@@ -2276,86 +2277,86 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B28" s="6" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C28" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D28" s="6" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E28" s="6" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F28" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G28" s="6" t="inlineStr"/>
-      <c r="H28" s="6" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr"/>
+      <c r="H28" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I28" s="6" t="inlineStr">
+      <c r="I28" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B29" s="6" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C29" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D29" s="6" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E29" s="6" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F29" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G29" s="6" t="inlineStr"/>
-      <c r="H29" s="6" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr"/>
+      <c r="H29" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I29" s="6" t="inlineStr">
+      <c r="I29" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2367,43 +2368,43 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C30" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D30" s="6" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E30" s="6" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F30" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G30" s="6" t="inlineStr"/>
-      <c r="H30" s="6" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr"/>
+      <c r="H30" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I30" s="6" t="inlineStr">
+      <c r="I30" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2425,43 +2426,43 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B31" s="6" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C31" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D31" s="6" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E31" s="6" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F31" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G31" s="6" t="inlineStr"/>
-      <c r="H31" s="6" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="inlineStr"/>
+      <c r="H31" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I31" s="6" t="inlineStr">
+      <c r="I31" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2471,7 +2472,7 @@
           <t>Recorded</t>
         </is>
       </c>
-      <c r="L31" s="7" t="inlineStr">
+      <c r="L31" s="6" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
@@ -2483,43 +2484,43 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B32" s="6" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C32" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D32" s="6" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E32" s="6" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F32" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G32" s="6" t="inlineStr"/>
-      <c r="H32" s="6" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G32" s="5" t="inlineStr"/>
+      <c r="H32" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I32" s="6" t="inlineStr">
+      <c r="I32" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2529,7 +2530,7 @@
           <t>Not Recorded</t>
         </is>
       </c>
-      <c r="L32" s="8" t="inlineStr">
+      <c r="L32" s="7" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
@@ -2541,43 +2542,43 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B33" s="6" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C33" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D33" s="6" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E33" s="6" t="inlineStr">
+      <c r="E33" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F33" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G33" s="6" t="inlineStr"/>
-      <c r="H33" s="6" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G33" s="5" t="inlineStr"/>
+      <c r="H33" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I33" s="6" t="inlineStr">
+      <c r="I33" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2587,7 +2588,7 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="L33" s="9" t="inlineStr">
+      <c r="L33" s="8" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
@@ -2599,43 +2600,43 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B34" s="6" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C34" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D34" s="6" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E34" s="6" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F34" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G34" s="6" t="inlineStr"/>
-      <c r="H34" s="6" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G34" s="5" t="inlineStr"/>
+      <c r="H34" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I34" s="6" t="inlineStr">
+      <c r="I34" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2783,129 +2784,129 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B38" s="6" t="inlineStr">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C38" s="6" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D38" s="6" t="inlineStr">
+      <c r="D38" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E38" s="6" t="inlineStr">
+      <c r="E38" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F38" s="6" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G38" s="6" t="inlineStr"/>
-      <c r="H38" s="6" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr"/>
+      <c r="H38" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I38" s="6" t="inlineStr">
+      <c r="I38" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B39" s="6" t="inlineStr">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C39" s="6" t="inlineStr">
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D39" s="6" t="inlineStr">
+      <c r="D39" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E39" s="6" t="inlineStr">
+      <c r="E39" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F39" s="6" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G39" s="6" t="inlineStr"/>
-      <c r="H39" s="6" t="inlineStr">
+      <c r="G39" s="5" t="inlineStr"/>
+      <c r="H39" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I39" s="6" t="inlineStr">
+      <c r="I39" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B40" s="6" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C40" s="6" t="inlineStr">
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D40" s="6" t="inlineStr">
+      <c r="D40" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E40" s="6" t="inlineStr">
+      <c r="E40" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F40" s="6" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G40" s="6" t="inlineStr"/>
-      <c r="H40" s="6" t="inlineStr">
+      <c r="G40" s="5" t="inlineStr"/>
+      <c r="H40" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I40" s="6" t="inlineStr">
+      <c r="I40" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -3241,301 +3242,301 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B48" s="6" t="inlineStr">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C48" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D48" s="6" t="inlineStr">
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E48" s="6" t="inlineStr">
+      <c r="E48" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F48" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G48" s="6" t="inlineStr"/>
-      <c r="H48" s="6" t="inlineStr">
+      <c r="F48" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G48" s="5" t="inlineStr"/>
+      <c r="H48" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I48" s="6" t="inlineStr">
+      <c r="I48" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B49" s="6" t="inlineStr">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B49" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C49" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D49" s="6" t="inlineStr">
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E49" s="6" t="inlineStr">
+      <c r="E49" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F49" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G49" s="6" t="inlineStr"/>
-      <c r="H49" s="6" t="inlineStr">
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G49" s="5" t="inlineStr"/>
+      <c r="H49" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I49" s="6" t="inlineStr">
+      <c r="I49" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B50" s="6" t="inlineStr">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B50" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C50" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D50" s="6" t="inlineStr">
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E50" s="6" t="inlineStr">
+      <c r="E50" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F50" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G50" s="6" t="inlineStr"/>
-      <c r="H50" s="6" t="inlineStr">
+      <c r="F50" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G50" s="5" t="inlineStr"/>
+      <c r="H50" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I50" s="6" t="inlineStr">
+      <c r="I50" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B51" s="6" t="inlineStr">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C51" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D51" s="6" t="inlineStr">
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E51" s="6" t="inlineStr">
+      <c r="E51" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F51" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G51" s="6" t="inlineStr"/>
-      <c r="H51" s="6" t="inlineStr">
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G51" s="5" t="inlineStr"/>
+      <c r="H51" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I51" s="6" t="inlineStr">
+      <c r="I51" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B52" s="6" t="inlineStr">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C52" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D52" s="6" t="inlineStr">
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E52" s="6" t="inlineStr">
+      <c r="E52" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F52" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G52" s="6" t="inlineStr"/>
-      <c r="H52" s="6" t="inlineStr">
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G52" s="5" t="inlineStr"/>
+      <c r="H52" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I52" s="6" t="inlineStr">
+      <c r="I52" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B53" s="6" t="inlineStr">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B53" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C53" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D53" s="6" t="inlineStr">
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E53" s="6" t="inlineStr">
+      <c r="E53" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F53" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G53" s="6" t="inlineStr"/>
-      <c r="H53" s="6" t="inlineStr">
+      <c r="F53" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G53" s="5" t="inlineStr"/>
+      <c r="H53" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I53" s="6" t="inlineStr">
+      <c r="I53" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B54" s="6" t="inlineStr">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B54" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C54" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D54" s="6" t="inlineStr">
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E54" s="6" t="inlineStr">
+      <c r="E54" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F54" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G54" s="6" t="inlineStr"/>
-      <c r="H54" s="6" t="inlineStr">
+      <c r="F54" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G54" s="5" t="inlineStr"/>
+      <c r="H54" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I54" s="6" t="inlineStr">
+      <c r="I54" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -3683,129 +3684,129 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B58" s="6" t="inlineStr">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B58" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C58" s="6" t="inlineStr">
+      <c r="C58" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D58" s="6" t="inlineStr">
+      <c r="D58" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E58" s="6" t="inlineStr">
+      <c r="E58" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F58" s="6" t="inlineStr">
+      <c r="F58" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G58" s="6" t="inlineStr"/>
-      <c r="H58" s="6" t="inlineStr">
+      <c r="G58" s="5" t="inlineStr"/>
+      <c r="H58" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I58" s="6" t="inlineStr">
+      <c r="I58" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B59" s="6" t="inlineStr">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B59" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C59" s="6" t="inlineStr">
+      <c r="C59" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D59" s="6" t="inlineStr">
+      <c r="D59" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E59" s="6" t="inlineStr">
+      <c r="E59" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F59" s="6" t="inlineStr">
+      <c r="F59" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G59" s="6" t="inlineStr"/>
-      <c r="H59" s="6" t="inlineStr">
+      <c r="G59" s="5" t="inlineStr"/>
+      <c r="H59" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I59" s="6" t="inlineStr">
+      <c r="I59" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B60" s="6" t="inlineStr">
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B60" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C60" s="6" t="inlineStr">
+      <c r="C60" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D60" s="6" t="inlineStr">
+      <c r="D60" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E60" s="6" t="inlineStr">
+      <c r="E60" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F60" s="6" t="inlineStr">
+      <c r="F60" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G60" s="6" t="inlineStr"/>
-      <c r="H60" s="6" t="inlineStr">
+      <c r="G60" s="5" t="inlineStr"/>
+      <c r="H60" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I60" s="6" t="inlineStr">
+      <c r="I60" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -4141,301 +4142,301 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B68" s="6" t="inlineStr">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B68" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C68" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D68" s="6" t="inlineStr">
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D68" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E68" s="6" t="inlineStr">
+      <c r="E68" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F68" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G68" s="6" t="inlineStr"/>
-      <c r="H68" s="6" t="inlineStr">
+      <c r="F68" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G68" s="5" t="inlineStr"/>
+      <c r="H68" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I68" s="6" t="inlineStr">
+      <c r="I68" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B69" s="6" t="inlineStr">
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B69" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C69" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D69" s="6" t="inlineStr">
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D69" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E69" s="6" t="inlineStr">
+      <c r="E69" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F69" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G69" s="6" t="inlineStr"/>
-      <c r="H69" s="6" t="inlineStr">
+      <c r="F69" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G69" s="5" t="inlineStr"/>
+      <c r="H69" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I69" s="6" t="inlineStr">
+      <c r="I69" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B70" s="6" t="inlineStr">
+      <c r="A70" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B70" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C70" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D70" s="6" t="inlineStr">
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E70" s="6" t="inlineStr">
+      <c r="E70" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F70" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G70" s="6" t="inlineStr"/>
-      <c r="H70" s="6" t="inlineStr">
+      <c r="F70" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G70" s="5" t="inlineStr"/>
+      <c r="H70" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I70" s="6" t="inlineStr">
+      <c r="I70" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B71" s="6" t="inlineStr">
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B71" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C71" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D71" s="6" t="inlineStr">
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D71" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E71" s="6" t="inlineStr">
+      <c r="E71" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F71" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G71" s="6" t="inlineStr"/>
-      <c r="H71" s="6" t="inlineStr">
+      <c r="F71" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G71" s="5" t="inlineStr"/>
+      <c r="H71" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I71" s="6" t="inlineStr">
+      <c r="I71" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B72" s="6" t="inlineStr">
+      <c r="A72" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B72" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C72" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D72" s="6" t="inlineStr">
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D72" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E72" s="6" t="inlineStr">
+      <c r="E72" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F72" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G72" s="6" t="inlineStr"/>
-      <c r="H72" s="6" t="inlineStr">
+      <c r="F72" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G72" s="5" t="inlineStr"/>
+      <c r="H72" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I72" s="6" t="inlineStr">
+      <c r="I72" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B73" s="6" t="inlineStr">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B73" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C73" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D73" s="6" t="inlineStr">
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D73" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E73" s="6" t="inlineStr">
+      <c r="E73" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F73" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G73" s="6" t="inlineStr"/>
-      <c r="H73" s="6" t="inlineStr">
+      <c r="F73" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G73" s="5" t="inlineStr"/>
+      <c r="H73" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I73" s="6" t="inlineStr">
+      <c r="I73" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B74" s="6" t="inlineStr">
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B74" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C74" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D74" s="6" t="inlineStr">
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D74" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E74" s="6" t="inlineStr">
+      <c r="E74" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F74" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G74" s="6" t="inlineStr"/>
-      <c r="H74" s="6" t="inlineStr">
+      <c r="F74" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G74" s="5" t="inlineStr"/>
+      <c r="H74" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I74" s="6" t="inlineStr">
+      <c r="I74" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -4583,129 +4584,129 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B78" s="6" t="inlineStr">
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B78" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C78" s="6" t="inlineStr">
+      <c r="C78" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D78" s="6" t="inlineStr">
+      <c r="D78" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E78" s="6" t="inlineStr">
+      <c r="E78" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F78" s="6" t="inlineStr">
+      <c r="F78" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G78" s="6" t="inlineStr"/>
-      <c r="H78" s="6" t="inlineStr">
+      <c r="G78" s="5" t="inlineStr"/>
+      <c r="H78" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I78" s="6" t="inlineStr">
+      <c r="I78" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B79" s="6" t="inlineStr">
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B79" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C79" s="6" t="inlineStr">
+      <c r="C79" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D79" s="6" t="inlineStr">
+      <c r="D79" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E79" s="6" t="inlineStr">
+      <c r="E79" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F79" s="6" t="inlineStr">
+      <c r="F79" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G79" s="6" t="inlineStr"/>
-      <c r="H79" s="6" t="inlineStr">
+      <c r="G79" s="5" t="inlineStr"/>
+      <c r="H79" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I79" s="6" t="inlineStr">
+      <c r="I79" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B80" s="6" t="inlineStr">
+      <c r="A80" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B80" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C80" s="6" t="inlineStr">
+      <c r="C80" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D80" s="6" t="inlineStr">
+      <c r="D80" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E80" s="6" t="inlineStr">
+      <c r="E80" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F80" s="6" t="inlineStr">
+      <c r="F80" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G80" s="6" t="inlineStr"/>
-      <c r="H80" s="6" t="inlineStr">
+      <c r="G80" s="5" t="inlineStr"/>
+      <c r="H80" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I80" s="6" t="inlineStr">
+      <c r="I80" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -4994,301 +4995,305 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B87" s="5" t="inlineStr">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C87" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D87" s="5" t="inlineStr">
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E87" s="5" t="inlineStr">
+      <c r="E87" s="2" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F87" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G87" s="5" t="inlineStr"/>
-      <c r="H87" s="5" t="inlineStr">
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com, System</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="inlineStr">
+        <is>
+          <t>28/31</t>
+        </is>
+      </c>
+      <c r="I87" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B88" s="5" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C88" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D88" s="5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E88" s="5" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F88" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G88" s="5" t="inlineStr"/>
+      <c r="H88" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I87" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B88" s="6" t="inlineStr">
+      <c r="I88" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B89" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C88" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D88" s="6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E88" s="6" t="inlineStr">
-        <is>
-          <t>04/01/2026</t>
-        </is>
-      </c>
-      <c r="F88" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G88" s="6" t="inlineStr"/>
-      <c r="H88" s="6" t="inlineStr">
+      <c r="C89" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D89" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E89" s="5" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F89" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G89" s="5" t="inlineStr"/>
+      <c r="H89" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I88" s="6" t="inlineStr">
+      <c r="I89" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B89" s="6" t="inlineStr">
+    <row r="90">
+      <c r="A90" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B90" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C89" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D89" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E89" s="6" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
-      </c>
-      <c r="F89" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G89" s="6" t="inlineStr"/>
-      <c r="H89" s="6" t="inlineStr">
+      <c r="C90" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D90" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E90" s="5" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F90" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G90" s="5" t="inlineStr"/>
+      <c r="H90" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I89" s="6" t="inlineStr">
+      <c r="I90" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B90" s="6" t="inlineStr">
+    <row r="91">
+      <c r="A91" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B91" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C90" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D90" s="6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E90" s="6" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F90" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G90" s="6" t="inlineStr"/>
-      <c r="H90" s="6" t="inlineStr">
+      <c r="C91" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D91" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E91" s="5" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F91" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G91" s="5" t="inlineStr"/>
+      <c r="H91" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I90" s="6" t="inlineStr">
+      <c r="I91" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B91" s="6" t="inlineStr">
+    <row r="92">
+      <c r="A92" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B92" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C91" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D91" s="6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E91" s="6" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F91" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G91" s="6" t="inlineStr"/>
-      <c r="H91" s="6" t="inlineStr">
+      <c r="C92" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D92" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E92" s="5" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F92" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G92" s="5" t="inlineStr"/>
+      <c r="H92" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I91" s="6" t="inlineStr">
+      <c r="I92" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B92" s="6" t="inlineStr">
+    <row r="93">
+      <c r="A93" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B93" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C92" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D92" s="6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E92" s="6" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F92" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G92" s="6" t="inlineStr"/>
-      <c r="H92" s="6" t="inlineStr">
+      <c r="C93" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D93" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E93" s="5" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F93" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G93" s="5" t="inlineStr"/>
+      <c r="H93" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I92" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B93" s="6" t="inlineStr">
-        <is>
-          <t>B1-2</t>
-        </is>
-      </c>
-      <c r="C93" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D93" s="6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E93" s="6" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F93" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G93" s="6" t="inlineStr"/>
-      <c r="H93" s="6" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I93" s="6" t="inlineStr">
+      <c r="I93" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -5436,129 +5441,129 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B97" s="6" t="inlineStr">
+      <c r="A97" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B97" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C97" s="6" t="inlineStr">
+      <c r="C97" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D97" s="6" t="inlineStr">
+      <c r="D97" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E97" s="6" t="inlineStr">
+      <c r="E97" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F97" s="6" t="inlineStr">
+      <c r="F97" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G97" s="6" t="inlineStr"/>
-      <c r="H97" s="6" t="inlineStr">
+      <c r="G97" s="5" t="inlineStr"/>
+      <c r="H97" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I97" s="6" t="inlineStr">
+      <c r="I97" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B98" s="6" t="inlineStr">
+      <c r="A98" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B98" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C98" s="6" t="inlineStr">
+      <c r="C98" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D98" s="6" t="inlineStr">
+      <c r="D98" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E98" s="6" t="inlineStr">
+      <c r="E98" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F98" s="6" t="inlineStr">
+      <c r="F98" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G98" s="6" t="inlineStr"/>
-      <c r="H98" s="6" t="inlineStr">
+      <c r="G98" s="5" t="inlineStr"/>
+      <c r="H98" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I98" s="6" t="inlineStr">
+      <c r="I98" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B99" s="6" t="inlineStr">
+      <c r="A99" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B99" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C99" s="6" t="inlineStr">
+      <c r="C99" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D99" s="6" t="inlineStr">
+      <c r="D99" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E99" s="6" t="inlineStr">
+      <c r="E99" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F99" s="6" t="inlineStr">
+      <c r="F99" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G99" s="6" t="inlineStr"/>
-      <c r="H99" s="6" t="inlineStr">
+      <c r="G99" s="5" t="inlineStr"/>
+      <c r="H99" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I99" s="6" t="inlineStr">
+      <c r="I99" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -5847,301 +5852,305 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B106" s="5" t="inlineStr">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C106" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D106" s="5" t="inlineStr">
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E106" s="5" t="inlineStr">
+      <c r="E106" s="2" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F106" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G106" s="5" t="inlineStr"/>
-      <c r="H106" s="5" t="inlineStr">
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com, System</t>
+        </is>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>28/28</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B107" s="5" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C107" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D107" s="5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E107" s="5" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F107" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G107" s="5" t="inlineStr"/>
+      <c r="H107" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I106" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B107" s="6" t="inlineStr">
+      <c r="I107" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B108" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C107" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D107" s="6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E107" s="6" t="inlineStr">
-        <is>
-          <t>04/01/2026</t>
-        </is>
-      </c>
-      <c r="F107" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G107" s="6" t="inlineStr"/>
-      <c r="H107" s="6" t="inlineStr">
+      <c r="C108" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D108" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E108" s="5" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F108" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G108" s="5" t="inlineStr"/>
+      <c r="H108" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I107" s="6" t="inlineStr">
+      <c r="I108" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B108" s="6" t="inlineStr">
+    <row r="109">
+      <c r="A109" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B109" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C108" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D108" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E108" s="6" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
-      </c>
-      <c r="F108" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G108" s="6" t="inlineStr"/>
-      <c r="H108" s="6" t="inlineStr">
+      <c r="C109" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D109" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E109" s="5" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F109" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G109" s="5" t="inlineStr"/>
+      <c r="H109" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I108" s="6" t="inlineStr">
+      <c r="I109" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B109" s="6" t="inlineStr">
+    <row r="110">
+      <c r="A110" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B110" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C109" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D109" s="6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E109" s="6" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F109" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G109" s="6" t="inlineStr"/>
-      <c r="H109" s="6" t="inlineStr">
+      <c r="C110" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D110" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E110" s="5" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F110" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G110" s="5" t="inlineStr"/>
+      <c r="H110" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I109" s="6" t="inlineStr">
+      <c r="I110" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B110" s="6" t="inlineStr">
+    <row r="111">
+      <c r="A111" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B111" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C110" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D110" s="6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E110" s="6" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F110" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G110" s="6" t="inlineStr"/>
-      <c r="H110" s="6" t="inlineStr">
+      <c r="C111" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D111" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E111" s="5" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F111" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G111" s="5" t="inlineStr"/>
+      <c r="H111" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I110" s="6" t="inlineStr">
+      <c r="I111" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B111" s="6" t="inlineStr">
+    <row r="112">
+      <c r="A112" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B112" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C111" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D111" s="6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E111" s="6" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F111" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G111" s="6" t="inlineStr"/>
-      <c r="H111" s="6" t="inlineStr">
+      <c r="C112" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D112" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E112" s="5" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F112" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G112" s="5" t="inlineStr"/>
+      <c r="H112" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I111" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B112" s="6" t="inlineStr">
-        <is>
-          <t>B1-3</t>
-        </is>
-      </c>
-      <c r="C112" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D112" s="6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E112" s="6" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F112" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G112" s="6" t="inlineStr"/>
-      <c r="H112" s="6" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I112" s="6" t="inlineStr">
+      <c r="I112" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -6289,129 +6298,129 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B116" s="6" t="inlineStr">
+      <c r="A116" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B116" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C116" s="6" t="inlineStr">
+      <c r="C116" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D116" s="6" t="inlineStr">
+      <c r="D116" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E116" s="6" t="inlineStr">
+      <c r="E116" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F116" s="6" t="inlineStr">
+      <c r="F116" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G116" s="6" t="inlineStr"/>
-      <c r="H116" s="6" t="inlineStr">
+      <c r="G116" s="5" t="inlineStr"/>
+      <c r="H116" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I116" s="6" t="inlineStr">
+      <c r="I116" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B117" s="6" t="inlineStr">
+      <c r="A117" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B117" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C117" s="6" t="inlineStr">
+      <c r="C117" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D117" s="6" t="inlineStr">
+      <c r="D117" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E117" s="6" t="inlineStr">
+      <c r="E117" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F117" s="6" t="inlineStr">
+      <c r="F117" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G117" s="6" t="inlineStr"/>
-      <c r="H117" s="6" t="inlineStr">
+      <c r="G117" s="5" t="inlineStr"/>
+      <c r="H117" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I117" s="6" t="inlineStr">
+      <c r="I117" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B118" s="6" t="inlineStr">
+      <c r="A118" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B118" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C118" s="6" t="inlineStr">
+      <c r="C118" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D118" s="6" t="inlineStr">
+      <c r="D118" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E118" s="6" t="inlineStr">
+      <c r="E118" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F118" s="6" t="inlineStr">
+      <c r="F118" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G118" s="6" t="inlineStr"/>
-      <c r="H118" s="6" t="inlineStr">
+      <c r="G118" s="5" t="inlineStr"/>
+      <c r="H118" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I118" s="6" t="inlineStr">
+      <c r="I118" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -6700,301 +6709,305 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B125" s="5" t="inlineStr">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C125" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D125" s="5" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E125" s="5" t="inlineStr">
+      <c r="E125" s="2" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F125" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G125" s="5" t="inlineStr"/>
-      <c r="H125" s="5" t="inlineStr">
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com, System</t>
+        </is>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>29/29</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B126" s="5" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C126" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D126" s="5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E126" s="5" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F126" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G126" s="5" t="inlineStr"/>
+      <c r="H126" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I125" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B126" s="6" t="inlineStr">
+      <c r="I126" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B127" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C126" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D126" s="6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E126" s="6" t="inlineStr">
-        <is>
-          <t>04/01/2026</t>
-        </is>
-      </c>
-      <c r="F126" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G126" s="6" t="inlineStr"/>
-      <c r="H126" s="6" t="inlineStr">
+      <c r="C127" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D127" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E127" s="5" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F127" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G127" s="5" t="inlineStr"/>
+      <c r="H127" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I126" s="6" t="inlineStr">
+      <c r="I127" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B127" s="6" t="inlineStr">
+    <row r="128">
+      <c r="A128" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B128" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C127" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D127" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E127" s="6" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
-      </c>
-      <c r="F127" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G127" s="6" t="inlineStr"/>
-      <c r="H127" s="6" t="inlineStr">
+      <c r="C128" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D128" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E128" s="5" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F128" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G128" s="5" t="inlineStr"/>
+      <c r="H128" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I127" s="6" t="inlineStr">
+      <c r="I128" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B128" s="6" t="inlineStr">
+    <row r="129">
+      <c r="A129" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B129" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C128" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D128" s="6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E128" s="6" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F128" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G128" s="6" t="inlineStr"/>
-      <c r="H128" s="6" t="inlineStr">
+      <c r="C129" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D129" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E129" s="5" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F129" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G129" s="5" t="inlineStr"/>
+      <c r="H129" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I128" s="6" t="inlineStr">
+      <c r="I129" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B129" s="6" t="inlineStr">
+    <row r="130">
+      <c r="A130" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B130" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C129" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D129" s="6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E129" s="6" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F129" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G129" s="6" t="inlineStr"/>
-      <c r="H129" s="6" t="inlineStr">
+      <c r="C130" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D130" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E130" s="5" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F130" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G130" s="5" t="inlineStr"/>
+      <c r="H130" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I129" s="6" t="inlineStr">
+      <c r="I130" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B130" s="6" t="inlineStr">
+    <row r="131">
+      <c r="A131" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B131" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C130" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D130" s="6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E130" s="6" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F130" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G130" s="6" t="inlineStr"/>
-      <c r="H130" s="6" t="inlineStr">
+      <c r="C131" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D131" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E131" s="5" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F131" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G131" s="5" t="inlineStr"/>
+      <c r="H131" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I130" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B131" s="6" t="inlineStr">
-        <is>
-          <t>B1-4</t>
-        </is>
-      </c>
-      <c r="C131" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D131" s="6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E131" s="6" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F131" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G131" s="6" t="inlineStr"/>
-      <c r="H131" s="6" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I131" s="6" t="inlineStr">
+      <c r="I131" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -7142,129 +7155,129 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B135" s="6" t="inlineStr">
+      <c r="A135" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B135" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C135" s="6" t="inlineStr">
+      <c r="C135" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D135" s="6" t="inlineStr">
+      <c r="D135" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E135" s="6" t="inlineStr">
+      <c r="E135" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F135" s="6" t="inlineStr">
+      <c r="F135" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G135" s="6" t="inlineStr"/>
-      <c r="H135" s="6" t="inlineStr">
+      <c r="G135" s="5" t="inlineStr"/>
+      <c r="H135" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I135" s="6" t="inlineStr">
+      <c r="I135" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B136" s="6" t="inlineStr">
+      <c r="A136" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B136" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C136" s="6" t="inlineStr">
+      <c r="C136" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D136" s="6" t="inlineStr">
+      <c r="D136" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E136" s="6" t="inlineStr">
+      <c r="E136" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F136" s="6" t="inlineStr">
+      <c r="F136" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G136" s="6" t="inlineStr"/>
-      <c r="H136" s="6" t="inlineStr">
+      <c r="G136" s="5" t="inlineStr"/>
+      <c r="H136" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I136" s="6" t="inlineStr">
+      <c r="I136" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B137" s="6" t="inlineStr">
+      <c r="A137" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B137" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C137" s="6" t="inlineStr">
+      <c r="C137" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D137" s="6" t="inlineStr">
+      <c r="D137" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E137" s="6" t="inlineStr">
+      <c r="E137" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F137" s="6" t="inlineStr">
+      <c r="F137" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G137" s="6" t="inlineStr"/>
-      <c r="H137" s="6" t="inlineStr">
+      <c r="G137" s="5" t="inlineStr"/>
+      <c r="H137" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I137" s="6" t="inlineStr">
+      <c r="I137" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -7590,7 +7603,7 @@
       </c>
       <c r="H144" s="2" t="inlineStr">
         <is>
-          <t>31/33</t>
+          <t>33/33</t>
         </is>
       </c>
       <c r="I144" s="2" t="inlineStr">
@@ -7600,258 +7613,258 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B145" s="6" t="inlineStr">
+      <c r="A145" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B145" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C145" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D145" s="6" t="inlineStr">
+      <c r="C145" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D145" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E145" s="6" t="inlineStr">
+      <c r="E145" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F145" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G145" s="6" t="inlineStr"/>
-      <c r="H145" s="6" t="inlineStr">
+      <c r="F145" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G145" s="5" t="inlineStr"/>
+      <c r="H145" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I145" s="6" t="inlineStr">
+      <c r="I145" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B146" s="6" t="inlineStr">
+      <c r="A146" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B146" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C146" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D146" s="6" t="inlineStr">
+      <c r="C146" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D146" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E146" s="6" t="inlineStr">
+      <c r="E146" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F146" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G146" s="6" t="inlineStr"/>
-      <c r="H146" s="6" t="inlineStr">
+      <c r="F146" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G146" s="5" t="inlineStr"/>
+      <c r="H146" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I146" s="6" t="inlineStr">
+      <c r="I146" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B147" s="6" t="inlineStr">
+      <c r="A147" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B147" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C147" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D147" s="6" t="inlineStr">
+      <c r="C147" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D147" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E147" s="6" t="inlineStr">
+      <c r="E147" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F147" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G147" s="6" t="inlineStr"/>
-      <c r="H147" s="6" t="inlineStr">
+      <c r="F147" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G147" s="5" t="inlineStr"/>
+      <c r="H147" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I147" s="6" t="inlineStr">
+      <c r="I147" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B148" s="6" t="inlineStr">
+      <c r="A148" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B148" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C148" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D148" s="6" t="inlineStr">
+      <c r="C148" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D148" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E148" s="6" t="inlineStr">
+      <c r="E148" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F148" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G148" s="6" t="inlineStr"/>
-      <c r="H148" s="6" t="inlineStr">
+      <c r="F148" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G148" s="5" t="inlineStr"/>
+      <c r="H148" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I148" s="6" t="inlineStr">
+      <c r="I148" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B149" s="6" t="inlineStr">
+      <c r="A149" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B149" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C149" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D149" s="6" t="inlineStr">
+      <c r="C149" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D149" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E149" s="6" t="inlineStr">
+      <c r="E149" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F149" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G149" s="6" t="inlineStr"/>
-      <c r="H149" s="6" t="inlineStr">
+      <c r="F149" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G149" s="5" t="inlineStr"/>
+      <c r="H149" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I149" s="6" t="inlineStr">
+      <c r="I149" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B150" s="6" t="inlineStr">
+      <c r="A150" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B150" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C150" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D150" s="6" t="inlineStr">
+      <c r="C150" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D150" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E150" s="6" t="inlineStr">
+      <c r="E150" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F150" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G150" s="6" t="inlineStr"/>
-      <c r="H150" s="6" t="inlineStr">
+      <c r="F150" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G150" s="5" t="inlineStr"/>
+      <c r="H150" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I150" s="6" t="inlineStr">
+      <c r="I150" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -7999,129 +8012,129 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B154" s="6" t="inlineStr">
+      <c r="A154" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B154" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C154" s="6" t="inlineStr">
+      <c r="C154" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D154" s="6" t="inlineStr">
+      <c r="D154" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E154" s="6" t="inlineStr">
+      <c r="E154" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F154" s="6" t="inlineStr">
+      <c r="F154" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G154" s="6" t="inlineStr"/>
-      <c r="H154" s="6" t="inlineStr">
+      <c r="G154" s="5" t="inlineStr"/>
+      <c r="H154" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I154" s="6" t="inlineStr">
+      <c r="I154" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B155" s="6" t="inlineStr">
+      <c r="A155" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B155" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C155" s="6" t="inlineStr">
+      <c r="C155" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D155" s="6" t="inlineStr">
+      <c r="D155" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E155" s="6" t="inlineStr">
+      <c r="E155" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F155" s="6" t="inlineStr">
+      <c r="F155" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G155" s="6" t="inlineStr"/>
-      <c r="H155" s="6" t="inlineStr">
+      <c r="G155" s="5" t="inlineStr"/>
+      <c r="H155" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I155" s="6" t="inlineStr">
+      <c r="I155" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B156" s="6" t="inlineStr">
+      <c r="A156" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B156" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C156" s="6" t="inlineStr">
+      <c r="C156" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D156" s="6" t="inlineStr">
+      <c r="D156" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E156" s="6" t="inlineStr">
+      <c r="E156" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F156" s="6" t="inlineStr">
+      <c r="F156" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G156" s="6" t="inlineStr"/>
-      <c r="H156" s="6" t="inlineStr">
+      <c r="G156" s="5" t="inlineStr"/>
+      <c r="H156" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I156" s="6" t="inlineStr">
+      <c r="I156" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -8457,258 +8470,258 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B164" s="6" t="inlineStr">
+      <c r="A164" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B164" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C164" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D164" s="6" t="inlineStr">
+      <c r="C164" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D164" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E164" s="6" t="inlineStr">
+      <c r="E164" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F164" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G164" s="6" t="inlineStr"/>
-      <c r="H164" s="6" t="inlineStr">
+      <c r="F164" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G164" s="5" t="inlineStr"/>
+      <c r="H164" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I164" s="6" t="inlineStr">
+      <c r="I164" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B165" s="6" t="inlineStr">
+      <c r="A165" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B165" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C165" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D165" s="6" t="inlineStr">
+      <c r="C165" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D165" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E165" s="6" t="inlineStr">
+      <c r="E165" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F165" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G165" s="6" t="inlineStr"/>
-      <c r="H165" s="6" t="inlineStr">
+      <c r="F165" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G165" s="5" t="inlineStr"/>
+      <c r="H165" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I165" s="6" t="inlineStr">
+      <c r="I165" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B166" s="6" t="inlineStr">
+      <c r="A166" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B166" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C166" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D166" s="6" t="inlineStr">
+      <c r="C166" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D166" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E166" s="6" t="inlineStr">
+      <c r="E166" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F166" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G166" s="6" t="inlineStr"/>
-      <c r="H166" s="6" t="inlineStr">
+      <c r="F166" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G166" s="5" t="inlineStr"/>
+      <c r="H166" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I166" s="6" t="inlineStr">
+      <c r="I166" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B167" s="6" t="inlineStr">
+      <c r="A167" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B167" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C167" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D167" s="6" t="inlineStr">
+      <c r="C167" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D167" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E167" s="6" t="inlineStr">
+      <c r="E167" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F167" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G167" s="6" t="inlineStr"/>
-      <c r="H167" s="6" t="inlineStr">
+      <c r="F167" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G167" s="5" t="inlineStr"/>
+      <c r="H167" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I167" s="6" t="inlineStr">
+      <c r="I167" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B168" s="6" t="inlineStr">
+      <c r="A168" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B168" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C168" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D168" s="6" t="inlineStr">
+      <c r="C168" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D168" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E168" s="6" t="inlineStr">
+      <c r="E168" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F168" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G168" s="6" t="inlineStr"/>
-      <c r="H168" s="6" t="inlineStr">
+      <c r="F168" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G168" s="5" t="inlineStr"/>
+      <c r="H168" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I168" s="6" t="inlineStr">
+      <c r="I168" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B169" s="6" t="inlineStr">
+      <c r="A169" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B169" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C169" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D169" s="6" t="inlineStr">
+      <c r="C169" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D169" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E169" s="6" t="inlineStr">
+      <c r="E169" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F169" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G169" s="6" t="inlineStr"/>
-      <c r="H169" s="6" t="inlineStr">
+      <c r="F169" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G169" s="5" t="inlineStr"/>
+      <c r="H169" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I169" s="6" t="inlineStr">
+      <c r="I169" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -8856,129 +8869,129 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B173" s="6" t="inlineStr">
+      <c r="A173" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B173" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C173" s="6" t="inlineStr">
+      <c r="C173" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D173" s="6" t="inlineStr">
+      <c r="D173" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E173" s="6" t="inlineStr">
+      <c r="E173" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F173" s="6" t="inlineStr">
+      <c r="F173" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G173" s="6" t="inlineStr"/>
-      <c r="H173" s="6" t="inlineStr">
+      <c r="G173" s="5" t="inlineStr"/>
+      <c r="H173" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I173" s="6" t="inlineStr">
+      <c r="I173" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B174" s="6" t="inlineStr">
+      <c r="A174" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B174" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C174" s="6" t="inlineStr">
+      <c r="C174" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D174" s="6" t="inlineStr">
+      <c r="D174" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E174" s="6" t="inlineStr">
+      <c r="E174" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F174" s="6" t="inlineStr">
+      <c r="F174" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G174" s="6" t="inlineStr"/>
-      <c r="H174" s="6" t="inlineStr">
+      <c r="G174" s="5" t="inlineStr"/>
+      <c r="H174" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I174" s="6" t="inlineStr">
+      <c r="I174" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B175" s="6" t="inlineStr">
+      <c r="A175" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B175" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C175" s="6" t="inlineStr">
+      <c r="C175" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D175" s="6" t="inlineStr">
+      <c r="D175" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E175" s="6" t="inlineStr">
+      <c r="E175" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F175" s="6" t="inlineStr">
+      <c r="F175" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G175" s="6" t="inlineStr"/>
-      <c r="H175" s="6" t="inlineStr">
+      <c r="G175" s="5" t="inlineStr"/>
+      <c r="H175" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I175" s="6" t="inlineStr">
+      <c r="I175" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -9314,301 +9327,301 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B183" s="6" t="inlineStr">
+      <c r="A183" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B183" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C183" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D183" s="6" t="inlineStr">
+      <c r="C183" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D183" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E183" s="6" t="inlineStr">
+      <c r="E183" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F183" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G183" s="6" t="inlineStr"/>
-      <c r="H183" s="6" t="inlineStr">
+      <c r="F183" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G183" s="5" t="inlineStr"/>
+      <c r="H183" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I183" s="6" t="inlineStr">
+      <c r="I183" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B184" s="6" t="inlineStr">
+      <c r="A184" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B184" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C184" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D184" s="6" t="inlineStr">
+      <c r="C184" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D184" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E184" s="6" t="inlineStr">
+      <c r="E184" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F184" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G184" s="6" t="inlineStr"/>
-      <c r="H184" s="6" t="inlineStr">
+      <c r="F184" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G184" s="5" t="inlineStr"/>
+      <c r="H184" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I184" s="6" t="inlineStr">
+      <c r="I184" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B185" s="6" t="inlineStr">
+      <c r="A185" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B185" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C185" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D185" s="6" t="inlineStr">
+      <c r="C185" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D185" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E185" s="6" t="inlineStr">
+      <c r="E185" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F185" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G185" s="6" t="inlineStr"/>
-      <c r="H185" s="6" t="inlineStr">
+      <c r="F185" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G185" s="5" t="inlineStr"/>
+      <c r="H185" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I185" s="6" t="inlineStr">
+      <c r="I185" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B186" s="6" t="inlineStr">
+      <c r="A186" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B186" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C186" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D186" s="6" t="inlineStr">
+      <c r="C186" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D186" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E186" s="6" t="inlineStr">
+      <c r="E186" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F186" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G186" s="6" t="inlineStr"/>
-      <c r="H186" s="6" t="inlineStr">
+      <c r="F186" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G186" s="5" t="inlineStr"/>
+      <c r="H186" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I186" s="6" t="inlineStr">
+      <c r="I186" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B187" s="6" t="inlineStr">
+      <c r="A187" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B187" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C187" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D187" s="6" t="inlineStr">
+      <c r="C187" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D187" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E187" s="6" t="inlineStr">
+      <c r="E187" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F187" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G187" s="6" t="inlineStr"/>
-      <c r="H187" s="6" t="inlineStr">
+      <c r="F187" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G187" s="5" t="inlineStr"/>
+      <c r="H187" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I187" s="6" t="inlineStr">
+      <c r="I187" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B188" s="6" t="inlineStr">
+      <c r="A188" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B188" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C188" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D188" s="6" t="inlineStr">
+      <c r="C188" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D188" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E188" s="6" t="inlineStr">
+      <c r="E188" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F188" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G188" s="6" t="inlineStr"/>
-      <c r="H188" s="6" t="inlineStr">
+      <c r="F188" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G188" s="5" t="inlineStr"/>
+      <c r="H188" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I188" s="6" t="inlineStr">
+      <c r="I188" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B189" s="6" t="inlineStr">
+      <c r="A189" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B189" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C189" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D189" s="6" t="inlineStr">
+      <c r="C189" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D189" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E189" s="6" t="inlineStr">
+      <c r="E189" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F189" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G189" s="6" t="inlineStr"/>
-      <c r="H189" s="6" t="inlineStr">
+      <c r="F189" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G189" s="5" t="inlineStr"/>
+      <c r="H189" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I189" s="6" t="inlineStr">
+      <c r="I189" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -9756,129 +9769,129 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B193" s="6" t="inlineStr">
+      <c r="A193" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B193" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C193" s="6" t="inlineStr">
+      <c r="C193" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D193" s="6" t="inlineStr">
+      <c r="D193" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E193" s="6" t="inlineStr">
+      <c r="E193" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F193" s="6" t="inlineStr">
+      <c r="F193" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G193" s="6" t="inlineStr"/>
-      <c r="H193" s="6" t="inlineStr">
+      <c r="G193" s="5" t="inlineStr"/>
+      <c r="H193" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I193" s="6" t="inlineStr">
+      <c r="I193" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B194" s="6" t="inlineStr">
+      <c r="A194" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B194" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C194" s="6" t="inlineStr">
+      <c r="C194" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D194" s="6" t="inlineStr">
+      <c r="D194" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E194" s="6" t="inlineStr">
+      <c r="E194" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F194" s="6" t="inlineStr">
+      <c r="F194" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G194" s="6" t="inlineStr"/>
-      <c r="H194" s="6" t="inlineStr">
+      <c r="G194" s="5" t="inlineStr"/>
+      <c r="H194" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I194" s="6" t="inlineStr">
+      <c r="I194" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B195" s="6" t="inlineStr">
+      <c r="A195" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B195" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C195" s="6" t="inlineStr">
+      <c r="C195" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D195" s="6" t="inlineStr">
+      <c r="D195" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E195" s="6" t="inlineStr">
+      <c r="E195" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F195" s="6" t="inlineStr">
+      <c r="F195" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G195" s="6" t="inlineStr"/>
-      <c r="H195" s="6" t="inlineStr">
+      <c r="G195" s="5" t="inlineStr"/>
+      <c r="H195" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I195" s="6" t="inlineStr">
+      <c r="I195" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -10214,301 +10227,301 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B203" s="6" t="inlineStr">
+      <c r="A203" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B203" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C203" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D203" s="6" t="inlineStr">
+      <c r="C203" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D203" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E203" s="6" t="inlineStr">
+      <c r="E203" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F203" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G203" s="6" t="inlineStr"/>
-      <c r="H203" s="6" t="inlineStr">
+      <c r="F203" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G203" s="5" t="inlineStr"/>
+      <c r="H203" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I203" s="6" t="inlineStr">
+      <c r="I203" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B204" s="6" t="inlineStr">
+      <c r="A204" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B204" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C204" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D204" s="6" t="inlineStr">
+      <c r="C204" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D204" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E204" s="6" t="inlineStr">
+      <c r="E204" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F204" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G204" s="6" t="inlineStr"/>
-      <c r="H204" s="6" t="inlineStr">
+      <c r="F204" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G204" s="5" t="inlineStr"/>
+      <c r="H204" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I204" s="6" t="inlineStr">
+      <c r="I204" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B205" s="6" t="inlineStr">
+      <c r="A205" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B205" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C205" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D205" s="6" t="inlineStr">
+      <c r="C205" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D205" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E205" s="6" t="inlineStr">
+      <c r="E205" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F205" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G205" s="6" t="inlineStr"/>
-      <c r="H205" s="6" t="inlineStr">
+      <c r="F205" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G205" s="5" t="inlineStr"/>
+      <c r="H205" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I205" s="6" t="inlineStr">
+      <c r="I205" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B206" s="6" t="inlineStr">
+      <c r="A206" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B206" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C206" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D206" s="6" t="inlineStr">
+      <c r="C206" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D206" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E206" s="6" t="inlineStr">
+      <c r="E206" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F206" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G206" s="6" t="inlineStr"/>
-      <c r="H206" s="6" t="inlineStr">
+      <c r="F206" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G206" s="5" t="inlineStr"/>
+      <c r="H206" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I206" s="6" t="inlineStr">
+      <c r="I206" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B207" s="6" t="inlineStr">
+      <c r="A207" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B207" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C207" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D207" s="6" t="inlineStr">
+      <c r="C207" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D207" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E207" s="6" t="inlineStr">
+      <c r="E207" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F207" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G207" s="6" t="inlineStr"/>
-      <c r="H207" s="6" t="inlineStr">
+      <c r="F207" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G207" s="5" t="inlineStr"/>
+      <c r="H207" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I207" s="6" t="inlineStr">
+      <c r="I207" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B208" s="6" t="inlineStr">
+      <c r="A208" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B208" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C208" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D208" s="6" t="inlineStr">
+      <c r="C208" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D208" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E208" s="6" t="inlineStr">
+      <c r="E208" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F208" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G208" s="6" t="inlineStr"/>
-      <c r="H208" s="6" t="inlineStr">
+      <c r="F208" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G208" s="5" t="inlineStr"/>
+      <c r="H208" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I208" s="6" t="inlineStr">
+      <c r="I208" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B209" s="6" t="inlineStr">
+      <c r="A209" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B209" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C209" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D209" s="6" t="inlineStr">
+      <c r="C209" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D209" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E209" s="6" t="inlineStr">
+      <c r="E209" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F209" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G209" s="6" t="inlineStr"/>
-      <c r="H209" s="6" t="inlineStr">
+      <c r="F209" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G209" s="5" t="inlineStr"/>
+      <c r="H209" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I209" s="6" t="inlineStr">
+      <c r="I209" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -10656,129 +10669,129 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B213" s="6" t="inlineStr">
+      <c r="A213" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B213" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C213" s="6" t="inlineStr">
+      <c r="C213" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D213" s="6" t="inlineStr">
+      <c r="D213" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E213" s="6" t="inlineStr">
+      <c r="E213" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F213" s="6" t="inlineStr">
+      <c r="F213" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G213" s="6" t="inlineStr"/>
-      <c r="H213" s="6" t="inlineStr">
+      <c r="G213" s="5" t="inlineStr"/>
+      <c r="H213" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I213" s="6" t="inlineStr">
+      <c r="I213" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B214" s="6" t="inlineStr">
+      <c r="A214" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B214" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C214" s="6" t="inlineStr">
+      <c r="C214" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D214" s="6" t="inlineStr">
+      <c r="D214" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E214" s="6" t="inlineStr">
+      <c r="E214" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F214" s="6" t="inlineStr">
+      <c r="F214" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G214" s="6" t="inlineStr"/>
-      <c r="H214" s="6" t="inlineStr">
+      <c r="G214" s="5" t="inlineStr"/>
+      <c r="H214" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I214" s="6" t="inlineStr">
+      <c r="I214" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B215" s="6" t="inlineStr">
+      <c r="A215" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B215" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C215" s="6" t="inlineStr">
+      <c r="C215" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D215" s="6" t="inlineStr">
+      <c r="D215" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E215" s="6" t="inlineStr">
+      <c r="E215" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F215" s="6" t="inlineStr">
+      <c r="F215" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G215" s="6" t="inlineStr"/>
-      <c r="H215" s="6" t="inlineStr">
+      <c r="G215" s="5" t="inlineStr"/>
+      <c r="H215" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I215" s="6" t="inlineStr">
+      <c r="I215" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -11114,301 +11127,301 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B223" s="6" t="inlineStr">
+      <c r="A223" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B223" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C223" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D223" s="6" t="inlineStr">
+      <c r="C223" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D223" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E223" s="6" t="inlineStr">
+      <c r="E223" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F223" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G223" s="6" t="inlineStr"/>
-      <c r="H223" s="6" t="inlineStr">
+      <c r="F223" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G223" s="5" t="inlineStr"/>
+      <c r="H223" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I223" s="6" t="inlineStr">
+      <c r="I223" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B224" s="6" t="inlineStr">
+      <c r="A224" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B224" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C224" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D224" s="6" t="inlineStr">
+      <c r="C224" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D224" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E224" s="6" t="inlineStr">
+      <c r="E224" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F224" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G224" s="6" t="inlineStr"/>
-      <c r="H224" s="6" t="inlineStr">
+      <c r="F224" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G224" s="5" t="inlineStr"/>
+      <c r="H224" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I224" s="6" t="inlineStr">
+      <c r="I224" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B225" s="6" t="inlineStr">
+      <c r="A225" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B225" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C225" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D225" s="6" t="inlineStr">
+      <c r="C225" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D225" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E225" s="6" t="inlineStr">
+      <c r="E225" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F225" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G225" s="6" t="inlineStr"/>
-      <c r="H225" s="6" t="inlineStr">
+      <c r="F225" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G225" s="5" t="inlineStr"/>
+      <c r="H225" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I225" s="6" t="inlineStr">
+      <c r="I225" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B226" s="6" t="inlineStr">
+      <c r="A226" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B226" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C226" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D226" s="6" t="inlineStr">
+      <c r="C226" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D226" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E226" s="6" t="inlineStr">
+      <c r="E226" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F226" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G226" s="6" t="inlineStr"/>
-      <c r="H226" s="6" t="inlineStr">
+      <c r="F226" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G226" s="5" t="inlineStr"/>
+      <c r="H226" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I226" s="6" t="inlineStr">
+      <c r="I226" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B227" s="6" t="inlineStr">
+      <c r="A227" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B227" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C227" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D227" s="6" t="inlineStr">
+      <c r="C227" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D227" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E227" s="6" t="inlineStr">
+      <c r="E227" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F227" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G227" s="6" t="inlineStr"/>
-      <c r="H227" s="6" t="inlineStr">
+      <c r="F227" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G227" s="5" t="inlineStr"/>
+      <c r="H227" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I227" s="6" t="inlineStr">
+      <c r="I227" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B228" s="6" t="inlineStr">
+      <c r="A228" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B228" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C228" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D228" s="6" t="inlineStr">
+      <c r="C228" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D228" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E228" s="6" t="inlineStr">
+      <c r="E228" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F228" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G228" s="6" t="inlineStr"/>
-      <c r="H228" s="6" t="inlineStr">
+      <c r="F228" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G228" s="5" t="inlineStr"/>
+      <c r="H228" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I228" s="6" t="inlineStr">
+      <c r="I228" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B229" s="6" t="inlineStr">
+      <c r="A229" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B229" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C229" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D229" s="6" t="inlineStr">
+      <c r="C229" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D229" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E229" s="6" t="inlineStr">
+      <c r="E229" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F229" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G229" s="6" t="inlineStr"/>
-      <c r="H229" s="6" t="inlineStr">
+      <c r="F229" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G229" s="5" t="inlineStr"/>
+      <c r="H229" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I229" s="6" t="inlineStr">
+      <c r="I229" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -11556,129 +11569,129 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B233" s="6" t="inlineStr">
+      <c r="A233" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B233" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C233" s="6" t="inlineStr">
+      <c r="C233" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D233" s="6" t="inlineStr">
+      <c r="D233" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E233" s="6" t="inlineStr">
+      <c r="E233" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F233" s="6" t="inlineStr">
+      <c r="F233" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G233" s="6" t="inlineStr"/>
-      <c r="H233" s="6" t="inlineStr">
+      <c r="G233" s="5" t="inlineStr"/>
+      <c r="H233" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I233" s="6" t="inlineStr">
+      <c r="I233" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B234" s="6" t="inlineStr">
+      <c r="A234" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B234" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C234" s="6" t="inlineStr">
+      <c r="C234" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D234" s="6" t="inlineStr">
+      <c r="D234" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E234" s="6" t="inlineStr">
+      <c r="E234" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F234" s="6" t="inlineStr">
+      <c r="F234" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G234" s="6" t="inlineStr"/>
-      <c r="H234" s="6" t="inlineStr">
+      <c r="G234" s="5" t="inlineStr"/>
+      <c r="H234" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I234" s="6" t="inlineStr">
+      <c r="I234" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B235" s="6" t="inlineStr">
+      <c r="A235" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B235" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C235" s="6" t="inlineStr">
+      <c r="C235" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D235" s="6" t="inlineStr">
+      <c r="D235" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E235" s="6" t="inlineStr">
+      <c r="E235" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F235" s="6" t="inlineStr">
+      <c r="F235" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G235" s="6" t="inlineStr"/>
-      <c r="H235" s="6" t="inlineStr">
+      <c r="G235" s="5" t="inlineStr"/>
+      <c r="H235" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I235" s="6" t="inlineStr">
+      <c r="I235" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
@@ -852,7 +852,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
@@ -978,7 +978,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>51.3%</t>
+          <t>53.8%</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1402,22 +1402,22 @@
         <v>20</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>55.0%</t>
         </is>
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>71.9%</t>
+          <t>72.4%</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1484,22 +1484,22 @@
         <v>20</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>55.0%</t>
         </is>
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>61.6%</t>
         </is>
       </c>
     </row>
@@ -1562,22 +1562,22 @@
         <v>20</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>55.0%</t>
         </is>
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>82.9%</t>
+          <t>82.7%</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -2046,22 +2046,22 @@
         <v>20</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>55.0%</t>
         </is>
       </c>
       <c r="S24" s="4" t="inlineStr">
         <is>
-          <t>71.9%</t>
+          <t>71.4%</t>
         </is>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -2128,22 +2128,22 @@
         <v>20</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>55.0%</t>
         </is>
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>74.8%</t>
+          <t>75.2%</t>
         </is>
       </c>
     </row>
@@ -2210,22 +2210,22 @@
         <v>20</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>55.0%</t>
         </is>
       </c>
       <c r="S26" s="4" t="inlineStr">
         <is>
-          <t>71.7%</t>
+          <t>73.7%</t>
         </is>
       </c>
     </row>
@@ -2277,45 +2277,49 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr"/>
-      <c r="H28" s="5" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>System, dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>24/31</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -2722,7 +2726,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2769,7 +2773,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -2945,7 +2949,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -2992,7 +2996,7 @@
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
@@ -3039,7 +3043,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3133,7 +3137,7 @@
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -3242,45 +3246,49 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B48" s="5" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C48" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D48" s="5" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E48" s="5" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F48" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G48" s="5" t="inlineStr"/>
-      <c r="H48" s="5" t="inlineStr">
-        <is>
-          <t>0/18</t>
-        </is>
-      </c>
-      <c r="I48" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>System, dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>14/18</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -3622,7 +3630,7 @@
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -3669,7 +3677,7 @@
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
@@ -3845,7 +3853,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3892,7 +3900,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -3939,7 +3947,7 @@
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -4033,7 +4041,7 @@
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -4142,45 +4150,49 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B68" s="5" t="inlineStr">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C68" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D68" s="5" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E68" s="5" t="inlineStr">
+      <c r="E68" s="2" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F68" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G68" s="5" t="inlineStr"/>
-      <c r="H68" s="5" t="inlineStr">
-        <is>
-          <t>0/21</t>
-        </is>
-      </c>
-      <c r="I68" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>System, dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>17/21</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -4522,7 +4534,7 @@
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
@@ -4569,7 +4581,7 @@
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
@@ -4745,7 +4757,7 @@
       </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
@@ -4792,7 +4804,7 @@
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
@@ -4839,7 +4851,7 @@
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
@@ -4886,7 +4898,7 @@
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
@@ -4933,7 +4945,7 @@
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
@@ -4980,7 +4992,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5027,7 +5039,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5379,7 +5391,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -5426,7 +5438,7 @@
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -5602,7 +5614,7 @@
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
@@ -5649,7 +5661,7 @@
       </c>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
@@ -5696,7 +5708,7 @@
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
@@ -5743,7 +5755,7 @@
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
@@ -5790,7 +5802,7 @@
       </c>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
@@ -5837,7 +5849,7 @@
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -5884,7 +5896,7 @@
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
@@ -6236,7 +6248,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6283,7 +6295,7 @@
       </c>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
@@ -6459,7 +6471,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6506,7 +6518,7 @@
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -6553,7 +6565,7 @@
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -6600,7 +6612,7 @@
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
@@ -6647,7 +6659,7 @@
       </c>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
@@ -6694,7 +6706,7 @@
       </c>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
@@ -6741,7 +6753,7 @@
       </c>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
@@ -7093,7 +7105,7 @@
       </c>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
@@ -7140,7 +7152,7 @@
       </c>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
@@ -7316,7 +7328,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7363,7 +7375,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7410,7 +7422,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -7457,7 +7469,7 @@
       </c>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
@@ -7504,7 +7516,7 @@
       </c>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -7551,7 +7563,7 @@
       </c>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
@@ -7598,7 +7610,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7950,7 +7962,7 @@
       </c>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
@@ -7997,7 +8009,7 @@
       </c>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
@@ -8173,7 +8185,7 @@
       </c>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
@@ -8220,7 +8232,7 @@
       </c>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
@@ -8267,7 +8279,7 @@
       </c>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -8314,7 +8326,7 @@
       </c>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
@@ -8361,7 +8373,7 @@
       </c>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr">
@@ -8408,7 +8420,7 @@
       </c>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr">
@@ -8455,7 +8467,7 @@
       </c>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H163" s="2" t="inlineStr">
@@ -8807,7 +8819,7 @@
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -8854,7 +8866,7 @@
       </c>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
@@ -9030,7 +9042,7 @@
       </c>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr">
@@ -9077,7 +9089,7 @@
       </c>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr">
@@ -9124,7 +9136,7 @@
       </c>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr">
@@ -9218,7 +9230,7 @@
       </c>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
@@ -9327,45 +9339,49 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B183" s="5" t="inlineStr">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C183" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D183" s="5" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E183" s="5" t="inlineStr">
+      <c r="E183" s="2" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F183" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G183" s="5" t="inlineStr"/>
-      <c r="H183" s="5" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I183" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="inlineStr">
+        <is>
+          <t>System, dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>18/27</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -9707,7 +9723,7 @@
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -9754,7 +9770,7 @@
       </c>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr">
@@ -9930,7 +9946,7 @@
       </c>
       <c r="G196" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H196" s="2" t="inlineStr">
@@ -9977,7 +9993,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -10024,7 +10040,7 @@
       </c>
       <c r="G198" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H198" s="2" t="inlineStr">
@@ -10118,7 +10134,7 @@
       </c>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
@@ -10227,45 +10243,49 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B203" s="5" t="inlineStr">
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C203" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D203" s="5" t="inlineStr">
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E203" s="5" t="inlineStr">
+      <c r="E203" s="2" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F203" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G203" s="5" t="inlineStr"/>
-      <c r="H203" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I203" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="inlineStr">
+        <is>
+          <t>System, dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H203" s="2" t="inlineStr">
+        <is>
+          <t>23/29</t>
+        </is>
+      </c>
+      <c r="I203" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -10607,7 +10627,7 @@
       </c>
       <c r="G211" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H211" s="2" t="inlineStr">
@@ -10654,7 +10674,7 @@
       </c>
       <c r="G212" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H212" s="2" t="inlineStr">
@@ -10830,7 +10850,7 @@
       </c>
       <c r="G216" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H216" s="2" t="inlineStr">
@@ -10877,7 +10897,7 @@
       </c>
       <c r="G217" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H217" s="2" t="inlineStr">
@@ -10924,7 +10944,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -11018,7 +11038,7 @@
       </c>
       <c r="G220" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H220" s="2" t="inlineStr">
@@ -11127,45 +11147,49 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B223" s="5" t="inlineStr">
+      <c r="A223" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C223" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D223" s="5" t="inlineStr">
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E223" s="5" t="inlineStr">
+      <c r="E223" s="2" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F223" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G223" s="5" t="inlineStr"/>
-      <c r="H223" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I223" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="inlineStr">
+        <is>
+          <t>System, dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>27/29</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -11507,7 +11531,7 @@
       </c>
       <c r="G231" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H231" s="2" t="inlineStr">
@@ -11554,7 +11578,7 @@
       </c>
       <c r="G232" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H232" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3900,7 +3900,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
@@ -4804,7 +4804,7 @@
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
@@ -5755,7 +5755,7 @@
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
@@ -6248,7 +6248,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
@@ -6471,7 +6471,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -6565,7 +6565,7 @@
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
@@ -6753,7 +6753,7 @@
       </c>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
@@ -7105,7 +7105,7 @@
       </c>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
@@ -7152,7 +7152,7 @@
       </c>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7375,7 +7375,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7422,7 +7422,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7962,7 +7962,7 @@
       </c>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
@@ -8232,7 +8232,7 @@
       </c>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -8326,7 +8326,7 @@
       </c>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr">
@@ -8420,7 +8420,7 @@
       </c>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr">
@@ -8467,7 +8467,7 @@
       </c>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H163" s="2" t="inlineStr">
@@ -8819,7 +8819,7 @@
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -8866,7 +8866,7 @@
       </c>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
@@ -9042,7 +9042,7 @@
       </c>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
@@ -9371,7 +9371,7 @@
       </c>
       <c r="G183" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H183" s="2" t="inlineStr">
@@ -9723,7 +9723,7 @@
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -9770,7 +9770,7 @@
       </c>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr">
@@ -9946,7 +9946,7 @@
       </c>
       <c r="G196" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H196" s="2" t="inlineStr">
@@ -9993,7 +9993,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -10040,7 +10040,7 @@
       </c>
       <c r="G198" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H198" s="2" t="inlineStr">
@@ -10134,7 +10134,7 @@
       </c>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="G203" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H203" s="2" t="inlineStr">
@@ -10627,7 +10627,7 @@
       </c>
       <c r="G211" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H211" s="2" t="inlineStr">
@@ -10674,7 +10674,7 @@
       </c>
       <c r="G212" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H212" s="2" t="inlineStr">
@@ -10850,7 +10850,7 @@
       </c>
       <c r="G216" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H216" s="2" t="inlineStr">
@@ -10897,7 +10897,7 @@
       </c>
       <c r="G217" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H217" s="2" t="inlineStr">
@@ -10944,7 +10944,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -11038,7 +11038,7 @@
       </c>
       <c r="G220" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H220" s="2" t="inlineStr">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="G223" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H223" s="2" t="inlineStr">
@@ -11531,7 +11531,7 @@
       </c>
       <c r="G231" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H231" s="2" t="inlineStr">
@@ -11578,7 +11578,7 @@
       </c>
       <c r="G232" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H232" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -907,7 +907,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
@@ -6753,7 +6753,7 @@
       </c>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -8467,7 +8467,7 @@
       </c>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H163" s="2" t="inlineStr">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
@@ -9371,7 +9371,7 @@
       </c>
       <c r="G183" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H183" s="2" t="inlineStr">
@@ -10040,7 +10040,7 @@
       </c>
       <c r="G198" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H198" s="2" t="inlineStr">
@@ -10134,7 +10134,7 @@
       </c>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="G203" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H203" s="2" t="inlineStr">
@@ -10944,7 +10944,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -11038,7 +11038,7 @@
       </c>
       <c r="G220" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H220" s="2" t="inlineStr">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="G223" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H223" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -58,14 +58,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFE0"/>
-        <bgColor rgb="00FFFFE0"/>
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFB6C1"/>
-        <bgColor rgb="00FFB6C1"/>
+        <fgColor rgb="00FFFFE0"/>
+        <bgColor rgb="00FFFFE0"/>
       </patternFill>
     </fill>
   </fills>
@@ -102,10 +102,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -971,245 +971,245 @@
       </c>
       <c r="I9" s="5" t="inlineStr">
         <is>
+          <t>Not Recorded</t>
+        </is>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t>Coverage %</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t>48.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>B1-1</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>0/28</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
           <t>Pending</t>
         </is>
       </c>
-      <c r="K9" s="4" t="inlineStr">
-        <is>
-          <t>Coverage %</t>
-        </is>
-      </c>
-      <c r="L9" s="4" t="inlineStr">
-        <is>
-          <t>48.8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="K10" s="4" t="inlineStr">
+        <is>
+          <t>Average Attendance %</t>
+        </is>
+      </c>
+      <c r="L10" s="4" t="inlineStr">
+        <is>
+          <t>78.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I10" s="5" t="inlineStr">
+      <c r="I11" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
-      <c r="K10" s="4" t="inlineStr">
-        <is>
-          <t>Average Attendance %</t>
-        </is>
-      </c>
-      <c r="L10" s="4" t="inlineStr">
-        <is>
-          <t>78.8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I11" s="5" t="inlineStr">
+      <c r="I12" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G13" s="6" t="inlineStr"/>
+      <c r="H13" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I12" s="5" t="inlineStr">
+      <c r="I13" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>Group Statistics</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I13" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>Group Statistics</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>B1-1</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I14" s="5" t="inlineStr">
+      <c r="I14" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1326,10 +1326,10 @@
         <v>10</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1507,43 +1507,43 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D18" s="6" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E18" s="6" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F18" s="6" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G18" s="6" t="inlineStr"/>
-      <c r="H18" s="6" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr"/>
+      <c r="H18" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I18" s="6" t="inlineStr">
+      <c r="I18" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -1585,43 +1585,43 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D19" s="6" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E19" s="6" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F19" s="6" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G19" s="6" t="inlineStr"/>
-      <c r="H19" s="6" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr"/>
+      <c r="H19" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I19" s="6" t="inlineStr">
+      <c r="I19" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -1646,10 +1646,10 @@
         <v>10</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1663,43 +1663,43 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D20" s="5" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="E20" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="F20" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr">
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I20" s="5" t="inlineStr">
+      <c r="I20" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1724,10 +1724,10 @@
         <v>10</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1741,43 +1741,43 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D21" s="5" t="inlineStr">
+      <c r="D21" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="E21" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="F21" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr">
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I21" s="5" t="inlineStr">
+      <c r="I21" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1802,10 +1802,10 @@
         <v>10</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1884,10 +1884,10 @@
         <v>10</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>91.5%</t>
+          <t>91.8%</t>
         </is>
       </c>
     </row>
@@ -1966,10 +1966,10 @@
         <v>10</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2475,43 +2475,43 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D30" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="E30" s="6" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr"/>
-      <c r="H30" s="5" t="inlineStr">
+      <c r="F30" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G30" s="6" t="inlineStr"/>
+      <c r="H30" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I30" s="5" t="inlineStr">
+      <c r="I30" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2553,43 +2553,43 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D31" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="E31" s="6" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G31" s="5" t="inlineStr"/>
-      <c r="H31" s="5" t="inlineStr">
+      <c r="F31" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G31" s="6" t="inlineStr"/>
+      <c r="H31" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I31" s="5" t="inlineStr">
+      <c r="I31" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2631,43 +2631,43 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B32" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D32" s="5" t="inlineStr">
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D32" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E32" s="5" t="inlineStr">
+      <c r="E32" s="6" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F32" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G32" s="5" t="inlineStr"/>
-      <c r="H32" s="5" t="inlineStr">
+      <c r="F32" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G32" s="6" t="inlineStr"/>
+      <c r="H32" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I32" s="5" t="inlineStr">
+      <c r="I32" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2709,43 +2709,43 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D33" s="5" t="inlineStr">
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D33" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="E33" s="6" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G33" s="5" t="inlineStr"/>
-      <c r="H33" s="5" t="inlineStr">
+      <c r="F33" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G33" s="6" t="inlineStr"/>
+      <c r="H33" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I33" s="5" t="inlineStr">
+      <c r="I33" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2787,43 +2787,43 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B34" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C34" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D34" s="5" t="inlineStr">
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D34" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E34" s="5" t="inlineStr">
+      <c r="E34" s="6" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F34" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G34" s="5" t="inlineStr"/>
-      <c r="H34" s="5" t="inlineStr">
+      <c r="F34" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G34" s="6" t="inlineStr"/>
+      <c r="H34" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I34" s="5" t="inlineStr">
+      <c r="I34" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2865,43 +2865,43 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B35" s="5" t="inlineStr">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B35" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C35" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D35" s="5" t="inlineStr">
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D35" s="6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E35" s="5" t="inlineStr">
+      <c r="E35" s="6" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F35" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G35" s="5" t="inlineStr"/>
-      <c r="H35" s="5" t="inlineStr">
+      <c r="F35" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G35" s="6" t="inlineStr"/>
+      <c r="H35" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I35" s="5" t="inlineStr">
+      <c r="I35" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -3189,129 +3189,129 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B39" s="6" t="inlineStr">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C39" s="6" t="inlineStr">
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D39" s="6" t="inlineStr">
+      <c r="D39" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E39" s="6" t="inlineStr">
+      <c r="E39" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F39" s="6" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G39" s="6" t="inlineStr"/>
-      <c r="H39" s="6" t="inlineStr">
+      <c r="G39" s="5" t="inlineStr"/>
+      <c r="H39" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I39" s="6" t="inlineStr">
+      <c r="I39" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B40" s="6" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C40" s="6" t="inlineStr">
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D40" s="6" t="inlineStr">
+      <c r="D40" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E40" s="6" t="inlineStr">
+      <c r="E40" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F40" s="6" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G40" s="6" t="inlineStr"/>
-      <c r="H40" s="6" t="inlineStr">
+      <c r="G40" s="5" t="inlineStr"/>
+      <c r="H40" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I40" s="6" t="inlineStr">
+      <c r="I40" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B41" s="5" t="inlineStr">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B41" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C41" s="5" t="inlineStr">
+      <c r="C41" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D41" s="5" t="inlineStr">
+      <c r="D41" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E41" s="5" t="inlineStr">
+      <c r="E41" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F41" s="5" t="inlineStr">
+      <c r="F41" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G41" s="5" t="inlineStr"/>
-      <c r="H41" s="5" t="inlineStr">
+      <c r="G41" s="6" t="inlineStr"/>
+      <c r="H41" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I41" s="5" t="inlineStr">
+      <c r="I41" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -3323,43 +3323,43 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B42" s="5" t="inlineStr">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B42" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C42" s="5" t="inlineStr">
+      <c r="C42" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D42" s="5" t="inlineStr">
+      <c r="D42" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E42" s="5" t="inlineStr">
+      <c r="E42" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F42" s="5" t="inlineStr">
+      <c r="F42" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G42" s="5" t="inlineStr"/>
-      <c r="H42" s="5" t="inlineStr">
+      <c r="G42" s="6" t="inlineStr"/>
+      <c r="H42" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I42" s="5" t="inlineStr">
+      <c r="I42" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -3802,258 +3802,258 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B51" s="5" t="inlineStr">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C51" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D51" s="5" t="inlineStr">
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E51" s="5" t="inlineStr">
+      <c r="E51" s="6" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F51" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G51" s="5" t="inlineStr"/>
-      <c r="H51" s="5" t="inlineStr">
+      <c r="F51" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G51" s="6" t="inlineStr"/>
+      <c r="H51" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I51" s="5" t="inlineStr">
+      <c r="I51" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C52" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D52" s="5" t="inlineStr">
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D52" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E52" s="5" t="inlineStr">
+      <c r="E52" s="6" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F52" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G52" s="5" t="inlineStr"/>
-      <c r="H52" s="5" t="inlineStr">
+      <c r="F52" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G52" s="6" t="inlineStr"/>
+      <c r="H52" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I52" s="5" t="inlineStr">
+      <c r="I52" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B53" s="5" t="inlineStr">
+      <c r="A53" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C53" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D53" s="5" t="inlineStr">
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D53" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E53" s="5" t="inlineStr">
+      <c r="E53" s="6" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F53" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G53" s="5" t="inlineStr"/>
-      <c r="H53" s="5" t="inlineStr">
+      <c r="F53" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G53" s="6" t="inlineStr"/>
+      <c r="H53" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I53" s="5" t="inlineStr">
+      <c r="I53" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B54" s="5" t="inlineStr">
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B54" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C54" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D54" s="5" t="inlineStr">
+      <c r="C54" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D54" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E54" s="5" t="inlineStr">
+      <c r="E54" s="6" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F54" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G54" s="5" t="inlineStr"/>
-      <c r="H54" s="5" t="inlineStr">
+      <c r="F54" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G54" s="6" t="inlineStr"/>
+      <c r="H54" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I54" s="5" t="inlineStr">
+      <c r="I54" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B55" s="5" t="inlineStr">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C55" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D55" s="5" t="inlineStr">
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D55" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E55" s="5" t="inlineStr">
+      <c r="E55" s="6" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F55" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G55" s="5" t="inlineStr"/>
-      <c r="H55" s="5" t="inlineStr">
+      <c r="F55" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G55" s="6" t="inlineStr"/>
+      <c r="H55" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I55" s="5" t="inlineStr">
+      <c r="I55" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B56" s="5" t="inlineStr">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B56" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C56" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D56" s="5" t="inlineStr">
+      <c r="C56" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D56" s="6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E56" s="5" t="inlineStr">
+      <c r="E56" s="6" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F56" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G56" s="5" t="inlineStr"/>
-      <c r="H56" s="5" t="inlineStr">
+      <c r="F56" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G56" s="6" t="inlineStr"/>
+      <c r="H56" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I56" s="5" t="inlineStr">
+      <c r="I56" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -4201,172 +4201,172 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B60" s="6" t="inlineStr">
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B60" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C60" s="6" t="inlineStr">
+      <c r="C60" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D60" s="6" t="inlineStr">
+      <c r="D60" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E60" s="6" t="inlineStr">
+      <c r="E60" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F60" s="6" t="inlineStr">
+      <c r="F60" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G60" s="6" t="inlineStr"/>
-      <c r="H60" s="6" t="inlineStr">
+      <c r="G60" s="5" t="inlineStr"/>
+      <c r="H60" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I60" s="6" t="inlineStr">
+      <c r="I60" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B61" s="6" t="inlineStr">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B61" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C61" s="6" t="inlineStr">
+      <c r="C61" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D61" s="6" t="inlineStr">
+      <c r="D61" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E61" s="6" t="inlineStr">
+      <c r="E61" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F61" s="6" t="inlineStr">
+      <c r="F61" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G61" s="6" t="inlineStr"/>
-      <c r="H61" s="6" t="inlineStr">
+      <c r="G61" s="5" t="inlineStr"/>
+      <c r="H61" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I61" s="6" t="inlineStr">
+      <c r="I61" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B62" s="5" t="inlineStr">
+      <c r="A62" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B62" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C62" s="5" t="inlineStr">
+      <c r="C62" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D62" s="5" t="inlineStr">
+      <c r="D62" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E62" s="5" t="inlineStr">
+      <c r="E62" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F62" s="5" t="inlineStr">
+      <c r="F62" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G62" s="5" t="inlineStr"/>
-      <c r="H62" s="5" t="inlineStr">
+      <c r="G62" s="6" t="inlineStr"/>
+      <c r="H62" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I62" s="5" t="inlineStr">
+      <c r="I62" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B63" s="5" t="inlineStr">
+      <c r="A63" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B63" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C63" s="5" t="inlineStr">
+      <c r="C63" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D63" s="5" t="inlineStr">
+      <c r="D63" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E63" s="5" t="inlineStr">
+      <c r="E63" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F63" s="5" t="inlineStr">
+      <c r="F63" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G63" s="5" t="inlineStr"/>
-      <c r="H63" s="5" t="inlineStr">
+      <c r="G63" s="6" t="inlineStr"/>
+      <c r="H63" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I63" s="5" t="inlineStr">
+      <c r="I63" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -4749,258 +4749,258 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B72" s="5" t="inlineStr">
+      <c r="A72" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B72" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C72" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D72" s="5" t="inlineStr">
+      <c r="C72" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D72" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E72" s="5" t="inlineStr">
+      <c r="E72" s="6" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F72" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G72" s="5" t="inlineStr"/>
-      <c r="H72" s="5" t="inlineStr">
+      <c r="F72" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G72" s="6" t="inlineStr"/>
+      <c r="H72" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I72" s="5" t="inlineStr">
+      <c r="I72" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B73" s="5" t="inlineStr">
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C73" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D73" s="5" t="inlineStr">
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E73" s="5" t="inlineStr">
+      <c r="E73" s="6" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F73" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G73" s="5" t="inlineStr"/>
-      <c r="H73" s="5" t="inlineStr">
+      <c r="F73" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G73" s="6" t="inlineStr"/>
+      <c r="H73" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I73" s="5" t="inlineStr">
+      <c r="I73" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B74" s="5" t="inlineStr">
+      <c r="A74" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B74" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C74" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D74" s="5" t="inlineStr">
+      <c r="C74" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D74" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E74" s="5" t="inlineStr">
+      <c r="E74" s="6" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F74" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G74" s="5" t="inlineStr"/>
-      <c r="H74" s="5" t="inlineStr">
+      <c r="F74" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G74" s="6" t="inlineStr"/>
+      <c r="H74" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I74" s="5" t="inlineStr">
+      <c r="I74" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B75" s="5" t="inlineStr">
+      <c r="A75" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B75" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C75" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D75" s="5" t="inlineStr">
+      <c r="C75" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D75" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E75" s="5" t="inlineStr">
+      <c r="E75" s="6" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F75" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G75" s="5" t="inlineStr"/>
-      <c r="H75" s="5" t="inlineStr">
+      <c r="F75" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G75" s="6" t="inlineStr"/>
+      <c r="H75" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I75" s="5" t="inlineStr">
+      <c r="I75" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B76" s="5" t="inlineStr">
+      <c r="A76" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B76" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C76" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D76" s="5" t="inlineStr">
+      <c r="C76" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D76" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E76" s="5" t="inlineStr">
+      <c r="E76" s="6" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F76" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G76" s="5" t="inlineStr"/>
-      <c r="H76" s="5" t="inlineStr">
+      <c r="F76" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G76" s="6" t="inlineStr"/>
+      <c r="H76" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I76" s="5" t="inlineStr">
+      <c r="I76" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B77" s="5" t="inlineStr">
+      <c r="A77" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B77" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C77" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D77" s="5" t="inlineStr">
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D77" s="6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E77" s="5" t="inlineStr">
+      <c r="E77" s="6" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F77" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G77" s="5" t="inlineStr"/>
-      <c r="H77" s="5" t="inlineStr">
+      <c r="F77" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G77" s="6" t="inlineStr"/>
+      <c r="H77" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I77" s="5" t="inlineStr">
+      <c r="I77" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -5148,172 +5148,172 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B81" s="6" t="inlineStr">
+      <c r="A81" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B81" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C81" s="6" t="inlineStr">
+      <c r="C81" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D81" s="6" t="inlineStr">
+      <c r="D81" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E81" s="6" t="inlineStr">
+      <c r="E81" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F81" s="6" t="inlineStr">
+      <c r="F81" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G81" s="6" t="inlineStr"/>
-      <c r="H81" s="6" t="inlineStr">
+      <c r="G81" s="5" t="inlineStr"/>
+      <c r="H81" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I81" s="6" t="inlineStr">
+      <c r="I81" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B82" s="6" t="inlineStr">
+      <c r="A82" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B82" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C82" s="6" t="inlineStr">
+      <c r="C82" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D82" s="6" t="inlineStr">
+      <c r="D82" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E82" s="6" t="inlineStr">
+      <c r="E82" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F82" s="6" t="inlineStr">
+      <c r="F82" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G82" s="6" t="inlineStr"/>
-      <c r="H82" s="6" t="inlineStr">
+      <c r="G82" s="5" t="inlineStr"/>
+      <c r="H82" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I82" s="6" t="inlineStr">
+      <c r="I82" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B83" s="5" t="inlineStr">
+      <c r="A83" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B83" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C83" s="5" t="inlineStr">
+      <c r="C83" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D83" s="5" t="inlineStr">
+      <c r="D83" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E83" s="5" t="inlineStr">
+      <c r="E83" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F83" s="5" t="inlineStr">
+      <c r="F83" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G83" s="5" t="inlineStr"/>
-      <c r="H83" s="5" t="inlineStr">
+      <c r="G83" s="6" t="inlineStr"/>
+      <c r="H83" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I83" s="5" t="inlineStr">
+      <c r="I83" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B84" s="5" t="inlineStr">
+      <c r="A84" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B84" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C84" s="5" t="inlineStr">
+      <c r="C84" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D84" s="5" t="inlineStr">
+      <c r="D84" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E84" s="5" t="inlineStr">
+      <c r="E84" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F84" s="5" t="inlineStr">
+      <c r="F84" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G84" s="5" t="inlineStr"/>
-      <c r="H84" s="5" t="inlineStr">
+      <c r="G84" s="6" t="inlineStr"/>
+      <c r="H84" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I84" s="5" t="inlineStr">
+      <c r="I84" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -5687,220 +5687,220 @@
       </c>
       <c r="I92" s="5" t="inlineStr">
         <is>
+          <t>Not Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B93" s="6" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C93" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D93" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E93" s="6" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F93" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G93" s="6" t="inlineStr"/>
+      <c r="H93" s="6" t="inlineStr">
+        <is>
+          <t>0/31</t>
+        </is>
+      </c>
+      <c r="I93" s="6" t="inlineStr">
+        <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B93" s="5" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B94" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C93" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D93" s="5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E93" s="5" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
-      </c>
-      <c r="F93" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G93" s="5" t="inlineStr"/>
-      <c r="H93" s="5" t="inlineStr">
+      <c r="C94" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D94" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E94" s="6" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F94" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G94" s="6" t="inlineStr"/>
+      <c r="H94" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I93" s="5" t="inlineStr">
+      <c r="I94" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B94" s="5" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B95" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C94" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D94" s="5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E94" s="5" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F94" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G94" s="5" t="inlineStr"/>
-      <c r="H94" s="5" t="inlineStr">
+      <c r="C95" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D95" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E95" s="6" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F95" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G95" s="6" t="inlineStr"/>
+      <c r="H95" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I94" s="5" t="inlineStr">
+      <c r="I95" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B95" s="5" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B96" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C95" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D95" s="5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E95" s="5" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F95" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G95" s="5" t="inlineStr"/>
-      <c r="H95" s="5" t="inlineStr">
+      <c r="C96" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D96" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E96" s="6" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F96" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G96" s="6" t="inlineStr"/>
+      <c r="H96" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I95" s="5" t="inlineStr">
+      <c r="I96" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B96" s="5" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B97" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C96" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D96" s="5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E96" s="5" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F96" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G96" s="5" t="inlineStr"/>
-      <c r="H96" s="5" t="inlineStr">
+      <c r="C97" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D97" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E97" s="6" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F97" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G97" s="6" t="inlineStr"/>
+      <c r="H97" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I96" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B97" s="5" t="inlineStr">
-        <is>
-          <t>B1-2</t>
-        </is>
-      </c>
-      <c r="C97" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D97" s="5" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E97" s="5" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F97" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G97" s="5" t="inlineStr"/>
-      <c r="H97" s="5" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I97" s="5" t="inlineStr">
+      <c r="I97" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -6048,172 +6048,172 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B101" s="6" t="inlineStr">
+      <c r="A101" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B101" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C101" s="6" t="inlineStr">
+      <c r="C101" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D101" s="6" t="inlineStr">
+      <c r="D101" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E101" s="6" t="inlineStr">
+      <c r="E101" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F101" s="6" t="inlineStr">
+      <c r="F101" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G101" s="6" t="inlineStr"/>
-      <c r="H101" s="6" t="inlineStr">
+      <c r="G101" s="5" t="inlineStr"/>
+      <c r="H101" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I101" s="6" t="inlineStr">
+      <c r="I101" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B102" s="6" t="inlineStr">
+      <c r="A102" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B102" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C102" s="6" t="inlineStr">
+      <c r="C102" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D102" s="6" t="inlineStr">
+      <c r="D102" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E102" s="6" t="inlineStr">
+      <c r="E102" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F102" s="6" t="inlineStr">
+      <c r="F102" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G102" s="6" t="inlineStr"/>
-      <c r="H102" s="6" t="inlineStr">
+      <c r="G102" s="5" t="inlineStr"/>
+      <c r="H102" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I102" s="6" t="inlineStr">
+      <c r="I102" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B103" s="5" t="inlineStr">
+      <c r="A103" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B103" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C103" s="5" t="inlineStr">
+      <c r="C103" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D103" s="5" t="inlineStr">
+      <c r="D103" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E103" s="5" t="inlineStr">
+      <c r="E103" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F103" s="5" t="inlineStr">
+      <c r="F103" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G103" s="5" t="inlineStr"/>
-      <c r="H103" s="5" t="inlineStr">
+      <c r="G103" s="6" t="inlineStr"/>
+      <c r="H103" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I103" s="5" t="inlineStr">
+      <c r="I103" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B104" s="5" t="inlineStr">
+      <c r="A104" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B104" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C104" s="5" t="inlineStr">
+      <c r="C104" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D104" s="5" t="inlineStr">
+      <c r="D104" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E104" s="5" t="inlineStr">
+      <c r="E104" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F104" s="5" t="inlineStr">
+      <c r="F104" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G104" s="5" t="inlineStr"/>
-      <c r="H104" s="5" t="inlineStr">
+      <c r="G104" s="6" t="inlineStr"/>
+      <c r="H104" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I104" s="5" t="inlineStr">
+      <c r="I104" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -6587,220 +6587,220 @@
       </c>
       <c r="I112" s="5" t="inlineStr">
         <is>
+          <t>Not Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B113" s="6" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C113" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D113" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E113" s="6" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F113" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G113" s="6" t="inlineStr"/>
+      <c r="H113" s="6" t="inlineStr">
+        <is>
+          <t>0/28</t>
+        </is>
+      </c>
+      <c r="I113" s="6" t="inlineStr">
+        <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B113" s="5" t="inlineStr">
+    <row r="114">
+      <c r="A114" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B114" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C113" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D113" s="5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E113" s="5" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
-      </c>
-      <c r="F113" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G113" s="5" t="inlineStr"/>
-      <c r="H113" s="5" t="inlineStr">
+      <c r="C114" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D114" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E114" s="6" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F114" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G114" s="6" t="inlineStr"/>
+      <c r="H114" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I113" s="5" t="inlineStr">
+      <c r="I114" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B114" s="5" t="inlineStr">
+    <row r="115">
+      <c r="A115" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B115" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C114" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D114" s="5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E114" s="5" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F114" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G114" s="5" t="inlineStr"/>
-      <c r="H114" s="5" t="inlineStr">
+      <c r="C115" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D115" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E115" s="6" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F115" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G115" s="6" t="inlineStr"/>
+      <c r="H115" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I114" s="5" t="inlineStr">
+      <c r="I115" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B115" s="5" t="inlineStr">
+    <row r="116">
+      <c r="A116" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B116" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C115" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D115" s="5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E115" s="5" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F115" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G115" s="5" t="inlineStr"/>
-      <c r="H115" s="5" t="inlineStr">
+      <c r="C116" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D116" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E116" s="6" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F116" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G116" s="6" t="inlineStr"/>
+      <c r="H116" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I115" s="5" t="inlineStr">
+      <c r="I116" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B116" s="5" t="inlineStr">
+    <row r="117">
+      <c r="A117" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B117" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C116" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D116" s="5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E116" s="5" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F116" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G116" s="5" t="inlineStr"/>
-      <c r="H116" s="5" t="inlineStr">
+      <c r="C117" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D117" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E117" s="6" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F117" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G117" s="6" t="inlineStr"/>
+      <c r="H117" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I116" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B117" s="5" t="inlineStr">
-        <is>
-          <t>B1-3</t>
-        </is>
-      </c>
-      <c r="C117" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D117" s="5" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E117" s="5" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F117" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G117" s="5" t="inlineStr"/>
-      <c r="H117" s="5" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I117" s="5" t="inlineStr">
+      <c r="I117" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -6948,172 +6948,172 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B121" s="6" t="inlineStr">
+      <c r="A121" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B121" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C121" s="6" t="inlineStr">
+      <c r="C121" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D121" s="6" t="inlineStr">
+      <c r="D121" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E121" s="6" t="inlineStr">
+      <c r="E121" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F121" s="6" t="inlineStr">
+      <c r="F121" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G121" s="6" t="inlineStr"/>
-      <c r="H121" s="6" t="inlineStr">
+      <c r="G121" s="5" t="inlineStr"/>
+      <c r="H121" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I121" s="6" t="inlineStr">
+      <c r="I121" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B122" s="6" t="inlineStr">
+      <c r="A122" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B122" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C122" s="6" t="inlineStr">
+      <c r="C122" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D122" s="6" t="inlineStr">
+      <c r="D122" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E122" s="6" t="inlineStr">
+      <c r="E122" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F122" s="6" t="inlineStr">
+      <c r="F122" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G122" s="6" t="inlineStr"/>
-      <c r="H122" s="6" t="inlineStr">
+      <c r="G122" s="5" t="inlineStr"/>
+      <c r="H122" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I122" s="6" t="inlineStr">
+      <c r="I122" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B123" s="5" t="inlineStr">
+      <c r="A123" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B123" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C123" s="5" t="inlineStr">
+      <c r="C123" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D123" s="5" t="inlineStr">
+      <c r="D123" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E123" s="5" t="inlineStr">
+      <c r="E123" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F123" s="5" t="inlineStr">
+      <c r="F123" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G123" s="5" t="inlineStr"/>
-      <c r="H123" s="5" t="inlineStr">
+      <c r="G123" s="6" t="inlineStr"/>
+      <c r="H123" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I123" s="5" t="inlineStr">
+      <c r="I123" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B124" s="5" t="inlineStr">
+      <c r="A124" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B124" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C124" s="5" t="inlineStr">
+      <c r="C124" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D124" s="5" t="inlineStr">
+      <c r="D124" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E124" s="5" t="inlineStr">
+      <c r="E124" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F124" s="5" t="inlineStr">
+      <c r="F124" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G124" s="5" t="inlineStr"/>
-      <c r="H124" s="5" t="inlineStr">
+      <c r="G124" s="6" t="inlineStr"/>
+      <c r="H124" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I124" s="5" t="inlineStr">
+      <c r="I124" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -7487,220 +7487,220 @@
       </c>
       <c r="I132" s="5" t="inlineStr">
         <is>
+          <t>Not Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B133" s="6" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C133" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D133" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E133" s="6" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F133" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G133" s="6" t="inlineStr"/>
+      <c r="H133" s="6" t="inlineStr">
+        <is>
+          <t>0/29</t>
+        </is>
+      </c>
+      <c r="I133" s="6" t="inlineStr">
+        <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B133" s="5" t="inlineStr">
+    <row r="134">
+      <c r="A134" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B134" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C133" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D133" s="5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E133" s="5" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
-      </c>
-      <c r="F133" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G133" s="5" t="inlineStr"/>
-      <c r="H133" s="5" t="inlineStr">
+      <c r="C134" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D134" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E134" s="6" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F134" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G134" s="6" t="inlineStr"/>
+      <c r="H134" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I133" s="5" t="inlineStr">
+      <c r="I134" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B134" s="5" t="inlineStr">
+    <row r="135">
+      <c r="A135" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B135" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C134" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D134" s="5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E134" s="5" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F134" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G134" s="5" t="inlineStr"/>
-      <c r="H134" s="5" t="inlineStr">
+      <c r="C135" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D135" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E135" s="6" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F135" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G135" s="6" t="inlineStr"/>
+      <c r="H135" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I134" s="5" t="inlineStr">
+      <c r="I135" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B135" s="5" t="inlineStr">
+    <row r="136">
+      <c r="A136" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B136" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C135" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D135" s="5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E135" s="5" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F135" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G135" s="5" t="inlineStr"/>
-      <c r="H135" s="5" t="inlineStr">
+      <c r="C136" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D136" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E136" s="6" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F136" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G136" s="6" t="inlineStr"/>
+      <c r="H136" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I135" s="5" t="inlineStr">
+      <c r="I136" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B136" s="5" t="inlineStr">
+    <row r="137">
+      <c r="A137" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B137" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C136" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D136" s="5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E136" s="5" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F136" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G136" s="5" t="inlineStr"/>
-      <c r="H136" s="5" t="inlineStr">
+      <c r="C137" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D137" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E137" s="6" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F137" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G137" s="6" t="inlineStr"/>
+      <c r="H137" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I136" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B137" s="5" t="inlineStr">
-        <is>
-          <t>B1-4</t>
-        </is>
-      </c>
-      <c r="C137" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D137" s="5" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E137" s="5" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F137" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G137" s="5" t="inlineStr"/>
-      <c r="H137" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I137" s="5" t="inlineStr">
+      <c r="I137" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -7848,172 +7848,172 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B141" s="6" t="inlineStr">
+      <c r="A141" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B141" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C141" s="6" t="inlineStr">
+      <c r="C141" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D141" s="6" t="inlineStr">
+      <c r="D141" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E141" s="6" t="inlineStr">
+      <c r="E141" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F141" s="6" t="inlineStr">
+      <c r="F141" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G141" s="6" t="inlineStr"/>
-      <c r="H141" s="6" t="inlineStr">
+      <c r="G141" s="5" t="inlineStr"/>
+      <c r="H141" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I141" s="6" t="inlineStr">
+      <c r="I141" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B142" s="6" t="inlineStr">
+      <c r="A142" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B142" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C142" s="6" t="inlineStr">
+      <c r="C142" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D142" s="6" t="inlineStr">
+      <c r="D142" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E142" s="6" t="inlineStr">
+      <c r="E142" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F142" s="6" t="inlineStr">
+      <c r="F142" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G142" s="6" t="inlineStr"/>
-      <c r="H142" s="6" t="inlineStr">
+      <c r="G142" s="5" t="inlineStr"/>
+      <c r="H142" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I142" s="6" t="inlineStr">
+      <c r="I142" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B143" s="5" t="inlineStr">
+      <c r="A143" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B143" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C143" s="5" t="inlineStr">
+      <c r="C143" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D143" s="5" t="inlineStr">
+      <c r="D143" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E143" s="5" t="inlineStr">
+      <c r="E143" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F143" s="5" t="inlineStr">
+      <c r="F143" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G143" s="5" t="inlineStr"/>
-      <c r="H143" s="5" t="inlineStr">
+      <c r="G143" s="6" t="inlineStr"/>
+      <c r="H143" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I143" s="5" t="inlineStr">
+      <c r="I143" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B144" s="5" t="inlineStr">
+      <c r="A144" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B144" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C144" s="5" t="inlineStr">
+      <c r="C144" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D144" s="5" t="inlineStr">
+      <c r="D144" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E144" s="5" t="inlineStr">
+      <c r="E144" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F144" s="5" t="inlineStr">
+      <c r="F144" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G144" s="5" t="inlineStr"/>
-      <c r="H144" s="5" t="inlineStr">
+      <c r="G144" s="6" t="inlineStr"/>
+      <c r="H144" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I144" s="5" t="inlineStr">
+      <c r="I144" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="H147" s="2" t="inlineStr">
         <is>
-          <t>30/33</t>
+          <t>31/33</t>
         </is>
       </c>
       <c r="I147" s="2" t="inlineStr">
@@ -8387,220 +8387,220 @@
       </c>
       <c r="I152" s="5" t="inlineStr">
         <is>
+          <t>Not Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B153" s="6" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C153" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D153" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E153" s="6" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F153" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G153" s="6" t="inlineStr"/>
+      <c r="H153" s="6" t="inlineStr">
+        <is>
+          <t>0/33</t>
+        </is>
+      </c>
+      <c r="I153" s="6" t="inlineStr">
+        <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B153" s="5" t="inlineStr">
+    <row r="154">
+      <c r="A154" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B154" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C153" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D153" s="5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E153" s="5" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
-      </c>
-      <c r="F153" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G153" s="5" t="inlineStr"/>
-      <c r="H153" s="5" t="inlineStr">
+      <c r="C154" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D154" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E154" s="6" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F154" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G154" s="6" t="inlineStr"/>
+      <c r="H154" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I153" s="5" t="inlineStr">
+      <c r="I154" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B154" s="5" t="inlineStr">
+    <row r="155">
+      <c r="A155" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B155" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C154" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D154" s="5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E154" s="5" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F154" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G154" s="5" t="inlineStr"/>
-      <c r="H154" s="5" t="inlineStr">
+      <c r="C155" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D155" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E155" s="6" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F155" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G155" s="6" t="inlineStr"/>
+      <c r="H155" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I154" s="5" t="inlineStr">
+      <c r="I155" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B155" s="5" t="inlineStr">
+    <row r="156">
+      <c r="A156" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B156" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C155" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D155" s="5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E155" s="5" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F155" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G155" s="5" t="inlineStr"/>
-      <c r="H155" s="5" t="inlineStr">
+      <c r="C156" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D156" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E156" s="6" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F156" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G156" s="6" t="inlineStr"/>
+      <c r="H156" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I155" s="5" t="inlineStr">
+      <c r="I156" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B156" s="5" t="inlineStr">
+    <row r="157">
+      <c r="A157" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B157" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C156" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D156" s="5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E156" s="5" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F156" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G156" s="5" t="inlineStr"/>
-      <c r="H156" s="5" t="inlineStr">
+      <c r="C157" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D157" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E157" s="6" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F157" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G157" s="6" t="inlineStr"/>
+      <c r="H157" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I156" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B157" s="5" t="inlineStr">
-        <is>
-          <t>B1-5</t>
-        </is>
-      </c>
-      <c r="C157" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D157" s="5" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E157" s="5" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F157" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G157" s="5" t="inlineStr"/>
-      <c r="H157" s="5" t="inlineStr">
-        <is>
-          <t>0/33</t>
-        </is>
-      </c>
-      <c r="I157" s="5" t="inlineStr">
+      <c r="I157" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -8748,172 +8748,172 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B161" s="6" t="inlineStr">
+      <c r="A161" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B161" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C161" s="6" t="inlineStr">
+      <c r="C161" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D161" s="6" t="inlineStr">
+      <c r="D161" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E161" s="6" t="inlineStr">
+      <c r="E161" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F161" s="6" t="inlineStr">
+      <c r="F161" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G161" s="6" t="inlineStr"/>
-      <c r="H161" s="6" t="inlineStr">
+      <c r="G161" s="5" t="inlineStr"/>
+      <c r="H161" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I161" s="6" t="inlineStr">
+      <c r="I161" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B162" s="6" t="inlineStr">
+      <c r="A162" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B162" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C162" s="6" t="inlineStr">
+      <c r="C162" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D162" s="6" t="inlineStr">
+      <c r="D162" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E162" s="6" t="inlineStr">
+      <c r="E162" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F162" s="6" t="inlineStr">
+      <c r="F162" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G162" s="6" t="inlineStr"/>
-      <c r="H162" s="6" t="inlineStr">
+      <c r="G162" s="5" t="inlineStr"/>
+      <c r="H162" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I162" s="6" t="inlineStr">
+      <c r="I162" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B163" s="5" t="inlineStr">
+      <c r="A163" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B163" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C163" s="5" t="inlineStr">
+      <c r="C163" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D163" s="5" t="inlineStr">
+      <c r="D163" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E163" s="5" t="inlineStr">
+      <c r="E163" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F163" s="5" t="inlineStr">
+      <c r="F163" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G163" s="5" t="inlineStr"/>
-      <c r="H163" s="5" t="inlineStr">
+      <c r="G163" s="6" t="inlineStr"/>
+      <c r="H163" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I163" s="5" t="inlineStr">
+      <c r="I163" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B164" s="5" t="inlineStr">
+      <c r="A164" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B164" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C164" s="5" t="inlineStr">
+      <c r="C164" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D164" s="5" t="inlineStr">
+      <c r="D164" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E164" s="5" t="inlineStr">
+      <c r="E164" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F164" s="5" t="inlineStr">
+      <c r="F164" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G164" s="5" t="inlineStr"/>
-      <c r="H164" s="5" t="inlineStr">
+      <c r="G164" s="6" t="inlineStr"/>
+      <c r="H164" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I164" s="5" t="inlineStr">
+      <c r="I164" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -9287,220 +9287,220 @@
       </c>
       <c r="I172" s="5" t="inlineStr">
         <is>
+          <t>Not Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B173" s="6" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C173" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D173" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E173" s="6" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F173" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G173" s="6" t="inlineStr"/>
+      <c r="H173" s="6" t="inlineStr">
+        <is>
+          <t>0/30</t>
+        </is>
+      </c>
+      <c r="I173" s="6" t="inlineStr">
+        <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B173" s="5" t="inlineStr">
+    <row r="174">
+      <c r="A174" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B174" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C173" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D173" s="5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E173" s="5" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
-      </c>
-      <c r="F173" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G173" s="5" t="inlineStr"/>
-      <c r="H173" s="5" t="inlineStr">
+      <c r="C174" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D174" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E174" s="6" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F174" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G174" s="6" t="inlineStr"/>
+      <c r="H174" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I173" s="5" t="inlineStr">
+      <c r="I174" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B174" s="5" t="inlineStr">
+    <row r="175">
+      <c r="A175" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B175" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C174" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D174" s="5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E174" s="5" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F174" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G174" s="5" t="inlineStr"/>
-      <c r="H174" s="5" t="inlineStr">
+      <c r="C175" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D175" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E175" s="6" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F175" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G175" s="6" t="inlineStr"/>
+      <c r="H175" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I174" s="5" t="inlineStr">
+      <c r="I175" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B175" s="5" t="inlineStr">
+    <row r="176">
+      <c r="A176" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B176" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C175" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D175" s="5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E175" s="5" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F175" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G175" s="5" t="inlineStr"/>
-      <c r="H175" s="5" t="inlineStr">
+      <c r="C176" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D176" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E176" s="6" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F176" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G176" s="6" t="inlineStr"/>
+      <c r="H176" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I175" s="5" t="inlineStr">
+      <c r="I176" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B176" s="5" t="inlineStr">
+    <row r="177">
+      <c r="A177" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B177" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C176" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D176" s="5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E176" s="5" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F176" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G176" s="5" t="inlineStr"/>
-      <c r="H176" s="5" t="inlineStr">
+      <c r="C177" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D177" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E177" s="6" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F177" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G177" s="6" t="inlineStr"/>
+      <c r="H177" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I176" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B177" s="5" t="inlineStr">
-        <is>
-          <t>B1-6</t>
-        </is>
-      </c>
-      <c r="C177" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D177" s="5" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E177" s="5" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F177" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G177" s="5" t="inlineStr"/>
-      <c r="H177" s="5" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I177" s="5" t="inlineStr">
+      <c r="I177" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -9648,172 +9648,172 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B181" s="6" t="inlineStr">
+      <c r="A181" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B181" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C181" s="6" t="inlineStr">
+      <c r="C181" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D181" s="6" t="inlineStr">
+      <c r="D181" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E181" s="6" t="inlineStr">
+      <c r="E181" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F181" s="6" t="inlineStr">
+      <c r="F181" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G181" s="6" t="inlineStr"/>
-      <c r="H181" s="6" t="inlineStr">
+      <c r="G181" s="5" t="inlineStr"/>
+      <c r="H181" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I181" s="6" t="inlineStr">
+      <c r="I181" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B182" s="6" t="inlineStr">
+      <c r="A182" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B182" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C182" s="6" t="inlineStr">
+      <c r="C182" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D182" s="6" t="inlineStr">
+      <c r="D182" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E182" s="6" t="inlineStr">
+      <c r="E182" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F182" s="6" t="inlineStr">
+      <c r="F182" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G182" s="6" t="inlineStr"/>
-      <c r="H182" s="6" t="inlineStr">
+      <c r="G182" s="5" t="inlineStr"/>
+      <c r="H182" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I182" s="6" t="inlineStr">
+      <c r="I182" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B183" s="5" t="inlineStr">
+      <c r="A183" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B183" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C183" s="5" t="inlineStr">
+      <c r="C183" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D183" s="5" t="inlineStr">
+      <c r="D183" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E183" s="5" t="inlineStr">
+      <c r="E183" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F183" s="5" t="inlineStr">
+      <c r="F183" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G183" s="5" t="inlineStr"/>
-      <c r="H183" s="5" t="inlineStr">
+      <c r="G183" s="6" t="inlineStr"/>
+      <c r="H183" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I183" s="5" t="inlineStr">
+      <c r="I183" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B184" s="5" t="inlineStr">
+      <c r="A184" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B184" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C184" s="5" t="inlineStr">
+      <c r="C184" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D184" s="5" t="inlineStr">
+      <c r="D184" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E184" s="5" t="inlineStr">
+      <c r="E184" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F184" s="5" t="inlineStr">
+      <c r="F184" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G184" s="5" t="inlineStr"/>
-      <c r="H184" s="5" t="inlineStr">
+      <c r="G184" s="6" t="inlineStr"/>
+      <c r="H184" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I184" s="5" t="inlineStr">
+      <c r="I184" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -10196,258 +10196,258 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B193" s="5" t="inlineStr">
+      <c r="A193" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B193" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C193" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D193" s="5" t="inlineStr">
+      <c r="C193" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D193" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E193" s="5" t="inlineStr">
+      <c r="E193" s="6" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F193" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G193" s="5" t="inlineStr"/>
-      <c r="H193" s="5" t="inlineStr">
+      <c r="F193" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G193" s="6" t="inlineStr"/>
+      <c r="H193" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I193" s="5" t="inlineStr">
+      <c r="I193" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B194" s="5" t="inlineStr">
+      <c r="A194" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B194" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C194" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D194" s="5" t="inlineStr">
+      <c r="C194" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D194" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E194" s="5" t="inlineStr">
+      <c r="E194" s="6" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F194" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G194" s="5" t="inlineStr"/>
-      <c r="H194" s="5" t="inlineStr">
+      <c r="F194" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G194" s="6" t="inlineStr"/>
+      <c r="H194" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I194" s="5" t="inlineStr">
+      <c r="I194" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B195" s="5" t="inlineStr">
+      <c r="A195" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B195" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C195" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D195" s="5" t="inlineStr">
+      <c r="C195" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D195" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E195" s="5" t="inlineStr">
+      <c r="E195" s="6" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F195" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G195" s="5" t="inlineStr"/>
-      <c r="H195" s="5" t="inlineStr">
+      <c r="F195" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G195" s="6" t="inlineStr"/>
+      <c r="H195" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I195" s="5" t="inlineStr">
+      <c r="I195" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B196" s="5" t="inlineStr">
+      <c r="A196" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B196" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C196" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D196" s="5" t="inlineStr">
+      <c r="C196" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D196" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E196" s="5" t="inlineStr">
+      <c r="E196" s="6" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F196" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G196" s="5" t="inlineStr"/>
-      <c r="H196" s="5" t="inlineStr">
+      <c r="F196" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G196" s="6" t="inlineStr"/>
+      <c r="H196" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I196" s="5" t="inlineStr">
+      <c r="I196" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B197" s="5" t="inlineStr">
+      <c r="A197" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B197" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C197" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D197" s="5" t="inlineStr">
+      <c r="C197" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D197" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E197" s="5" t="inlineStr">
+      <c r="E197" s="6" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F197" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G197" s="5" t="inlineStr"/>
-      <c r="H197" s="5" t="inlineStr">
+      <c r="F197" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G197" s="6" t="inlineStr"/>
+      <c r="H197" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I197" s="5" t="inlineStr">
+      <c r="I197" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B198" s="5" t="inlineStr">
+      <c r="A198" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B198" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C198" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D198" s="5" t="inlineStr">
+      <c r="C198" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D198" s="6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E198" s="5" t="inlineStr">
+      <c r="E198" s="6" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F198" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G198" s="5" t="inlineStr"/>
-      <c r="H198" s="5" t="inlineStr">
+      <c r="F198" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G198" s="6" t="inlineStr"/>
+      <c r="H198" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I198" s="5" t="inlineStr">
+      <c r="I198" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -10595,172 +10595,172 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B202" s="6" t="inlineStr">
+      <c r="A202" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B202" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C202" s="6" t="inlineStr">
+      <c r="C202" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D202" s="6" t="inlineStr">
+      <c r="D202" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E202" s="6" t="inlineStr">
+      <c r="E202" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F202" s="6" t="inlineStr">
+      <c r="F202" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G202" s="6" t="inlineStr"/>
-      <c r="H202" s="6" t="inlineStr">
+      <c r="G202" s="5" t="inlineStr"/>
+      <c r="H202" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I202" s="6" t="inlineStr">
+      <c r="I202" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B203" s="6" t="inlineStr">
+      <c r="A203" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B203" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C203" s="6" t="inlineStr">
+      <c r="C203" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D203" s="6" t="inlineStr">
+      <c r="D203" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E203" s="6" t="inlineStr">
+      <c r="E203" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F203" s="6" t="inlineStr">
+      <c r="F203" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G203" s="6" t="inlineStr"/>
-      <c r="H203" s="6" t="inlineStr">
+      <c r="G203" s="5" t="inlineStr"/>
+      <c r="H203" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I203" s="6" t="inlineStr">
+      <c r="I203" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B204" s="5" t="inlineStr">
+      <c r="A204" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B204" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C204" s="5" t="inlineStr">
+      <c r="C204" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D204" s="5" t="inlineStr">
+      <c r="D204" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E204" s="5" t="inlineStr">
+      <c r="E204" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F204" s="5" t="inlineStr">
+      <c r="F204" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G204" s="5" t="inlineStr"/>
-      <c r="H204" s="5" t="inlineStr">
+      <c r="G204" s="6" t="inlineStr"/>
+      <c r="H204" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I204" s="5" t="inlineStr">
+      <c r="I204" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B205" s="5" t="inlineStr">
+      <c r="A205" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B205" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C205" s="5" t="inlineStr">
+      <c r="C205" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D205" s="5" t="inlineStr">
+      <c r="D205" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E205" s="5" t="inlineStr">
+      <c r="E205" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F205" s="5" t="inlineStr">
+      <c r="F205" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G205" s="5" t="inlineStr"/>
-      <c r="H205" s="5" t="inlineStr">
+      <c r="G205" s="6" t="inlineStr"/>
+      <c r="H205" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I205" s="5" t="inlineStr">
+      <c r="I205" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -11143,258 +11143,258 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B214" s="5" t="inlineStr">
+      <c r="A214" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B214" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C214" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D214" s="5" t="inlineStr">
+      <c r="C214" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D214" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E214" s="5" t="inlineStr">
+      <c r="E214" s="6" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F214" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G214" s="5" t="inlineStr"/>
-      <c r="H214" s="5" t="inlineStr">
+      <c r="F214" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G214" s="6" t="inlineStr"/>
+      <c r="H214" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I214" s="5" t="inlineStr">
+      <c r="I214" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B215" s="5" t="inlineStr">
+      <c r="A215" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B215" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C215" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D215" s="5" t="inlineStr">
+      <c r="C215" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D215" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E215" s="5" t="inlineStr">
+      <c r="E215" s="6" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F215" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G215" s="5" t="inlineStr"/>
-      <c r="H215" s="5" t="inlineStr">
+      <c r="F215" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G215" s="6" t="inlineStr"/>
+      <c r="H215" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I215" s="5" t="inlineStr">
+      <c r="I215" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B216" s="5" t="inlineStr">
+      <c r="A216" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B216" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C216" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D216" s="5" t="inlineStr">
+      <c r="C216" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D216" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E216" s="5" t="inlineStr">
+      <c r="E216" s="6" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F216" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G216" s="5" t="inlineStr"/>
-      <c r="H216" s="5" t="inlineStr">
+      <c r="F216" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G216" s="6" t="inlineStr"/>
+      <c r="H216" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I216" s="5" t="inlineStr">
+      <c r="I216" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B217" s="5" t="inlineStr">
+      <c r="A217" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B217" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C217" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D217" s="5" t="inlineStr">
+      <c r="C217" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D217" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E217" s="5" t="inlineStr">
+      <c r="E217" s="6" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F217" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G217" s="5" t="inlineStr"/>
-      <c r="H217" s="5" t="inlineStr">
+      <c r="F217" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G217" s="6" t="inlineStr"/>
+      <c r="H217" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I217" s="5" t="inlineStr">
+      <c r="I217" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B218" s="5" t="inlineStr">
+      <c r="A218" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B218" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C218" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D218" s="5" t="inlineStr">
+      <c r="C218" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D218" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E218" s="5" t="inlineStr">
+      <c r="E218" s="6" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F218" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G218" s="5" t="inlineStr"/>
-      <c r="H218" s="5" t="inlineStr">
+      <c r="F218" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G218" s="6" t="inlineStr"/>
+      <c r="H218" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I218" s="5" t="inlineStr">
+      <c r="I218" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B219" s="5" t="inlineStr">
+      <c r="A219" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B219" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C219" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D219" s="5" t="inlineStr">
+      <c r="C219" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D219" s="6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E219" s="5" t="inlineStr">
+      <c r="E219" s="6" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F219" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G219" s="5" t="inlineStr"/>
-      <c r="H219" s="5" t="inlineStr">
+      <c r="F219" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G219" s="6" t="inlineStr"/>
+      <c r="H219" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I219" s="5" t="inlineStr">
+      <c r="I219" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -11542,172 +11542,172 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B223" s="6" t="inlineStr">
+      <c r="A223" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B223" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C223" s="6" t="inlineStr">
+      <c r="C223" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D223" s="6" t="inlineStr">
+      <c r="D223" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E223" s="6" t="inlineStr">
+      <c r="E223" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F223" s="6" t="inlineStr">
+      <c r="F223" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G223" s="6" t="inlineStr"/>
-      <c r="H223" s="6" t="inlineStr">
+      <c r="G223" s="5" t="inlineStr"/>
+      <c r="H223" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I223" s="6" t="inlineStr">
+      <c r="I223" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B224" s="6" t="inlineStr">
+      <c r="A224" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B224" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C224" s="6" t="inlineStr">
+      <c r="C224" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D224" s="6" t="inlineStr">
+      <c r="D224" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E224" s="6" t="inlineStr">
+      <c r="E224" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F224" s="6" t="inlineStr">
+      <c r="F224" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G224" s="6" t="inlineStr"/>
-      <c r="H224" s="6" t="inlineStr">
+      <c r="G224" s="5" t="inlineStr"/>
+      <c r="H224" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I224" s="6" t="inlineStr">
+      <c r="I224" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B225" s="5" t="inlineStr">
+      <c r="A225" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B225" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C225" s="5" t="inlineStr">
+      <c r="C225" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D225" s="5" t="inlineStr">
+      <c r="D225" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E225" s="5" t="inlineStr">
+      <c r="E225" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F225" s="5" t="inlineStr">
+      <c r="F225" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G225" s="5" t="inlineStr"/>
-      <c r="H225" s="5" t="inlineStr">
+      <c r="G225" s="6" t="inlineStr"/>
+      <c r="H225" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I225" s="5" t="inlineStr">
+      <c r="I225" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B226" s="5" t="inlineStr">
+      <c r="A226" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B226" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C226" s="5" t="inlineStr">
+      <c r="C226" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D226" s="5" t="inlineStr">
+      <c r="D226" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E226" s="5" t="inlineStr">
+      <c r="E226" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F226" s="5" t="inlineStr">
+      <c r="F226" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G226" s="5" t="inlineStr"/>
-      <c r="H226" s="5" t="inlineStr">
+      <c r="G226" s="6" t="inlineStr"/>
+      <c r="H226" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I226" s="5" t="inlineStr">
+      <c r="I226" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -12090,258 +12090,258 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B235" s="5" t="inlineStr">
+      <c r="A235" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B235" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C235" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D235" s="5" t="inlineStr">
+      <c r="C235" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D235" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E235" s="5" t="inlineStr">
+      <c r="E235" s="6" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F235" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G235" s="5" t="inlineStr"/>
-      <c r="H235" s="5" t="inlineStr">
+      <c r="F235" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G235" s="6" t="inlineStr"/>
+      <c r="H235" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I235" s="5" t="inlineStr">
+      <c r="I235" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B236" s="5" t="inlineStr">
+      <c r="A236" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B236" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C236" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D236" s="5" t="inlineStr">
+      <c r="C236" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D236" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E236" s="5" t="inlineStr">
+      <c r="E236" s="6" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F236" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G236" s="5" t="inlineStr"/>
-      <c r="H236" s="5" t="inlineStr">
+      <c r="F236" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G236" s="6" t="inlineStr"/>
+      <c r="H236" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I236" s="5" t="inlineStr">
+      <c r="I236" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B237" s="5" t="inlineStr">
+      <c r="A237" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B237" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C237" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D237" s="5" t="inlineStr">
+      <c r="C237" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D237" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E237" s="5" t="inlineStr">
+      <c r="E237" s="6" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F237" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G237" s="5" t="inlineStr"/>
-      <c r="H237" s="5" t="inlineStr">
+      <c r="F237" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G237" s="6" t="inlineStr"/>
+      <c r="H237" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I237" s="5" t="inlineStr">
+      <c r="I237" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B238" s="5" t="inlineStr">
+      <c r="A238" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B238" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C238" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D238" s="5" t="inlineStr">
+      <c r="C238" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D238" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E238" s="5" t="inlineStr">
+      <c r="E238" s="6" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F238" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G238" s="5" t="inlineStr"/>
-      <c r="H238" s="5" t="inlineStr">
+      <c r="F238" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G238" s="6" t="inlineStr"/>
+      <c r="H238" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I238" s="5" t="inlineStr">
+      <c r="I238" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B239" s="5" t="inlineStr">
+      <c r="A239" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B239" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C239" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D239" s="5" t="inlineStr">
+      <c r="C239" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D239" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E239" s="5" t="inlineStr">
+      <c r="E239" s="6" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F239" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G239" s="5" t="inlineStr"/>
-      <c r="H239" s="5" t="inlineStr">
+      <c r="F239" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G239" s="6" t="inlineStr"/>
+      <c r="H239" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I239" s="5" t="inlineStr">
+      <c r="I239" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B240" s="5" t="inlineStr">
+      <c r="A240" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B240" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C240" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D240" s="5" t="inlineStr">
+      <c r="C240" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D240" s="6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E240" s="5" t="inlineStr">
+      <c r="E240" s="6" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F240" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G240" s="5" t="inlineStr"/>
-      <c r="H240" s="5" t="inlineStr">
+      <c r="F240" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G240" s="6" t="inlineStr"/>
+      <c r="H240" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I240" s="5" t="inlineStr">
+      <c r="I240" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -12489,688 +12489,688 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B244" s="6" t="inlineStr">
+      <c r="A244" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B244" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C244" s="6" t="inlineStr">
+      <c r="C244" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D244" s="6" t="inlineStr">
+      <c r="D244" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E244" s="6" t="inlineStr">
+      <c r="E244" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F244" s="6" t="inlineStr">
+      <c r="F244" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G244" s="6" t="inlineStr"/>
-      <c r="H244" s="6" t="inlineStr">
+      <c r="G244" s="5" t="inlineStr"/>
+      <c r="H244" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I244" s="6" t="inlineStr">
+      <c r="I244" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B245" s="6" t="inlineStr">
+      <c r="A245" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B245" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C245" s="6" t="inlineStr">
+      <c r="C245" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D245" s="6" t="inlineStr">
+      <c r="D245" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E245" s="6" t="inlineStr">
+      <c r="E245" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F245" s="6" t="inlineStr">
+      <c r="F245" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G245" s="6" t="inlineStr"/>
-      <c r="H245" s="6" t="inlineStr">
+      <c r="G245" s="5" t="inlineStr"/>
+      <c r="H245" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I245" s="6" t="inlineStr">
+      <c r="I245" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B246" s="5" t="inlineStr">
+      <c r="A246" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B246" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C246" s="5" t="inlineStr">
+      <c r="C246" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D246" s="5" t="inlineStr">
+      <c r="D246" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E246" s="5" t="inlineStr">
+      <c r="E246" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F246" s="5" t="inlineStr">
+      <c r="F246" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G246" s="5" t="inlineStr"/>
-      <c r="H246" s="5" t="inlineStr">
+      <c r="G246" s="6" t="inlineStr"/>
+      <c r="H246" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I246" s="5" t="inlineStr">
+      <c r="I246" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B247" s="5" t="inlineStr">
+      <c r="A247" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B247" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C247" s="5" t="inlineStr">
+      <c r="C247" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D247" s="5" t="inlineStr">
+      <c r="D247" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E247" s="5" t="inlineStr">
+      <c r="E247" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F247" s="5" t="inlineStr">
+      <c r="F247" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G247" s="5" t="inlineStr"/>
-      <c r="H247" s="5" t="inlineStr">
+      <c r="G247" s="6" t="inlineStr"/>
+      <c r="H247" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I247" s="5" t="inlineStr">
+      <c r="I247" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="6" t="inlineStr">
+      <c r="A248" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B248" s="6" t="inlineStr">
+      <c r="B248" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C248" s="6" t="inlineStr">
+      <c r="C248" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D248" s="6" t="inlineStr">
+      <c r="D248" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E248" s="6" t="inlineStr">
+      <c r="E248" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F248" s="6" t="inlineStr">
+      <c r="F248" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G248" s="6" t="inlineStr"/>
-      <c r="H248" s="6" t="inlineStr">
+      <c r="G248" s="5" t="inlineStr"/>
+      <c r="H248" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I248" s="6" t="inlineStr">
+      <c r="I248" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="6" t="inlineStr">
+      <c r="A249" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B249" s="6" t="inlineStr">
+      <c r="B249" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C249" s="6" t="inlineStr">
+      <c r="C249" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D249" s="6" t="inlineStr">
+      <c r="D249" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E249" s="6" t="inlineStr">
+      <c r="E249" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F249" s="6" t="inlineStr">
+      <c r="F249" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G249" s="6" t="inlineStr"/>
-      <c r="H249" s="6" t="inlineStr">
+      <c r="G249" s="5" t="inlineStr"/>
+      <c r="H249" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I249" s="6" t="inlineStr">
+      <c r="I249" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="6" t="inlineStr">
+      <c r="A250" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B250" s="6" t="inlineStr">
+      <c r="B250" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C250" s="6" t="inlineStr">
+      <c r="C250" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D250" s="6" t="inlineStr">
+      <c r="D250" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E250" s="6" t="inlineStr">
+      <c r="E250" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F250" s="6" t="inlineStr">
+      <c r="F250" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G250" s="6" t="inlineStr"/>
-      <c r="H250" s="6" t="inlineStr">
+      <c r="G250" s="5" t="inlineStr"/>
+      <c r="H250" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I250" s="6" t="inlineStr">
+      <c r="I250" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="6" t="inlineStr">
+      <c r="A251" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B251" s="6" t="inlineStr">
+      <c r="B251" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C251" s="6" t="inlineStr">
+      <c r="C251" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D251" s="6" t="inlineStr">
+      <c r="D251" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E251" s="6" t="inlineStr">
+      <c r="E251" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F251" s="6" t="inlineStr">
+      <c r="F251" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G251" s="6" t="inlineStr"/>
-      <c r="H251" s="6" t="inlineStr">
+      <c r="G251" s="5" t="inlineStr"/>
+      <c r="H251" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I251" s="6" t="inlineStr">
+      <c r="I251" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="6" t="inlineStr">
+      <c r="A252" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B252" s="6" t="inlineStr">
+      <c r="B252" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C252" s="6" t="inlineStr">
+      <c r="C252" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D252" s="6" t="inlineStr">
+      <c r="D252" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E252" s="6" t="inlineStr">
+      <c r="E252" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F252" s="6" t="inlineStr">
+      <c r="F252" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G252" s="6" t="inlineStr"/>
-      <c r="H252" s="6" t="inlineStr">
+      <c r="G252" s="5" t="inlineStr"/>
+      <c r="H252" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I252" s="6" t="inlineStr">
+      <c r="I252" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="6" t="inlineStr">
+      <c r="A253" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B253" s="6" t="inlineStr">
+      <c r="B253" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C253" s="6" t="inlineStr">
+      <c r="C253" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D253" s="6" t="inlineStr">
+      <c r="D253" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E253" s="6" t="inlineStr">
+      <c r="E253" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F253" s="6" t="inlineStr">
+      <c r="F253" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G253" s="6" t="inlineStr"/>
-      <c r="H253" s="6" t="inlineStr">
+      <c r="G253" s="5" t="inlineStr"/>
+      <c r="H253" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I253" s="6" t="inlineStr">
+      <c r="I253" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="6" t="inlineStr">
+      <c r="A254" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B254" s="6" t="inlineStr">
+      <c r="B254" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C254" s="6" t="inlineStr">
+      <c r="C254" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D254" s="6" t="inlineStr">
+      <c r="D254" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E254" s="6" t="inlineStr">
+      <c r="E254" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F254" s="6" t="inlineStr">
+      <c r="F254" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G254" s="6" t="inlineStr"/>
-      <c r="H254" s="6" t="inlineStr">
+      <c r="G254" s="5" t="inlineStr"/>
+      <c r="H254" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I254" s="6" t="inlineStr">
+      <c r="I254" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="6" t="inlineStr">
+      <c r="A255" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B255" s="6" t="inlineStr">
+      <c r="B255" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C255" s="6" t="inlineStr">
+      <c r="C255" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D255" s="6" t="inlineStr">
+      <c r="D255" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E255" s="6" t="inlineStr">
+      <c r="E255" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F255" s="6" t="inlineStr">
+      <c r="F255" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G255" s="6" t="inlineStr"/>
-      <c r="H255" s="6" t="inlineStr">
+      <c r="G255" s="5" t="inlineStr"/>
+      <c r="H255" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I255" s="6" t="inlineStr">
+      <c r="I255" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="6" t="inlineStr">
+      <c r="A256" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B256" s="6" t="inlineStr">
+      <c r="B256" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C256" s="6" t="inlineStr">
+      <c r="C256" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D256" s="6" t="inlineStr">
+      <c r="D256" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E256" s="6" t="inlineStr">
+      <c r="E256" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F256" s="6" t="inlineStr">
+      <c r="F256" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G256" s="6" t="inlineStr"/>
-      <c r="H256" s="6" t="inlineStr">
+      <c r="G256" s="5" t="inlineStr"/>
+      <c r="H256" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I256" s="6" t="inlineStr">
+      <c r="I256" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="6" t="inlineStr">
+      <c r="A257" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B257" s="6" t="inlineStr">
+      <c r="B257" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C257" s="6" t="inlineStr">
+      <c r="C257" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D257" s="6" t="inlineStr">
+      <c r="D257" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E257" s="6" t="inlineStr">
+      <c r="E257" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F257" s="6" t="inlineStr">
+      <c r="F257" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G257" s="6" t="inlineStr"/>
-      <c r="H257" s="6" t="inlineStr">
+      <c r="G257" s="5" t="inlineStr"/>
+      <c r="H257" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I257" s="6" t="inlineStr">
+      <c r="I257" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="6" t="inlineStr">
+      <c r="A258" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B258" s="6" t="inlineStr">
+      <c r="B258" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C258" s="6" t="inlineStr">
+      <c r="C258" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D258" s="6" t="inlineStr">
+      <c r="D258" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E258" s="6" t="inlineStr">
+      <c r="E258" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F258" s="6" t="inlineStr">
+      <c r="F258" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G258" s="6" t="inlineStr"/>
-      <c r="H258" s="6" t="inlineStr">
+      <c r="G258" s="5" t="inlineStr"/>
+      <c r="H258" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I258" s="6" t="inlineStr">
+      <c r="I258" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="6" t="inlineStr">
+      <c r="A259" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B259" s="6" t="inlineStr">
+      <c r="B259" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C259" s="6" t="inlineStr">
+      <c r="C259" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D259" s="6" t="inlineStr">
+      <c r="D259" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E259" s="6" t="inlineStr">
+      <c r="E259" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F259" s="6" t="inlineStr">
+      <c r="F259" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G259" s="6" t="inlineStr"/>
-      <c r="H259" s="6" t="inlineStr">
+      <c r="G259" s="5" t="inlineStr"/>
+      <c r="H259" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I259" s="6" t="inlineStr">
+      <c r="I259" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -58,14 +58,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFB6C1"/>
-        <bgColor rgb="00FFB6C1"/>
+        <fgColor rgb="00FFFFE0"/>
+        <bgColor rgb="00FFFFE0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFE0"/>
-        <bgColor rgb="00FFFFE0"/>
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
       </patternFill>
     </fill>
   </fills>
@@ -102,10 +102,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -581,7 +581,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7">
@@ -855,7 +855,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -910,7 +910,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -933,283 +933,287 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>25/28</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
+        </is>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t>Coverage %</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t>51.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>B1-1</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
-        </is>
-      </c>
-      <c r="K9" s="4" t="inlineStr">
-        <is>
-          <t>Coverage %</t>
-        </is>
-      </c>
-      <c r="L9" s="4" t="inlineStr">
-        <is>
-          <t>48.8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K10" s="4" t="inlineStr">
+        <is>
+          <t>Average Attendance %</t>
+        </is>
+      </c>
+      <c r="L10" s="4" t="inlineStr">
+        <is>
+          <t>79.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G10" s="6" t="inlineStr"/>
-      <c r="H10" s="6" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I10" s="6" t="inlineStr">
+      <c r="I11" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
-      <c r="K10" s="4" t="inlineStr">
-        <is>
-          <t>Average Attendance %</t>
-        </is>
-      </c>
-      <c r="L10" s="4" t="inlineStr">
-        <is>
-          <t>78.9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F11" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G11" s="6" t="inlineStr"/>
-      <c r="H11" s="6" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I11" s="6" t="inlineStr">
+      <c r="I12" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F12" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G12" s="6" t="inlineStr"/>
-      <c r="H12" s="6" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I12" s="6" t="inlineStr">
+      <c r="I13" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>Group Statistics</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E13" s="6" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F13" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G13" s="6" t="inlineStr"/>
-      <c r="H13" s="6" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I13" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>Group Statistics</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>B1-1</t>
-        </is>
-      </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E14" s="6" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F14" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G14" s="6" t="inlineStr"/>
-      <c r="H14" s="6" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I14" s="6" t="inlineStr">
+      <c r="I14" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1323,22 +1327,22 @@
         <v>20</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>7</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>55.0%</t>
         </is>
       </c>
       <c r="S15" s="4" t="inlineStr">
         <is>
-          <t>80.4%</t>
+          <t>81.2%</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1379,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1457,7 +1461,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1507,43 +1511,43 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D18" s="5" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="E18" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="F18" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr">
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I18" s="5" t="inlineStr">
+      <c r="I18" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -1585,43 +1589,43 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D19" s="5" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="E19" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="F19" s="6" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr">
+      <c r="G19" s="6" t="inlineStr"/>
+      <c r="H19" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I19" s="5" t="inlineStr">
+      <c r="I19" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -1643,63 +1647,63 @@
         <v>20</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>7</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>55.0%</t>
         </is>
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>87.7%</t>
+          <t>88.3%</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D20" s="6" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E20" s="6" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F20" s="6" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G20" s="6" t="inlineStr"/>
-      <c r="H20" s="6" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr"/>
+      <c r="H20" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I20" s="6" t="inlineStr">
+      <c r="I20" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1721,63 +1725,63 @@
         <v>20</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>7</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>55.0%</t>
         </is>
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>92.5%</t>
+          <t>91.6%</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C21" s="6" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D21" s="6" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E21" s="6" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F21" s="6" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G21" s="6" t="inlineStr"/>
-      <c r="H21" s="6" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr"/>
+      <c r="H21" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I21" s="6" t="inlineStr">
+      <c r="I21" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1799,22 +1803,22 @@
         <v>20</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>7</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>55.0%</t>
         </is>
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>87.9%</t>
+          <t>87.1%</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1855,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1881,22 +1885,22 @@
         <v>20</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>7</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>55.0%</t>
         </is>
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>91.8%</t>
+          <t>91.2%</t>
         </is>
       </c>
     </row>
@@ -1933,7 +1937,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1963,22 +1967,22 @@
         <v>20</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>7</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>55.0%</t>
         </is>
       </c>
       <c r="S23" s="4" t="inlineStr">
         <is>
-          <t>72.7%</t>
+          <t>73.9%</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2019,7 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2179,7 +2183,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -2425,7 +2429,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -2475,43 +2479,43 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C30" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D30" s="6" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E30" s="6" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F30" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G30" s="6" t="inlineStr"/>
-      <c r="H30" s="6" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr"/>
+      <c r="H30" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I30" s="6" t="inlineStr">
+      <c r="I30" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2553,43 +2557,43 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B31" s="6" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C31" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D31" s="6" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E31" s="6" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F31" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G31" s="6" t="inlineStr"/>
-      <c r="H31" s="6" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="inlineStr"/>
+      <c r="H31" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I31" s="6" t="inlineStr">
+      <c r="I31" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2631,43 +2635,43 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B32" s="6" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C32" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D32" s="6" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E32" s="6" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F32" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G32" s="6" t="inlineStr"/>
-      <c r="H32" s="6" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G32" s="5" t="inlineStr"/>
+      <c r="H32" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I32" s="6" t="inlineStr">
+      <c r="I32" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2709,43 +2713,43 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B33" s="6" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C33" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D33" s="6" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E33" s="6" t="inlineStr">
+      <c r="E33" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F33" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G33" s="6" t="inlineStr"/>
-      <c r="H33" s="6" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G33" s="5" t="inlineStr"/>
+      <c r="H33" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I33" s="6" t="inlineStr">
+      <c r="I33" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2787,43 +2791,43 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B34" s="6" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C34" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D34" s="6" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E34" s="6" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F34" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G34" s="6" t="inlineStr"/>
-      <c r="H34" s="6" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G34" s="5" t="inlineStr"/>
+      <c r="H34" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I34" s="6" t="inlineStr">
+      <c r="I34" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2865,43 +2869,43 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B35" s="6" t="inlineStr">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C35" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D35" s="6" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E35" s="6" t="inlineStr">
+      <c r="E35" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F35" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G35" s="6" t="inlineStr"/>
-      <c r="H35" s="6" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G35" s="5" t="inlineStr"/>
+      <c r="H35" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I35" s="6" t="inlineStr">
+      <c r="I35" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -3057,7 +3061,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -3139,7 +3143,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -3189,129 +3193,129 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B39" s="5" t="inlineStr">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C39" s="5" t="inlineStr">
+      <c r="C39" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D39" s="5" t="inlineStr">
+      <c r="D39" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E39" s="5" t="inlineStr">
+      <c r="E39" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F39" s="5" t="inlineStr">
+      <c r="F39" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G39" s="5" t="inlineStr"/>
-      <c r="H39" s="5" t="inlineStr">
+      <c r="G39" s="6" t="inlineStr"/>
+      <c r="H39" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I39" s="5" t="inlineStr">
+      <c r="I39" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B40" s="5" t="inlineStr">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B40" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C40" s="5" t="inlineStr">
+      <c r="C40" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D40" s="5" t="inlineStr">
+      <c r="D40" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E40" s="5" t="inlineStr">
+      <c r="E40" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F40" s="5" t="inlineStr">
+      <c r="F40" s="6" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G40" s="5" t="inlineStr"/>
-      <c r="H40" s="5" t="inlineStr">
+      <c r="G40" s="6" t="inlineStr"/>
+      <c r="H40" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I40" s="5" t="inlineStr">
+      <c r="I40" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B41" s="6" t="inlineStr">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C41" s="6" t="inlineStr">
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D41" s="6" t="inlineStr">
+      <c r="D41" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E41" s="6" t="inlineStr">
+      <c r="E41" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F41" s="6" t="inlineStr">
+      <c r="F41" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G41" s="6" t="inlineStr"/>
-      <c r="H41" s="6" t="inlineStr">
+      <c r="G41" s="5" t="inlineStr"/>
+      <c r="H41" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I41" s="6" t="inlineStr">
+      <c r="I41" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -3323,43 +3327,43 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B42" s="6" t="inlineStr">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C42" s="6" t="inlineStr">
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D42" s="6" t="inlineStr">
+      <c r="D42" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E42" s="6" t="inlineStr">
+      <c r="E42" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F42" s="6" t="inlineStr">
+      <c r="F42" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G42" s="6" t="inlineStr"/>
-      <c r="H42" s="6" t="inlineStr">
+      <c r="G42" s="5" t="inlineStr"/>
+      <c r="H42" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I42" s="6" t="inlineStr">
+      <c r="I42" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -3413,7 +3417,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3475,7 +3479,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -3537,7 +3541,7 @@
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -3646,7 +3650,7 @@
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -3787,7 +3791,7 @@
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -3802,258 +3806,258 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B51" s="6" t="inlineStr">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C51" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D51" s="6" t="inlineStr">
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E51" s="6" t="inlineStr">
+      <c r="E51" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F51" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G51" s="6" t="inlineStr"/>
-      <c r="H51" s="6" t="inlineStr">
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G51" s="5" t="inlineStr"/>
+      <c r="H51" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I51" s="6" t="inlineStr">
+      <c r="I51" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B52" s="6" t="inlineStr">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C52" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D52" s="6" t="inlineStr">
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E52" s="6" t="inlineStr">
+      <c r="E52" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F52" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G52" s="6" t="inlineStr"/>
-      <c r="H52" s="6" t="inlineStr">
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G52" s="5" t="inlineStr"/>
+      <c r="H52" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I52" s="6" t="inlineStr">
+      <c r="I52" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B53" s="6" t="inlineStr">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B53" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C53" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D53" s="6" t="inlineStr">
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E53" s="6" t="inlineStr">
+      <c r="E53" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F53" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G53" s="6" t="inlineStr"/>
-      <c r="H53" s="6" t="inlineStr">
+      <c r="F53" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G53" s="5" t="inlineStr"/>
+      <c r="H53" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I53" s="6" t="inlineStr">
+      <c r="I53" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B54" s="6" t="inlineStr">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B54" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C54" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D54" s="6" t="inlineStr">
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E54" s="6" t="inlineStr">
+      <c r="E54" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F54" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G54" s="6" t="inlineStr"/>
-      <c r="H54" s="6" t="inlineStr">
+      <c r="F54" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G54" s="5" t="inlineStr"/>
+      <c r="H54" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I54" s="6" t="inlineStr">
+      <c r="I54" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B55" s="6" t="inlineStr">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B55" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C55" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D55" s="6" t="inlineStr">
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E55" s="6" t="inlineStr">
+      <c r="E55" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F55" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G55" s="6" t="inlineStr"/>
-      <c r="H55" s="6" t="inlineStr">
+      <c r="F55" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G55" s="5" t="inlineStr"/>
+      <c r="H55" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I55" s="6" t="inlineStr">
+      <c r="I55" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B56" s="6" t="inlineStr">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B56" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C56" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D56" s="6" t="inlineStr">
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E56" s="6" t="inlineStr">
+      <c r="E56" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F56" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G56" s="6" t="inlineStr"/>
-      <c r="H56" s="6" t="inlineStr">
+      <c r="F56" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G56" s="5" t="inlineStr"/>
+      <c r="H56" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I56" s="6" t="inlineStr">
+      <c r="I56" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -4139,7 +4143,7 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -4186,7 +4190,7 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -4201,172 +4205,172 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B60" s="5" t="inlineStr">
+      <c r="A60" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B60" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C60" s="5" t="inlineStr">
+      <c r="C60" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D60" s="5" t="inlineStr">
+      <c r="D60" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E60" s="5" t="inlineStr">
+      <c r="E60" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F60" s="5" t="inlineStr">
+      <c r="F60" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G60" s="5" t="inlineStr"/>
-      <c r="H60" s="5" t="inlineStr">
+      <c r="G60" s="6" t="inlineStr"/>
+      <c r="H60" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I60" s="5" t="inlineStr">
+      <c r="I60" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B61" s="5" t="inlineStr">
+      <c r="A61" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B61" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C61" s="5" t="inlineStr">
+      <c r="C61" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D61" s="5" t="inlineStr">
+      <c r="D61" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E61" s="5" t="inlineStr">
+      <c r="E61" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F61" s="5" t="inlineStr">
+      <c r="F61" s="6" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G61" s="5" t="inlineStr"/>
-      <c r="H61" s="5" t="inlineStr">
+      <c r="G61" s="6" t="inlineStr"/>
+      <c r="H61" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I61" s="5" t="inlineStr">
+      <c r="I61" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B62" s="6" t="inlineStr">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B62" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C62" s="6" t="inlineStr">
+      <c r="C62" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D62" s="6" t="inlineStr">
+      <c r="D62" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E62" s="6" t="inlineStr">
+      <c r="E62" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F62" s="6" t="inlineStr">
+      <c r="F62" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G62" s="6" t="inlineStr"/>
-      <c r="H62" s="6" t="inlineStr">
+      <c r="G62" s="5" t="inlineStr"/>
+      <c r="H62" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I62" s="6" t="inlineStr">
+      <c r="I62" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B63" s="6" t="inlineStr">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B63" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C63" s="6" t="inlineStr">
+      <c r="C63" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D63" s="6" t="inlineStr">
+      <c r="D63" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E63" s="6" t="inlineStr">
+      <c r="E63" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F63" s="6" t="inlineStr">
+      <c r="F63" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G63" s="6" t="inlineStr"/>
-      <c r="H63" s="6" t="inlineStr">
+      <c r="G63" s="5" t="inlineStr"/>
+      <c r="H63" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I63" s="6" t="inlineStr">
+      <c r="I63" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -4405,7 +4409,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4452,7 +4456,7 @@
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -4499,7 +4503,7 @@
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -4593,7 +4597,7 @@
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -4734,7 +4738,7 @@
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
@@ -4749,258 +4753,258 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B72" s="6" t="inlineStr">
+      <c r="A72" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B72" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C72" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D72" s="6" t="inlineStr">
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D72" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E72" s="6" t="inlineStr">
+      <c r="E72" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F72" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G72" s="6" t="inlineStr"/>
-      <c r="H72" s="6" t="inlineStr">
+      <c r="F72" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G72" s="5" t="inlineStr"/>
+      <c r="H72" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I72" s="6" t="inlineStr">
+      <c r="I72" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B73" s="6" t="inlineStr">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B73" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C73" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D73" s="6" t="inlineStr">
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D73" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E73" s="6" t="inlineStr">
+      <c r="E73" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F73" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G73" s="6" t="inlineStr"/>
-      <c r="H73" s="6" t="inlineStr">
+      <c r="F73" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G73" s="5" t="inlineStr"/>
+      <c r="H73" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I73" s="6" t="inlineStr">
+      <c r="I73" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B74" s="6" t="inlineStr">
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B74" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C74" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D74" s="6" t="inlineStr">
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D74" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E74" s="6" t="inlineStr">
+      <c r="E74" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F74" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G74" s="6" t="inlineStr"/>
-      <c r="H74" s="6" t="inlineStr">
+      <c r="F74" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G74" s="5" t="inlineStr"/>
+      <c r="H74" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I74" s="6" t="inlineStr">
+      <c r="I74" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B75" s="6" t="inlineStr">
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B75" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C75" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D75" s="6" t="inlineStr">
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D75" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E75" s="6" t="inlineStr">
+      <c r="E75" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F75" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G75" s="6" t="inlineStr"/>
-      <c r="H75" s="6" t="inlineStr">
+      <c r="F75" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G75" s="5" t="inlineStr"/>
+      <c r="H75" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I75" s="6" t="inlineStr">
+      <c r="I75" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B76" s="6" t="inlineStr">
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B76" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C76" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D76" s="6" t="inlineStr">
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D76" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E76" s="6" t="inlineStr">
+      <c r="E76" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F76" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G76" s="6" t="inlineStr"/>
-      <c r="H76" s="6" t="inlineStr">
+      <c r="F76" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G76" s="5" t="inlineStr"/>
+      <c r="H76" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I76" s="6" t="inlineStr">
+      <c r="I76" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B77" s="6" t="inlineStr">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B77" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C77" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D77" s="6" t="inlineStr">
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D77" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E77" s="6" t="inlineStr">
+      <c r="E77" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F77" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G77" s="6" t="inlineStr"/>
-      <c r="H77" s="6" t="inlineStr">
+      <c r="F77" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G77" s="5" t="inlineStr"/>
+      <c r="H77" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I77" s="6" t="inlineStr">
+      <c r="I77" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -5086,7 +5090,7 @@
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
@@ -5133,7 +5137,7 @@
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
@@ -5148,172 +5152,172 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B81" s="5" t="inlineStr">
+      <c r="A81" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B81" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C81" s="5" t="inlineStr">
+      <c r="C81" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D81" s="5" t="inlineStr">
+      <c r="D81" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E81" s="5" t="inlineStr">
+      <c r="E81" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F81" s="5" t="inlineStr">
+      <c r="F81" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G81" s="5" t="inlineStr"/>
-      <c r="H81" s="5" t="inlineStr">
+      <c r="G81" s="6" t="inlineStr"/>
+      <c r="H81" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I81" s="5" t="inlineStr">
+      <c r="I81" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B82" s="5" t="inlineStr">
+      <c r="A82" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B82" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C82" s="5" t="inlineStr">
+      <c r="C82" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D82" s="5" t="inlineStr">
+      <c r="D82" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E82" s="5" t="inlineStr">
+      <c r="E82" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F82" s="5" t="inlineStr">
+      <c r="F82" s="6" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G82" s="5" t="inlineStr"/>
-      <c r="H82" s="5" t="inlineStr">
+      <c r="G82" s="6" t="inlineStr"/>
+      <c r="H82" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I82" s="5" t="inlineStr">
+      <c r="I82" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B83" s="6" t="inlineStr">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B83" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C83" s="6" t="inlineStr">
+      <c r="C83" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D83" s="6" t="inlineStr">
+      <c r="D83" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E83" s="6" t="inlineStr">
+      <c r="E83" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F83" s="6" t="inlineStr">
+      <c r="F83" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G83" s="6" t="inlineStr"/>
-      <c r="H83" s="6" t="inlineStr">
+      <c r="G83" s="5" t="inlineStr"/>
+      <c r="H83" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I83" s="6" t="inlineStr">
+      <c r="I83" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B84" s="6" t="inlineStr">
+      <c r="A84" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B84" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C84" s="6" t="inlineStr">
+      <c r="C84" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D84" s="6" t="inlineStr">
+      <c r="D84" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E84" s="6" t="inlineStr">
+      <c r="E84" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F84" s="6" t="inlineStr">
+      <c r="F84" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G84" s="6" t="inlineStr"/>
-      <c r="H84" s="6" t="inlineStr">
+      <c r="G84" s="5" t="inlineStr"/>
+      <c r="H84" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I84" s="6" t="inlineStr">
+      <c r="I84" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -5352,7 +5356,7 @@
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
@@ -5399,7 +5403,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5446,7 +5450,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5493,7 +5497,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5540,7 +5544,7 @@
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -5587,7 +5591,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5634,7 +5638,7 @@
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
@@ -5649,258 +5653,262 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B92" s="5" t="inlineStr">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C92" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D92" s="5" t="inlineStr">
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E92" s="5" t="inlineStr">
+      <c r="E92" s="2" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F92" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G92" s="5" t="inlineStr"/>
-      <c r="H92" s="5" t="inlineStr">
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t>29/31</t>
+        </is>
+      </c>
+      <c r="I92" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B93" s="5" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C93" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D93" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E93" s="5" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F93" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G93" s="5" t="inlineStr"/>
+      <c r="H93" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I92" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B93" s="6" t="inlineStr">
+      <c r="I93" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B94" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C93" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D93" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E93" s="6" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
-      </c>
-      <c r="F93" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G93" s="6" t="inlineStr"/>
-      <c r="H93" s="6" t="inlineStr">
+      <c r="C94" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D94" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E94" s="5" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F94" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G94" s="5" t="inlineStr"/>
+      <c r="H94" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I93" s="6" t="inlineStr">
+      <c r="I94" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B94" s="6" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B95" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C94" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D94" s="6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E94" s="6" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F94" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G94" s="6" t="inlineStr"/>
-      <c r="H94" s="6" t="inlineStr">
+      <c r="C95" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D95" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E95" s="5" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F95" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G95" s="5" t="inlineStr"/>
+      <c r="H95" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I94" s="6" t="inlineStr">
+      <c r="I95" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B95" s="6" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B96" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C95" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D95" s="6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E95" s="6" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F95" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G95" s="6" t="inlineStr"/>
-      <c r="H95" s="6" t="inlineStr">
+      <c r="C96" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D96" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E96" s="5" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F96" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G96" s="5" t="inlineStr"/>
+      <c r="H96" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I95" s="6" t="inlineStr">
+      <c r="I96" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B96" s="6" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B97" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C96" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D96" s="6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E96" s="6" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F96" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G96" s="6" t="inlineStr"/>
-      <c r="H96" s="6" t="inlineStr">
+      <c r="C97" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D97" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E97" s="5" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F97" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G97" s="5" t="inlineStr"/>
+      <c r="H97" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I96" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B97" s="6" t="inlineStr">
-        <is>
-          <t>B1-2</t>
-        </is>
-      </c>
-      <c r="C97" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D97" s="6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E97" s="6" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F97" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G97" s="6" t="inlineStr"/>
-      <c r="H97" s="6" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I97" s="6" t="inlineStr">
+      <c r="I97" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -5986,7 +5994,7 @@
       </c>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
@@ -6033,7 +6041,7 @@
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
@@ -6048,172 +6056,172 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B101" s="5" t="inlineStr">
+      <c r="A101" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B101" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C101" s="5" t="inlineStr">
+      <c r="C101" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D101" s="5" t="inlineStr">
+      <c r="D101" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E101" s="5" t="inlineStr">
+      <c r="E101" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F101" s="5" t="inlineStr">
+      <c r="F101" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G101" s="5" t="inlineStr"/>
-      <c r="H101" s="5" t="inlineStr">
+      <c r="G101" s="6" t="inlineStr"/>
+      <c r="H101" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I101" s="5" t="inlineStr">
+      <c r="I101" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B102" s="5" t="inlineStr">
+      <c r="A102" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B102" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C102" s="5" t="inlineStr">
+      <c r="C102" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D102" s="5" t="inlineStr">
+      <c r="D102" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E102" s="5" t="inlineStr">
+      <c r="E102" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F102" s="5" t="inlineStr">
+      <c r="F102" s="6" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G102" s="5" t="inlineStr"/>
-      <c r="H102" s="5" t="inlineStr">
+      <c r="G102" s="6" t="inlineStr"/>
+      <c r="H102" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I102" s="5" t="inlineStr">
+      <c r="I102" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B103" s="6" t="inlineStr">
+      <c r="A103" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B103" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C103" s="6" t="inlineStr">
+      <c r="C103" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D103" s="6" t="inlineStr">
+      <c r="D103" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E103" s="6" t="inlineStr">
+      <c r="E103" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F103" s="6" t="inlineStr">
+      <c r="F103" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G103" s="6" t="inlineStr"/>
-      <c r="H103" s="6" t="inlineStr">
+      <c r="G103" s="5" t="inlineStr"/>
+      <c r="H103" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I103" s="6" t="inlineStr">
+      <c r="I103" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B104" s="6" t="inlineStr">
+      <c r="A104" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B104" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C104" s="6" t="inlineStr">
+      <c r="C104" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D104" s="6" t="inlineStr">
+      <c r="D104" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E104" s="6" t="inlineStr">
+      <c r="E104" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F104" s="6" t="inlineStr">
+      <c r="F104" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G104" s="6" t="inlineStr"/>
-      <c r="H104" s="6" t="inlineStr">
+      <c r="G104" s="5" t="inlineStr"/>
+      <c r="H104" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I104" s="6" t="inlineStr">
+      <c r="I104" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -6252,7 +6260,7 @@
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -6299,7 +6307,7 @@
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
@@ -6346,7 +6354,7 @@
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
@@ -6393,7 +6401,7 @@
       </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
@@ -6440,7 +6448,7 @@
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
@@ -6487,7 +6495,7 @@
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
@@ -6534,7 +6542,7 @@
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
@@ -6549,258 +6557,262 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B112" s="5" t="inlineStr">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C112" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D112" s="5" t="inlineStr">
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E112" s="5" t="inlineStr">
+      <c r="E112" s="2" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F112" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G112" s="5" t="inlineStr"/>
-      <c r="H112" s="5" t="inlineStr">
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>23/28</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B113" s="5" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C113" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D113" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E113" s="5" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F113" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G113" s="5" t="inlineStr"/>
+      <c r="H113" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I112" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B113" s="6" t="inlineStr">
+      <c r="I113" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B114" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C113" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D113" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E113" s="6" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
-      </c>
-      <c r="F113" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G113" s="6" t="inlineStr"/>
-      <c r="H113" s="6" t="inlineStr">
+      <c r="C114" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D114" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E114" s="5" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F114" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G114" s="5" t="inlineStr"/>
+      <c r="H114" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I113" s="6" t="inlineStr">
+      <c r="I114" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B114" s="6" t="inlineStr">
+    <row r="115">
+      <c r="A115" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B115" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C114" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D114" s="6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E114" s="6" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F114" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G114" s="6" t="inlineStr"/>
-      <c r="H114" s="6" t="inlineStr">
+      <c r="C115" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D115" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E115" s="5" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F115" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G115" s="5" t="inlineStr"/>
+      <c r="H115" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I114" s="6" t="inlineStr">
+      <c r="I115" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B115" s="6" t="inlineStr">
+    <row r="116">
+      <c r="A116" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B116" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C115" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D115" s="6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E115" s="6" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F115" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G115" s="6" t="inlineStr"/>
-      <c r="H115" s="6" t="inlineStr">
+      <c r="C116" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D116" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E116" s="5" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F116" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G116" s="5" t="inlineStr"/>
+      <c r="H116" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I115" s="6" t="inlineStr">
+      <c r="I116" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B116" s="6" t="inlineStr">
+    <row r="117">
+      <c r="A117" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B117" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C116" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D116" s="6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E116" s="6" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F116" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G116" s="6" t="inlineStr"/>
-      <c r="H116" s="6" t="inlineStr">
+      <c r="C117" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D117" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E117" s="5" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F117" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G117" s="5" t="inlineStr"/>
+      <c r="H117" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I116" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B117" s="6" t="inlineStr">
-        <is>
-          <t>B1-3</t>
-        </is>
-      </c>
-      <c r="C117" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D117" s="6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E117" s="6" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F117" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G117" s="6" t="inlineStr"/>
-      <c r="H117" s="6" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I117" s="6" t="inlineStr">
+      <c r="I117" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -6886,7 +6898,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6933,7 +6945,7 @@
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -6948,172 +6960,172 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B121" s="5" t="inlineStr">
+      <c r="A121" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B121" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C121" s="5" t="inlineStr">
+      <c r="C121" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D121" s="5" t="inlineStr">
+      <c r="D121" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E121" s="5" t="inlineStr">
+      <c r="E121" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F121" s="5" t="inlineStr">
+      <c r="F121" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G121" s="5" t="inlineStr"/>
-      <c r="H121" s="5" t="inlineStr">
+      <c r="G121" s="6" t="inlineStr"/>
+      <c r="H121" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I121" s="5" t="inlineStr">
+      <c r="I121" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B122" s="5" t="inlineStr">
+      <c r="A122" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B122" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C122" s="5" t="inlineStr">
+      <c r="C122" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D122" s="5" t="inlineStr">
+      <c r="D122" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E122" s="5" t="inlineStr">
+      <c r="E122" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F122" s="5" t="inlineStr">
+      <c r="F122" s="6" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G122" s="5" t="inlineStr"/>
-      <c r="H122" s="5" t="inlineStr">
+      <c r="G122" s="6" t="inlineStr"/>
+      <c r="H122" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I122" s="5" t="inlineStr">
+      <c r="I122" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B123" s="6" t="inlineStr">
+      <c r="A123" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B123" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C123" s="6" t="inlineStr">
+      <c r="C123" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D123" s="6" t="inlineStr">
+      <c r="D123" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E123" s="6" t="inlineStr">
+      <c r="E123" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F123" s="6" t="inlineStr">
+      <c r="F123" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G123" s="6" t="inlineStr"/>
-      <c r="H123" s="6" t="inlineStr">
+      <c r="G123" s="5" t="inlineStr"/>
+      <c r="H123" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I123" s="6" t="inlineStr">
+      <c r="I123" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B124" s="6" t="inlineStr">
+      <c r="A124" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B124" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C124" s="6" t="inlineStr">
+      <c r="C124" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D124" s="6" t="inlineStr">
+      <c r="D124" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E124" s="6" t="inlineStr">
+      <c r="E124" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F124" s="6" t="inlineStr">
+      <c r="F124" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G124" s="6" t="inlineStr"/>
-      <c r="H124" s="6" t="inlineStr">
+      <c r="G124" s="5" t="inlineStr"/>
+      <c r="H124" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I124" s="6" t="inlineStr">
+      <c r="I124" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -7152,7 +7164,7 @@
       </c>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
@@ -7199,7 +7211,7 @@
       </c>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
@@ -7246,7 +7258,7 @@
       </c>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -7293,7 +7305,7 @@
       </c>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
@@ -7340,7 +7352,7 @@
       </c>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
@@ -7387,7 +7399,7 @@
       </c>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
@@ -7434,7 +7446,7 @@
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -7449,258 +7461,262 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B132" s="5" t="inlineStr">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C132" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D132" s="5" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E132" s="5" t="inlineStr">
+      <c r="E132" s="2" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F132" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G132" s="5" t="inlineStr"/>
-      <c r="H132" s="5" t="inlineStr">
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>23/29</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B133" s="5" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C133" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D133" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E133" s="5" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F133" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G133" s="5" t="inlineStr"/>
+      <c r="H133" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I132" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B133" s="6" t="inlineStr">
+      <c r="I133" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B134" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C133" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D133" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E133" s="6" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
-      </c>
-      <c r="F133" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G133" s="6" t="inlineStr"/>
-      <c r="H133" s="6" t="inlineStr">
+      <c r="C134" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D134" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E134" s="5" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F134" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G134" s="5" t="inlineStr"/>
+      <c r="H134" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I133" s="6" t="inlineStr">
+      <c r="I134" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B134" s="6" t="inlineStr">
+    <row r="135">
+      <c r="A135" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B135" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C134" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D134" s="6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E134" s="6" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F134" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G134" s="6" t="inlineStr"/>
-      <c r="H134" s="6" t="inlineStr">
+      <c r="C135" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D135" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E135" s="5" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F135" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G135" s="5" t="inlineStr"/>
+      <c r="H135" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I134" s="6" t="inlineStr">
+      <c r="I135" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B135" s="6" t="inlineStr">
+    <row r="136">
+      <c r="A136" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B136" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C135" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D135" s="6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E135" s="6" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F135" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G135" s="6" t="inlineStr"/>
-      <c r="H135" s="6" t="inlineStr">
+      <c r="C136" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D136" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E136" s="5" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F136" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G136" s="5" t="inlineStr"/>
+      <c r="H136" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I135" s="6" t="inlineStr">
+      <c r="I136" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B136" s="6" t="inlineStr">
+    <row r="137">
+      <c r="A137" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B137" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C136" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D136" s="6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E136" s="6" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F136" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G136" s="6" t="inlineStr"/>
-      <c r="H136" s="6" t="inlineStr">
+      <c r="C137" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D137" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E137" s="5" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F137" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G137" s="5" t="inlineStr"/>
+      <c r="H137" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I136" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B137" s="6" t="inlineStr">
-        <is>
-          <t>B1-4</t>
-        </is>
-      </c>
-      <c r="C137" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D137" s="6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E137" s="6" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F137" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G137" s="6" t="inlineStr"/>
-      <c r="H137" s="6" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I137" s="6" t="inlineStr">
+      <c r="I137" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -7786,7 +7802,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7833,7 +7849,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -7848,172 +7864,172 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B141" s="5" t="inlineStr">
+      <c r="A141" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B141" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C141" s="5" t="inlineStr">
+      <c r="C141" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D141" s="5" t="inlineStr">
+      <c r="D141" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E141" s="5" t="inlineStr">
+      <c r="E141" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F141" s="5" t="inlineStr">
+      <c r="F141" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G141" s="5" t="inlineStr"/>
-      <c r="H141" s="5" t="inlineStr">
+      <c r="G141" s="6" t="inlineStr"/>
+      <c r="H141" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I141" s="5" t="inlineStr">
+      <c r="I141" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B142" s="5" t="inlineStr">
+      <c r="A142" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B142" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C142" s="5" t="inlineStr">
+      <c r="C142" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D142" s="5" t="inlineStr">
+      <c r="D142" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E142" s="5" t="inlineStr">
+      <c r="E142" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F142" s="5" t="inlineStr">
+      <c r="F142" s="6" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G142" s="5" t="inlineStr"/>
-      <c r="H142" s="5" t="inlineStr">
+      <c r="G142" s="6" t="inlineStr"/>
+      <c r="H142" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I142" s="5" t="inlineStr">
+      <c r="I142" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B143" s="6" t="inlineStr">
+      <c r="A143" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B143" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C143" s="6" t="inlineStr">
+      <c r="C143" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D143" s="6" t="inlineStr">
+      <c r="D143" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E143" s="6" t="inlineStr">
+      <c r="E143" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F143" s="6" t="inlineStr">
+      <c r="F143" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G143" s="6" t="inlineStr"/>
-      <c r="H143" s="6" t="inlineStr">
+      <c r="G143" s="5" t="inlineStr"/>
+      <c r="H143" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I143" s="6" t="inlineStr">
+      <c r="I143" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B144" s="6" t="inlineStr">
+      <c r="A144" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B144" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C144" s="6" t="inlineStr">
+      <c r="C144" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D144" s="6" t="inlineStr">
+      <c r="D144" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E144" s="6" t="inlineStr">
+      <c r="E144" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F144" s="6" t="inlineStr">
+      <c r="F144" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G144" s="6" t="inlineStr"/>
-      <c r="H144" s="6" t="inlineStr">
+      <c r="G144" s="5" t="inlineStr"/>
+      <c r="H144" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I144" s="6" t="inlineStr">
+      <c r="I144" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -8052,7 +8068,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -8099,7 +8115,7 @@
       </c>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
@@ -8146,7 +8162,7 @@
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -8193,7 +8209,7 @@
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -8240,7 +8256,7 @@
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -8287,7 +8303,7 @@
       </c>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
@@ -8334,7 +8350,7 @@
       </c>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
@@ -8349,258 +8365,262 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B152" s="5" t="inlineStr">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C152" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D152" s="5" t="inlineStr">
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E152" s="5" t="inlineStr">
+      <c r="E152" s="2" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F152" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G152" s="5" t="inlineStr"/>
-      <c r="H152" s="5" t="inlineStr">
+      <c r="F152" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G152" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H152" s="2" t="inlineStr">
+        <is>
+          <t>28/33</t>
+        </is>
+      </c>
+      <c r="I152" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B153" s="5" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C153" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D153" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E153" s="5" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F153" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G153" s="5" t="inlineStr"/>
+      <c r="H153" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I152" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B153" s="6" t="inlineStr">
+      <c r="I153" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B154" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C153" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D153" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E153" s="6" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
-      </c>
-      <c r="F153" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G153" s="6" t="inlineStr"/>
-      <c r="H153" s="6" t="inlineStr">
+      <c r="C154" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D154" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E154" s="5" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F154" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G154" s="5" t="inlineStr"/>
+      <c r="H154" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I153" s="6" t="inlineStr">
+      <c r="I154" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B154" s="6" t="inlineStr">
+    <row r="155">
+      <c r="A155" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B155" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C154" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D154" s="6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E154" s="6" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F154" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G154" s="6" t="inlineStr"/>
-      <c r="H154" s="6" t="inlineStr">
+      <c r="C155" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D155" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E155" s="5" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F155" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G155" s="5" t="inlineStr"/>
+      <c r="H155" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I154" s="6" t="inlineStr">
+      <c r="I155" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B155" s="6" t="inlineStr">
+    <row r="156">
+      <c r="A156" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B156" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C155" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D155" s="6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E155" s="6" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F155" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G155" s="6" t="inlineStr"/>
-      <c r="H155" s="6" t="inlineStr">
+      <c r="C156" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D156" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E156" s="5" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F156" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G156" s="5" t="inlineStr"/>
+      <c r="H156" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I155" s="6" t="inlineStr">
+      <c r="I156" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B156" s="6" t="inlineStr">
+    <row r="157">
+      <c r="A157" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B157" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C156" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D156" s="6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E156" s="6" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F156" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G156" s="6" t="inlineStr"/>
-      <c r="H156" s="6" t="inlineStr">
+      <c r="C157" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D157" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E157" s="5" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F157" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G157" s="5" t="inlineStr"/>
+      <c r="H157" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I156" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B157" s="6" t="inlineStr">
-        <is>
-          <t>B1-5</t>
-        </is>
-      </c>
-      <c r="C157" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D157" s="6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E157" s="6" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F157" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G157" s="6" t="inlineStr"/>
-      <c r="H157" s="6" t="inlineStr">
-        <is>
-          <t>0/33</t>
-        </is>
-      </c>
-      <c r="I157" s="6" t="inlineStr">
+      <c r="I157" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -8686,7 +8706,7 @@
       </c>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -8733,7 +8753,7 @@
       </c>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
@@ -8748,172 +8768,172 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B161" s="5" t="inlineStr">
+      <c r="A161" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B161" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C161" s="5" t="inlineStr">
+      <c r="C161" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D161" s="5" t="inlineStr">
+      <c r="D161" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E161" s="5" t="inlineStr">
+      <c r="E161" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F161" s="5" t="inlineStr">
+      <c r="F161" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G161" s="5" t="inlineStr"/>
-      <c r="H161" s="5" t="inlineStr">
+      <c r="G161" s="6" t="inlineStr"/>
+      <c r="H161" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I161" s="5" t="inlineStr">
+      <c r="I161" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B162" s="5" t="inlineStr">
+      <c r="A162" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B162" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C162" s="5" t="inlineStr">
+      <c r="C162" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D162" s="5" t="inlineStr">
+      <c r="D162" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E162" s="5" t="inlineStr">
+      <c r="E162" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F162" s="5" t="inlineStr">
+      <c r="F162" s="6" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G162" s="5" t="inlineStr"/>
-      <c r="H162" s="5" t="inlineStr">
+      <c r="G162" s="6" t="inlineStr"/>
+      <c r="H162" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I162" s="5" t="inlineStr">
+      <c r="I162" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B163" s="6" t="inlineStr">
+      <c r="A163" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B163" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C163" s="6" t="inlineStr">
+      <c r="C163" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D163" s="6" t="inlineStr">
+      <c r="D163" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E163" s="6" t="inlineStr">
+      <c r="E163" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F163" s="6" t="inlineStr">
+      <c r="F163" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G163" s="6" t="inlineStr"/>
-      <c r="H163" s="6" t="inlineStr">
+      <c r="G163" s="5" t="inlineStr"/>
+      <c r="H163" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I163" s="6" t="inlineStr">
+      <c r="I163" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B164" s="6" t="inlineStr">
+      <c r="A164" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B164" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C164" s="6" t="inlineStr">
+      <c r="C164" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D164" s="6" t="inlineStr">
+      <c r="D164" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E164" s="6" t="inlineStr">
+      <c r="E164" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F164" s="6" t="inlineStr">
+      <c r="F164" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G164" s="6" t="inlineStr"/>
-      <c r="H164" s="6" t="inlineStr">
+      <c r="G164" s="5" t="inlineStr"/>
+      <c r="H164" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I164" s="6" t="inlineStr">
+      <c r="I164" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -8952,7 +8972,7 @@
       </c>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
@@ -8999,7 +9019,7 @@
       </c>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
@@ -9046,7 +9066,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -9093,7 +9113,7 @@
       </c>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -9140,7 +9160,7 @@
       </c>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -9187,7 +9207,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9234,7 +9254,7 @@
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -9249,258 +9269,262 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B172" s="5" t="inlineStr">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C172" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D172" s="5" t="inlineStr">
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E172" s="5" t="inlineStr">
+      <c r="E172" s="2" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F172" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G172" s="5" t="inlineStr"/>
-      <c r="H172" s="5" t="inlineStr">
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G172" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>26/30</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B173" s="5" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C173" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D173" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E173" s="5" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F173" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G173" s="5" t="inlineStr"/>
+      <c r="H173" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I172" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B173" s="6" t="inlineStr">
+      <c r="I173" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B174" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C173" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D173" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E173" s="6" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
-      </c>
-      <c r="F173" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G173" s="6" t="inlineStr"/>
-      <c r="H173" s="6" t="inlineStr">
+      <c r="C174" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D174" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E174" s="5" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F174" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G174" s="5" t="inlineStr"/>
+      <c r="H174" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I173" s="6" t="inlineStr">
+      <c r="I174" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B174" s="6" t="inlineStr">
+    <row r="175">
+      <c r="A175" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B175" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C174" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D174" s="6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E174" s="6" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F174" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G174" s="6" t="inlineStr"/>
-      <c r="H174" s="6" t="inlineStr">
+      <c r="C175" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D175" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E175" s="5" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F175" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G175" s="5" t="inlineStr"/>
+      <c r="H175" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I174" s="6" t="inlineStr">
+      <c r="I175" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B175" s="6" t="inlineStr">
+    <row r="176">
+      <c r="A176" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B176" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C175" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D175" s="6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E175" s="6" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F175" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G175" s="6" t="inlineStr"/>
-      <c r="H175" s="6" t="inlineStr">
+      <c r="C176" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D176" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E176" s="5" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F176" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G176" s="5" t="inlineStr"/>
+      <c r="H176" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I175" s="6" t="inlineStr">
+      <c r="I176" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B176" s="6" t="inlineStr">
+    <row r="177">
+      <c r="A177" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B177" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C176" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D176" s="6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E176" s="6" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F176" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G176" s="6" t="inlineStr"/>
-      <c r="H176" s="6" t="inlineStr">
+      <c r="C177" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D177" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E177" s="5" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F177" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G177" s="5" t="inlineStr"/>
+      <c r="H177" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I176" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B177" s="6" t="inlineStr">
-        <is>
-          <t>B1-6</t>
-        </is>
-      </c>
-      <c r="C177" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D177" s="6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E177" s="6" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F177" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G177" s="6" t="inlineStr"/>
-      <c r="H177" s="6" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I177" s="6" t="inlineStr">
+      <c r="I177" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -9586,7 +9610,7 @@
       </c>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr">
@@ -9633,7 +9657,7 @@
       </c>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
@@ -9648,172 +9672,172 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B181" s="5" t="inlineStr">
+      <c r="A181" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B181" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C181" s="5" t="inlineStr">
+      <c r="C181" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D181" s="5" t="inlineStr">
+      <c r="D181" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E181" s="5" t="inlineStr">
+      <c r="E181" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F181" s="5" t="inlineStr">
+      <c r="F181" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G181" s="5" t="inlineStr"/>
-      <c r="H181" s="5" t="inlineStr">
+      <c r="G181" s="6" t="inlineStr"/>
+      <c r="H181" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I181" s="5" t="inlineStr">
+      <c r="I181" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B182" s="5" t="inlineStr">
+      <c r="A182" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B182" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C182" s="5" t="inlineStr">
+      <c r="C182" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D182" s="5" t="inlineStr">
+      <c r="D182" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E182" s="5" t="inlineStr">
+      <c r="E182" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F182" s="5" t="inlineStr">
+      <c r="F182" s="6" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G182" s="5" t="inlineStr"/>
-      <c r="H182" s="5" t="inlineStr">
+      <c r="G182" s="6" t="inlineStr"/>
+      <c r="H182" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I182" s="5" t="inlineStr">
+      <c r="I182" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B183" s="6" t="inlineStr">
+      <c r="A183" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B183" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C183" s="6" t="inlineStr">
+      <c r="C183" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D183" s="6" t="inlineStr">
+      <c r="D183" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E183" s="6" t="inlineStr">
+      <c r="E183" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F183" s="6" t="inlineStr">
+      <c r="F183" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G183" s="6" t="inlineStr"/>
-      <c r="H183" s="6" t="inlineStr">
+      <c r="G183" s="5" t="inlineStr"/>
+      <c r="H183" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I183" s="6" t="inlineStr">
+      <c r="I183" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B184" s="6" t="inlineStr">
+      <c r="A184" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B184" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C184" s="6" t="inlineStr">
+      <c r="C184" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D184" s="6" t="inlineStr">
+      <c r="D184" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E184" s="6" t="inlineStr">
+      <c r="E184" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F184" s="6" t="inlineStr">
+      <c r="F184" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G184" s="6" t="inlineStr"/>
-      <c r="H184" s="6" t="inlineStr">
+      <c r="G184" s="5" t="inlineStr"/>
+      <c r="H184" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I184" s="6" t="inlineStr">
+      <c r="I184" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -9852,7 +9876,7 @@
       </c>
       <c r="G185" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H185" s="2" t="inlineStr">
@@ -9899,7 +9923,7 @@
       </c>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr">
@@ -9946,7 +9970,7 @@
       </c>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr">
@@ -10040,7 +10064,7 @@
       </c>
       <c r="G189" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H189" s="2" t="inlineStr">
@@ -10181,7 +10205,7 @@
       </c>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr">
@@ -10196,258 +10220,258 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B193" s="6" t="inlineStr">
+      <c r="A193" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B193" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C193" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D193" s="6" t="inlineStr">
+      <c r="C193" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D193" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E193" s="6" t="inlineStr">
+      <c r="E193" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F193" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G193" s="6" t="inlineStr"/>
-      <c r="H193" s="6" t="inlineStr">
+      <c r="F193" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G193" s="5" t="inlineStr"/>
+      <c r="H193" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I193" s="6" t="inlineStr">
+      <c r="I193" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B194" s="6" t="inlineStr">
+      <c r="A194" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B194" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C194" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D194" s="6" t="inlineStr">
+      <c r="C194" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D194" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E194" s="6" t="inlineStr">
+      <c r="E194" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F194" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G194" s="6" t="inlineStr"/>
-      <c r="H194" s="6" t="inlineStr">
+      <c r="F194" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G194" s="5" t="inlineStr"/>
+      <c r="H194" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I194" s="6" t="inlineStr">
+      <c r="I194" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B195" s="6" t="inlineStr">
+      <c r="A195" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B195" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C195" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D195" s="6" t="inlineStr">
+      <c r="C195" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D195" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E195" s="6" t="inlineStr">
+      <c r="E195" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F195" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G195" s="6" t="inlineStr"/>
-      <c r="H195" s="6" t="inlineStr">
+      <c r="F195" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G195" s="5" t="inlineStr"/>
+      <c r="H195" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I195" s="6" t="inlineStr">
+      <c r="I195" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B196" s="6" t="inlineStr">
+      <c r="A196" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B196" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C196" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D196" s="6" t="inlineStr">
+      <c r="C196" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D196" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E196" s="6" t="inlineStr">
+      <c r="E196" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F196" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G196" s="6" t="inlineStr"/>
-      <c r="H196" s="6" t="inlineStr">
+      <c r="F196" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G196" s="5" t="inlineStr"/>
+      <c r="H196" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I196" s="6" t="inlineStr">
+      <c r="I196" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B197" s="6" t="inlineStr">
+      <c r="A197" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B197" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C197" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D197" s="6" t="inlineStr">
+      <c r="C197" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D197" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E197" s="6" t="inlineStr">
+      <c r="E197" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F197" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G197" s="6" t="inlineStr"/>
-      <c r="H197" s="6" t="inlineStr">
+      <c r="F197" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G197" s="5" t="inlineStr"/>
+      <c r="H197" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I197" s="6" t="inlineStr">
+      <c r="I197" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B198" s="6" t="inlineStr">
+      <c r="A198" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B198" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C198" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D198" s="6" t="inlineStr">
+      <c r="C198" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D198" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E198" s="6" t="inlineStr">
+      <c r="E198" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F198" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G198" s="6" t="inlineStr"/>
-      <c r="H198" s="6" t="inlineStr">
+      <c r="F198" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G198" s="5" t="inlineStr"/>
+      <c r="H198" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I198" s="6" t="inlineStr">
+      <c r="I198" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -10533,7 +10557,7 @@
       </c>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
@@ -10580,7 +10604,7 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -10595,172 +10619,172 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B202" s="5" t="inlineStr">
+      <c r="A202" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B202" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C202" s="5" t="inlineStr">
+      <c r="C202" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D202" s="5" t="inlineStr">
+      <c r="D202" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E202" s="5" t="inlineStr">
+      <c r="E202" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F202" s="5" t="inlineStr">
+      <c r="F202" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G202" s="5" t="inlineStr"/>
-      <c r="H202" s="5" t="inlineStr">
+      <c r="G202" s="6" t="inlineStr"/>
+      <c r="H202" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I202" s="5" t="inlineStr">
+      <c r="I202" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B203" s="5" t="inlineStr">
+      <c r="A203" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B203" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C203" s="5" t="inlineStr">
+      <c r="C203" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D203" s="5" t="inlineStr">
+      <c r="D203" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E203" s="5" t="inlineStr">
+      <c r="E203" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F203" s="5" t="inlineStr">
+      <c r="F203" s="6" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G203" s="5" t="inlineStr"/>
-      <c r="H203" s="5" t="inlineStr">
+      <c r="G203" s="6" t="inlineStr"/>
+      <c r="H203" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I203" s="5" t="inlineStr">
+      <c r="I203" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B204" s="6" t="inlineStr">
+      <c r="A204" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B204" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C204" s="6" t="inlineStr">
+      <c r="C204" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D204" s="6" t="inlineStr">
+      <c r="D204" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E204" s="6" t="inlineStr">
+      <c r="E204" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F204" s="6" t="inlineStr">
+      <c r="F204" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G204" s="6" t="inlineStr"/>
-      <c r="H204" s="6" t="inlineStr">
+      <c r="G204" s="5" t="inlineStr"/>
+      <c r="H204" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I204" s="6" t="inlineStr">
+      <c r="I204" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B205" s="6" t="inlineStr">
+      <c r="A205" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B205" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C205" s="6" t="inlineStr">
+      <c r="C205" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D205" s="6" t="inlineStr">
+      <c r="D205" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E205" s="6" t="inlineStr">
+      <c r="E205" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F205" s="6" t="inlineStr">
+      <c r="F205" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G205" s="6" t="inlineStr"/>
-      <c r="H205" s="6" t="inlineStr">
+      <c r="G205" s="5" t="inlineStr"/>
+      <c r="H205" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I205" s="6" t="inlineStr">
+      <c r="I205" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -10799,7 +10823,7 @@
       </c>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr">
@@ -10846,7 +10870,7 @@
       </c>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr">
@@ -10893,7 +10917,7 @@
       </c>
       <c r="G208" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H208" s="2" t="inlineStr">
@@ -10987,7 +11011,7 @@
       </c>
       <c r="G210" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H210" s="2" t="inlineStr">
@@ -11128,7 +11152,7 @@
       </c>
       <c r="G213" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H213" s="2" t="inlineStr">
@@ -11143,258 +11167,258 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B214" s="6" t="inlineStr">
+      <c r="A214" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B214" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C214" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D214" s="6" t="inlineStr">
+      <c r="C214" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D214" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E214" s="6" t="inlineStr">
+      <c r="E214" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F214" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G214" s="6" t="inlineStr"/>
-      <c r="H214" s="6" t="inlineStr">
+      <c r="F214" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G214" s="5" t="inlineStr"/>
+      <c r="H214" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I214" s="6" t="inlineStr">
+      <c r="I214" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B215" s="6" t="inlineStr">
+      <c r="A215" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B215" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C215" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D215" s="6" t="inlineStr">
+      <c r="C215" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D215" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E215" s="6" t="inlineStr">
+      <c r="E215" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F215" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G215" s="6" t="inlineStr"/>
-      <c r="H215" s="6" t="inlineStr">
+      <c r="F215" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G215" s="5" t="inlineStr"/>
+      <c r="H215" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I215" s="6" t="inlineStr">
+      <c r="I215" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B216" s="6" t="inlineStr">
+      <c r="A216" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B216" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C216" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D216" s="6" t="inlineStr">
+      <c r="C216" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D216" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E216" s="6" t="inlineStr">
+      <c r="E216" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F216" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G216" s="6" t="inlineStr"/>
-      <c r="H216" s="6" t="inlineStr">
+      <c r="F216" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G216" s="5" t="inlineStr"/>
+      <c r="H216" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I216" s="6" t="inlineStr">
+      <c r="I216" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B217" s="6" t="inlineStr">
+      <c r="A217" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B217" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C217" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D217" s="6" t="inlineStr">
+      <c r="C217" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D217" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E217" s="6" t="inlineStr">
+      <c r="E217" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F217" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G217" s="6" t="inlineStr"/>
-      <c r="H217" s="6" t="inlineStr">
+      <c r="F217" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G217" s="5" t="inlineStr"/>
+      <c r="H217" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I217" s="6" t="inlineStr">
+      <c r="I217" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B218" s="6" t="inlineStr">
+      <c r="A218" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B218" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C218" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D218" s="6" t="inlineStr">
+      <c r="C218" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D218" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E218" s="6" t="inlineStr">
+      <c r="E218" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F218" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G218" s="6" t="inlineStr"/>
-      <c r="H218" s="6" t="inlineStr">
+      <c r="F218" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G218" s="5" t="inlineStr"/>
+      <c r="H218" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I218" s="6" t="inlineStr">
+      <c r="I218" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B219" s="6" t="inlineStr">
+      <c r="A219" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B219" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C219" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D219" s="6" t="inlineStr">
+      <c r="C219" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D219" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E219" s="6" t="inlineStr">
+      <c r="E219" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F219" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G219" s="6" t="inlineStr"/>
-      <c r="H219" s="6" t="inlineStr">
+      <c r="F219" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G219" s="5" t="inlineStr"/>
+      <c r="H219" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I219" s="6" t="inlineStr">
+      <c r="I219" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -11480,7 +11504,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11527,7 +11551,7 @@
       </c>
       <c r="G222" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H222" s="2" t="inlineStr">
@@ -11542,172 +11566,172 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B223" s="5" t="inlineStr">
+      <c r="A223" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B223" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C223" s="5" t="inlineStr">
+      <c r="C223" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D223" s="5" t="inlineStr">
+      <c r="D223" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E223" s="5" t="inlineStr">
+      <c r="E223" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F223" s="5" t="inlineStr">
+      <c r="F223" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G223" s="5" t="inlineStr"/>
-      <c r="H223" s="5" t="inlineStr">
+      <c r="G223" s="6" t="inlineStr"/>
+      <c r="H223" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I223" s="5" t="inlineStr">
+      <c r="I223" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B224" s="5" t="inlineStr">
+      <c r="A224" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B224" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C224" s="5" t="inlineStr">
+      <c r="C224" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D224" s="5" t="inlineStr">
+      <c r="D224" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E224" s="5" t="inlineStr">
+      <c r="E224" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F224" s="5" t="inlineStr">
+      <c r="F224" s="6" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G224" s="5" t="inlineStr"/>
-      <c r="H224" s="5" t="inlineStr">
+      <c r="G224" s="6" t="inlineStr"/>
+      <c r="H224" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I224" s="5" t="inlineStr">
+      <c r="I224" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B225" s="6" t="inlineStr">
+      <c r="A225" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B225" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C225" s="6" t="inlineStr">
+      <c r="C225" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D225" s="6" t="inlineStr">
+      <c r="D225" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E225" s="6" t="inlineStr">
+      <c r="E225" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F225" s="6" t="inlineStr">
+      <c r="F225" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G225" s="6" t="inlineStr"/>
-      <c r="H225" s="6" t="inlineStr">
+      <c r="G225" s="5" t="inlineStr"/>
+      <c r="H225" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I225" s="6" t="inlineStr">
+      <c r="I225" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B226" s="6" t="inlineStr">
+      <c r="A226" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B226" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C226" s="6" t="inlineStr">
+      <c r="C226" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D226" s="6" t="inlineStr">
+      <c r="D226" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E226" s="6" t="inlineStr">
+      <c r="E226" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F226" s="6" t="inlineStr">
+      <c r="F226" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G226" s="6" t="inlineStr"/>
-      <c r="H226" s="6" t="inlineStr">
+      <c r="G226" s="5" t="inlineStr"/>
+      <c r="H226" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I226" s="6" t="inlineStr">
+      <c r="I226" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -11746,7 +11770,7 @@
       </c>
       <c r="G227" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H227" s="2" t="inlineStr">
@@ -11793,7 +11817,7 @@
       </c>
       <c r="G228" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H228" s="2" t="inlineStr">
@@ -11840,7 +11864,7 @@
       </c>
       <c r="G229" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H229" s="2" t="inlineStr">
@@ -11934,7 +11958,7 @@
       </c>
       <c r="G231" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H231" s="2" t="inlineStr">
@@ -12075,7 +12099,7 @@
       </c>
       <c r="G234" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H234" s="2" t="inlineStr">
@@ -12090,258 +12114,258 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B235" s="6" t="inlineStr">
+      <c r="A235" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B235" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C235" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D235" s="6" t="inlineStr">
+      <c r="C235" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D235" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E235" s="6" t="inlineStr">
+      <c r="E235" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F235" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G235" s="6" t="inlineStr"/>
-      <c r="H235" s="6" t="inlineStr">
+      <c r="F235" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G235" s="5" t="inlineStr"/>
+      <c r="H235" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I235" s="6" t="inlineStr">
+      <c r="I235" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B236" s="6" t="inlineStr">
+      <c r="A236" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B236" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C236" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D236" s="6" t="inlineStr">
+      <c r="C236" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D236" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E236" s="6" t="inlineStr">
+      <c r="E236" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F236" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G236" s="6" t="inlineStr"/>
-      <c r="H236" s="6" t="inlineStr">
+      <c r="F236" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G236" s="5" t="inlineStr"/>
+      <c r="H236" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I236" s="6" t="inlineStr">
+      <c r="I236" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B237" s="6" t="inlineStr">
+      <c r="A237" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B237" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C237" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D237" s="6" t="inlineStr">
+      <c r="C237" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D237" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E237" s="6" t="inlineStr">
+      <c r="E237" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F237" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G237" s="6" t="inlineStr"/>
-      <c r="H237" s="6" t="inlineStr">
+      <c r="F237" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G237" s="5" t="inlineStr"/>
+      <c r="H237" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I237" s="6" t="inlineStr">
+      <c r="I237" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B238" s="6" t="inlineStr">
+      <c r="A238" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B238" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C238" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D238" s="6" t="inlineStr">
+      <c r="C238" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D238" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E238" s="6" t="inlineStr">
+      <c r="E238" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F238" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G238" s="6" t="inlineStr"/>
-      <c r="H238" s="6" t="inlineStr">
+      <c r="F238" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G238" s="5" t="inlineStr"/>
+      <c r="H238" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I238" s="6" t="inlineStr">
+      <c r="I238" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B239" s="6" t="inlineStr">
+      <c r="A239" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B239" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C239" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D239" s="6" t="inlineStr">
+      <c r="C239" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D239" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E239" s="6" t="inlineStr">
+      <c r="E239" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F239" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G239" s="6" t="inlineStr"/>
-      <c r="H239" s="6" t="inlineStr">
+      <c r="F239" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G239" s="5" t="inlineStr"/>
+      <c r="H239" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I239" s="6" t="inlineStr">
+      <c r="I239" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B240" s="6" t="inlineStr">
+      <c r="A240" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B240" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C240" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D240" s="6" t="inlineStr">
+      <c r="C240" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D240" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E240" s="6" t="inlineStr">
+      <c r="E240" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F240" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G240" s="6" t="inlineStr"/>
-      <c r="H240" s="6" t="inlineStr">
+      <c r="F240" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G240" s="5" t="inlineStr"/>
+      <c r="H240" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I240" s="6" t="inlineStr">
+      <c r="I240" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -12427,7 +12451,7 @@
       </c>
       <c r="G242" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H242" s="2" t="inlineStr">
@@ -12474,7 +12498,7 @@
       </c>
       <c r="G243" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H243" s="2" t="inlineStr">
@@ -12489,688 +12513,688 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B244" s="5" t="inlineStr">
+      <c r="A244" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B244" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C244" s="5" t="inlineStr">
+      <c r="C244" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D244" s="5" t="inlineStr">
+      <c r="D244" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E244" s="5" t="inlineStr">
+      <c r="E244" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F244" s="5" t="inlineStr">
+      <c r="F244" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G244" s="5" t="inlineStr"/>
-      <c r="H244" s="5" t="inlineStr">
+      <c r="G244" s="6" t="inlineStr"/>
+      <c r="H244" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I244" s="5" t="inlineStr">
+      <c r="I244" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B245" s="5" t="inlineStr">
+      <c r="A245" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B245" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C245" s="5" t="inlineStr">
+      <c r="C245" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D245" s="5" t="inlineStr">
+      <c r="D245" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E245" s="5" t="inlineStr">
+      <c r="E245" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F245" s="5" t="inlineStr">
+      <c r="F245" s="6" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G245" s="5" t="inlineStr"/>
-      <c r="H245" s="5" t="inlineStr">
+      <c r="G245" s="6" t="inlineStr"/>
+      <c r="H245" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I245" s="5" t="inlineStr">
+      <c r="I245" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B246" s="6" t="inlineStr">
+      <c r="A246" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B246" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C246" s="6" t="inlineStr">
+      <c r="C246" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D246" s="6" t="inlineStr">
+      <c r="D246" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E246" s="6" t="inlineStr">
+      <c r="E246" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F246" s="6" t="inlineStr">
+      <c r="F246" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G246" s="6" t="inlineStr"/>
-      <c r="H246" s="6" t="inlineStr">
+      <c r="G246" s="5" t="inlineStr"/>
+      <c r="H246" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I246" s="6" t="inlineStr">
+      <c r="I246" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B247" s="6" t="inlineStr">
+      <c r="A247" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B247" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C247" s="6" t="inlineStr">
+      <c r="C247" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D247" s="6" t="inlineStr">
+      <c r="D247" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E247" s="6" t="inlineStr">
+      <c r="E247" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F247" s="6" t="inlineStr">
+      <c r="F247" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G247" s="6" t="inlineStr"/>
-      <c r="H247" s="6" t="inlineStr">
+      <c r="G247" s="5" t="inlineStr"/>
+      <c r="H247" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I247" s="6" t="inlineStr">
+      <c r="I247" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="5" t="inlineStr">
+      <c r="A248" s="6" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B248" s="5" t="inlineStr">
+      <c r="B248" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C248" s="5" t="inlineStr">
+      <c r="C248" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D248" s="5" t="inlineStr">
+      <c r="D248" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E248" s="5" t="inlineStr">
+      <c r="E248" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F248" s="5" t="inlineStr">
+      <c r="F248" s="6" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G248" s="5" t="inlineStr"/>
-      <c r="H248" s="5" t="inlineStr">
+      <c r="G248" s="6" t="inlineStr"/>
+      <c r="H248" s="6" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I248" s="5" t="inlineStr">
+      <c r="I248" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="5" t="inlineStr">
+      <c r="A249" s="6" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B249" s="5" t="inlineStr">
+      <c r="B249" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C249" s="5" t="inlineStr">
+      <c r="C249" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D249" s="5" t="inlineStr">
+      <c r="D249" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E249" s="5" t="inlineStr">
+      <c r="E249" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F249" s="5" t="inlineStr">
+      <c r="F249" s="6" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G249" s="5" t="inlineStr"/>
-      <c r="H249" s="5" t="inlineStr">
+      <c r="G249" s="6" t="inlineStr"/>
+      <c r="H249" s="6" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I249" s="5" t="inlineStr">
+      <c r="I249" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="5" t="inlineStr">
+      <c r="A250" s="6" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B250" s="5" t="inlineStr">
+      <c r="B250" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C250" s="5" t="inlineStr">
+      <c r="C250" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D250" s="5" t="inlineStr">
+      <c r="D250" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E250" s="5" t="inlineStr">
+      <c r="E250" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F250" s="5" t="inlineStr">
+      <c r="F250" s="6" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G250" s="5" t="inlineStr"/>
-      <c r="H250" s="5" t="inlineStr">
+      <c r="G250" s="6" t="inlineStr"/>
+      <c r="H250" s="6" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I250" s="5" t="inlineStr">
+      <c r="I250" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="5" t="inlineStr">
+      <c r="A251" s="6" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B251" s="5" t="inlineStr">
+      <c r="B251" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C251" s="5" t="inlineStr">
+      <c r="C251" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D251" s="5" t="inlineStr">
+      <c r="D251" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E251" s="5" t="inlineStr">
+      <c r="E251" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F251" s="5" t="inlineStr">
+      <c r="F251" s="6" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G251" s="5" t="inlineStr"/>
-      <c r="H251" s="5" t="inlineStr">
+      <c r="G251" s="6" t="inlineStr"/>
+      <c r="H251" s="6" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I251" s="5" t="inlineStr">
+      <c r="I251" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="5" t="inlineStr">
+      <c r="A252" s="6" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B252" s="5" t="inlineStr">
+      <c r="B252" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C252" s="5" t="inlineStr">
+      <c r="C252" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D252" s="5" t="inlineStr">
+      <c r="D252" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E252" s="5" t="inlineStr">
+      <c r="E252" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F252" s="5" t="inlineStr">
+      <c r="F252" s="6" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G252" s="5" t="inlineStr"/>
-      <c r="H252" s="5" t="inlineStr">
+      <c r="G252" s="6" t="inlineStr"/>
+      <c r="H252" s="6" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I252" s="5" t="inlineStr">
+      <c r="I252" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="5" t="inlineStr">
+      <c r="A253" s="6" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B253" s="5" t="inlineStr">
+      <c r="B253" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C253" s="5" t="inlineStr">
+      <c r="C253" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D253" s="5" t="inlineStr">
+      <c r="D253" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E253" s="5" t="inlineStr">
+      <c r="E253" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F253" s="5" t="inlineStr">
+      <c r="F253" s="6" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G253" s="5" t="inlineStr"/>
-      <c r="H253" s="5" t="inlineStr">
+      <c r="G253" s="6" t="inlineStr"/>
+      <c r="H253" s="6" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I253" s="5" t="inlineStr">
+      <c r="I253" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="5" t="inlineStr">
+      <c r="A254" s="6" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B254" s="5" t="inlineStr">
+      <c r="B254" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C254" s="5" t="inlineStr">
+      <c r="C254" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D254" s="5" t="inlineStr">
+      <c r="D254" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E254" s="5" t="inlineStr">
+      <c r="E254" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F254" s="5" t="inlineStr">
+      <c r="F254" s="6" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G254" s="5" t="inlineStr"/>
-      <c r="H254" s="5" t="inlineStr">
+      <c r="G254" s="6" t="inlineStr"/>
+      <c r="H254" s="6" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I254" s="5" t="inlineStr">
+      <c r="I254" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="5" t="inlineStr">
+      <c r="A255" s="6" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B255" s="5" t="inlineStr">
+      <c r="B255" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C255" s="5" t="inlineStr">
+      <c r="C255" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D255" s="5" t="inlineStr">
+      <c r="D255" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E255" s="5" t="inlineStr">
+      <c r="E255" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F255" s="5" t="inlineStr">
+      <c r="F255" s="6" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G255" s="5" t="inlineStr"/>
-      <c r="H255" s="5" t="inlineStr">
+      <c r="G255" s="6" t="inlineStr"/>
+      <c r="H255" s="6" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I255" s="5" t="inlineStr">
+      <c r="I255" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="5" t="inlineStr">
+      <c r="A256" s="6" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B256" s="5" t="inlineStr">
+      <c r="B256" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C256" s="5" t="inlineStr">
+      <c r="C256" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D256" s="5" t="inlineStr">
+      <c r="D256" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E256" s="5" t="inlineStr">
+      <c r="E256" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F256" s="5" t="inlineStr">
+      <c r="F256" s="6" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G256" s="5" t="inlineStr"/>
-      <c r="H256" s="5" t="inlineStr">
+      <c r="G256" s="6" t="inlineStr"/>
+      <c r="H256" s="6" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I256" s="5" t="inlineStr">
+      <c r="I256" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="5" t="inlineStr">
+      <c r="A257" s="6" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B257" s="5" t="inlineStr">
+      <c r="B257" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C257" s="5" t="inlineStr">
+      <c r="C257" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D257" s="5" t="inlineStr">
+      <c r="D257" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E257" s="5" t="inlineStr">
+      <c r="E257" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F257" s="5" t="inlineStr">
+      <c r="F257" s="6" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G257" s="5" t="inlineStr"/>
-      <c r="H257" s="5" t="inlineStr">
+      <c r="G257" s="6" t="inlineStr"/>
+      <c r="H257" s="6" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I257" s="5" t="inlineStr">
+      <c r="I257" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="5" t="inlineStr">
+      <c r="A258" s="6" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B258" s="5" t="inlineStr">
+      <c r="B258" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C258" s="5" t="inlineStr">
+      <c r="C258" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D258" s="5" t="inlineStr">
+      <c r="D258" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E258" s="5" t="inlineStr">
+      <c r="E258" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F258" s="5" t="inlineStr">
+      <c r="F258" s="6" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G258" s="5" t="inlineStr"/>
-      <c r="H258" s="5" t="inlineStr">
+      <c r="G258" s="6" t="inlineStr"/>
+      <c r="H258" s="6" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I258" s="5" t="inlineStr">
+      <c r="I258" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="5" t="inlineStr">
+      <c r="A259" s="6" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B259" s="5" t="inlineStr">
+      <c r="B259" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C259" s="5" t="inlineStr">
+      <c r="C259" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D259" s="5" t="inlineStr">
+      <c r="D259" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E259" s="5" t="inlineStr">
+      <c r="E259" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F259" s="5" t="inlineStr">
+      <c r="F259" s="6" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G259" s="5" t="inlineStr"/>
-      <c r="H259" s="5" t="inlineStr">
+      <c r="G259" s="6" t="inlineStr"/>
+      <c r="H259" s="6" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I259" s="5" t="inlineStr">
+      <c r="I259" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -58,14 +58,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFE0"/>
-        <bgColor rgb="00FFFFE0"/>
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFB6C1"/>
-        <bgColor rgb="00FFB6C1"/>
+        <fgColor rgb="00FFFFE0"/>
+        <bgColor rgb="00FFFFE0"/>
       </patternFill>
     </fill>
   </fills>
@@ -102,10 +102,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -1028,192 +1028,192 @@
       </c>
       <c r="I10" s="5" t="inlineStr">
         <is>
+          <t>Not Recorded</t>
+        </is>
+      </c>
+      <c r="K10" s="4" t="inlineStr">
+        <is>
+          <t>Average Attendance %</t>
+        </is>
+      </c>
+      <c r="L10" s="4" t="inlineStr">
+        <is>
+          <t>79.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>B1-1</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr">
+        <is>
+          <t>0/28</t>
+        </is>
+      </c>
+      <c r="I11" s="6" t="inlineStr">
+        <is>
           <t>Pending</t>
         </is>
       </c>
-      <c r="K10" s="4" t="inlineStr">
-        <is>
-          <t>Average Attendance %</t>
-        </is>
-      </c>
-      <c r="L10" s="4" t="inlineStr">
-        <is>
-          <t>79.2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I11" s="5" t="inlineStr">
+      <c r="I12" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G13" s="6" t="inlineStr"/>
+      <c r="H13" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I12" s="5" t="inlineStr">
+      <c r="I13" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>Group Statistics</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I13" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>Group Statistics</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>B1-1</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I14" s="5" t="inlineStr">
+      <c r="I14" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1330,10 +1330,10 @@
         <v>11</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1511,43 +1511,43 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D18" s="6" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E18" s="6" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F18" s="6" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G18" s="6" t="inlineStr"/>
-      <c r="H18" s="6" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr"/>
+      <c r="H18" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I18" s="6" t="inlineStr">
+      <c r="I18" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -1589,43 +1589,43 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D19" s="6" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E19" s="6" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F19" s="6" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G19" s="6" t="inlineStr"/>
-      <c r="H19" s="6" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr"/>
+      <c r="H19" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I19" s="6" t="inlineStr">
+      <c r="I19" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -1650,10 +1650,10 @@
         <v>11</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1667,43 +1667,43 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D20" s="5" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="E20" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="F20" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr">
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I20" s="5" t="inlineStr">
+      <c r="I20" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1728,10 +1728,10 @@
         <v>11</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1745,43 +1745,43 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D21" s="5" t="inlineStr">
+      <c r="D21" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="E21" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="F21" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr">
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I21" s="5" t="inlineStr">
+      <c r="I21" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1806,10 +1806,10 @@
         <v>11</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1888,10 +1888,10 @@
         <v>11</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1970,10 +1970,10 @@
         <v>11</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2479,43 +2479,43 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D30" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="E30" s="6" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr"/>
-      <c r="H30" s="5" t="inlineStr">
+      <c r="F30" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G30" s="6" t="inlineStr"/>
+      <c r="H30" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I30" s="5" t="inlineStr">
+      <c r="I30" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2557,43 +2557,43 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D31" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="E31" s="6" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G31" s="5" t="inlineStr"/>
-      <c r="H31" s="5" t="inlineStr">
+      <c r="F31" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G31" s="6" t="inlineStr"/>
+      <c r="H31" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I31" s="5" t="inlineStr">
+      <c r="I31" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2635,43 +2635,43 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B32" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D32" s="5" t="inlineStr">
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D32" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E32" s="5" t="inlineStr">
+      <c r="E32" s="6" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F32" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G32" s="5" t="inlineStr"/>
-      <c r="H32" s="5" t="inlineStr">
+      <c r="F32" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G32" s="6" t="inlineStr"/>
+      <c r="H32" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I32" s="5" t="inlineStr">
+      <c r="I32" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2713,43 +2713,43 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D33" s="5" t="inlineStr">
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D33" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="E33" s="6" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G33" s="5" t="inlineStr"/>
-      <c r="H33" s="5" t="inlineStr">
+      <c r="F33" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G33" s="6" t="inlineStr"/>
+      <c r="H33" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I33" s="5" t="inlineStr">
+      <c r="I33" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2791,43 +2791,43 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B34" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C34" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D34" s="5" t="inlineStr">
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D34" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E34" s="5" t="inlineStr">
+      <c r="E34" s="6" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F34" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G34" s="5" t="inlineStr"/>
-      <c r="H34" s="5" t="inlineStr">
+      <c r="F34" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G34" s="6" t="inlineStr"/>
+      <c r="H34" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I34" s="5" t="inlineStr">
+      <c r="I34" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2869,43 +2869,43 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B35" s="5" t="inlineStr">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B35" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C35" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D35" s="5" t="inlineStr">
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D35" s="6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E35" s="5" t="inlineStr">
+      <c r="E35" s="6" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F35" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G35" s="5" t="inlineStr"/>
-      <c r="H35" s="5" t="inlineStr">
+      <c r="F35" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G35" s="6" t="inlineStr"/>
+      <c r="H35" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I35" s="5" t="inlineStr">
+      <c r="I35" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -3193,129 +3193,129 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B39" s="6" t="inlineStr">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C39" s="6" t="inlineStr">
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D39" s="6" t="inlineStr">
+      <c r="D39" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E39" s="6" t="inlineStr">
+      <c r="E39" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F39" s="6" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G39" s="6" t="inlineStr"/>
-      <c r="H39" s="6" t="inlineStr">
+      <c r="G39" s="5" t="inlineStr"/>
+      <c r="H39" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I39" s="6" t="inlineStr">
+      <c r="I39" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B40" s="6" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C40" s="6" t="inlineStr">
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D40" s="6" t="inlineStr">
+      <c r="D40" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E40" s="6" t="inlineStr">
+      <c r="E40" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F40" s="6" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G40" s="6" t="inlineStr"/>
-      <c r="H40" s="6" t="inlineStr">
+      <c r="G40" s="5" t="inlineStr"/>
+      <c r="H40" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I40" s="6" t="inlineStr">
+      <c r="I40" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B41" s="5" t="inlineStr">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B41" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C41" s="5" t="inlineStr">
+      <c r="C41" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D41" s="5" t="inlineStr">
+      <c r="D41" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E41" s="5" t="inlineStr">
+      <c r="E41" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F41" s="5" t="inlineStr">
+      <c r="F41" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G41" s="5" t="inlineStr"/>
-      <c r="H41" s="5" t="inlineStr">
+      <c r="G41" s="6" t="inlineStr"/>
+      <c r="H41" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I41" s="5" t="inlineStr">
+      <c r="I41" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -3327,43 +3327,43 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B42" s="5" t="inlineStr">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B42" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C42" s="5" t="inlineStr">
+      <c r="C42" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D42" s="5" t="inlineStr">
+      <c r="D42" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E42" s="5" t="inlineStr">
+      <c r="E42" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F42" s="5" t="inlineStr">
+      <c r="F42" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G42" s="5" t="inlineStr"/>
-      <c r="H42" s="5" t="inlineStr">
+      <c r="G42" s="6" t="inlineStr"/>
+      <c r="H42" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I42" s="5" t="inlineStr">
+      <c r="I42" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -3806,258 +3806,258 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B51" s="5" t="inlineStr">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C51" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D51" s="5" t="inlineStr">
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E51" s="5" t="inlineStr">
+      <c r="E51" s="6" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F51" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G51" s="5" t="inlineStr"/>
-      <c r="H51" s="5" t="inlineStr">
+      <c r="F51" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G51" s="6" t="inlineStr"/>
+      <c r="H51" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I51" s="5" t="inlineStr">
+      <c r="I51" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C52" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D52" s="5" t="inlineStr">
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D52" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E52" s="5" t="inlineStr">
+      <c r="E52" s="6" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F52" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G52" s="5" t="inlineStr"/>
-      <c r="H52" s="5" t="inlineStr">
+      <c r="F52" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G52" s="6" t="inlineStr"/>
+      <c r="H52" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I52" s="5" t="inlineStr">
+      <c r="I52" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B53" s="5" t="inlineStr">
+      <c r="A53" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C53" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D53" s="5" t="inlineStr">
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D53" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E53" s="5" t="inlineStr">
+      <c r="E53" s="6" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F53" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G53" s="5" t="inlineStr"/>
-      <c r="H53" s="5" t="inlineStr">
+      <c r="F53" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G53" s="6" t="inlineStr"/>
+      <c r="H53" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I53" s="5" t="inlineStr">
+      <c r="I53" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B54" s="5" t="inlineStr">
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B54" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C54" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D54" s="5" t="inlineStr">
+      <c r="C54" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D54" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E54" s="5" t="inlineStr">
+      <c r="E54" s="6" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F54" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G54" s="5" t="inlineStr"/>
-      <c r="H54" s="5" t="inlineStr">
+      <c r="F54" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G54" s="6" t="inlineStr"/>
+      <c r="H54" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I54" s="5" t="inlineStr">
+      <c r="I54" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B55" s="5" t="inlineStr">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C55" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D55" s="5" t="inlineStr">
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D55" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E55" s="5" t="inlineStr">
+      <c r="E55" s="6" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F55" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G55" s="5" t="inlineStr"/>
-      <c r="H55" s="5" t="inlineStr">
+      <c r="F55" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G55" s="6" t="inlineStr"/>
+      <c r="H55" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I55" s="5" t="inlineStr">
+      <c r="I55" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B56" s="5" t="inlineStr">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B56" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C56" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D56" s="5" t="inlineStr">
+      <c r="C56" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D56" s="6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E56" s="5" t="inlineStr">
+      <c r="E56" s="6" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F56" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G56" s="5" t="inlineStr"/>
-      <c r="H56" s="5" t="inlineStr">
+      <c r="F56" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G56" s="6" t="inlineStr"/>
+      <c r="H56" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I56" s="5" t="inlineStr">
+      <c r="I56" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -4205,172 +4205,172 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B60" s="6" t="inlineStr">
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B60" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C60" s="6" t="inlineStr">
+      <c r="C60" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D60" s="6" t="inlineStr">
+      <c r="D60" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E60" s="6" t="inlineStr">
+      <c r="E60" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F60" s="6" t="inlineStr">
+      <c r="F60" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G60" s="6" t="inlineStr"/>
-      <c r="H60" s="6" t="inlineStr">
+      <c r="G60" s="5" t="inlineStr"/>
+      <c r="H60" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I60" s="6" t="inlineStr">
+      <c r="I60" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B61" s="6" t="inlineStr">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B61" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C61" s="6" t="inlineStr">
+      <c r="C61" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D61" s="6" t="inlineStr">
+      <c r="D61" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E61" s="6" t="inlineStr">
+      <c r="E61" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F61" s="6" t="inlineStr">
+      <c r="F61" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G61" s="6" t="inlineStr"/>
-      <c r="H61" s="6" t="inlineStr">
+      <c r="G61" s="5" t="inlineStr"/>
+      <c r="H61" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I61" s="6" t="inlineStr">
+      <c r="I61" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B62" s="5" t="inlineStr">
+      <c r="A62" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B62" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C62" s="5" t="inlineStr">
+      <c r="C62" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D62" s="5" t="inlineStr">
+      <c r="D62" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E62" s="5" t="inlineStr">
+      <c r="E62" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F62" s="5" t="inlineStr">
+      <c r="F62" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G62" s="5" t="inlineStr"/>
-      <c r="H62" s="5" t="inlineStr">
+      <c r="G62" s="6" t="inlineStr"/>
+      <c r="H62" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I62" s="5" t="inlineStr">
+      <c r="I62" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B63" s="5" t="inlineStr">
+      <c r="A63" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B63" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C63" s="5" t="inlineStr">
+      <c r="C63" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D63" s="5" t="inlineStr">
+      <c r="D63" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E63" s="5" t="inlineStr">
+      <c r="E63" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F63" s="5" t="inlineStr">
+      <c r="F63" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G63" s="5" t="inlineStr"/>
-      <c r="H63" s="5" t="inlineStr">
+      <c r="G63" s="6" t="inlineStr"/>
+      <c r="H63" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I63" s="5" t="inlineStr">
+      <c r="I63" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -4753,258 +4753,258 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B72" s="5" t="inlineStr">
+      <c r="A72" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B72" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C72" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D72" s="5" t="inlineStr">
+      <c r="C72" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D72" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E72" s="5" t="inlineStr">
+      <c r="E72" s="6" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F72" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G72" s="5" t="inlineStr"/>
-      <c r="H72" s="5" t="inlineStr">
+      <c r="F72" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G72" s="6" t="inlineStr"/>
+      <c r="H72" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I72" s="5" t="inlineStr">
+      <c r="I72" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B73" s="5" t="inlineStr">
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C73" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D73" s="5" t="inlineStr">
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E73" s="5" t="inlineStr">
+      <c r="E73" s="6" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F73" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G73" s="5" t="inlineStr"/>
-      <c r="H73" s="5" t="inlineStr">
+      <c r="F73" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G73" s="6" t="inlineStr"/>
+      <c r="H73" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I73" s="5" t="inlineStr">
+      <c r="I73" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B74" s="5" t="inlineStr">
+      <c r="A74" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B74" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C74" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D74" s="5" t="inlineStr">
+      <c r="C74" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D74" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E74" s="5" t="inlineStr">
+      <c r="E74" s="6" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F74" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G74" s="5" t="inlineStr"/>
-      <c r="H74" s="5" t="inlineStr">
+      <c r="F74" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G74" s="6" t="inlineStr"/>
+      <c r="H74" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I74" s="5" t="inlineStr">
+      <c r="I74" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B75" s="5" t="inlineStr">
+      <c r="A75" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B75" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C75" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D75" s="5" t="inlineStr">
+      <c r="C75" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D75" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E75" s="5" t="inlineStr">
+      <c r="E75" s="6" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F75" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G75" s="5" t="inlineStr"/>
-      <c r="H75" s="5" t="inlineStr">
+      <c r="F75" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G75" s="6" t="inlineStr"/>
+      <c r="H75" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I75" s="5" t="inlineStr">
+      <c r="I75" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B76" s="5" t="inlineStr">
+      <c r="A76" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B76" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C76" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D76" s="5" t="inlineStr">
+      <c r="C76" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D76" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E76" s="5" t="inlineStr">
+      <c r="E76" s="6" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F76" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G76" s="5" t="inlineStr"/>
-      <c r="H76" s="5" t="inlineStr">
+      <c r="F76" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G76" s="6" t="inlineStr"/>
+      <c r="H76" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I76" s="5" t="inlineStr">
+      <c r="I76" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B77" s="5" t="inlineStr">
+      <c r="A77" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B77" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C77" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D77" s="5" t="inlineStr">
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D77" s="6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E77" s="5" t="inlineStr">
+      <c r="E77" s="6" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F77" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G77" s="5" t="inlineStr"/>
-      <c r="H77" s="5" t="inlineStr">
+      <c r="F77" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G77" s="6" t="inlineStr"/>
+      <c r="H77" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I77" s="5" t="inlineStr">
+      <c r="I77" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -5152,172 +5152,172 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B81" s="6" t="inlineStr">
+      <c r="A81" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B81" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C81" s="6" t="inlineStr">
+      <c r="C81" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D81" s="6" t="inlineStr">
+      <c r="D81" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E81" s="6" t="inlineStr">
+      <c r="E81" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F81" s="6" t="inlineStr">
+      <c r="F81" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G81" s="6" t="inlineStr"/>
-      <c r="H81" s="6" t="inlineStr">
+      <c r="G81" s="5" t="inlineStr"/>
+      <c r="H81" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I81" s="6" t="inlineStr">
+      <c r="I81" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B82" s="6" t="inlineStr">
+      <c r="A82" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B82" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C82" s="6" t="inlineStr">
+      <c r="C82" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D82" s="6" t="inlineStr">
+      <c r="D82" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E82" s="6" t="inlineStr">
+      <c r="E82" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F82" s="6" t="inlineStr">
+      <c r="F82" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G82" s="6" t="inlineStr"/>
-      <c r="H82" s="6" t="inlineStr">
+      <c r="G82" s="5" t="inlineStr"/>
+      <c r="H82" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I82" s="6" t="inlineStr">
+      <c r="I82" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B83" s="5" t="inlineStr">
+      <c r="A83" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B83" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C83" s="5" t="inlineStr">
+      <c r="C83" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D83" s="5" t="inlineStr">
+      <c r="D83" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E83" s="5" t="inlineStr">
+      <c r="E83" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F83" s="5" t="inlineStr">
+      <c r="F83" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G83" s="5" t="inlineStr"/>
-      <c r="H83" s="5" t="inlineStr">
+      <c r="G83" s="6" t="inlineStr"/>
+      <c r="H83" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I83" s="5" t="inlineStr">
+      <c r="I83" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B84" s="5" t="inlineStr">
+      <c r="A84" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B84" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C84" s="5" t="inlineStr">
+      <c r="C84" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D84" s="5" t="inlineStr">
+      <c r="D84" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E84" s="5" t="inlineStr">
+      <c r="E84" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F84" s="5" t="inlineStr">
+      <c r="F84" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G84" s="5" t="inlineStr"/>
-      <c r="H84" s="5" t="inlineStr">
+      <c r="G84" s="6" t="inlineStr"/>
+      <c r="H84" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I84" s="5" t="inlineStr">
+      <c r="I84" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -5738,177 +5738,177 @@
       </c>
       <c r="I93" s="5" t="inlineStr">
         <is>
+          <t>Not Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B94" s="6" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C94" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D94" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E94" s="6" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F94" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G94" s="6" t="inlineStr"/>
+      <c r="H94" s="6" t="inlineStr">
+        <is>
+          <t>0/31</t>
+        </is>
+      </c>
+      <c r="I94" s="6" t="inlineStr">
+        <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B94" s="5" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B95" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C94" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D94" s="5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E94" s="5" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F94" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G94" s="5" t="inlineStr"/>
-      <c r="H94" s="5" t="inlineStr">
+      <c r="C95" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D95" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E95" s="6" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F95" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G95" s="6" t="inlineStr"/>
+      <c r="H95" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I94" s="5" t="inlineStr">
+      <c r="I95" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B95" s="5" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B96" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C95" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D95" s="5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E95" s="5" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F95" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G95" s="5" t="inlineStr"/>
-      <c r="H95" s="5" t="inlineStr">
+      <c r="C96" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D96" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E96" s="6" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F96" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G96" s="6" t="inlineStr"/>
+      <c r="H96" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I95" s="5" t="inlineStr">
+      <c r="I96" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B96" s="5" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B97" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C96" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D96" s="5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E96" s="5" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F96" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G96" s="5" t="inlineStr"/>
-      <c r="H96" s="5" t="inlineStr">
+      <c r="C97" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D97" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E97" s="6" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F97" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G97" s="6" t="inlineStr"/>
+      <c r="H97" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I96" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B97" s="5" t="inlineStr">
-        <is>
-          <t>B1-2</t>
-        </is>
-      </c>
-      <c r="C97" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D97" s="5" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E97" s="5" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F97" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G97" s="5" t="inlineStr"/>
-      <c r="H97" s="5" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I97" s="5" t="inlineStr">
+      <c r="I97" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -6056,172 +6056,172 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B101" s="6" t="inlineStr">
+      <c r="A101" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B101" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C101" s="6" t="inlineStr">
+      <c r="C101" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D101" s="6" t="inlineStr">
+      <c r="D101" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E101" s="6" t="inlineStr">
+      <c r="E101" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F101" s="6" t="inlineStr">
+      <c r="F101" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G101" s="6" t="inlineStr"/>
-      <c r="H101" s="6" t="inlineStr">
+      <c r="G101" s="5" t="inlineStr"/>
+      <c r="H101" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I101" s="6" t="inlineStr">
+      <c r="I101" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B102" s="6" t="inlineStr">
+      <c r="A102" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B102" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C102" s="6" t="inlineStr">
+      <c r="C102" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D102" s="6" t="inlineStr">
+      <c r="D102" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E102" s="6" t="inlineStr">
+      <c r="E102" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F102" s="6" t="inlineStr">
+      <c r="F102" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G102" s="6" t="inlineStr"/>
-      <c r="H102" s="6" t="inlineStr">
+      <c r="G102" s="5" t="inlineStr"/>
+      <c r="H102" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I102" s="6" t="inlineStr">
+      <c r="I102" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B103" s="5" t="inlineStr">
+      <c r="A103" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B103" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C103" s="5" t="inlineStr">
+      <c r="C103" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D103" s="5" t="inlineStr">
+      <c r="D103" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E103" s="5" t="inlineStr">
+      <c r="E103" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F103" s="5" t="inlineStr">
+      <c r="F103" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G103" s="5" t="inlineStr"/>
-      <c r="H103" s="5" t="inlineStr">
+      <c r="G103" s="6" t="inlineStr"/>
+      <c r="H103" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I103" s="5" t="inlineStr">
+      <c r="I103" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B104" s="5" t="inlineStr">
+      <c r="A104" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B104" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C104" s="5" t="inlineStr">
+      <c r="C104" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D104" s="5" t="inlineStr">
+      <c r="D104" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E104" s="5" t="inlineStr">
+      <c r="E104" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F104" s="5" t="inlineStr">
+      <c r="F104" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G104" s="5" t="inlineStr"/>
-      <c r="H104" s="5" t="inlineStr">
+      <c r="G104" s="6" t="inlineStr"/>
+      <c r="H104" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I104" s="5" t="inlineStr">
+      <c r="I104" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -6642,177 +6642,177 @@
       </c>
       <c r="I113" s="5" t="inlineStr">
         <is>
+          <t>Not Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B114" s="6" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C114" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D114" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E114" s="6" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F114" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G114" s="6" t="inlineStr"/>
+      <c r="H114" s="6" t="inlineStr">
+        <is>
+          <t>0/28</t>
+        </is>
+      </c>
+      <c r="I114" s="6" t="inlineStr">
+        <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B114" s="5" t="inlineStr">
+    <row r="115">
+      <c r="A115" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B115" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C114" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D114" s="5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E114" s="5" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F114" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G114" s="5" t="inlineStr"/>
-      <c r="H114" s="5" t="inlineStr">
+      <c r="C115" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D115" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E115" s="6" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F115" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G115" s="6" t="inlineStr"/>
+      <c r="H115" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I114" s="5" t="inlineStr">
+      <c r="I115" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B115" s="5" t="inlineStr">
+    <row r="116">
+      <c r="A116" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B116" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C115" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D115" s="5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E115" s="5" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F115" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G115" s="5" t="inlineStr"/>
-      <c r="H115" s="5" t="inlineStr">
+      <c r="C116" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D116" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E116" s="6" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F116" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G116" s="6" t="inlineStr"/>
+      <c r="H116" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I115" s="5" t="inlineStr">
+      <c r="I116" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B116" s="5" t="inlineStr">
+    <row r="117">
+      <c r="A117" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B117" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C116" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D116" s="5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E116" s="5" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F116" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G116" s="5" t="inlineStr"/>
-      <c r="H116" s="5" t="inlineStr">
+      <c r="C117" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D117" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E117" s="6" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F117" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G117" s="6" t="inlineStr"/>
+      <c r="H117" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I116" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B117" s="5" t="inlineStr">
-        <is>
-          <t>B1-3</t>
-        </is>
-      </c>
-      <c r="C117" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D117" s="5" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E117" s="5" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F117" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G117" s="5" t="inlineStr"/>
-      <c r="H117" s="5" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I117" s="5" t="inlineStr">
+      <c r="I117" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -6960,172 +6960,172 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B121" s="6" t="inlineStr">
+      <c r="A121" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B121" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C121" s="6" t="inlineStr">
+      <c r="C121" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D121" s="6" t="inlineStr">
+      <c r="D121" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E121" s="6" t="inlineStr">
+      <c r="E121" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F121" s="6" t="inlineStr">
+      <c r="F121" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G121" s="6" t="inlineStr"/>
-      <c r="H121" s="6" t="inlineStr">
+      <c r="G121" s="5" t="inlineStr"/>
+      <c r="H121" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I121" s="6" t="inlineStr">
+      <c r="I121" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B122" s="6" t="inlineStr">
+      <c r="A122" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B122" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C122" s="6" t="inlineStr">
+      <c r="C122" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D122" s="6" t="inlineStr">
+      <c r="D122" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E122" s="6" t="inlineStr">
+      <c r="E122" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F122" s="6" t="inlineStr">
+      <c r="F122" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G122" s="6" t="inlineStr"/>
-      <c r="H122" s="6" t="inlineStr">
+      <c r="G122" s="5" t="inlineStr"/>
+      <c r="H122" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I122" s="6" t="inlineStr">
+      <c r="I122" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B123" s="5" t="inlineStr">
+      <c r="A123" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B123" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C123" s="5" t="inlineStr">
+      <c r="C123" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D123" s="5" t="inlineStr">
+      <c r="D123" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E123" s="5" t="inlineStr">
+      <c r="E123" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F123" s="5" t="inlineStr">
+      <c r="F123" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G123" s="5" t="inlineStr"/>
-      <c r="H123" s="5" t="inlineStr">
+      <c r="G123" s="6" t="inlineStr"/>
+      <c r="H123" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I123" s="5" t="inlineStr">
+      <c r="I123" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B124" s="5" t="inlineStr">
+      <c r="A124" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B124" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C124" s="5" t="inlineStr">
+      <c r="C124" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D124" s="5" t="inlineStr">
+      <c r="D124" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E124" s="5" t="inlineStr">
+      <c r="E124" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F124" s="5" t="inlineStr">
+      <c r="F124" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G124" s="5" t="inlineStr"/>
-      <c r="H124" s="5" t="inlineStr">
+      <c r="G124" s="6" t="inlineStr"/>
+      <c r="H124" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I124" s="5" t="inlineStr">
+      <c r="I124" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -7546,177 +7546,177 @@
       </c>
       <c r="I133" s="5" t="inlineStr">
         <is>
+          <t>Not Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B134" s="6" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C134" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D134" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E134" s="6" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F134" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G134" s="6" t="inlineStr"/>
+      <c r="H134" s="6" t="inlineStr">
+        <is>
+          <t>0/29</t>
+        </is>
+      </c>
+      <c r="I134" s="6" t="inlineStr">
+        <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B134" s="5" t="inlineStr">
+    <row r="135">
+      <c r="A135" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B135" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C134" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D134" s="5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E134" s="5" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F134" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G134" s="5" t="inlineStr"/>
-      <c r="H134" s="5" t="inlineStr">
+      <c r="C135" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D135" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E135" s="6" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F135" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G135" s="6" t="inlineStr"/>
+      <c r="H135" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I134" s="5" t="inlineStr">
+      <c r="I135" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B135" s="5" t="inlineStr">
+    <row r="136">
+      <c r="A136" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B136" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C135" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D135" s="5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E135" s="5" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F135" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G135" s="5" t="inlineStr"/>
-      <c r="H135" s="5" t="inlineStr">
+      <c r="C136" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D136" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E136" s="6" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F136" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G136" s="6" t="inlineStr"/>
+      <c r="H136" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I135" s="5" t="inlineStr">
+      <c r="I136" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B136" s="5" t="inlineStr">
+    <row r="137">
+      <c r="A137" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B137" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C136" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D136" s="5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E136" s="5" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F136" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G136" s="5" t="inlineStr"/>
-      <c r="H136" s="5" t="inlineStr">
+      <c r="C137" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D137" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E137" s="6" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F137" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G137" s="6" t="inlineStr"/>
+      <c r="H137" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I136" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B137" s="5" t="inlineStr">
-        <is>
-          <t>B1-4</t>
-        </is>
-      </c>
-      <c r="C137" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D137" s="5" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E137" s="5" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F137" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G137" s="5" t="inlineStr"/>
-      <c r="H137" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I137" s="5" t="inlineStr">
+      <c r="I137" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -7864,172 +7864,172 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B141" s="6" t="inlineStr">
+      <c r="A141" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B141" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C141" s="6" t="inlineStr">
+      <c r="C141" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D141" s="6" t="inlineStr">
+      <c r="D141" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E141" s="6" t="inlineStr">
+      <c r="E141" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F141" s="6" t="inlineStr">
+      <c r="F141" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G141" s="6" t="inlineStr"/>
-      <c r="H141" s="6" t="inlineStr">
+      <c r="G141" s="5" t="inlineStr"/>
+      <c r="H141" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I141" s="6" t="inlineStr">
+      <c r="I141" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B142" s="6" t="inlineStr">
+      <c r="A142" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B142" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C142" s="6" t="inlineStr">
+      <c r="C142" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D142" s="6" t="inlineStr">
+      <c r="D142" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E142" s="6" t="inlineStr">
+      <c r="E142" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F142" s="6" t="inlineStr">
+      <c r="F142" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G142" s="6" t="inlineStr"/>
-      <c r="H142" s="6" t="inlineStr">
+      <c r="G142" s="5" t="inlineStr"/>
+      <c r="H142" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I142" s="6" t="inlineStr">
+      <c r="I142" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B143" s="5" t="inlineStr">
+      <c r="A143" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B143" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C143" s="5" t="inlineStr">
+      <c r="C143" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D143" s="5" t="inlineStr">
+      <c r="D143" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E143" s="5" t="inlineStr">
+      <c r="E143" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F143" s="5" t="inlineStr">
+      <c r="F143" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G143" s="5" t="inlineStr"/>
-      <c r="H143" s="5" t="inlineStr">
+      <c r="G143" s="6" t="inlineStr"/>
+      <c r="H143" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I143" s="5" t="inlineStr">
+      <c r="I143" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B144" s="5" t="inlineStr">
+      <c r="A144" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B144" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C144" s="5" t="inlineStr">
+      <c r="C144" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D144" s="5" t="inlineStr">
+      <c r="D144" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E144" s="5" t="inlineStr">
+      <c r="E144" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F144" s="5" t="inlineStr">
+      <c r="F144" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G144" s="5" t="inlineStr"/>
-      <c r="H144" s="5" t="inlineStr">
+      <c r="G144" s="6" t="inlineStr"/>
+      <c r="H144" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I144" s="5" t="inlineStr">
+      <c r="I144" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -8450,177 +8450,177 @@
       </c>
       <c r="I153" s="5" t="inlineStr">
         <is>
+          <t>Not Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B154" s="6" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C154" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D154" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E154" s="6" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F154" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G154" s="6" t="inlineStr"/>
+      <c r="H154" s="6" t="inlineStr">
+        <is>
+          <t>0/33</t>
+        </is>
+      </c>
+      <c r="I154" s="6" t="inlineStr">
+        <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B154" s="5" t="inlineStr">
+    <row r="155">
+      <c r="A155" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B155" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C154" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D154" s="5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E154" s="5" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F154" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G154" s="5" t="inlineStr"/>
-      <c r="H154" s="5" t="inlineStr">
+      <c r="C155" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D155" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E155" s="6" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F155" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G155" s="6" t="inlineStr"/>
+      <c r="H155" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I154" s="5" t="inlineStr">
+      <c r="I155" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B155" s="5" t="inlineStr">
+    <row r="156">
+      <c r="A156" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B156" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C155" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D155" s="5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E155" s="5" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F155" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G155" s="5" t="inlineStr"/>
-      <c r="H155" s="5" t="inlineStr">
+      <c r="C156" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D156" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E156" s="6" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F156" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G156" s="6" t="inlineStr"/>
+      <c r="H156" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I155" s="5" t="inlineStr">
+      <c r="I156" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B156" s="5" t="inlineStr">
+    <row r="157">
+      <c r="A157" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B157" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C156" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D156" s="5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E156" s="5" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F156" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G156" s="5" t="inlineStr"/>
-      <c r="H156" s="5" t="inlineStr">
+      <c r="C157" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D157" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E157" s="6" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F157" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G157" s="6" t="inlineStr"/>
+      <c r="H157" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I156" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B157" s="5" t="inlineStr">
-        <is>
-          <t>B1-5</t>
-        </is>
-      </c>
-      <c r="C157" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D157" s="5" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E157" s="5" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F157" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G157" s="5" t="inlineStr"/>
-      <c r="H157" s="5" t="inlineStr">
-        <is>
-          <t>0/33</t>
-        </is>
-      </c>
-      <c r="I157" s="5" t="inlineStr">
+      <c r="I157" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -8768,172 +8768,172 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B161" s="6" t="inlineStr">
+      <c r="A161" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B161" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C161" s="6" t="inlineStr">
+      <c r="C161" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D161" s="6" t="inlineStr">
+      <c r="D161" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E161" s="6" t="inlineStr">
+      <c r="E161" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F161" s="6" t="inlineStr">
+      <c r="F161" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G161" s="6" t="inlineStr"/>
-      <c r="H161" s="6" t="inlineStr">
+      <c r="G161" s="5" t="inlineStr"/>
+      <c r="H161" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I161" s="6" t="inlineStr">
+      <c r="I161" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B162" s="6" t="inlineStr">
+      <c r="A162" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B162" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C162" s="6" t="inlineStr">
+      <c r="C162" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D162" s="6" t="inlineStr">
+      <c r="D162" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E162" s="6" t="inlineStr">
+      <c r="E162" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F162" s="6" t="inlineStr">
+      <c r="F162" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G162" s="6" t="inlineStr"/>
-      <c r="H162" s="6" t="inlineStr">
+      <c r="G162" s="5" t="inlineStr"/>
+      <c r="H162" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I162" s="6" t="inlineStr">
+      <c r="I162" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B163" s="5" t="inlineStr">
+      <c r="A163" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B163" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C163" s="5" t="inlineStr">
+      <c r="C163" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D163" s="5" t="inlineStr">
+      <c r="D163" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E163" s="5" t="inlineStr">
+      <c r="E163" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F163" s="5" t="inlineStr">
+      <c r="F163" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G163" s="5" t="inlineStr"/>
-      <c r="H163" s="5" t="inlineStr">
+      <c r="G163" s="6" t="inlineStr"/>
+      <c r="H163" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I163" s="5" t="inlineStr">
+      <c r="I163" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B164" s="5" t="inlineStr">
+      <c r="A164" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B164" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C164" s="5" t="inlineStr">
+      <c r="C164" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D164" s="5" t="inlineStr">
+      <c r="D164" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E164" s="5" t="inlineStr">
+      <c r="E164" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F164" s="5" t="inlineStr">
+      <c r="F164" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G164" s="5" t="inlineStr"/>
-      <c r="H164" s="5" t="inlineStr">
+      <c r="G164" s="6" t="inlineStr"/>
+      <c r="H164" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I164" s="5" t="inlineStr">
+      <c r="I164" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -9354,177 +9354,177 @@
       </c>
       <c r="I173" s="5" t="inlineStr">
         <is>
+          <t>Not Recorded</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B174" s="6" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C174" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D174" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E174" s="6" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F174" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G174" s="6" t="inlineStr"/>
+      <c r="H174" s="6" t="inlineStr">
+        <is>
+          <t>0/30</t>
+        </is>
+      </c>
+      <c r="I174" s="6" t="inlineStr">
+        <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B174" s="5" t="inlineStr">
+    <row r="175">
+      <c r="A175" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B175" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C174" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D174" s="5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E174" s="5" t="inlineStr">
-        <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F174" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G174" s="5" t="inlineStr"/>
-      <c r="H174" s="5" t="inlineStr">
+      <c r="C175" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D175" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E175" s="6" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F175" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G175" s="6" t="inlineStr"/>
+      <c r="H175" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I174" s="5" t="inlineStr">
+      <c r="I175" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B175" s="5" t="inlineStr">
+    <row r="176">
+      <c r="A176" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B176" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C175" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D175" s="5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E175" s="5" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F175" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G175" s="5" t="inlineStr"/>
-      <c r="H175" s="5" t="inlineStr">
+      <c r="C176" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D176" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E176" s="6" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F176" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G176" s="6" t="inlineStr"/>
+      <c r="H176" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I175" s="5" t="inlineStr">
+      <c r="I176" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B176" s="5" t="inlineStr">
+    <row r="177">
+      <c r="A177" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B177" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C176" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D176" s="5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E176" s="5" t="inlineStr">
-        <is>
-          <t>20/01/2026</t>
-        </is>
-      </c>
-      <c r="F176" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G176" s="5" t="inlineStr"/>
-      <c r="H176" s="5" t="inlineStr">
+      <c r="C177" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D177" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E177" s="6" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F177" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G177" s="6" t="inlineStr"/>
+      <c r="H177" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I176" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B177" s="5" t="inlineStr">
-        <is>
-          <t>B1-6</t>
-        </is>
-      </c>
-      <c r="C177" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D177" s="5" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E177" s="5" t="inlineStr">
-        <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F177" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G177" s="5" t="inlineStr"/>
-      <c r="H177" s="5" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I177" s="5" t="inlineStr">
+      <c r="I177" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -9672,172 +9672,172 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B181" s="6" t="inlineStr">
+      <c r="A181" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B181" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C181" s="6" t="inlineStr">
+      <c r="C181" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D181" s="6" t="inlineStr">
+      <c r="D181" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E181" s="6" t="inlineStr">
+      <c r="E181" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F181" s="6" t="inlineStr">
+      <c r="F181" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G181" s="6" t="inlineStr"/>
-      <c r="H181" s="6" t="inlineStr">
+      <c r="G181" s="5" t="inlineStr"/>
+      <c r="H181" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I181" s="6" t="inlineStr">
+      <c r="I181" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B182" s="6" t="inlineStr">
+      <c r="A182" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B182" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C182" s="6" t="inlineStr">
+      <c r="C182" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D182" s="6" t="inlineStr">
+      <c r="D182" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E182" s="6" t="inlineStr">
+      <c r="E182" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F182" s="6" t="inlineStr">
+      <c r="F182" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G182" s="6" t="inlineStr"/>
-      <c r="H182" s="6" t="inlineStr">
+      <c r="G182" s="5" t="inlineStr"/>
+      <c r="H182" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I182" s="6" t="inlineStr">
+      <c r="I182" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B183" s="5" t="inlineStr">
+      <c r="A183" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B183" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C183" s="5" t="inlineStr">
+      <c r="C183" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D183" s="5" t="inlineStr">
+      <c r="D183" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E183" s="5" t="inlineStr">
+      <c r="E183" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F183" s="5" t="inlineStr">
+      <c r="F183" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G183" s="5" t="inlineStr"/>
-      <c r="H183" s="5" t="inlineStr">
+      <c r="G183" s="6" t="inlineStr"/>
+      <c r="H183" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I183" s="5" t="inlineStr">
+      <c r="I183" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B184" s="5" t="inlineStr">
+      <c r="A184" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B184" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C184" s="5" t="inlineStr">
+      <c r="C184" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D184" s="5" t="inlineStr">
+      <c r="D184" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E184" s="5" t="inlineStr">
+      <c r="E184" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F184" s="5" t="inlineStr">
+      <c r="F184" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G184" s="5" t="inlineStr"/>
-      <c r="H184" s="5" t="inlineStr">
+      <c r="G184" s="6" t="inlineStr"/>
+      <c r="H184" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I184" s="5" t="inlineStr">
+      <c r="I184" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -10220,258 +10220,258 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B193" s="5" t="inlineStr">
+      <c r="A193" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B193" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C193" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D193" s="5" t="inlineStr">
+      <c r="C193" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D193" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E193" s="5" t="inlineStr">
+      <c r="E193" s="6" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F193" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G193" s="5" t="inlineStr"/>
-      <c r="H193" s="5" t="inlineStr">
+      <c r="F193" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G193" s="6" t="inlineStr"/>
+      <c r="H193" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I193" s="5" t="inlineStr">
+      <c r="I193" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B194" s="5" t="inlineStr">
+      <c r="A194" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B194" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C194" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D194" s="5" t="inlineStr">
+      <c r="C194" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D194" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E194" s="5" t="inlineStr">
+      <c r="E194" s="6" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F194" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G194" s="5" t="inlineStr"/>
-      <c r="H194" s="5" t="inlineStr">
+      <c r="F194" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G194" s="6" t="inlineStr"/>
+      <c r="H194" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I194" s="5" t="inlineStr">
+      <c r="I194" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B195" s="5" t="inlineStr">
+      <c r="A195" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B195" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C195" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D195" s="5" t="inlineStr">
+      <c r="C195" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D195" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E195" s="5" t="inlineStr">
+      <c r="E195" s="6" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F195" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G195" s="5" t="inlineStr"/>
-      <c r="H195" s="5" t="inlineStr">
+      <c r="F195" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G195" s="6" t="inlineStr"/>
+      <c r="H195" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I195" s="5" t="inlineStr">
+      <c r="I195" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B196" s="5" t="inlineStr">
+      <c r="A196" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B196" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C196" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D196" s="5" t="inlineStr">
+      <c r="C196" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D196" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E196" s="5" t="inlineStr">
+      <c r="E196" s="6" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F196" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G196" s="5" t="inlineStr"/>
-      <c r="H196" s="5" t="inlineStr">
+      <c r="F196" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G196" s="6" t="inlineStr"/>
+      <c r="H196" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I196" s="5" t="inlineStr">
+      <c r="I196" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B197" s="5" t="inlineStr">
+      <c r="A197" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B197" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C197" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D197" s="5" t="inlineStr">
+      <c r="C197" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D197" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E197" s="5" t="inlineStr">
+      <c r="E197" s="6" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F197" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G197" s="5" t="inlineStr"/>
-      <c r="H197" s="5" t="inlineStr">
+      <c r="F197" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G197" s="6" t="inlineStr"/>
+      <c r="H197" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I197" s="5" t="inlineStr">
+      <c r="I197" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B198" s="5" t="inlineStr">
+      <c r="A198" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B198" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C198" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D198" s="5" t="inlineStr">
+      <c r="C198" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D198" s="6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E198" s="5" t="inlineStr">
+      <c r="E198" s="6" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F198" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G198" s="5" t="inlineStr"/>
-      <c r="H198" s="5" t="inlineStr">
+      <c r="F198" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G198" s="6" t="inlineStr"/>
+      <c r="H198" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I198" s="5" t="inlineStr">
+      <c r="I198" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -10619,172 +10619,172 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B202" s="6" t="inlineStr">
+      <c r="A202" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B202" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C202" s="6" t="inlineStr">
+      <c r="C202" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D202" s="6" t="inlineStr">
+      <c r="D202" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E202" s="6" t="inlineStr">
+      <c r="E202" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F202" s="6" t="inlineStr">
+      <c r="F202" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G202" s="6" t="inlineStr"/>
-      <c r="H202" s="6" t="inlineStr">
+      <c r="G202" s="5" t="inlineStr"/>
+      <c r="H202" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I202" s="6" t="inlineStr">
+      <c r="I202" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B203" s="6" t="inlineStr">
+      <c r="A203" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B203" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C203" s="6" t="inlineStr">
+      <c r="C203" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D203" s="6" t="inlineStr">
+      <c r="D203" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E203" s="6" t="inlineStr">
+      <c r="E203" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F203" s="6" t="inlineStr">
+      <c r="F203" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G203" s="6" t="inlineStr"/>
-      <c r="H203" s="6" t="inlineStr">
+      <c r="G203" s="5" t="inlineStr"/>
+      <c r="H203" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I203" s="6" t="inlineStr">
+      <c r="I203" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B204" s="5" t="inlineStr">
+      <c r="A204" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B204" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C204" s="5" t="inlineStr">
+      <c r="C204" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D204" s="5" t="inlineStr">
+      <c r="D204" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E204" s="5" t="inlineStr">
+      <c r="E204" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F204" s="5" t="inlineStr">
+      <c r="F204" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G204" s="5" t="inlineStr"/>
-      <c r="H204" s="5" t="inlineStr">
+      <c r="G204" s="6" t="inlineStr"/>
+      <c r="H204" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I204" s="5" t="inlineStr">
+      <c r="I204" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B205" s="5" t="inlineStr">
+      <c r="A205" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B205" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C205" s="5" t="inlineStr">
+      <c r="C205" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D205" s="5" t="inlineStr">
+      <c r="D205" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E205" s="5" t="inlineStr">
+      <c r="E205" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F205" s="5" t="inlineStr">
+      <c r="F205" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G205" s="5" t="inlineStr"/>
-      <c r="H205" s="5" t="inlineStr">
+      <c r="G205" s="6" t="inlineStr"/>
+      <c r="H205" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I205" s="5" t="inlineStr">
+      <c r="I205" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -11167,258 +11167,258 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B214" s="5" t="inlineStr">
+      <c r="A214" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B214" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C214" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D214" s="5" t="inlineStr">
+      <c r="C214" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D214" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E214" s="5" t="inlineStr">
+      <c r="E214" s="6" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F214" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G214" s="5" t="inlineStr"/>
-      <c r="H214" s="5" t="inlineStr">
+      <c r="F214" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G214" s="6" t="inlineStr"/>
+      <c r="H214" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I214" s="5" t="inlineStr">
+      <c r="I214" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B215" s="5" t="inlineStr">
+      <c r="A215" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B215" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C215" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D215" s="5" t="inlineStr">
+      <c r="C215" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D215" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E215" s="5" t="inlineStr">
+      <c r="E215" s="6" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F215" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G215" s="5" t="inlineStr"/>
-      <c r="H215" s="5" t="inlineStr">
+      <c r="F215" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G215" s="6" t="inlineStr"/>
+      <c r="H215" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I215" s="5" t="inlineStr">
+      <c r="I215" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B216" s="5" t="inlineStr">
+      <c r="A216" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B216" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C216" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D216" s="5" t="inlineStr">
+      <c r="C216" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D216" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E216" s="5" t="inlineStr">
+      <c r="E216" s="6" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F216" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G216" s="5" t="inlineStr"/>
-      <c r="H216" s="5" t="inlineStr">
+      <c r="F216" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G216" s="6" t="inlineStr"/>
+      <c r="H216" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I216" s="5" t="inlineStr">
+      <c r="I216" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B217" s="5" t="inlineStr">
+      <c r="A217" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B217" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C217" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D217" s="5" t="inlineStr">
+      <c r="C217" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D217" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E217" s="5" t="inlineStr">
+      <c r="E217" s="6" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F217" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G217" s="5" t="inlineStr"/>
-      <c r="H217" s="5" t="inlineStr">
+      <c r="F217" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G217" s="6" t="inlineStr"/>
+      <c r="H217" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I217" s="5" t="inlineStr">
+      <c r="I217" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B218" s="5" t="inlineStr">
+      <c r="A218" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B218" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C218" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D218" s="5" t="inlineStr">
+      <c r="C218" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D218" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E218" s="5" t="inlineStr">
+      <c r="E218" s="6" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F218" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G218" s="5" t="inlineStr"/>
-      <c r="H218" s="5" t="inlineStr">
+      <c r="F218" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G218" s="6" t="inlineStr"/>
+      <c r="H218" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I218" s="5" t="inlineStr">
+      <c r="I218" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B219" s="5" t="inlineStr">
+      <c r="A219" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B219" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C219" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D219" s="5" t="inlineStr">
+      <c r="C219" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D219" s="6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E219" s="5" t="inlineStr">
+      <c r="E219" s="6" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F219" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G219" s="5" t="inlineStr"/>
-      <c r="H219" s="5" t="inlineStr">
+      <c r="F219" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G219" s="6" t="inlineStr"/>
+      <c r="H219" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I219" s="5" t="inlineStr">
+      <c r="I219" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -11566,172 +11566,172 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B223" s="6" t="inlineStr">
+      <c r="A223" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B223" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C223" s="6" t="inlineStr">
+      <c r="C223" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D223" s="6" t="inlineStr">
+      <c r="D223" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E223" s="6" t="inlineStr">
+      <c r="E223" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F223" s="6" t="inlineStr">
+      <c r="F223" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G223" s="6" t="inlineStr"/>
-      <c r="H223" s="6" t="inlineStr">
+      <c r="G223" s="5" t="inlineStr"/>
+      <c r="H223" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I223" s="6" t="inlineStr">
+      <c r="I223" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B224" s="6" t="inlineStr">
+      <c r="A224" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B224" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C224" s="6" t="inlineStr">
+      <c r="C224" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D224" s="6" t="inlineStr">
+      <c r="D224" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E224" s="6" t="inlineStr">
+      <c r="E224" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F224" s="6" t="inlineStr">
+      <c r="F224" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G224" s="6" t="inlineStr"/>
-      <c r="H224" s="6" t="inlineStr">
+      <c r="G224" s="5" t="inlineStr"/>
+      <c r="H224" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I224" s="6" t="inlineStr">
+      <c r="I224" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B225" s="5" t="inlineStr">
+      <c r="A225" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B225" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C225" s="5" t="inlineStr">
+      <c r="C225" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D225" s="5" t="inlineStr">
+      <c r="D225" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E225" s="5" t="inlineStr">
+      <c r="E225" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F225" s="5" t="inlineStr">
+      <c r="F225" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G225" s="5" t="inlineStr"/>
-      <c r="H225" s="5" t="inlineStr">
+      <c r="G225" s="6" t="inlineStr"/>
+      <c r="H225" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I225" s="5" t="inlineStr">
+      <c r="I225" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B226" s="5" t="inlineStr">
+      <c r="A226" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B226" s="6" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C226" s="5" t="inlineStr">
+      <c r="C226" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D226" s="5" t="inlineStr">
+      <c r="D226" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E226" s="5" t="inlineStr">
+      <c r="E226" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F226" s="5" t="inlineStr">
+      <c r="F226" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G226" s="5" t="inlineStr"/>
-      <c r="H226" s="5" t="inlineStr">
+      <c r="G226" s="6" t="inlineStr"/>
+      <c r="H226" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I226" s="5" t="inlineStr">
+      <c r="I226" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -12114,258 +12114,258 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B235" s="5" t="inlineStr">
+      <c r="A235" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B235" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C235" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D235" s="5" t="inlineStr">
+      <c r="C235" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D235" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E235" s="5" t="inlineStr">
+      <c r="E235" s="6" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F235" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G235" s="5" t="inlineStr"/>
-      <c r="H235" s="5" t="inlineStr">
+      <c r="F235" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G235" s="6" t="inlineStr"/>
+      <c r="H235" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I235" s="5" t="inlineStr">
+      <c r="I235" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B236" s="5" t="inlineStr">
+      <c r="A236" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B236" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C236" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D236" s="5" t="inlineStr">
+      <c r="C236" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D236" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E236" s="5" t="inlineStr">
+      <c r="E236" s="6" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F236" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G236" s="5" t="inlineStr"/>
-      <c r="H236" s="5" t="inlineStr">
+      <c r="F236" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G236" s="6" t="inlineStr"/>
+      <c r="H236" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I236" s="5" t="inlineStr">
+      <c r="I236" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B237" s="5" t="inlineStr">
+      <c r="A237" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B237" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C237" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D237" s="5" t="inlineStr">
+      <c r="C237" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D237" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E237" s="5" t="inlineStr">
+      <c r="E237" s="6" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F237" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G237" s="5" t="inlineStr"/>
-      <c r="H237" s="5" t="inlineStr">
+      <c r="F237" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G237" s="6" t="inlineStr"/>
+      <c r="H237" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I237" s="5" t="inlineStr">
+      <c r="I237" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B238" s="5" t="inlineStr">
+      <c r="A238" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B238" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C238" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D238" s="5" t="inlineStr">
+      <c r="C238" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D238" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E238" s="5" t="inlineStr">
+      <c r="E238" s="6" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F238" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G238" s="5" t="inlineStr"/>
-      <c r="H238" s="5" t="inlineStr">
+      <c r="F238" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G238" s="6" t="inlineStr"/>
+      <c r="H238" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I238" s="5" t="inlineStr">
+      <c r="I238" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B239" s="5" t="inlineStr">
+      <c r="A239" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B239" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C239" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D239" s="5" t="inlineStr">
+      <c r="C239" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D239" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E239" s="5" t="inlineStr">
+      <c r="E239" s="6" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F239" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G239" s="5" t="inlineStr"/>
-      <c r="H239" s="5" t="inlineStr">
+      <c r="F239" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G239" s="6" t="inlineStr"/>
+      <c r="H239" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I239" s="5" t="inlineStr">
+      <c r="I239" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B240" s="5" t="inlineStr">
+      <c r="A240" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B240" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C240" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D240" s="5" t="inlineStr">
+      <c r="C240" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D240" s="6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E240" s="5" t="inlineStr">
+      <c r="E240" s="6" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F240" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G240" s="5" t="inlineStr"/>
-      <c r="H240" s="5" t="inlineStr">
+      <c r="F240" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G240" s="6" t="inlineStr"/>
+      <c r="H240" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I240" s="5" t="inlineStr">
+      <c r="I240" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -12513,688 +12513,688 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B244" s="6" t="inlineStr">
+      <c r="A244" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B244" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C244" s="6" t="inlineStr">
+      <c r="C244" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D244" s="6" t="inlineStr">
+      <c r="D244" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E244" s="6" t="inlineStr">
+      <c r="E244" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F244" s="6" t="inlineStr">
+      <c r="F244" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G244" s="6" t="inlineStr"/>
-      <c r="H244" s="6" t="inlineStr">
+      <c r="G244" s="5" t="inlineStr"/>
+      <c r="H244" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I244" s="6" t="inlineStr">
+      <c r="I244" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B245" s="6" t="inlineStr">
+      <c r="A245" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B245" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C245" s="6" t="inlineStr">
+      <c r="C245" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D245" s="6" t="inlineStr">
+      <c r="D245" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E245" s="6" t="inlineStr">
+      <c r="E245" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F245" s="6" t="inlineStr">
+      <c r="F245" s="5" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G245" s="6" t="inlineStr"/>
-      <c r="H245" s="6" t="inlineStr">
+      <c r="G245" s="5" t="inlineStr"/>
+      <c r="H245" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I245" s="6" t="inlineStr">
+      <c r="I245" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B246" s="5" t="inlineStr">
+      <c r="A246" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B246" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C246" s="5" t="inlineStr">
+      <c r="C246" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D246" s="5" t="inlineStr">
+      <c r="D246" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E246" s="5" t="inlineStr">
+      <c r="E246" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F246" s="5" t="inlineStr">
+      <c r="F246" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G246" s="5" t="inlineStr"/>
-      <c r="H246" s="5" t="inlineStr">
+      <c r="G246" s="6" t="inlineStr"/>
+      <c r="H246" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I246" s="5" t="inlineStr">
+      <c r="I246" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B247" s="5" t="inlineStr">
+      <c r="A247" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B247" s="6" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C247" s="5" t="inlineStr">
+      <c r="C247" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D247" s="5" t="inlineStr">
+      <c r="D247" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E247" s="5" t="inlineStr">
+      <c r="E247" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F247" s="5" t="inlineStr">
+      <c r="F247" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G247" s="5" t="inlineStr"/>
-      <c r="H247" s="5" t="inlineStr">
+      <c r="G247" s="6" t="inlineStr"/>
+      <c r="H247" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I247" s="5" t="inlineStr">
+      <c r="I247" s="6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="6" t="inlineStr">
+      <c r="A248" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B248" s="6" t="inlineStr">
+      <c r="B248" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C248" s="6" t="inlineStr">
+      <c r="C248" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D248" s="6" t="inlineStr">
+      <c r="D248" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E248" s="6" t="inlineStr">
+      <c r="E248" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F248" s="6" t="inlineStr">
+      <c r="F248" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G248" s="6" t="inlineStr"/>
-      <c r="H248" s="6" t="inlineStr">
+      <c r="G248" s="5" t="inlineStr"/>
+      <c r="H248" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I248" s="6" t="inlineStr">
+      <c r="I248" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="6" t="inlineStr">
+      <c r="A249" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B249" s="6" t="inlineStr">
+      <c r="B249" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C249" s="6" t="inlineStr">
+      <c r="C249" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D249" s="6" t="inlineStr">
+      <c r="D249" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E249" s="6" t="inlineStr">
+      <c r="E249" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F249" s="6" t="inlineStr">
+      <c r="F249" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G249" s="6" t="inlineStr"/>
-      <c r="H249" s="6" t="inlineStr">
+      <c r="G249" s="5" t="inlineStr"/>
+      <c r="H249" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I249" s="6" t="inlineStr">
+      <c r="I249" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="6" t="inlineStr">
+      <c r="A250" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B250" s="6" t="inlineStr">
+      <c r="B250" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C250" s="6" t="inlineStr">
+      <c r="C250" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D250" s="6" t="inlineStr">
+      <c r="D250" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E250" s="6" t="inlineStr">
+      <c r="E250" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F250" s="6" t="inlineStr">
+      <c r="F250" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G250" s="6" t="inlineStr"/>
-      <c r="H250" s="6" t="inlineStr">
+      <c r="G250" s="5" t="inlineStr"/>
+      <c r="H250" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I250" s="6" t="inlineStr">
+      <c r="I250" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="6" t="inlineStr">
+      <c r="A251" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B251" s="6" t="inlineStr">
+      <c r="B251" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C251" s="6" t="inlineStr">
+      <c r="C251" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D251" s="6" t="inlineStr">
+      <c r="D251" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E251" s="6" t="inlineStr">
+      <c r="E251" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F251" s="6" t="inlineStr">
+      <c r="F251" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G251" s="6" t="inlineStr"/>
-      <c r="H251" s="6" t="inlineStr">
+      <c r="G251" s="5" t="inlineStr"/>
+      <c r="H251" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I251" s="6" t="inlineStr">
+      <c r="I251" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="6" t="inlineStr">
+      <c r="A252" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B252" s="6" t="inlineStr">
+      <c r="B252" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C252" s="6" t="inlineStr">
+      <c r="C252" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D252" s="6" t="inlineStr">
+      <c r="D252" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E252" s="6" t="inlineStr">
+      <c r="E252" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F252" s="6" t="inlineStr">
+      <c r="F252" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G252" s="6" t="inlineStr"/>
-      <c r="H252" s="6" t="inlineStr">
+      <c r="G252" s="5" t="inlineStr"/>
+      <c r="H252" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I252" s="6" t="inlineStr">
+      <c r="I252" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="6" t="inlineStr">
+      <c r="A253" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B253" s="6" t="inlineStr">
+      <c r="B253" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C253" s="6" t="inlineStr">
+      <c r="C253" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D253" s="6" t="inlineStr">
+      <c r="D253" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E253" s="6" t="inlineStr">
+      <c r="E253" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F253" s="6" t="inlineStr">
+      <c r="F253" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G253" s="6" t="inlineStr"/>
-      <c r="H253" s="6" t="inlineStr">
+      <c r="G253" s="5" t="inlineStr"/>
+      <c r="H253" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I253" s="6" t="inlineStr">
+      <c r="I253" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="6" t="inlineStr">
+      <c r="A254" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B254" s="6" t="inlineStr">
+      <c r="B254" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C254" s="6" t="inlineStr">
+      <c r="C254" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D254" s="6" t="inlineStr">
+      <c r="D254" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E254" s="6" t="inlineStr">
+      <c r="E254" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F254" s="6" t="inlineStr">
+      <c r="F254" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G254" s="6" t="inlineStr"/>
-      <c r="H254" s="6" t="inlineStr">
+      <c r="G254" s="5" t="inlineStr"/>
+      <c r="H254" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I254" s="6" t="inlineStr">
+      <c r="I254" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="6" t="inlineStr">
+      <c r="A255" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B255" s="6" t="inlineStr">
+      <c r="B255" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C255" s="6" t="inlineStr">
+      <c r="C255" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D255" s="6" t="inlineStr">
+      <c r="D255" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E255" s="6" t="inlineStr">
+      <c r="E255" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F255" s="6" t="inlineStr">
+      <c r="F255" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G255" s="6" t="inlineStr"/>
-      <c r="H255" s="6" t="inlineStr">
+      <c r="G255" s="5" t="inlineStr"/>
+      <c r="H255" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I255" s="6" t="inlineStr">
+      <c r="I255" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="6" t="inlineStr">
+      <c r="A256" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B256" s="6" t="inlineStr">
+      <c r="B256" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C256" s="6" t="inlineStr">
+      <c r="C256" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D256" s="6" t="inlineStr">
+      <c r="D256" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E256" s="6" t="inlineStr">
+      <c r="E256" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F256" s="6" t="inlineStr">
+      <c r="F256" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G256" s="6" t="inlineStr"/>
-      <c r="H256" s="6" t="inlineStr">
+      <c r="G256" s="5" t="inlineStr"/>
+      <c r="H256" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I256" s="6" t="inlineStr">
+      <c r="I256" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="6" t="inlineStr">
+      <c r="A257" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B257" s="6" t="inlineStr">
+      <c r="B257" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C257" s="6" t="inlineStr">
+      <c r="C257" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D257" s="6" t="inlineStr">
+      <c r="D257" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E257" s="6" t="inlineStr">
+      <c r="E257" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F257" s="6" t="inlineStr">
+      <c r="F257" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G257" s="6" t="inlineStr"/>
-      <c r="H257" s="6" t="inlineStr">
+      <c r="G257" s="5" t="inlineStr"/>
+      <c r="H257" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I257" s="6" t="inlineStr">
+      <c r="I257" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="6" t="inlineStr">
+      <c r="A258" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B258" s="6" t="inlineStr">
+      <c r="B258" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C258" s="6" t="inlineStr">
+      <c r="C258" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D258" s="6" t="inlineStr">
+      <c r="D258" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E258" s="6" t="inlineStr">
+      <c r="E258" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F258" s="6" t="inlineStr">
+      <c r="F258" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G258" s="6" t="inlineStr"/>
-      <c r="H258" s="6" t="inlineStr">
+      <c r="G258" s="5" t="inlineStr"/>
+      <c r="H258" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I258" s="6" t="inlineStr">
+      <c r="I258" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="6" t="inlineStr">
+      <c r="A259" s="5" t="inlineStr">
         <is>
           <t>Year5</t>
         </is>
       </c>
-      <c r="B259" s="6" t="inlineStr">
+      <c r="B259" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C259" s="6" t="inlineStr">
+      <c r="C259" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D259" s="6" t="inlineStr">
+      <c r="D259" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E259" s="6" t="inlineStr">
+      <c r="E259" s="5" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F259" s="6" t="inlineStr">
+      <c r="F259" s="5" t="inlineStr">
         <is>
           <t>10:05:00</t>
         </is>
       </c>
-      <c r="G259" s="6" t="inlineStr"/>
-      <c r="H259" s="6" t="inlineStr">
+      <c r="G259" s="5" t="inlineStr"/>
+      <c r="H259" s="5" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="I259" s="6" t="inlineStr">
+      <c r="I259" s="5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -910,7 +910,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -1412,10 +1412,10 @@
         <v>11</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1494,10 +1494,10 @@
         <v>11</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1572,10 +1572,10 @@
         <v>11</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2052,10 +2052,10 @@
         <v>11</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2134,10 +2134,10 @@
         <v>11</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -2216,10 +2216,10 @@
         <v>11</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -2479,45 +2479,45 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C30" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D30" s="6" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E30" s="6" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F30" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G30" s="6" t="inlineStr"/>
-      <c r="H30" s="6" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr"/>
+      <c r="H30" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I30" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K30" s="4" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -3806,45 +3806,45 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B51" s="6" t="inlineStr">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C51" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D51" s="6" t="inlineStr">
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E51" s="6" t="inlineStr">
+      <c r="E51" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F51" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G51" s="6" t="inlineStr"/>
-      <c r="H51" s="6" t="inlineStr">
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G51" s="5" t="inlineStr"/>
+      <c r="H51" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I51" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I51" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -4503,7 +4503,7 @@
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
@@ -4753,45 +4753,45 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B72" s="6" t="inlineStr">
+      <c r="A72" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B72" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C72" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D72" s="6" t="inlineStr">
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D72" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E72" s="6" t="inlineStr">
+      <c r="E72" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F72" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G72" s="6" t="inlineStr"/>
-      <c r="H72" s="6" t="inlineStr">
+      <c r="F72" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G72" s="5" t="inlineStr"/>
+      <c r="H72" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I72" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I72" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
@@ -9254,7 +9254,7 @@
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="G189" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H189" s="2" t="inlineStr">
@@ -10205,7 +10205,7 @@
       </c>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr">
@@ -10220,45 +10220,45 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B193" s="6" t="inlineStr">
+      <c r="A193" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B193" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C193" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D193" s="6" t="inlineStr">
+      <c r="C193" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D193" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E193" s="6" t="inlineStr">
+      <c r="E193" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F193" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G193" s="6" t="inlineStr"/>
-      <c r="H193" s="6" t="inlineStr">
+      <c r="F193" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G193" s="5" t="inlineStr"/>
+      <c r="H193" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I193" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I193" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10917,7 +10917,7 @@
       </c>
       <c r="G208" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H208" s="2" t="inlineStr">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="G210" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H210" s="2" t="inlineStr">
@@ -11152,7 +11152,7 @@
       </c>
       <c r="G213" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H213" s="2" t="inlineStr">
@@ -11167,45 +11167,45 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B214" s="6" t="inlineStr">
+      <c r="A214" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B214" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C214" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D214" s="6" t="inlineStr">
+      <c r="C214" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D214" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E214" s="6" t="inlineStr">
+      <c r="E214" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F214" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G214" s="6" t="inlineStr"/>
-      <c r="H214" s="6" t="inlineStr">
+      <c r="F214" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G214" s="5" t="inlineStr"/>
+      <c r="H214" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I214" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I214" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11864,7 +11864,7 @@
       </c>
       <c r="G229" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H229" s="2" t="inlineStr">
@@ -11958,7 +11958,7 @@
       </c>
       <c r="G231" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H231" s="2" t="inlineStr">
@@ -12099,7 +12099,7 @@
       </c>
       <c r="G234" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H234" s="2" t="inlineStr">
@@ -12114,45 +12114,45 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B235" s="6" t="inlineStr">
+      <c r="A235" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B235" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C235" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D235" s="6" t="inlineStr">
+      <c r="C235" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D235" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E235" s="6" t="inlineStr">
+      <c r="E235" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F235" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G235" s="6" t="inlineStr"/>
-      <c r="H235" s="6" t="inlineStr">
+      <c r="F235" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G235" s="5" t="inlineStr"/>
+      <c r="H235" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I235" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I235" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -1412,10 +1412,10 @@
         <v>11</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1494,10 +1494,10 @@
         <v>11</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1572,10 +1572,10 @@
         <v>11</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -2052,10 +2052,10 @@
         <v>11</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2134,10 +2134,10 @@
         <v>11</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2216,10 +2216,10 @@
         <v>11</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -2557,45 +2557,45 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B31" s="6" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C31" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D31" s="6" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E31" s="6" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F31" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G31" s="6" t="inlineStr"/>
-      <c r="H31" s="6" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="inlineStr"/>
+      <c r="H31" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I31" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I31" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K31" s="4" t="inlineStr">
@@ -3849,45 +3849,45 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B52" s="6" t="inlineStr">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C52" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D52" s="6" t="inlineStr">
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E52" s="6" t="inlineStr">
+      <c r="E52" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F52" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G52" s="6" t="inlineStr"/>
-      <c r="H52" s="6" t="inlineStr">
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G52" s="5" t="inlineStr"/>
+      <c r="H52" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I52" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I52" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -4796,45 +4796,45 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B73" s="6" t="inlineStr">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B73" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C73" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D73" s="6" t="inlineStr">
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D73" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E73" s="6" t="inlineStr">
+      <c r="E73" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F73" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G73" s="6" t="inlineStr"/>
-      <c r="H73" s="6" t="inlineStr">
+      <c r="F73" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G73" s="5" t="inlineStr"/>
+      <c r="H73" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I73" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I73" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10263,45 +10263,45 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B194" s="6" t="inlineStr">
+      <c r="A194" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B194" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C194" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D194" s="6" t="inlineStr">
+      <c r="C194" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D194" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E194" s="6" t="inlineStr">
+      <c r="E194" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F194" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G194" s="6" t="inlineStr"/>
-      <c r="H194" s="6" t="inlineStr">
+      <c r="F194" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G194" s="5" t="inlineStr"/>
+      <c r="H194" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I194" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I194" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11210,45 +11210,45 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B215" s="6" t="inlineStr">
+      <c r="A215" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B215" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C215" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D215" s="6" t="inlineStr">
+      <c r="C215" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D215" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E215" s="6" t="inlineStr">
+      <c r="E215" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F215" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G215" s="6" t="inlineStr"/>
-      <c r="H215" s="6" t="inlineStr">
+      <c r="F215" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G215" s="5" t="inlineStr"/>
+      <c r="H215" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I215" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I215" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -12157,45 +12157,45 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B236" s="6" t="inlineStr">
+      <c r="A236" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B236" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C236" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D236" s="6" t="inlineStr">
+      <c r="C236" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D236" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E236" s="6" t="inlineStr">
+      <c r="E236" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F236" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G236" s="6" t="inlineStr"/>
-      <c r="H236" s="6" t="inlineStr">
+      <c r="F236" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G236" s="5" t="inlineStr"/>
+      <c r="H236" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I236" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I236" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -910,7 +910,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1330,10 +1330,10 @@
         <v>11</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1412,10 +1412,10 @@
         <v>11</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1494,10 +1494,10 @@
         <v>11</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1572,10 +1572,10 @@
         <v>11</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1650,10 +1650,10 @@
         <v>11</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1667,45 +1667,45 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D20" s="6" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E20" s="6" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F20" s="6" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G20" s="6" t="inlineStr"/>
-      <c r="H20" s="6" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr"/>
+      <c r="H20" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I20" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I20" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
@@ -1728,10 +1728,10 @@
         <v>11</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1806,10 +1806,10 @@
         <v>11</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1888,10 +1888,10 @@
         <v>11</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1970,10 +1970,10 @@
         <v>11</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2052,10 +2052,10 @@
         <v>11</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2134,10 +2134,10 @@
         <v>11</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -2216,10 +2216,10 @@
         <v>11</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -3279,45 +3279,45 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B41" s="6" t="inlineStr">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C41" s="6" t="inlineStr">
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D41" s="6" t="inlineStr">
+      <c r="D41" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E41" s="6" t="inlineStr">
+      <c r="E41" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F41" s="6" t="inlineStr">
+      <c r="F41" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G41" s="6" t="inlineStr"/>
-      <c r="H41" s="6" t="inlineStr">
+      <c r="G41" s="5" t="inlineStr"/>
+      <c r="H41" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I41" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I41" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K41" s="3" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -4291,45 +4291,45 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B62" s="6" t="inlineStr">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B62" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C62" s="6" t="inlineStr">
+      <c r="C62" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D62" s="6" t="inlineStr">
+      <c r="D62" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E62" s="6" t="inlineStr">
+      <c r="E62" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F62" s="6" t="inlineStr">
+      <c r="F62" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G62" s="6" t="inlineStr"/>
-      <c r="H62" s="6" t="inlineStr">
+      <c r="G62" s="5" t="inlineStr"/>
+      <c r="H62" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I62" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I62" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
@@ -5137,7 +5137,7 @@
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
@@ -5238,45 +5238,45 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B83" s="6" t="inlineStr">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B83" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C83" s="6" t="inlineStr">
+      <c r="C83" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D83" s="6" t="inlineStr">
+      <c r="D83" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E83" s="6" t="inlineStr">
+      <c r="E83" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F83" s="6" t="inlineStr">
+      <c r="F83" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G83" s="6" t="inlineStr"/>
-      <c r="H83" s="6" t="inlineStr">
+      <c r="G83" s="5" t="inlineStr"/>
+      <c r="H83" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I83" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I83" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -5591,7 +5591,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5638,7 +5638,7 @@
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
@@ -6142,45 +6142,45 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B103" s="6" t="inlineStr">
+      <c r="A103" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B103" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C103" s="6" t="inlineStr">
+      <c r="C103" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D103" s="6" t="inlineStr">
+      <c r="D103" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E103" s="6" t="inlineStr">
+      <c r="E103" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F103" s="6" t="inlineStr">
+      <c r="F103" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G103" s="6" t="inlineStr"/>
-      <c r="H103" s="6" t="inlineStr">
+      <c r="G103" s="5" t="inlineStr"/>
+      <c r="H103" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I103" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I103" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -7046,45 +7046,45 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B123" s="6" t="inlineStr">
+      <c r="A123" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B123" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C123" s="6" t="inlineStr">
+      <c r="C123" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D123" s="6" t="inlineStr">
+      <c r="D123" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E123" s="6" t="inlineStr">
+      <c r="E123" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F123" s="6" t="inlineStr">
+      <c r="F123" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G123" s="6" t="inlineStr"/>
-      <c r="H123" s="6" t="inlineStr">
+      <c r="G123" s="5" t="inlineStr"/>
+      <c r="H123" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I123" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I123" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7164,7 +7164,7 @@
       </c>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -7305,7 +7305,7 @@
       </c>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
@@ -7352,7 +7352,7 @@
       </c>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -7802,7 +7802,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -7950,45 +7950,45 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B143" s="6" t="inlineStr">
+      <c r="A143" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B143" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C143" s="6" t="inlineStr">
+      <c r="C143" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D143" s="6" t="inlineStr">
+      <c r="D143" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E143" s="6" t="inlineStr">
+      <c r="E143" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F143" s="6" t="inlineStr">
+      <c r="F143" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G143" s="6" t="inlineStr"/>
-      <c r="H143" s="6" t="inlineStr">
+      <c r="G143" s="5" t="inlineStr"/>
+      <c r="H143" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I143" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I143" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8068,7 +8068,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -8115,7 +8115,7 @@
       </c>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
@@ -8162,7 +8162,7 @@
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -8209,7 +8209,7 @@
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -8256,7 +8256,7 @@
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -8303,7 +8303,7 @@
       </c>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
@@ -8706,7 +8706,7 @@
       </c>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
@@ -8854,45 +8854,45 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B163" s="6" t="inlineStr">
+      <c r="A163" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B163" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C163" s="6" t="inlineStr">
+      <c r="C163" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D163" s="6" t="inlineStr">
+      <c r="D163" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E163" s="6" t="inlineStr">
+      <c r="E163" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F163" s="6" t="inlineStr">
+      <c r="F163" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G163" s="6" t="inlineStr"/>
-      <c r="H163" s="6" t="inlineStr">
+      <c r="G163" s="5" t="inlineStr"/>
+      <c r="H163" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I163" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I163" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8972,7 +8972,7 @@
       </c>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
@@ -9019,7 +9019,7 @@
       </c>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -9207,7 +9207,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9254,7 +9254,7 @@
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -9610,7 +9610,7 @@
       </c>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
@@ -9758,45 +9758,45 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B183" s="6" t="inlineStr">
+      <c r="A183" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B183" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C183" s="6" t="inlineStr">
+      <c r="C183" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D183" s="6" t="inlineStr">
+      <c r="D183" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E183" s="6" t="inlineStr">
+      <c r="E183" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F183" s="6" t="inlineStr">
+      <c r="F183" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G183" s="6" t="inlineStr"/>
-      <c r="H183" s="6" t="inlineStr">
+      <c r="G183" s="5" t="inlineStr"/>
+      <c r="H183" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I183" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I183" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9876,7 @@
       </c>
       <c r="G185" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H185" s="2" t="inlineStr">
@@ -9923,7 +9923,7 @@
       </c>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="G189" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H189" s="2" t="inlineStr">
@@ -10205,7 +10205,7 @@
       </c>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr">
@@ -10557,7 +10557,7 @@
       </c>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -10705,45 +10705,45 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B204" s="6" t="inlineStr">
+      <c r="A204" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B204" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C204" s="6" t="inlineStr">
+      <c r="C204" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D204" s="6" t="inlineStr">
+      <c r="D204" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E204" s="6" t="inlineStr">
+      <c r="E204" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F204" s="6" t="inlineStr">
+      <c r="F204" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G204" s="6" t="inlineStr"/>
-      <c r="H204" s="6" t="inlineStr">
+      <c r="G204" s="5" t="inlineStr"/>
+      <c r="H204" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I204" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I204" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
       </c>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr">
@@ -10870,7 +10870,7 @@
       </c>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="G208" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H208" s="2" t="inlineStr">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="G210" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H210" s="2" t="inlineStr">
@@ -11152,7 +11152,7 @@
       </c>
       <c r="G213" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H213" s="2" t="inlineStr">
@@ -11504,7 +11504,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="G222" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H222" s="2" t="inlineStr">
@@ -11652,45 +11652,45 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B225" s="6" t="inlineStr">
+      <c r="A225" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B225" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C225" s="6" t="inlineStr">
+      <c r="C225" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D225" s="6" t="inlineStr">
+      <c r="D225" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E225" s="6" t="inlineStr">
+      <c r="E225" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F225" s="6" t="inlineStr">
+      <c r="F225" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G225" s="6" t="inlineStr"/>
-      <c r="H225" s="6" t="inlineStr">
+      <c r="G225" s="5" t="inlineStr"/>
+      <c r="H225" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I225" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I225" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11770,7 +11770,7 @@
       </c>
       <c r="G227" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H227" s="2" t="inlineStr">
@@ -11817,7 +11817,7 @@
       </c>
       <c r="G228" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H228" s="2" t="inlineStr">
@@ -11864,7 +11864,7 @@
       </c>
       <c r="G229" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H229" s="2" t="inlineStr">
@@ -11958,7 +11958,7 @@
       </c>
       <c r="G231" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H231" s="2" t="inlineStr">
@@ -12099,7 +12099,7 @@
       </c>
       <c r="G234" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H234" s="2" t="inlineStr">
@@ -12451,7 +12451,7 @@
       </c>
       <c r="G242" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H242" s="2" t="inlineStr">
@@ -12498,7 +12498,7 @@
       </c>
       <c r="G243" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H243" s="2" t="inlineStr">
@@ -12599,45 +12599,45 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B246" s="6" t="inlineStr">
+      <c r="A246" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B246" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C246" s="6" t="inlineStr">
+      <c r="C246" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D246" s="6" t="inlineStr">
+      <c r="D246" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E246" s="6" t="inlineStr">
+      <c r="E246" s="5" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F246" s="6" t="inlineStr">
+      <c r="F246" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G246" s="6" t="inlineStr"/>
-      <c r="H246" s="6" t="inlineStr">
+      <c r="G246" s="5" t="inlineStr"/>
+      <c r="H246" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I246" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I246" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1412,10 +1412,10 @@
         <v>11</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1494,10 +1494,10 @@
         <v>11</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1572,10 +1572,10 @@
         <v>11</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -2052,10 +2052,10 @@
         <v>11</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2134,10 +2134,10 @@
         <v>11</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2216,10 +2216,10 @@
         <v>11</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -2635,45 +2635,45 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B32" s="6" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C32" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D32" s="6" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E32" s="6" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F32" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G32" s="6" t="inlineStr"/>
-      <c r="H32" s="6" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G32" s="5" t="inlineStr"/>
+      <c r="H32" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I32" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I32" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K32" s="4" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -3892,45 +3892,45 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B53" s="6" t="inlineStr">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B53" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C53" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D53" s="6" t="inlineStr">
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E53" s="6" t="inlineStr">
+      <c r="E53" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F53" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G53" s="6" t="inlineStr"/>
-      <c r="H53" s="6" t="inlineStr">
+      <c r="F53" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G53" s="5" t="inlineStr"/>
+      <c r="H53" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I53" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I53" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -4839,45 +4839,45 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B74" s="6" t="inlineStr">
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B74" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C74" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D74" s="6" t="inlineStr">
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D74" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E74" s="6" t="inlineStr">
+      <c r="E74" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F74" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G74" s="6" t="inlineStr"/>
-      <c r="H74" s="6" t="inlineStr">
+      <c r="F74" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G74" s="5" t="inlineStr"/>
+      <c r="H74" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I74" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I74" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
@@ -5137,7 +5137,7 @@
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -5591,7 +5591,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -7305,7 +7305,7 @@
       </c>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
@@ -7352,7 +7352,7 @@
       </c>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
@@ -7802,7 +7802,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -8068,7 +8068,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -8115,7 +8115,7 @@
       </c>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
@@ -8162,7 +8162,7 @@
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -8209,7 +8209,7 @@
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -8256,7 +8256,7 @@
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -8303,7 +8303,7 @@
       </c>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
@@ -8706,7 +8706,7 @@
       </c>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
@@ -8972,7 +8972,7 @@
       </c>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
@@ -9019,7 +9019,7 @@
       </c>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -9207,7 +9207,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9610,7 +9610,7 @@
       </c>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="G185" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H185" s="2" t="inlineStr">
@@ -9923,7 +9923,7 @@
       </c>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr">
@@ -10306,45 +10306,45 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B195" s="6" t="inlineStr">
+      <c r="A195" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B195" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C195" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D195" s="6" t="inlineStr">
+      <c r="C195" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D195" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E195" s="6" t="inlineStr">
+      <c r="E195" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F195" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G195" s="6" t="inlineStr"/>
-      <c r="H195" s="6" t="inlineStr">
+      <c r="F195" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G195" s="5" t="inlineStr"/>
+      <c r="H195" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I195" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I195" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10557,7 +10557,7 @@
       </c>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -10823,7 +10823,7 @@
       </c>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr">
@@ -10870,7 +10870,7 @@
       </c>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr">
@@ -11253,45 +11253,45 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B216" s="6" t="inlineStr">
+      <c r="A216" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B216" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C216" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D216" s="6" t="inlineStr">
+      <c r="C216" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D216" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E216" s="6" t="inlineStr">
+      <c r="E216" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F216" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G216" s="6" t="inlineStr"/>
-      <c r="H216" s="6" t="inlineStr">
+      <c r="F216" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G216" s="5" t="inlineStr"/>
+      <c r="H216" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I216" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I216" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11504,7 +11504,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="G222" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H222" s="2" t="inlineStr">
@@ -11770,7 +11770,7 @@
       </c>
       <c r="G227" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H227" s="2" t="inlineStr">
@@ -11817,7 +11817,7 @@
       </c>
       <c r="G228" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H228" s="2" t="inlineStr">
@@ -12200,45 +12200,45 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B237" s="6" t="inlineStr">
+      <c r="A237" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B237" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C237" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D237" s="6" t="inlineStr">
+      <c r="C237" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D237" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E237" s="6" t="inlineStr">
+      <c r="E237" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F237" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G237" s="6" t="inlineStr"/>
-      <c r="H237" s="6" t="inlineStr">
+      <c r="F237" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G237" s="5" t="inlineStr"/>
+      <c r="H237" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I237" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I237" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -12451,7 +12451,7 @@
       </c>
       <c r="G242" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H242" s="2" t="inlineStr">
@@ -12498,7 +12498,7 @@
       </c>
       <c r="G243" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H243" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7">
@@ -855,7 +855,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -985,7 +985,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>51.2%</t>
+          <t>53.5%</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>79.2%</t>
+          <t>79.3%</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1409,22 +1409,22 @@
         <v>21</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>6</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
-          <t>52.4%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>72.4%</t>
+          <t>73.7%</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1491,22 +1491,22 @@
         <v>21</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>6</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>52.4%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>61.6%</t>
+          <t>63.9%</t>
         </is>
       </c>
     </row>
@@ -1569,22 +1569,22 @@
         <v>21</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>6</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
-          <t>52.4%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>82.7%</t>
+          <t>82.1%</t>
         </is>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2049,22 +2049,22 @@
         <v>21</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>6</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
-          <t>52.4%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="S24" s="4" t="inlineStr">
         <is>
-          <t>71.4%</t>
+          <t>71.3%</t>
         </is>
       </c>
     </row>
@@ -2131,22 +2131,22 @@
         <v>21</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>6</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
-          <t>52.4%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>75.2%</t>
+          <t>75.9%</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -2213,22 +2213,22 @@
         <v>21</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>6</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
-          <t>52.4%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="S26" s="4" t="inlineStr">
         <is>
-          <t>73.7%</t>
+          <t>74.7%</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -2713,45 +2713,49 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B33" s="6" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C33" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D33" s="6" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E33" s="6" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F33" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G33" s="6" t="inlineStr"/>
-      <c r="H33" s="6" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I33" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>27/31</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
       <c r="K33" s="4" t="inlineStr">
@@ -3061,7 +3065,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -3143,7 +3147,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -3417,7 +3421,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3479,7 +3483,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -3541,7 +3545,7 @@
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -3650,7 +3654,7 @@
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -3791,7 +3795,7 @@
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -3935,45 +3939,49 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B54" s="6" t="inlineStr">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C54" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D54" s="6" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E54" s="6" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F54" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G54" s="6" t="inlineStr"/>
-      <c r="H54" s="6" t="inlineStr">
-        <is>
-          <t>0/18</t>
-        </is>
-      </c>
-      <c r="I54" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>16/18</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -4143,7 +4151,7 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -4190,7 +4198,7 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -4409,7 +4417,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4456,7 +4464,7 @@
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -4503,7 +4511,7 @@
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -4597,7 +4605,7 @@
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -4738,7 +4746,7 @@
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
@@ -4882,45 +4890,49 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B75" s="6" t="inlineStr">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C75" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D75" s="6" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E75" s="6" t="inlineStr">
+      <c r="E75" s="2" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F75" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G75" s="6" t="inlineStr"/>
-      <c r="H75" s="6" t="inlineStr">
-        <is>
-          <t>0/21</t>
-        </is>
-      </c>
-      <c r="I75" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>16/21</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -5090,7 +5102,7 @@
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
@@ -5137,7 +5149,7 @@
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
@@ -5356,7 +5368,7 @@
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
@@ -5403,7 +5415,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5450,7 +5462,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5497,7 +5509,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5544,7 +5556,7 @@
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -5591,7 +5603,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5638,7 +5650,7 @@
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
@@ -5994,7 +6006,7 @@
       </c>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
@@ -6041,7 +6053,7 @@
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
@@ -6260,7 +6272,7 @@
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -6307,7 +6319,7 @@
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
@@ -6354,7 +6366,7 @@
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
@@ -6401,7 +6413,7 @@
       </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
@@ -6448,7 +6460,7 @@
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
@@ -6495,7 +6507,7 @@
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
@@ -6542,7 +6554,7 @@
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
@@ -6898,7 +6910,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6945,7 +6957,7 @@
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -7164,7 +7176,7 @@
       </c>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
@@ -7211,7 +7223,7 @@
       </c>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
@@ -7258,7 +7270,7 @@
       </c>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -7305,7 +7317,7 @@
       </c>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
@@ -7352,7 +7364,7 @@
       </c>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
@@ -7399,7 +7411,7 @@
       </c>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
@@ -7446,7 +7458,7 @@
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -7802,7 +7814,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7849,7 +7861,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -8068,7 +8080,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -8115,7 +8127,7 @@
       </c>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
@@ -8162,7 +8174,7 @@
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -8209,7 +8221,7 @@
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -8256,7 +8268,7 @@
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -8303,7 +8315,7 @@
       </c>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
@@ -8350,7 +8362,7 @@
       </c>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
@@ -8706,7 +8718,7 @@
       </c>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -8753,7 +8765,7 @@
       </c>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
@@ -8972,7 +8984,7 @@
       </c>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
@@ -9019,7 +9031,7 @@
       </c>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
@@ -9066,7 +9078,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -9113,7 +9125,7 @@
       </c>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -9160,7 +9172,7 @@
       </c>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -9207,7 +9219,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9254,7 +9266,7 @@
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -9610,7 +9622,7 @@
       </c>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr">
@@ -9657,7 +9669,7 @@
       </c>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
@@ -9876,7 +9888,7 @@
       </c>
       <c r="G185" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H185" s="2" t="inlineStr">
@@ -9923,7 +9935,7 @@
       </c>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr">
@@ -9970,7 +9982,7 @@
       </c>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr">
@@ -10064,7 +10076,7 @@
       </c>
       <c r="G189" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H189" s="2" t="inlineStr">
@@ -10205,7 +10217,7 @@
       </c>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr">
@@ -10349,45 +10361,49 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B196" s="6" t="inlineStr">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C196" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D196" s="6" t="inlineStr">
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E196" s="6" t="inlineStr">
+      <c r="E196" s="2" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F196" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G196" s="6" t="inlineStr"/>
-      <c r="H196" s="6" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I196" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F196" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G196" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H196" s="2" t="inlineStr">
+        <is>
+          <t>19/27</t>
+        </is>
+      </c>
+      <c r="I196" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -10557,7 +10573,7 @@
       </c>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
@@ -10604,7 +10620,7 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -10823,7 +10839,7 @@
       </c>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr">
@@ -10870,7 +10886,7 @@
       </c>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr">
@@ -10917,7 +10933,7 @@
       </c>
       <c r="G208" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H208" s="2" t="inlineStr">
@@ -11011,7 +11027,7 @@
       </c>
       <c r="G210" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H210" s="2" t="inlineStr">
@@ -11152,7 +11168,7 @@
       </c>
       <c r="G213" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H213" s="2" t="inlineStr">
@@ -11296,45 +11312,49 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B217" s="6" t="inlineStr">
+      <c r="A217" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C217" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D217" s="6" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E217" s="6" t="inlineStr">
+      <c r="E217" s="2" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F217" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G217" s="6" t="inlineStr"/>
-      <c r="H217" s="6" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I217" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>24/29</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -11504,7 +11524,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11551,7 +11571,7 @@
       </c>
       <c r="G222" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H222" s="2" t="inlineStr">
@@ -11770,7 +11790,7 @@
       </c>
       <c r="G227" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H227" s="2" t="inlineStr">
@@ -11817,7 +11837,7 @@
       </c>
       <c r="G228" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H228" s="2" t="inlineStr">
@@ -11864,7 +11884,7 @@
       </c>
       <c r="G229" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H229" s="2" t="inlineStr">
@@ -11958,7 +11978,7 @@
       </c>
       <c r="G231" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H231" s="2" t="inlineStr">
@@ -12099,7 +12119,7 @@
       </c>
       <c r="G234" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H234" s="2" t="inlineStr">
@@ -12243,45 +12263,49 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B238" s="6" t="inlineStr">
+      <c r="A238" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C238" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D238" s="6" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E238" s="6" t="inlineStr">
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F238" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G238" s="6" t="inlineStr"/>
-      <c r="H238" s="6" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I238" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
+        <is>
+          <t>25/29</t>
+        </is>
+      </c>
+      <c r="I238" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -12451,7 +12475,7 @@
       </c>
       <c r="G242" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H242" s="2" t="inlineStr">
@@ -12498,7 +12522,7 @@
       </c>
       <c r="G243" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H243" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -985,7 +985,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>53.5%</t>
+          <t>55.8%</t>
         </is>
       </c>
     </row>
@@ -1038,50 +1038,54 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>79.3%</t>
+          <t>79.8%</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E11" s="6" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F11" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G11" s="6" t="inlineStr"/>
-      <c r="H11" s="6" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I11" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>24/28</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -1327,22 +1331,22 @@
         <v>20</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>4</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
-          <t>55.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="S15" s="4" t="inlineStr">
         <is>
-          <t>81.2%</t>
+          <t>81.5%</t>
         </is>
       </c>
     </row>
@@ -1647,22 +1651,22 @@
         <v>20</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>4</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
-          <t>55.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>88.3%</t>
+          <t>88.7%</t>
         </is>
       </c>
     </row>
@@ -1725,22 +1729,22 @@
         <v>20</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>4</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
-          <t>55.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>91.6%</t>
+          <t>91.4%</t>
         </is>
       </c>
     </row>
@@ -1803,22 +1807,22 @@
         <v>20</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>4</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
-          <t>55.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>87.1%</t>
+          <t>87.9%</t>
         </is>
       </c>
     </row>
@@ -1885,17 +1889,17 @@
         <v>20</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>4</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
-          <t>55.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="S22" s="4" t="inlineStr">
@@ -1967,22 +1971,22 @@
         <v>20</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>4</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
-          <t>55.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="S23" s="4" t="inlineStr">
         <is>
-          <t>73.9%</t>
+          <t>75.6%</t>
         </is>
       </c>
     </row>
@@ -5755,45 +5759,49 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B94" s="6" t="inlineStr">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C94" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D94" s="6" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E94" s="6" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F94" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G94" s="6" t="inlineStr"/>
-      <c r="H94" s="6" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I94" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>29/31</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -6659,45 +6667,49 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B114" s="6" t="inlineStr">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C114" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D114" s="6" t="inlineStr">
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E114" s="6" t="inlineStr">
+      <c r="E114" s="2" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F114" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G114" s="6" t="inlineStr"/>
-      <c r="H114" s="6" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I114" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H114" s="2" t="inlineStr">
+        <is>
+          <t>25/28</t>
+        </is>
+      </c>
+      <c r="I114" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -7563,45 +7575,49 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B134" s="6" t="inlineStr">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C134" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D134" s="6" t="inlineStr">
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E134" s="6" t="inlineStr">
+      <c r="E134" s="2" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F134" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G134" s="6" t="inlineStr"/>
-      <c r="H134" s="6" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I134" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>28/29</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -8467,45 +8483,49 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B154" s="6" t="inlineStr">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C154" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D154" s="6" t="inlineStr">
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E154" s="6" t="inlineStr">
+      <c r="E154" s="2" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F154" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G154" s="6" t="inlineStr"/>
-      <c r="H154" s="6" t="inlineStr">
-        <is>
-          <t>0/33</t>
-        </is>
-      </c>
-      <c r="I154" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F154" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G154" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H154" s="2" t="inlineStr">
+        <is>
+          <t>30/33</t>
+        </is>
+      </c>
+      <c r="I154" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -9371,45 +9391,49 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B174" s="6" t="inlineStr">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C174" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D174" s="6" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E174" s="6" t="inlineStr">
+      <c r="E174" s="2" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F174" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G174" s="6" t="inlineStr"/>
-      <c r="H174" s="6" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I174" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G174" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>28/30</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
@@ -5419,7 +5419,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5513,7 +5513,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -6014,7 +6014,7 @@
       </c>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
@@ -6374,7 +6374,7 @@
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
@@ -6421,7 +6421,7 @@
       </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
@@ -6515,7 +6515,7 @@
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
@@ -6922,7 +6922,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
@@ -7235,7 +7235,7 @@
       </c>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
@@ -7282,7 +7282,7 @@
       </c>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -7329,7 +7329,7 @@
       </c>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
@@ -7830,7 +7830,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -8143,7 +8143,7 @@
       </c>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
@@ -8190,7 +8190,7 @@
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -8237,7 +8237,7 @@
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
@@ -9051,7 +9051,7 @@
       </c>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -9192,7 +9192,7 @@
       </c>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9646,7 +9646,7 @@
       </c>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr">
@@ -9693,7 +9693,7 @@
       </c>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
@@ -9912,7 +9912,7 @@
       </c>
       <c r="G185" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H185" s="2" t="inlineStr">
@@ -9959,7 +9959,7 @@
       </c>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr">
@@ -10597,7 +10597,7 @@
       </c>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -10863,7 +10863,7 @@
       </c>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr">
@@ -10910,7 +10910,7 @@
       </c>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11595,7 +11595,7 @@
       </c>
       <c r="G222" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H222" s="2" t="inlineStr">
@@ -11814,7 +11814,7 @@
       </c>
       <c r="G227" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H227" s="2" t="inlineStr">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="G228" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H228" s="2" t="inlineStr">
@@ -12499,7 +12499,7 @@
       </c>
       <c r="G242" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H242" s="2" t="inlineStr">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="G243" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H243" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -910,7 +910,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -1090,45 +1090,45 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E12" s="6" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F12" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G12" s="6" t="inlineStr"/>
-      <c r="H12" s="6" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I12" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -1334,10 +1334,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1654,10 +1654,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1732,10 +1732,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1810,10 +1810,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1892,10 +1892,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1974,10 +1974,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -4515,7 +4515,7 @@
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
@@ -5419,7 +5419,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5513,7 +5513,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5654,7 +5654,7 @@
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
@@ -5806,45 +5806,45 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B95" s="6" t="inlineStr">
+      <c r="A95" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B95" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C95" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D95" s="6" t="inlineStr">
+      <c r="C95" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D95" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E95" s="6" t="inlineStr">
+      <c r="E95" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F95" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G95" s="6" t="inlineStr"/>
-      <c r="H95" s="6" t="inlineStr">
+      <c r="F95" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G95" s="5" t="inlineStr"/>
+      <c r="H95" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I95" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I95" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
@@ -6374,7 +6374,7 @@
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
@@ -6421,7 +6421,7 @@
       </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
@@ -6515,7 +6515,7 @@
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
@@ -6714,45 +6714,45 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B115" s="6" t="inlineStr">
+      <c r="A115" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B115" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C115" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D115" s="6" t="inlineStr">
+      <c r="C115" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D115" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E115" s="6" t="inlineStr">
+      <c r="E115" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F115" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G115" s="6" t="inlineStr"/>
-      <c r="H115" s="6" t="inlineStr">
+      <c r="F115" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G115" s="5" t="inlineStr"/>
+      <c r="H115" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I115" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I115" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
@@ -7235,7 +7235,7 @@
       </c>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
@@ -7282,7 +7282,7 @@
       </c>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -7329,7 +7329,7 @@
       </c>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
@@ -7470,7 +7470,7 @@
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -7622,45 +7622,45 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B135" s="6" t="inlineStr">
+      <c r="A135" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B135" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C135" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D135" s="6" t="inlineStr">
+      <c r="C135" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D135" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E135" s="6" t="inlineStr">
+      <c r="E135" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F135" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G135" s="6" t="inlineStr"/>
-      <c r="H135" s="6" t="inlineStr">
+      <c r="F135" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G135" s="5" t="inlineStr"/>
+      <c r="H135" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I135" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I135" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7830,7 +7830,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -8143,7 +8143,7 @@
       </c>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
@@ -8190,7 +8190,7 @@
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -8237,7 +8237,7 @@
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
@@ -8378,7 +8378,7 @@
       </c>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
@@ -8530,45 +8530,45 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B155" s="6" t="inlineStr">
+      <c r="A155" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B155" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C155" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D155" s="6" t="inlineStr">
+      <c r="C155" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D155" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E155" s="6" t="inlineStr">
+      <c r="E155" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F155" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G155" s="6" t="inlineStr"/>
-      <c r="H155" s="6" t="inlineStr">
+      <c r="F155" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G155" s="5" t="inlineStr"/>
+      <c r="H155" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I155" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I155" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8738,7 +8738,7 @@
       </c>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
@@ -9051,7 +9051,7 @@
       </c>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -9192,7 +9192,7 @@
       </c>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9286,7 +9286,7 @@
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -9438,45 +9438,45 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B175" s="6" t="inlineStr">
+      <c r="A175" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B175" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C175" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D175" s="6" t="inlineStr">
+      <c r="C175" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D175" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E175" s="6" t="inlineStr">
+      <c r="E175" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F175" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G175" s="6" t="inlineStr"/>
-      <c r="H175" s="6" t="inlineStr">
+      <c r="F175" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G175" s="5" t="inlineStr"/>
+      <c r="H175" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I175" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I175" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9646,7 +9646,7 @@
       </c>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr">
@@ -9693,7 +9693,7 @@
       </c>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
@@ -9912,7 +9912,7 @@
       </c>
       <c r="G185" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H185" s="2" t="inlineStr">
@@ -9959,7 +9959,7 @@
       </c>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr">
@@ -10006,7 +10006,7 @@
       </c>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr">
@@ -10100,7 +10100,7 @@
       </c>
       <c r="G189" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H189" s="2" t="inlineStr">
@@ -10241,7 +10241,7 @@
       </c>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr">
@@ -10597,7 +10597,7 @@
       </c>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -10863,7 +10863,7 @@
       </c>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr">
@@ -10910,7 +10910,7 @@
       </c>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr">
@@ -10957,7 +10957,7 @@
       </c>
       <c r="G208" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H208" s="2" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="G210" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H210" s="2" t="inlineStr">
@@ -11192,7 +11192,7 @@
       </c>
       <c r="G213" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H213" s="2" t="inlineStr">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11595,7 +11595,7 @@
       </c>
       <c r="G222" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H222" s="2" t="inlineStr">
@@ -11814,7 +11814,7 @@
       </c>
       <c r="G227" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H227" s="2" t="inlineStr">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="G228" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H228" s="2" t="inlineStr">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="G229" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H229" s="2" t="inlineStr">
@@ -12002,7 +12002,7 @@
       </c>
       <c r="G231" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H231" s="2" t="inlineStr">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="G234" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H234" s="2" t="inlineStr">
@@ -12499,7 +12499,7 @@
       </c>
       <c r="G242" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H242" s="2" t="inlineStr">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="G243" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H243" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -910,7 +910,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -1338,10 +1338,10 @@
         <v>13</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1420,10 +1420,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1502,10 +1502,10 @@
         <v>12</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1580,10 +1580,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1658,10 +1658,10 @@
         <v>13</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1736,10 +1736,10 @@
         <v>13</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1753,45 +1753,45 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C21" s="6" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D21" s="6" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E21" s="6" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F21" s="6" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G21" s="6" t="inlineStr"/>
-      <c r="H21" s="6" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr"/>
+      <c r="H21" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I21" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I21" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K21" s="4" t="inlineStr">
@@ -1814,10 +1814,10 @@
         <v>13</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1896,10 +1896,10 @@
         <v>13</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1978,10 +1978,10 @@
         <v>13</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2060,10 +2060,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2142,10 +2142,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -2224,10 +2224,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -3339,45 +3339,45 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B42" s="6" t="inlineStr">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C42" s="6" t="inlineStr">
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D42" s="6" t="inlineStr">
+      <c r="D42" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E42" s="6" t="inlineStr">
+      <c r="E42" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F42" s="6" t="inlineStr">
+      <c r="F42" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G42" s="6" t="inlineStr"/>
-      <c r="H42" s="6" t="inlineStr">
+      <c r="G42" s="5" t="inlineStr"/>
+      <c r="H42" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I42" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I42" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K42" s="1" t="inlineStr">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -4350,45 +4350,45 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B63" s="6" t="inlineStr">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B63" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C63" s="6" t="inlineStr">
+      <c r="C63" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D63" s="6" t="inlineStr">
+      <c r="D63" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E63" s="6" t="inlineStr">
+      <c r="E63" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F63" s="6" t="inlineStr">
+      <c r="F63" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G63" s="6" t="inlineStr"/>
-      <c r="H63" s="6" t="inlineStr">
+      <c r="G63" s="5" t="inlineStr"/>
+      <c r="H63" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I63" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I63" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -4613,7 +4613,7 @@
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
@@ -5301,45 +5301,45 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B84" s="6" t="inlineStr">
+      <c r="A84" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B84" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C84" s="6" t="inlineStr">
+      <c r="C84" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D84" s="6" t="inlineStr">
+      <c r="D84" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E84" s="6" t="inlineStr">
+      <c r="E84" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F84" s="6" t="inlineStr">
+      <c r="F84" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G84" s="6" t="inlineStr"/>
-      <c r="H84" s="6" t="inlineStr">
+      <c r="G84" s="5" t="inlineStr"/>
+      <c r="H84" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I84" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I84" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -5611,7 +5611,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
@@ -6213,45 +6213,45 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B104" s="6" t="inlineStr">
+      <c r="A104" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B104" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C104" s="6" t="inlineStr">
+      <c r="C104" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D104" s="6" t="inlineStr">
+      <c r="D104" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E104" s="6" t="inlineStr">
+      <c r="E104" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F104" s="6" t="inlineStr">
+      <c r="F104" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G104" s="6" t="inlineStr"/>
-      <c r="H104" s="6" t="inlineStr">
+      <c r="G104" s="5" t="inlineStr"/>
+      <c r="H104" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I104" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I104" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -7125,45 +7125,45 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B124" s="6" t="inlineStr">
+      <c r="A124" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B124" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C124" s="6" t="inlineStr">
+      <c r="C124" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D124" s="6" t="inlineStr">
+      <c r="D124" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E124" s="6" t="inlineStr">
+      <c r="E124" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F124" s="6" t="inlineStr">
+      <c r="F124" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G124" s="6" t="inlineStr"/>
-      <c r="H124" s="6" t="inlineStr">
+      <c r="G124" s="5" t="inlineStr"/>
+      <c r="H124" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I124" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I124" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7200,7 +7200,7 @@
       </c>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
@@ -7247,7 +7247,7 @@
       </c>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
@@ -7294,7 +7294,7 @@
       </c>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
@@ -7482,7 +7482,7 @@
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -7846,7 +7846,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -8037,45 +8037,45 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B144" s="6" t="inlineStr">
+      <c r="A144" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B144" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C144" s="6" t="inlineStr">
+      <c r="C144" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D144" s="6" t="inlineStr">
+      <c r="D144" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E144" s="6" t="inlineStr">
+      <c r="E144" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F144" s="6" t="inlineStr">
+      <c r="F144" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G144" s="6" t="inlineStr"/>
-      <c r="H144" s="6" t="inlineStr">
+      <c r="G144" s="5" t="inlineStr"/>
+      <c r="H144" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I144" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I144" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8112,7 +8112,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
@@ -8206,7 +8206,7 @@
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -8253,7 +8253,7 @@
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -8300,7 +8300,7 @@
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
@@ -8949,45 +8949,45 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B164" s="6" t="inlineStr">
+      <c r="A164" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B164" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C164" s="6" t="inlineStr">
+      <c r="C164" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D164" s="6" t="inlineStr">
+      <c r="D164" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E164" s="6" t="inlineStr">
+      <c r="E164" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F164" s="6" t="inlineStr">
+      <c r="F164" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G164" s="6" t="inlineStr"/>
-      <c r="H164" s="6" t="inlineStr">
+      <c r="G164" s="5" t="inlineStr"/>
+      <c r="H164" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I164" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I164" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9024,7 +9024,7 @@
       </c>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
@@ -9118,7 +9118,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -9212,7 +9212,7 @@
       </c>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -9259,7 +9259,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -9670,7 +9670,7 @@
       </c>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
@@ -9861,45 +9861,45 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B184" s="6" t="inlineStr">
+      <c r="A184" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B184" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C184" s="6" t="inlineStr">
+      <c r="C184" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D184" s="6" t="inlineStr">
+      <c r="D184" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E184" s="6" t="inlineStr">
+      <c r="E184" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F184" s="6" t="inlineStr">
+      <c r="F184" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G184" s="6" t="inlineStr"/>
-      <c r="H184" s="6" t="inlineStr">
+      <c r="G184" s="5" t="inlineStr"/>
+      <c r="H184" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I184" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I184" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9936,7 +9936,7 @@
       </c>
       <c r="G185" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H185" s="2" t="inlineStr">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr">
@@ -10030,7 +10030,7 @@
       </c>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr">
@@ -10124,7 +10124,7 @@
       </c>
       <c r="G189" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H189" s="2" t="inlineStr">
@@ -10265,7 +10265,7 @@
       </c>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr">
@@ -10621,7 +10621,7 @@
       </c>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
@@ -10668,7 +10668,7 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -10812,45 +10812,45 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B205" s="6" t="inlineStr">
+      <c r="A205" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B205" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C205" s="6" t="inlineStr">
+      <c r="C205" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D205" s="6" t="inlineStr">
+      <c r="D205" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E205" s="6" t="inlineStr">
+      <c r="E205" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F205" s="6" t="inlineStr">
+      <c r="F205" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G205" s="6" t="inlineStr"/>
-      <c r="H205" s="6" t="inlineStr">
+      <c r="G205" s="5" t="inlineStr"/>
+      <c r="H205" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I205" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I205" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10887,7 +10887,7 @@
       </c>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr">
@@ -10934,7 +10934,7 @@
       </c>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr">
@@ -10981,7 +10981,7 @@
       </c>
       <c r="G208" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H208" s="2" t="inlineStr">
@@ -11075,7 +11075,7 @@
       </c>
       <c r="G210" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H210" s="2" t="inlineStr">
@@ -11216,7 +11216,7 @@
       </c>
       <c r="G213" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H213" s="2" t="inlineStr">
@@ -11572,7 +11572,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11619,7 +11619,7 @@
       </c>
       <c r="G222" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H222" s="2" t="inlineStr">
@@ -11763,45 +11763,45 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B226" s="6" t="inlineStr">
+      <c r="A226" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B226" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C226" s="6" t="inlineStr">
+      <c r="C226" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D226" s="6" t="inlineStr">
+      <c r="D226" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E226" s="6" t="inlineStr">
+      <c r="E226" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F226" s="6" t="inlineStr">
+      <c r="F226" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G226" s="6" t="inlineStr"/>
-      <c r="H226" s="6" t="inlineStr">
+      <c r="G226" s="5" t="inlineStr"/>
+      <c r="H226" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I226" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I226" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11838,7 +11838,7 @@
       </c>
       <c r="G227" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H227" s="2" t="inlineStr">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="G228" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H228" s="2" t="inlineStr">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="G229" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H229" s="2" t="inlineStr">
@@ -12026,7 +12026,7 @@
       </c>
       <c r="G231" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H231" s="2" t="inlineStr">
@@ -12167,7 +12167,7 @@
       </c>
       <c r="G234" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H234" s="2" t="inlineStr">
@@ -12523,7 +12523,7 @@
       </c>
       <c r="G242" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H242" s="2" t="inlineStr">
@@ -12570,7 +12570,7 @@
       </c>
       <c r="G243" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H243" s="2" t="inlineStr">
@@ -12714,45 +12714,45 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B247" s="6" t="inlineStr">
+      <c r="A247" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B247" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C247" s="6" t="inlineStr">
+      <c r="C247" s="5" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D247" s="6" t="inlineStr">
+      <c r="D247" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E247" s="6" t="inlineStr">
+      <c r="E247" s="5" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F247" s="6" t="inlineStr">
+      <c r="F247" s="5" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G247" s="6" t="inlineStr"/>
-      <c r="H247" s="6" t="inlineStr">
+      <c r="G247" s="5" t="inlineStr"/>
+      <c r="H247" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I247" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I247" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_session_analysis.xlsx
@@ -58,14 +58,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFB6C1"/>
-        <bgColor rgb="00FFB6C1"/>
+        <fgColor rgb="00FFFFE0"/>
+        <bgColor rgb="00FFFFE0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFE0"/>
-        <bgColor rgb="00FFFFE0"/>
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
       </patternFill>
     </fill>
   </fills>
@@ -102,10 +102,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7">
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -985,50 +985,54 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>59.7%</t>
+          <t>62.8%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I10" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24/28</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
       <c r="K10" s="4" t="inlineStr">
@@ -1038,7 +1042,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>78.7%</t>
+          <t>80.4%</t>
         </is>
       </c>
     </row>
@@ -1137,43 +1141,43 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E13" s="6" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F13" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G13" s="6" t="inlineStr"/>
-      <c r="H13" s="6" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I13" s="6" t="inlineStr">
+      <c r="I13" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1185,43 +1189,43 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E14" s="6" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F14" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G14" s="6" t="inlineStr"/>
-      <c r="H14" s="6" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I14" s="6" t="inlineStr">
+      <c r="I14" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -1335,22 +1339,22 @@
         <v>20</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>2</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>70.0%</t>
         </is>
       </c>
       <c r="S15" s="4" t="inlineStr">
         <is>
-          <t>81.0%</t>
+          <t>81.4%</t>
         </is>
       </c>
     </row>
@@ -1417,22 +1421,22 @@
         <v>21</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>2</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>61.9%</t>
         </is>
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>73.7%</t>
+          <t>74.4%</t>
         </is>
       </c>
     </row>
@@ -1499,63 +1503,63 @@
         <v>21</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>2</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>61.9%</t>
         </is>
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>63.9%</t>
+          <t>66.2%</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D18" s="5" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="E18" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="F18" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr">
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I18" s="5" t="inlineStr">
+      <c r="I18" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -1577,63 +1581,63 @@
         <v>21</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>2</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>61.9%</t>
         </is>
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>82.1%</t>
+          <t>83.2%</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D19" s="5" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="E19" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="F19" s="6" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr">
+      <c r="G19" s="6" t="inlineStr"/>
+      <c r="H19" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I19" s="5" t="inlineStr">
+      <c r="I19" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -1670,48 +1674,48 @@
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>80.6%</t>
+          <t>87.3%</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D20" s="5" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="E20" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="F20" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr">
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I20" s="5" t="inlineStr">
+      <c r="I20" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -1733,63 +1737,63 @@
         <v>20</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>2</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>70.0%</t>
         </is>
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>91.2%</t>
+          <t>91.1%</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D21" s="5" t="inlineStr">
+      <c r="D21" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="E21" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="F21" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr">
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I21" s="5" t="inlineStr">
+      <c r="I21" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -1826,7 +1830,7 @@
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>79.6%</t>
+          <t>86.0%</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1912,7 @@
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>89.4%</t>
+          <t>90.9%</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1994,7 @@
       </c>
       <c r="S23" s="4" t="inlineStr">
         <is>
-          <t>77.6%</t>
+          <t>78.6%</t>
         </is>
       </c>
     </row>
@@ -2057,22 +2061,22 @@
         <v>21</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>2</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>61.9%</t>
         </is>
       </c>
       <c r="S24" s="4" t="inlineStr">
         <is>
-          <t>71.3%</t>
+          <t>73.2%</t>
         </is>
       </c>
     </row>
@@ -2139,22 +2143,22 @@
         <v>21</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>2</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>61.9%</t>
         </is>
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>75.9%</t>
+          <t>75.1%</t>
         </is>
       </c>
     </row>
@@ -2221,22 +2225,22 @@
         <v>21</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>2</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>61.9%</t>
         </is>
       </c>
       <c r="S26" s="4" t="inlineStr">
         <is>
-          <t>74.7%</t>
+          <t>74.8%</t>
         </is>
       </c>
     </row>
@@ -2487,43 +2491,43 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D30" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="E30" s="6" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr"/>
-      <c r="H30" s="5" t="inlineStr">
+      <c r="F30" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G30" s="6" t="inlineStr"/>
+      <c r="H30" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I30" s="5" t="inlineStr">
+      <c r="I30" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -2565,43 +2569,43 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D31" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="E31" s="6" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G31" s="5" t="inlineStr"/>
-      <c r="H31" s="5" t="inlineStr">
+      <c r="F31" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G31" s="6" t="inlineStr"/>
+      <c r="H31" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I31" s="5" t="inlineStr">
+      <c r="I31" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -2643,45 +2647,49 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D32" s="5" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E32" s="5" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F32" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G32" s="5" t="inlineStr"/>
-      <c r="H32" s="5" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I32" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>System, dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>26/31</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
       <c r="K32" s="4" t="inlineStr">
@@ -2803,43 +2811,43 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B34" s="6" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C34" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D34" s="6" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E34" s="6" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F34" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G34" s="6" t="inlineStr"/>
-      <c r="H34" s="6" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G34" s="5" t="inlineStr"/>
+      <c r="H34" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I34" s="6" t="inlineStr">
+      <c r="I34" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -2881,43 +2889,43 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B35" s="6" t="inlineStr">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C35" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D35" s="6" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E35" s="6" t="inlineStr">
+      <c r="E35" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F35" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G35" s="6" t="inlineStr"/>
-      <c r="H35" s="6" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G35" s="5" t="inlineStr"/>
+      <c r="H35" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I35" s="6" t="inlineStr">
+      <c r="I35" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -3205,129 +3213,129 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B39" s="5" t="inlineStr">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C39" s="5" t="inlineStr">
+      <c r="C39" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D39" s="5" t="inlineStr">
+      <c r="D39" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E39" s="5" t="inlineStr">
+      <c r="E39" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F39" s="5" t="inlineStr">
+      <c r="F39" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G39" s="5" t="inlineStr"/>
-      <c r="H39" s="5" t="inlineStr">
+      <c r="G39" s="6" t="inlineStr"/>
+      <c r="H39" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I39" s="5" t="inlineStr">
+      <c r="I39" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B40" s="5" t="inlineStr">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B40" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C40" s="5" t="inlineStr">
+      <c r="C40" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D40" s="5" t="inlineStr">
+      <c r="D40" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E40" s="5" t="inlineStr">
+      <c r="E40" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F40" s="5" t="inlineStr">
+      <c r="F40" s="6" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G40" s="5" t="inlineStr"/>
-      <c r="H40" s="5" t="inlineStr">
+      <c r="G40" s="6" t="inlineStr"/>
+      <c r="H40" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I40" s="5" t="inlineStr">
+      <c r="I40" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B41" s="5" t="inlineStr">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B41" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C41" s="5" t="inlineStr">
+      <c r="C41" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D41" s="5" t="inlineStr">
+      <c r="D41" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E41" s="5" t="inlineStr">
+      <c r="E41" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F41" s="5" t="inlineStr">
+      <c r="F41" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G41" s="5" t="inlineStr"/>
-      <c r="H41" s="5" t="inlineStr">
+      <c r="G41" s="6" t="inlineStr"/>
+      <c r="H41" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I41" s="5" t="inlineStr">
+      <c r="I41" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -3339,43 +3347,43 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B42" s="5" t="inlineStr">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B42" s="6" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C42" s="5" t="inlineStr">
+      <c r="C42" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D42" s="5" t="inlineStr">
+      <c r="D42" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E42" s="5" t="inlineStr">
+      <c r="E42" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F42" s="5" t="inlineStr">
+      <c r="F42" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G42" s="5" t="inlineStr"/>
-      <c r="H42" s="5" t="inlineStr">
+      <c r="G42" s="6" t="inlineStr"/>
+      <c r="H42" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I42" s="5" t="inlineStr">
+      <c r="I42" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -3818,131 +3826,135 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B51" s="5" t="inlineStr">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C51" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D51" s="5" t="inlineStr">
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E51" s="5" t="inlineStr">
+      <c r="E51" s="6" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F51" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G51" s="5" t="inlineStr"/>
-      <c r="H51" s="5" t="inlineStr">
+      <c r="F51" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G51" s="6" t="inlineStr"/>
+      <c r="H51" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I51" s="5" t="inlineStr">
+      <c r="I51" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C52" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D52" s="5" t="inlineStr">
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D52" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E52" s="5" t="inlineStr">
+      <c r="E52" s="6" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F52" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G52" s="5" t="inlineStr"/>
-      <c r="H52" s="5" t="inlineStr">
+      <c r="F52" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G52" s="6" t="inlineStr"/>
+      <c r="H52" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I52" s="5" t="inlineStr">
+      <c r="I52" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B53" s="5" t="inlineStr">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C53" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D53" s="5" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E53" s="5" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F53" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G53" s="5" t="inlineStr"/>
-      <c r="H53" s="5" t="inlineStr">
-        <is>
-          <t>0/18</t>
-        </is>
-      </c>
-      <c r="I53" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>System, dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>17/18</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -3994,86 +4006,86 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B55" s="6" t="inlineStr">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B55" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C55" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D55" s="6" t="inlineStr">
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E55" s="6" t="inlineStr">
+      <c r="E55" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F55" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G55" s="6" t="inlineStr"/>
-      <c r="H55" s="6" t="inlineStr">
+      <c r="F55" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G55" s="5" t="inlineStr"/>
+      <c r="H55" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I55" s="6" t="inlineStr">
+      <c r="I55" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B56" s="6" t="inlineStr">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B56" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C56" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D56" s="6" t="inlineStr">
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E56" s="6" t="inlineStr">
+      <c r="E56" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F56" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G56" s="6" t="inlineStr"/>
-      <c r="H56" s="6" t="inlineStr">
+      <c r="F56" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G56" s="5" t="inlineStr"/>
+      <c r="H56" s="5" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I56" s="6" t="inlineStr">
+      <c r="I56" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -4221,172 +4233,172 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B60" s="5" t="inlineStr">
+      <c r="A60" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B60" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C60" s="5" t="inlineStr">
+      <c r="C60" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D60" s="5" t="inlineStr">
+      <c r="D60" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E60" s="5" t="inlineStr">
+      <c r="E60" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F60" s="5" t="inlineStr">
+      <c r="F60" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G60" s="5" t="inlineStr"/>
-      <c r="H60" s="5" t="inlineStr">
+      <c r="G60" s="6" t="inlineStr"/>
+      <c r="H60" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I60" s="5" t="inlineStr">
+      <c r="I60" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B61" s="5" t="inlineStr">
+      <c r="A61" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B61" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C61" s="5" t="inlineStr">
+      <c r="C61" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D61" s="5" t="inlineStr">
+      <c r="D61" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E61" s="5" t="inlineStr">
+      <c r="E61" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F61" s="5" t="inlineStr">
+      <c r="F61" s="6" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G61" s="5" t="inlineStr"/>
-      <c r="H61" s="5" t="inlineStr">
+      <c r="G61" s="6" t="inlineStr"/>
+      <c r="H61" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I61" s="5" t="inlineStr">
+      <c r="I61" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B62" s="5" t="inlineStr">
+      <c r="A62" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B62" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C62" s="5" t="inlineStr">
+      <c r="C62" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D62" s="5" t="inlineStr">
+      <c r="D62" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E62" s="5" t="inlineStr">
+      <c r="E62" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F62" s="5" t="inlineStr">
+      <c r="F62" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G62" s="5" t="inlineStr"/>
-      <c r="H62" s="5" t="inlineStr">
+      <c r="G62" s="6" t="inlineStr"/>
+      <c r="H62" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I62" s="5" t="inlineStr">
+      <c r="I62" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B63" s="5" t="inlineStr">
+      <c r="A63" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B63" s="6" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C63" s="5" t="inlineStr">
+      <c r="C63" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D63" s="5" t="inlineStr">
+      <c r="D63" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E63" s="5" t="inlineStr">
+      <c r="E63" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F63" s="5" t="inlineStr">
+      <c r="F63" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G63" s="5" t="inlineStr"/>
-      <c r="H63" s="5" t="inlineStr">
+      <c r="G63" s="6" t="inlineStr"/>
+      <c r="H63" s="6" t="inlineStr">
         <is>
           <t>0/18</t>
         </is>
       </c>
-      <c r="I63" s="5" t="inlineStr">
+      <c r="I63" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -4769,131 +4781,135 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B72" s="5" t="inlineStr">
+      <c r="A72" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B72" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C72" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D72" s="5" t="inlineStr">
+      <c r="C72" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D72" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E72" s="5" t="inlineStr">
+      <c r="E72" s="6" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F72" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G72" s="5" t="inlineStr"/>
-      <c r="H72" s="5" t="inlineStr">
+      <c r="F72" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G72" s="6" t="inlineStr"/>
+      <c r="H72" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I72" s="5" t="inlineStr">
+      <c r="I72" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B73" s="5" t="inlineStr">
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C73" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D73" s="5" t="inlineStr">
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E73" s="5" t="inlineStr">
+      <c r="E73" s="6" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F73" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G73" s="5" t="inlineStr"/>
-      <c r="H73" s="5" t="inlineStr">
+      <c r="F73" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G73" s="6" t="inlineStr"/>
+      <c r="H73" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I73" s="5" t="inlineStr">
+      <c r="I73" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B74" s="5" t="inlineStr">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C74" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D74" s="5" t="inlineStr">
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E74" s="5" t="inlineStr">
+      <c r="E74" s="2" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F74" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G74" s="5" t="inlineStr"/>
-      <c r="H74" s="5" t="inlineStr">
-        <is>
-          <t>0/21</t>
-        </is>
-      </c>
-      <c r="I74" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>System, dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>20/21</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -4945,86 +4961,86 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B76" s="6" t="inlineStr">
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B76" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C76" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D76" s="6" t="inlineStr">
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D76" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E76" s="6" t="inlineStr">
+      <c r="E76" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F76" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G76" s="6" t="inlineStr"/>
-      <c r="H76" s="6" t="inlineStr">
+      <c r="F76" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G76" s="5" t="inlineStr"/>
+      <c r="H76" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I76" s="6" t="inlineStr">
+      <c r="I76" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B77" s="6" t="inlineStr">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B77" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C77" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D77" s="6" t="inlineStr">
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D77" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E77" s="6" t="inlineStr">
+      <c r="E77" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F77" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G77" s="6" t="inlineStr"/>
-      <c r="H77" s="6" t="inlineStr">
+      <c r="F77" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G77" s="5" t="inlineStr"/>
+      <c r="H77" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I77" s="6" t="inlineStr">
+      <c r="I77" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -5172,172 +5188,172 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B81" s="5" t="inlineStr">
+      <c r="A81" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B81" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C81" s="5" t="inlineStr">
+      <c r="C81" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D81" s="5" t="inlineStr">
+      <c r="D81" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E81" s="5" t="inlineStr">
+      <c r="E81" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F81" s="5" t="inlineStr">
+      <c r="F81" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G81" s="5" t="inlineStr"/>
-      <c r="H81" s="5" t="inlineStr">
+      <c r="G81" s="6" t="inlineStr"/>
+      <c r="H81" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I81" s="5" t="inlineStr">
+      <c r="I81" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B82" s="5" t="inlineStr">
+      <c r="A82" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B82" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C82" s="5" t="inlineStr">
+      <c r="C82" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D82" s="5" t="inlineStr">
+      <c r="D82" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E82" s="5" t="inlineStr">
+      <c r="E82" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F82" s="5" t="inlineStr">
+      <c r="F82" s="6" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G82" s="5" t="inlineStr"/>
-      <c r="H82" s="5" t="inlineStr">
+      <c r="G82" s="6" t="inlineStr"/>
+      <c r="H82" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I82" s="5" t="inlineStr">
+      <c r="I82" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B83" s="5" t="inlineStr">
+      <c r="A83" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B83" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C83" s="5" t="inlineStr">
+      <c r="C83" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D83" s="5" t="inlineStr">
+      <c r="D83" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E83" s="5" t="inlineStr">
+      <c r="E83" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F83" s="5" t="inlineStr">
+      <c r="F83" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G83" s="5" t="inlineStr"/>
-      <c r="H83" s="5" t="inlineStr">
+      <c r="G83" s="6" t="inlineStr"/>
+      <c r="H83" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I83" s="5" t="inlineStr">
+      <c r="I83" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B84" s="5" t="inlineStr">
+      <c r="A84" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B84" s="6" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C84" s="5" t="inlineStr">
+      <c r="C84" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D84" s="5" t="inlineStr">
+      <c r="D84" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E84" s="5" t="inlineStr">
+      <c r="E84" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F84" s="5" t="inlineStr">
+      <c r="F84" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G84" s="5" t="inlineStr"/>
-      <c r="H84" s="5" t="inlineStr">
+      <c r="G84" s="6" t="inlineStr"/>
+      <c r="H84" s="6" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I84" s="5" t="inlineStr">
+      <c r="I84" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -5757,7 +5773,7 @@
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>1/31</t>
+          <t>30/31</t>
         </is>
       </c>
       <c r="I93" s="2" t="inlineStr">
@@ -5861,86 +5877,86 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B96" s="6" t="inlineStr">
+      <c r="A96" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B96" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C96" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D96" s="6" t="inlineStr">
+      <c r="C96" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D96" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E96" s="6" t="inlineStr">
+      <c r="E96" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F96" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G96" s="6" t="inlineStr"/>
-      <c r="H96" s="6" t="inlineStr">
+      <c r="F96" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G96" s="5" t="inlineStr"/>
+      <c r="H96" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I96" s="6" t="inlineStr">
+      <c r="I96" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B97" s="6" t="inlineStr">
+      <c r="A97" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B97" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C97" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D97" s="6" t="inlineStr">
+      <c r="C97" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D97" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E97" s="6" t="inlineStr">
+      <c r="E97" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F97" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G97" s="6" t="inlineStr"/>
-      <c r="H97" s="6" t="inlineStr">
+      <c r="F97" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G97" s="5" t="inlineStr"/>
+      <c r="H97" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I97" s="6" t="inlineStr">
+      <c r="I97" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -6088,172 +6104,172 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B101" s="5" t="inlineStr">
+      <c r="A101" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B101" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C101" s="5" t="inlineStr">
+      <c r="C101" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D101" s="5" t="inlineStr">
+      <c r="D101" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E101" s="5" t="inlineStr">
+      <c r="E101" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F101" s="5" t="inlineStr">
+      <c r="F101" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G101" s="5" t="inlineStr"/>
-      <c r="H101" s="5" t="inlineStr">
+      <c r="G101" s="6" t="inlineStr"/>
+      <c r="H101" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I101" s="5" t="inlineStr">
+      <c r="I101" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B102" s="5" t="inlineStr">
+      <c r="A102" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B102" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C102" s="5" t="inlineStr">
+      <c r="C102" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D102" s="5" t="inlineStr">
+      <c r="D102" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E102" s="5" t="inlineStr">
+      <c r="E102" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F102" s="5" t="inlineStr">
+      <c r="F102" s="6" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G102" s="5" t="inlineStr"/>
-      <c r="H102" s="5" t="inlineStr">
+      <c r="G102" s="6" t="inlineStr"/>
+      <c r="H102" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I102" s="5" t="inlineStr">
+      <c r="I102" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B103" s="5" t="inlineStr">
+      <c r="A103" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B103" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C103" s="5" t="inlineStr">
+      <c r="C103" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D103" s="5" t="inlineStr">
+      <c r="D103" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E103" s="5" t="inlineStr">
+      <c r="E103" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F103" s="5" t="inlineStr">
+      <c r="F103" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G103" s="5" t="inlineStr"/>
-      <c r="H103" s="5" t="inlineStr">
+      <c r="G103" s="6" t="inlineStr"/>
+      <c r="H103" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I103" s="5" t="inlineStr">
+      <c r="I103" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B104" s="5" t="inlineStr">
+      <c r="A104" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B104" s="6" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C104" s="5" t="inlineStr">
+      <c r="C104" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D104" s="5" t="inlineStr">
+      <c r="D104" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E104" s="5" t="inlineStr">
+      <c r="E104" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F104" s="5" t="inlineStr">
+      <c r="F104" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G104" s="5" t="inlineStr"/>
-      <c r="H104" s="5" t="inlineStr">
+      <c r="G104" s="6" t="inlineStr"/>
+      <c r="H104" s="6" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I104" s="5" t="inlineStr">
+      <c r="I104" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -6636,45 +6652,49 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B113" s="5" t="inlineStr">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C113" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D113" s="5" t="inlineStr">
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E113" s="5" t="inlineStr">
+      <c r="E113" s="2" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F113" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G113" s="5" t="inlineStr"/>
-      <c r="H113" s="5" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I113" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H113" s="2" t="inlineStr">
+        <is>
+          <t>25/28</t>
+        </is>
+      </c>
+      <c r="I113" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -6773,86 +6793,86 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B116" s="6" t="inlineStr">
+      <c r="A116" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B116" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C116" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D116" s="6" t="inlineStr">
+      <c r="C116" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D116" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E116" s="6" t="inlineStr">
+      <c r="E116" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F116" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G116" s="6" t="inlineStr"/>
-      <c r="H116" s="6" t="inlineStr">
+      <c r="F116" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G116" s="5" t="inlineStr"/>
+      <c r="H116" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I116" s="6" t="inlineStr">
+      <c r="I116" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B117" s="6" t="inlineStr">
+      <c r="A117" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B117" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C117" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D117" s="6" t="inlineStr">
+      <c r="C117" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D117" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E117" s="6" t="inlineStr">
+      <c r="E117" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F117" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G117" s="6" t="inlineStr"/>
-      <c r="H117" s="6" t="inlineStr">
+      <c r="F117" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G117" s="5" t="inlineStr"/>
+      <c r="H117" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I117" s="6" t="inlineStr">
+      <c r="I117" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -7000,172 +7020,172 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B121" s="5" t="inlineStr">
+      <c r="A121" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B121" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C121" s="5" t="inlineStr">
+      <c r="C121" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D121" s="5" t="inlineStr">
+      <c r="D121" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E121" s="5" t="inlineStr">
+      <c r="E121" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F121" s="5" t="inlineStr">
+      <c r="F121" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G121" s="5" t="inlineStr"/>
-      <c r="H121" s="5" t="inlineStr">
+      <c r="G121" s="6" t="inlineStr"/>
+      <c r="H121" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I121" s="5" t="inlineStr">
+      <c r="I121" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B122" s="5" t="inlineStr">
+      <c r="A122" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B122" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C122" s="5" t="inlineStr">
+      <c r="C122" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D122" s="5" t="inlineStr">
+      <c r="D122" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E122" s="5" t="inlineStr">
+      <c r="E122" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F122" s="5" t="inlineStr">
+      <c r="F122" s="6" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G122" s="5" t="inlineStr"/>
-      <c r="H122" s="5" t="inlineStr">
+      <c r="G122" s="6" t="inlineStr"/>
+      <c r="H122" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I122" s="5" t="inlineStr">
+      <c r="I122" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B123" s="5" t="inlineStr">
+      <c r="A123" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B123" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C123" s="5" t="inlineStr">
+      <c r="C123" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D123" s="5" t="inlineStr">
+      <c r="D123" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E123" s="5" t="inlineStr">
+      <c r="E123" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F123" s="5" t="inlineStr">
+      <c r="F123" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G123" s="5" t="inlineStr"/>
-      <c r="H123" s="5" t="inlineStr">
+      <c r="G123" s="6" t="inlineStr"/>
+      <c r="H123" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I123" s="5" t="inlineStr">
+      <c r="I123" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B124" s="5" t="inlineStr">
+      <c r="A124" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B124" s="6" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C124" s="5" t="inlineStr">
+      <c r="C124" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D124" s="5" t="inlineStr">
+      <c r="D124" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E124" s="5" t="inlineStr">
+      <c r="E124" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F124" s="5" t="inlineStr">
+      <c r="F124" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G124" s="5" t="inlineStr"/>
-      <c r="H124" s="5" t="inlineStr">
+      <c r="G124" s="6" t="inlineStr"/>
+      <c r="H124" s="6" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I124" s="5" t="inlineStr">
+      <c r="I124" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -7585,7 +7605,7 @@
       </c>
       <c r="H133" s="2" t="inlineStr">
         <is>
-          <t>2/29</t>
+          <t>28/29</t>
         </is>
       </c>
       <c r="I133" s="2" t="inlineStr">
@@ -7689,86 +7709,86 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B136" s="6" t="inlineStr">
+      <c r="A136" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B136" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C136" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D136" s="6" t="inlineStr">
+      <c r="C136" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D136" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E136" s="6" t="inlineStr">
+      <c r="E136" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F136" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G136" s="6" t="inlineStr"/>
-      <c r="H136" s="6" t="inlineStr">
+      <c r="F136" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G136" s="5" t="inlineStr"/>
+      <c r="H136" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I136" s="6" t="inlineStr">
+      <c r="I136" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B137" s="6" t="inlineStr">
+      <c r="A137" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B137" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C137" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D137" s="6" t="inlineStr">
+      <c r="C137" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D137" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E137" s="6" t="inlineStr">
+      <c r="E137" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F137" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G137" s="6" t="inlineStr"/>
-      <c r="H137" s="6" t="inlineStr">
+      <c r="F137" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G137" s="5" t="inlineStr"/>
+      <c r="H137" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I137" s="6" t="inlineStr">
+      <c r="I137" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -7916,172 +7936,172 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B141" s="5" t="inlineStr">
+      <c r="A141" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B141" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C141" s="5" t="inlineStr">
+      <c r="C141" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D141" s="5" t="inlineStr">
+      <c r="D141" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E141" s="5" t="inlineStr">
+      <c r="E141" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F141" s="5" t="inlineStr">
+      <c r="F141" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G141" s="5" t="inlineStr"/>
-      <c r="H141" s="5" t="inlineStr">
+      <c r="G141" s="6" t="inlineStr"/>
+      <c r="H141" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I141" s="5" t="inlineStr">
+      <c r="I141" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B142" s="5" t="inlineStr">
+      <c r="A142" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B142" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C142" s="5" t="inlineStr">
+      <c r="C142" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D142" s="5" t="inlineStr">
+      <c r="D142" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E142" s="5" t="inlineStr">
+      <c r="E142" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F142" s="5" t="inlineStr">
+      <c r="F142" s="6" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G142" s="5" t="inlineStr"/>
-      <c r="H142" s="5" t="inlineStr">
+      <c r="G142" s="6" t="inlineStr"/>
+      <c r="H142" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I142" s="5" t="inlineStr">
+      <c r="I142" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B143" s="5" t="inlineStr">
+      <c r="A143" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B143" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C143" s="5" t="inlineStr">
+      <c r="C143" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D143" s="5" t="inlineStr">
+      <c r="D143" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E143" s="5" t="inlineStr">
+      <c r="E143" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F143" s="5" t="inlineStr">
+      <c r="F143" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G143" s="5" t="inlineStr"/>
-      <c r="H143" s="5" t="inlineStr">
+      <c r="G143" s="6" t="inlineStr"/>
+      <c r="H143" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I143" s="5" t="inlineStr">
+      <c r="I143" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B144" s="5" t="inlineStr">
+      <c r="A144" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B144" s="6" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C144" s="5" t="inlineStr">
+      <c r="C144" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D144" s="5" t="inlineStr">
+      <c r="D144" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E144" s="5" t="inlineStr">
+      <c r="E144" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F144" s="5" t="inlineStr">
+      <c r="F144" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G144" s="5" t="inlineStr"/>
-      <c r="H144" s="5" t="inlineStr">
+      <c r="G144" s="6" t="inlineStr"/>
+      <c r="H144" s="6" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I144" s="5" t="inlineStr">
+      <c r="I144" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -8501,7 +8521,7 @@
       </c>
       <c r="H153" s="2" t="inlineStr">
         <is>
-          <t>23/33</t>
+          <t>30/33</t>
         </is>
       </c>
       <c r="I153" s="2" t="inlineStr">
@@ -8605,86 +8625,86 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B156" s="6" t="inlineStr">
+      <c r="A156" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B156" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C156" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D156" s="6" t="inlineStr">
+      <c r="C156" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D156" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E156" s="6" t="inlineStr">
+      <c r="E156" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F156" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G156" s="6" t="inlineStr"/>
-      <c r="H156" s="6" t="inlineStr">
+      <c r="F156" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G156" s="5" t="inlineStr"/>
+      <c r="H156" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I156" s="6" t="inlineStr">
+      <c r="I156" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B157" s="6" t="inlineStr">
+      <c r="A157" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B157" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C157" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D157" s="6" t="inlineStr">
+      <c r="C157" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D157" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E157" s="6" t="inlineStr">
+      <c r="E157" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F157" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G157" s="6" t="inlineStr"/>
-      <c r="H157" s="6" t="inlineStr">
+      <c r="F157" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G157" s="5" t="inlineStr"/>
+      <c r="H157" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I157" s="6" t="inlineStr">
+      <c r="I157" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -8832,172 +8852,172 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B161" s="5" t="inlineStr">
+      <c r="A161" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B161" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C161" s="5" t="inlineStr">
+      <c r="C161" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D161" s="5" t="inlineStr">
+      <c r="D161" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E161" s="5" t="inlineStr">
+      <c r="E161" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F161" s="5" t="inlineStr">
+      <c r="F161" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G161" s="5" t="inlineStr"/>
-      <c r="H161" s="5" t="inlineStr">
+      <c r="G161" s="6" t="inlineStr"/>
+      <c r="H161" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I161" s="5" t="inlineStr">
+      <c r="I161" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B162" s="5" t="inlineStr">
+      <c r="A162" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B162" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C162" s="5" t="inlineStr">
+      <c r="C162" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D162" s="5" t="inlineStr">
+      <c r="D162" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E162" s="5" t="inlineStr">
+      <c r="E162" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F162" s="5" t="inlineStr">
+      <c r="F162" s="6" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G162" s="5" t="inlineStr"/>
-      <c r="H162" s="5" t="inlineStr">
+      <c r="G162" s="6" t="inlineStr"/>
+      <c r="H162" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I162" s="5" t="inlineStr">
+      <c r="I162" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B163" s="5" t="inlineStr">
+      <c r="A163" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B163" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C163" s="5" t="inlineStr">
+      <c r="C163" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D163" s="5" t="inlineStr">
+      <c r="D163" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E163" s="5" t="inlineStr">
+      <c r="E163" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F163" s="5" t="inlineStr">
+      <c r="F163" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G163" s="5" t="inlineStr"/>
-      <c r="H163" s="5" t="inlineStr">
+      <c r="G163" s="6" t="inlineStr"/>
+      <c r="H163" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I163" s="5" t="inlineStr">
+      <c r="I163" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B164" s="5" t="inlineStr">
+      <c r="A164" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B164" s="6" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C164" s="5" t="inlineStr">
+      <c r="C164" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D164" s="5" t="inlineStr">
+      <c r="D164" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E164" s="5" t="inlineStr">
+      <c r="E164" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F164" s="5" t="inlineStr">
+      <c r="F164" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G164" s="5" t="inlineStr"/>
-      <c r="H164" s="5" t="inlineStr">
+      <c r="G164" s="6" t="inlineStr"/>
+      <c r="H164" s="6" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I164" s="5" t="inlineStr">
+      <c r="I164" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -9417,7 +9437,7 @@
       </c>
       <c r="H173" s="2" t="inlineStr">
         <is>
-          <t>25/30</t>
+          <t>29/30</t>
         </is>
       </c>
       <c r="I173" s="2" t="inlineStr">
@@ -9521,86 +9541,86 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B176" s="6" t="inlineStr">
+      <c r="A176" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B176" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C176" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D176" s="6" t="inlineStr">
+      <c r="C176" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D176" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E176" s="6" t="inlineStr">
+      <c r="E176" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F176" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G176" s="6" t="inlineStr"/>
-      <c r="H176" s="6" t="inlineStr">
+      <c r="F176" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G176" s="5" t="inlineStr"/>
+      <c r="H176" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I176" s="6" t="inlineStr">
+      <c r="I176" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B177" s="6" t="inlineStr">
+      <c r="A177" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B177" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C177" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D177" s="6" t="inlineStr">
+      <c r="C177" s="5" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D177" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E177" s="6" t="inlineStr">
+      <c r="E177" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F177" s="6" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G177" s="6" t="inlineStr"/>
-      <c r="H177" s="6" t="inlineStr">
+      <c r="F177" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G177" s="5" t="inlineStr"/>
+      <c r="H177" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I177" s="6" t="inlineStr">
+      <c r="I177" s="5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -9748,172 +9768,172 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B181" s="5" t="inlineStr">
+      <c r="A181" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B181" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C181" s="5" t="inlineStr">
+      <c r="C181" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D181" s="5" t="inlineStr">
+      <c r="D181" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E181" s="5" t="inlineStr">
+      <c r="E181" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F181" s="5" t="inlineStr">
+      <c r="F181" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G181" s="5" t="inlineStr"/>
-      <c r="H181" s="5" t="inlineStr">
+      <c r="G181" s="6" t="inlineStr"/>
+      <c r="H181" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I181" s="5" t="inlineStr">
+      <c r="I181" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B182" s="5" t="inlineStr">
+      <c r="A182" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B182" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C182" s="5" t="inlineStr">
+      <c r="C182" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D182" s="5" t="inlineStr">
+      <c r="D182" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E182" s="5" t="inlineStr">
+      <c r="E182" s="6" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F182" s="5" t="inlineStr">
+      <c r="F182" s="6" t="inlineStr">
         <is>
           <t>12:05:00</t>
         </is>
       </c>
-      <c r="G182" s="5" t="inlineStr"/>
-      <c r="H182" s="5" t="inlineStr">
+      <c r="G182" s="6" t="inlineStr"/>
+      <c r="H182" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I182" s="5" t="inlineStr">
+      <c r="I182" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B183" s="5" t="inlineStr">
+      <c r="A183" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B183" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C183" s="5" t="inlineStr">
+      <c r="C183" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D183" s="5" t="inlineStr">
+      <c r="D183" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E183" s="5" t="inlineStr">
+      <c r="E183" s="6" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F183" s="5" t="inlineStr">
+      <c r="F183" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G183" s="5" t="inlineStr"/>
-      <c r="H183" s="5" t="inlineStr">
+      <c r="G183" s="6" t="inlineStr"/>
+      <c r="H183" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I183" s="5" t="inlineStr">
+      <c r="I183" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B184" s="5" t="inlineStr">
+      <c r="A184" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B184" s="6" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C184" s="5" t="inlineStr">
+      <c r="C184" s="6" t="inlineStr">
         <is>
           <t>SURGERY SEMINAR/SLIDE</t>
         </is>
       </c>
-      <c r="D184" s="5" t="inlineStr">
+      <c r="D184" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E184" s="5" t="inlineStr">
+      <c r="E184" s="6" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F184" s="5" t="inlineStr">
+      <c r="F184" s="6" t="inlineStr">
         <is>
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G184" s="5" t="inlineStr"/>
-      <c r="H184" s="5" t="inlineStr">
+      <c r="G184" s="6" t="inlineStr"/>
+      <c r="H184" s="6" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I184" s="5" t="inlineStr">
+      <c r="I184" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
@@ -10296,131 +10316,135 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B193" s="5" t="inlineStr">
+      <c r="A193" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B193" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C193" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D193" s="5" t="inlineStr">
+      <c r="C193" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D193" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E193" s="5" t="inlineStr">
+      <c r="E193" s="6" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F193" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G193" s="5" t="inlineStr"/>
-      <c r="H193" s="5" t="inlineStr">
+      <c r="F193" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G193" s="6" t="inlineStr"/>
+      <c r="H193" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I193" s="5" t="inlineStr">
+      <c r="I193" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B194" s="5" t="inlineStr">
+      <c r="A194" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B194" s="6" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C194" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D194" s="5" t="inlineStr">
+      <c r="C194" s="6" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D194" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E194" s="5" t="inlineStr">
+      <c r="E194" s="6" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F194" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G194" s="5" t="inlineStr"/>
-      <c r="H194" s="5" t="inlineStr">
+      <c r="F194" s="6" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G194" s="6" t="inlineStr"/>
+      <c r="H194" s="6" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I194" s="5" t="inlineStr">
+      <c r="I194" s="6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B195" s="5" t="inlineStr">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C195" s="5" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D195" s="5" t="inlineStr">
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E195" s="5" t="inlineStr">
+      <c r="E195" s="2" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F195" s="5" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G195" s="5" t="inlineStr"/>
-      <c r="H195" s="5" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I195" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F195" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G195" s="2" t="inlineStr">
+        <is>
+          <t>System, dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H195" s="2" t="inlineStr">
+        <is>
+          <t>26/27</t>
+        </is>
+      </c>
+      <c r="I195" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -10472,86 +10496,86 @@
       </c>
     </row>
     <row r="1